--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="457">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,199 +26,1312 @@
     <t>Probability</t>
   </si>
   <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the saxophone in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Rigby</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Miss Jane Marple</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>the Russian revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wilson "Kingpin" Fisk</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grabbing power in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saul Goodman</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>protecting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disappointing the family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sinead O'Connor</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Reginald Jeeves</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Constantine</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Julian Assange</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>Mad Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lee Harvey Oswald</t>
+  </si>
+  <si>
+    <t>the JFK assassination and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. John Watson</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Voorhees</t>
+  </si>
+  <si>
+    <t>Friday the 13th and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jamie Oliver</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about life in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>Grunge music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Joe Dredd</t>
+  </si>
+  <si>
+    <t>Mega-City One and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting demons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genetics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>the Enlightenment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>eating donuts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding work in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working with nuclear materials in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>The Da Vinci Code and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popular fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing pot-boilers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pete Sampras</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning tennis matches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>speaking with funny accents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lenny Bruce</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Escapology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stage Magic and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing rap songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>King David</t>
+  </si>
+  <si>
+    <t>the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>Facebook and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lance Armstrong</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>Calcutta and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Martial Arts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kung Fu and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Calvin</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cubism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Le Chiffre</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>Spanish literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tilting at windmills in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>The Great Gatsby and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>throwing lavish parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Printing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
     <t>Edmund Blackadder</t>
   </si>
   <si>
     <t>the English class system and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
     <t>manipulating political pawns in Dagon-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>The Girl With The Dragon Tattoo and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scandinavian crime fiction and the Dagon mythos</t>
+    <t>Ellen Ripley</t>
+  </si>
+  <si>
+    <t>Alien and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Outer Space and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting aliens in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drinking demon blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colonel Kurtz</t>
+  </si>
+  <si>
+    <t>American politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vietnam War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Jungle and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Pixar and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toy Story and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>falling gracefully in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nazi Germany and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>barking orders at subordinates in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Federico Fellini</t>
+  </si>
+  <si>
+    <t>Italian Neo-realism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making new wave movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making Italian movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reading Cosmopolitan in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting movie violence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSI: Miami and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Police Procedurals and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
   </si>
   <si>
     <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts and Crafts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mao Tse-tung</t>
+  </si>
+  <si>
+    <t>China and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Right the Conservative Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Joan of Arc</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Weird Al Yankovic</t>
+  </si>
+  <si>
+    <t>Musical Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parody and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing parody songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>George McFly</t>
   </si>
   <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
     <t>standing up to bullies in Dagon-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Tom Cruise</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveling in time in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Croesus</t>
-  </si>
-  <si>
-    <t>Lydia and the Cthulu mythos</t>
+    <t>H.A.L. 9000</t>
+  </si>
+  <si>
+    <t>2001: A Space Odyssey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>murdering astronauts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
   </si>
   <si>
-    <t>collecting treasures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>John Keats</t>
-  </si>
-  <si>
-    <t>Romantic poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>the Age of Discovery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doris Day</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Wyatt Earp</t>
@@ -233,1150 +1346,43 @@
     <t>arresting criminals in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Fight Club and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing human fat in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Genetics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kate Moss</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Sugar</t>
+  </si>
+  <si>
+    <t>British business and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>selling consumer goods in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Edward Hyde</t>
   </si>
   <si>
     <t xml:space="preserve"> Literature and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musicals and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>Escapism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>dreaming the day away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> escaping from reality in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett Johansson</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>gurning for the camera in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling faces in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jonathan Swift</t>
-  </si>
-  <si>
-    <t>Satire and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Irish Famine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing political satires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Leno</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NBC and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing parody songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> peacocking in fancy clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dancing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>dancing to disco music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>the JFK assassination and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Blaine</t>
-  </si>
-  <si>
-    <t>Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Street Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing street magic in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>General George Patton</t>
-  </si>
-  <si>
-    <t>War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>slapping soldiers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>Miami Vice and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>raising a family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twin Peaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing weird movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maleficent</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Magic Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>poisoning an apple in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> giving speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>Gladiator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>commanding Roman legions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Wrestling and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pretending to wrestle in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretending to fight in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing sonnets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>the Frasier household and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking British food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>searching for the messiah in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raging against the machine in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing time machines in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>The Karate Kid and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching martial arts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Software business and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Eastern religion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Buddhism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lucifer</t>
-  </si>
-  <si>
-    <t>Christianity and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Satanism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>burning the wicked in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Clooney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting political causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bending spoons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing kung-fu moves in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilkins Micawber</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>incurring debts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> buying on credit in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>singing romantic songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>coasting on past glories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buddy Holly</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Motorcycle stunts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Musicals and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical Theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nazi Germany and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sarah Palin</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stewie Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting against family members in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lou Reed</t>
-  </si>
-  <si>
-    <t>The Velvet Revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monsieur Hulot</t>
-  </si>
-  <si>
-    <t>French comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>Only Fools and Horses  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>cleaning floors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing classical piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>H.A.L. 9000</t>
-  </si>
-  <si>
-    <t>2001: A Space Odyssey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>murdering astronauts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cameron Diaz</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Inspector Gadget</t>
-  </si>
-  <si>
-    <t>using gadgets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+    <t>expressing violent urges in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1452,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3957452387575494E-6</v>
+        <v>3.3850183297135224E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1466,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.738225966562902E-6</v>
+        <v>3.7253454763363093E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1480,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.112844773800436E-6</v>
+        <v>4.097509117071172E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.522362873411002E-6</v>
+        <v>4.50423611453436E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1508,189 +1514,189 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9697531184344904E-6</v>
+        <v>4.948461702656183E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.45821378772266E-6</v>
+        <v>5.4333430191517794E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.991183049361466E-6</v>
+        <v>5.96227330139672E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.572354115717751E-6</v>
+        <v>6.538896759297473E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>7.205691102406419E-6</v>
+        <v>7.167124137193073E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>7.895445601682728E-6</v>
+        <v>7.851148975080715E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>8.646173978721239E-6</v>
+        <v>8.59546457745346E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>9.462755396963363E-6</v>
+        <v>9.404881695861104E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0350410576195107E-5</v>
+        <v>1.0284546928826093E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1314721284230768E-5</v>
+        <v>1.1239961840057937E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>1.236165056001581E-5</v>
+        <v>1.2277002792938072E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3497563662637977E-5</v>
+        <v>1.3401941496022545E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4729249737126054E-5</v>
+        <v>1.4621466250784517E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6063944183975415E-5</v>
+        <v>1.594270388904459E-5</v>
       </c>
     </row>
     <row r="20">
@@ -1701,10 +1707,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>1.7509351715174778E-5</v>
+        <v>1.737324238343488E-5</v>
       </c>
     </row>
     <row r="21">
@@ -1712,13 +1718,13 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
-        <v>1.907367007495162E-5</v>
+        <v>1.892115410988534E-5</v>
       </c>
     </row>
     <row r="22">
@@ -1726,1021 +1732,1021 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>2.059501973642979E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>2.2403952707677067E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>2.4357624289022466E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>2.67026435899761E-5</v>
+        <v>2.646628912910385E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9003476384297563E-5</v>
+        <v>2.874081129315302E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
-        <v>3.148416445886696E-5</v>
+        <v>3.119269071379148E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>3.383408999935384E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>3.703525704853137E-5</v>
+        <v>3.6677861533171885E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0132520662043334E-5</v>
+        <v>3.97375747903487E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D31" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>4.302754379131174E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>4.656285460415089E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D33" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>5.0359392800090885E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>5.4433870758728684E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>5.8803854711799016E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D36" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>6.348779140620921E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D37" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>6.850503425901236E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
-        <v>7.471581459636133E-5</v>
+        <v>7.387586886887414E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
-        <v>8.053978863327286E-5</v>
+        <v>7.962153774050673E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
-        <v>8.676703454745882E-5</v>
+        <v>8.576426407044097E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D41" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>9.232727443451321E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>9.933482020978287E-5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0810990336409501E-4</v>
+        <v>1.068121975556877E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1619702961889735E-4</v>
+        <v>1.1478576577211267E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>1.232829638449836E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>1.3233232498308708E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4376778577630117E-4</v>
+        <v>1.4196348894377517E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5416167093174169E-4</v>
+        <v>1.5220721193967275E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>1.6309537391270444E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>1.7466098295807007E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>1.8693817667638163E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
-        <v>2.0262774109814285E-4</v>
+        <v>1.9996222022953484E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1664333125622978E-4</v>
+        <v>2.1376950087348282E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>2.2839751874034406E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>2.4388487364136475E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
-        <v>2.6385328661855277E-4</v>
+        <v>2.6027124766404624E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D57" t="n">
-        <v>2.814454345577968E-4</v>
+        <v>2.7759738333798904E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>2.9590505714782896E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>3.152370481759358E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>3.3563710166358354E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D61" t="n">
-        <v>3.6222982211253554E-4</v>
+        <v>3.571498872864927E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>3.852543044856518E-4</v>
+        <v>3.798209519494085E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D63" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>4.036966669151423E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D64" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>4.288241690942477E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D65" t="n">
-        <v>4.6186527173599536E-4</v>
+        <v>4.5525129633631166E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
-        <v>4.900765062127825E-4</v>
+        <v>4.8302651657777286E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>5.121988507182417E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>5.428177891159507E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>5.834283455935941E-4</v>
+        <v>5.749332016124365E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
-        <v>6.176200385996453E-4</v>
+        <v>6.085952410182002E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D71" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>6.438542400147851E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D72" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>6.807606014536064E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D73" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>7.193646820569232E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
-        <v>7.711164791283694E-4</v>
+        <v>7.597166695568324E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
-        <v>8.139269608663218E-4</v>
+        <v>8.018664533348367E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>8.458634886574501E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>8.917566546335545E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>9.538052349598539E-4</v>
+        <v>9.395941060548838E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010044086164924734</v>
+        <v>9.894231193121814E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0010570790778659696</v>
+        <v>0.0010412899326176714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011118618884990127</v>
+        <v>0.0010952395807997672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0011688008814757476</v>
+        <v>0.0011513157249711595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012279382741225003</v>
+        <v>0.0012095604774114734</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012893144841813649</v>
+        <v>0.0012700142220419194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0013529679420126832</v>
+        <v>0.001332715430904928</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0014189348993026984</v>
+        <v>0.0013977004771053014</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014872492347866757</v>
+        <v>0.0014650034447007167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0015579422575378726</v>
+        <v>0.001534655936069676</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0016310425084091577</v>
+        <v>0.001606686877320903</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0017065755602494875</v>
+        <v>0.0016811223223453658</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017845638175573234</v>
+        <v>0.0017579852561398837</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018650263162559716</v>
+        <v>0.0018372953980753462</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0019479785243192993</v>
+        <v>0.0019190690058007234</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.0020033186805171535</v>
       </c>
     </row>
     <row r="95">
@@ -2748,41 +2754,41 @@
         <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0021213949164340176</v>
+        <v>0.002090053174370589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0021792772007463573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002304857929349813</v>
+        <v>0.0022709912482669625</v>
       </c>
     </row>
     <row r="98">
@@ -2790,41 +2796,41 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.0023651913993163465</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.002461869153924323</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.002561011259868018</v>
       </c>
     </row>
     <row r="101">
@@ -2832,97 +2838,97 @@
         <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002701750672518488</v>
+        <v>0.002662599549851319</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0028071223612227136</v>
+        <v>0.0027666107866213263</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.002873016516907967</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0030250492741141777</v>
+        <v>0.0029817829350374803</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003137527109733196</v>
+        <v>0.0030928707570941905</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.0032062351064726657</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.0033218254116719748</v>
       </c>
     </row>
     <row r="108">
@@ -2930,41 +2936,41 @@
         <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.0034395853171300117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00360969757014562</v>
+        <v>0.0035594526079095745</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003732995344208734</v>
+        <v>0.0036813591489954778</v>
       </c>
     </row>
     <row r="111">
@@ -2972,41 +2978,41 @@
         <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0038582503024093273</v>
+        <v>0.0038052308399320056</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.003930987585502588</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004114293395157065</v>
+        <v>0.004058543283100624</v>
       </c>
     </row>
     <row r="114">
@@ -3014,489 +3020,489 @@
         <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004244897104735967</v>
+        <v>0.004187805827397917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00437708918840185</v>
+        <v>0.004318677132867654</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.004451053174659492</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00464580322637087</v>
+        <v>0.0045848240482678215</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0047820927825605875</v>
+        <v>0.00471987404836649</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004919506110745431</v>
+        <v>0.00485608176712593</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0050579127115655265</v>
+        <v>0.004993320212238583</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.005131456944830803</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00533715652796013</v>
+        <v>0.005270354237333852</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00547770606351855</v>
+        <v>0.005409869251329746</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005618673908734051</v>
+        <v>0.0055498542352956926</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.005690156742081676</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005901236136548027</v>
+        <v>0.005830619865883402</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0060425055103062175</v>
+        <v>0.0059710824983785216</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0061835437309159524</v>
+        <v>0.006111379603599754</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.006251342511048974</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.006390799226455579</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006603535204732891</v>
+        <v>0.0065295747594903975</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006741897674814035</v>
+        <v>0.006667491467685249</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006879139800275491</v>
+        <v>0.006804369415695399</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.006940026748978589</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007149522729426594</v>
+        <v>0.0070742800808839545</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007282290311229178</v>
+        <v>0.00720694489205731</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007413191938299091</v>
+        <v>0.0073378359410102845</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.007466767684622233</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007668646456923001</v>
+        <v>0.007593554707286954</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007792825134919523</v>
+        <v>0.007718012157347631</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00791439033056518</v>
+        <v>0.007839956189423791</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0080331581910075</v>
+        <v>0.007959204411168874</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.00807557633296982</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008261577577213214</v>
+        <v>0.008188893819050691</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008370873857188044</v>
+        <v>0.00829898153842637</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008476663225173015</v>
+        <v>0.008405667414117135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.008508783069025166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00867705101498878</v>
+        <v>0.008608164266872415</v>
       </c>
     </row>
     <row r="149">
@@ -3504,13 +3510,13 @@
         <v>205</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008771325763516913</v>
+        <v>0.00870365134657844</v>
       </c>
     </row>
     <row r="150">
@@ -3518,27 +3524,27 @@
         <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008861447122158472</v>
+        <v>0.00879508964849049</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.008882329930868654</v>
       </c>
     </row>
     <row r="152">
@@ -3546,27 +3552,27 @@
         <v>209</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.008965228775061757</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009105437034565095</v>
+        <v>0.009043648977840574</v>
       </c>
     </row>
     <row r="154">
@@ -3574,13 +3580,13 @@
         <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009177523026377254</v>
+        <v>0.009117459929385868</v>
       </c>
     </row>
     <row r="155">
@@ -3588,27 +3594,27 @@
         <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009244778062332482</v>
+        <v>0.009186537975472656</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.009250766762453053</v>
       </c>
     </row>
     <row r="157">
@@ -3616,13 +3622,13 @@
         <v>216</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009364346206881063</v>
+        <v>0.009310037563685147</v>
       </c>
     </row>
     <row r="158">
@@ -3630,27 +3636,27 @@
         <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00941645481248568</v>
+        <v>0.009364249586128442</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009463324038960608</v>
+        <v>0.009413310255897173</v>
       </c>
     </row>
     <row r="160">
@@ -3658,13 +3664,13 @@
         <v>220</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.009457135481639803</v>
       </c>
     </row>
     <row r="161">
@@ -3672,307 +3678,307 @@
         <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.00949564989469251</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009571730932812363</v>
+        <v>0.009528787065051038</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009596923750690198</v>
+        <v>0.009556489692291531</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009616563997925105</v>
+        <v>0.00957870977067601</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.009595408727770618</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009639059216773117</v>
+        <v>0.009606557536022336</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009641874816533693</v>
+        <v>0.009612136796840785</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009639059216772938</v>
+        <v>0.009612136796840956</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.009606557536022511</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009616563997924925</v>
+        <v>0.00959540872777027</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009596923750690545</v>
+        <v>0.009578709770676184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009571730932812196</v>
+        <v>0.009556489692291732</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.009528787065050663</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.009495649894692648</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009463324038960469</v>
+        <v>0.009457135481639997</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009416454812485986</v>
+        <v>0.009413310255896992</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009364346206880897</v>
+        <v>0.00936424958612847</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.0093100375636853</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009244778062332273</v>
+        <v>0.009250766762452858</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00917752302637763</v>
+        <v>0.009186537975472725</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009105437034564928</v>
+        <v>0.009117459929385938</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.00904364897784049</v>
       </c>
     </row>
     <row r="183">
@@ -3980,88 +3986,88 @@
         <v>251</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.008965228775061812</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
         <v>254</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008861447122158306</v>
+        <v>0.00888232993086871</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008771325763517246</v>
+        <v>0.00879508964849035</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
         <v>257</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008677051014988613</v>
+        <v>0.008703651346578412</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B187" t="s">
         <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.008608164266872581</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008476663225172903</v>
+        <v>0.008508783069025083</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B189" t="s">
         <v>261</v>
@@ -4070,12 +4076,12 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008370873857188293</v>
+        <v>0.008405667414117024</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" t="s">
         <v>262</v>
@@ -4084,105 +4090,105 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008261577577213075</v>
+        <v>0.008298981538426481</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.008188893819050608</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B192" t="s">
         <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D192" t="n">
-        <v>0.008033158191007306</v>
+        <v>0.00807557633296982</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B193" t="s">
         <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007914390330565513</v>
+        <v>0.00795920441116904</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0077928251349194955</v>
+        <v>0.007839956189423625</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00766864645692289</v>
+        <v>0.007718012157347576</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.0075935547072868426</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007413191938298924</v>
+        <v>0.007466767684622344</v>
       </c>
     </row>
     <row r="198">
@@ -4190,13 +4196,13 @@
         <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007282290311229511</v>
+        <v>0.0073378359410103955</v>
       </c>
     </row>
     <row r="199">
@@ -4204,27 +4210,27 @@
         <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007149522729426427</v>
+        <v>0.007206944892057088</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D200" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.0070742800808839545</v>
       </c>
     </row>
     <row r="201">
@@ -4232,13 +4238,13 @@
         <v>275</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C201" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00687913980027538</v>
+        <v>0.0069400267489788114</v>
       </c>
     </row>
     <row r="202">
@@ -4246,27 +4252,27 @@
         <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006741897674814257</v>
+        <v>0.006804369415695177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00660353520473278</v>
+        <v>0.006667491467685416</v>
       </c>
     </row>
     <row r="204">
@@ -4274,13 +4280,13 @@
         <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.006529574759490453</v>
       </c>
     </row>
     <row r="205">
@@ -4288,27 +4294,27 @@
         <v>279</v>
       </c>
       <c r="B205" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.006390799226455357</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B206" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006183543730915786</v>
+        <v>0.006251342511049085</v>
       </c>
     </row>
     <row r="207">
@@ -4316,13 +4322,13 @@
         <v>283</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006042505510306495</v>
+        <v>0.006111379603599698</v>
       </c>
     </row>
     <row r="208">
@@ -4330,209 +4336,209 @@
         <v>283</v>
       </c>
       <c r="B208" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005901236136547916</v>
+        <v>0.005971082498378466</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.005830619865883568</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005618673908733995</v>
+        <v>0.00569015674208162</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>62</v>
+        <v>287</v>
       </c>
       <c r="B211" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005477706063518772</v>
+        <v>0.0055498542352955815</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005337156527959963</v>
+        <v>0.005409869251329857</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.005270354237333907</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B214" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0050579127115654154</v>
+        <v>0.005131456944830637</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004919506110745375</v>
+        <v>0.00499332021223875</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004782092782560865</v>
+        <v>0.004856081767125819</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004645803226370759</v>
+        <v>0.004719874048366435</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.0045848240482679326</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C219" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004377089188401739</v>
+        <v>0.004451053174659492</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B220" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004244897104736134</v>
+        <v>0.004318677132867543</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004114293395157009</v>
+        <v>0.004187805827397972</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.004058543283100735</v>
       </c>
     </row>
     <row r="223">
@@ -4540,41 +4546,41 @@
         <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003858250302409383</v>
+        <v>0.003930987585502421</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0037329953442086228</v>
+        <v>0.0038052308399320056</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0036096975701456757</v>
+        <v>0.003681359148995589</v>
       </c>
     </row>
     <row r="226">
@@ -4582,41 +4588,41 @@
         <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D226" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.0035594526079094635</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.003439585317129956</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.0033218254116718082</v>
       </c>
     </row>
     <row r="229">
@@ -4624,97 +4630,97 @@
         <v>312</v>
       </c>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0031375271097330293</v>
+        <v>0.003206235106472888</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003025049274114344</v>
+        <v>0.003092870757094246</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.0029817829350375913</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B232" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D232" t="n">
-        <v>0.002807122361222769</v>
+        <v>0.0028730165169078004</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B233" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0027017506725184326</v>
+        <v>0.0027666107866213263</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.0026625995498512633</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.0025610112598680734</v>
       </c>
     </row>
     <row r="236">
@@ -4722,746 +4728,746 @@
         <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.002461869153924545</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B237" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0023048579293497573</v>
+        <v>0.0023651913993162355</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B238" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0022709912482668515</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002121394916434073</v>
+        <v>0.002179277200746392</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D240" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.0020900531743706235</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B241" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0019479785243192854</v>
+        <v>0.002003318680517084</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0018650263162560132</v>
+        <v>0.0019190690058007373</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0017845638175572956</v>
+        <v>0.0018372953980754017</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0017065755602494875</v>
+        <v>0.0017579852561398143</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B245" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0016310425084090814</v>
+        <v>0.0016811223223453797</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B246" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001557942257538008</v>
+        <v>0.0016066868773209342</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001487249234786648</v>
+        <v>0.0015346559360696309</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B248" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0014189348993026672</v>
+        <v>0.001465003444700748</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B249" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0013529679420126832</v>
+        <v>0.0013977004771053014</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0012893144841813371</v>
+        <v>0.0013327154309048968</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001227938274122528</v>
+        <v>0.0012700142220419819</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B252" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0011688008814757476</v>
+        <v>0.001209560477411456</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B253" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0011118618884990127</v>
+        <v>0.0011513157249711144</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0010570790778659696</v>
+        <v>0.0010952395807997985</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010044086164924977</v>
+        <v>0.0010412899326176922</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D256" t="n">
-        <v>9.538052349598296E-4</v>
+        <v>9.894231193121293E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D257" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>9.39594106054889E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D258" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>8.917566546335666E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B259" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C259" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D259" t="n">
-        <v>8.139269608662958E-4</v>
+        <v>8.458634886574327E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D260" t="n">
-        <v>7.711164791283955E-4</v>
+        <v>8.018664533348558E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D261" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>7.597166695568203E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B262" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D262" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>7.193646820569163E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>6.807606014536133E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>6.17620038599654E-4</v>
+        <v>6.438542400148059E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B265" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C265" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>5.834283455935854E-4</v>
+        <v>6.085952410181724E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D266" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>5.749332016124452E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D267" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>5.428177891159732E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D268" t="n">
-        <v>4.900765062127799E-4</v>
+        <v>5.121988507182105E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>4.6186527173599796E-4</v>
+        <v>4.830265165777772E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>4.552512963363316E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>4.288241690942234E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B272" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C272" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D272" t="n">
-        <v>3.8525430448564484E-4</v>
+        <v>4.036966669151501E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D273" t="n">
-        <v>3.622298221125425E-4</v>
+        <v>3.798209519494111E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B274" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C274" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D274" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>3.571498872864823E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>3.356371016635896E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B276" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>3.1523704817594273E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B277" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>2.8144543455780376E-4</v>
+        <v>2.9590505714781595E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B278" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>2.6385328661854583E-4</v>
+        <v>2.77597383337996E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B279" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>2.602712476640493E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B280" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>2.4388487364135477E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B281" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D281" t="n">
-        <v>2.16643331256225E-4</v>
+        <v>2.2839751874035143E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B282" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D282" t="n">
-        <v>2.0262774109814762E-4</v>
+        <v>2.1376950087348282E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D283" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>1.9996222022952747E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C284" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>1.869381766763851E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B285" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C285" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D285" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>1.746609829580718E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B286" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C286" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D286" t="n">
-        <v>1.541616709317469E-4</v>
+        <v>1.6309537391269923E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C287" t="s">
         <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.4376778577629597E-4</v>
+        <v>1.5220721193967687E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B288" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C288" t="s">
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>1.4196348894377799E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B289" t="s">
         <v>395</v>
@@ -5470,399 +5476,399 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>1.3233232498308014E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D290" t="n">
-        <v>1.1619702961889432E-4</v>
+        <v>1.2328296384499031E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B291" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D291" t="n">
-        <v>1.0810990336409805E-4</v>
+        <v>1.1478576577210898E-4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D292" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>1.0681219755568467E-4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B293" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D293" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>9.933482020978569E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B294" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D294" t="n">
-        <v>8.676703454745687E-5</v>
+        <v>9.232727443451495E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D295" t="n">
-        <v>8.05397886332759E-5</v>
+        <v>8.576426407043642E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D296" t="n">
-        <v>7.471581459636025E-5</v>
+        <v>7.962153774050728E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B297" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D297" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>7.387586886887566E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B298" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>6.85050342590103E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>6.348779140620921E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B300" t="s">
         <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>5.880385471180032E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>5.443387075872738E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B302" t="s">
         <v>413</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>5.035939280009273E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B303" t="s">
         <v>414</v>
       </c>
       <c r="C303" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>4.6562854604151544E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B304" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C304" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D304" t="n">
-        <v>4.013252066204409E-5</v>
+        <v>4.3027543791309244E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B305" t="s">
         <v>417</v>
       </c>
       <c r="C305" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D305" t="n">
-        <v>3.7035257048530614E-5</v>
+        <v>3.97375747903487E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B306" t="s">
         <v>418</v>
       </c>
       <c r="C306" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D306" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>3.66778615331734E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B307" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C307" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D307" t="n">
-        <v>3.14841644588662E-5</v>
+        <v>3.383408999935232E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B308" t="s">
         <v>421</v>
       </c>
       <c r="C308" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D308" t="n">
-        <v>2.9003476384299026E-5</v>
+        <v>3.1192690713792296E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B309" t="s">
         <v>422</v>
       </c>
       <c r="C309" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D309" t="n">
-        <v>2.6702643589975397E-5</v>
+        <v>2.874081129315302E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B310" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C310" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D310" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>2.6466289129103038E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B311" t="s">
         <v>425</v>
       </c>
       <c r="C311" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D311" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>2.435762428902328E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D312" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>2.2403952707676498E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D313" t="n">
-        <v>1.907367007495208E-5</v>
+        <v>2.0595019736429547E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B314" t="s">
         <v>429</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D314" t="n">
-        <v>1.7509351715174317E-5</v>
+        <v>1.8921154109885772E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B315" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D315" t="n">
-        <v>1.6063944183975415E-5</v>
+        <v>1.7373242383435288E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B316" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D316" t="n">
-        <v>1.4729249737125403E-5</v>
+        <v>1.594270388904432E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B317" t="s">
         <v>433</v>
       </c>
       <c r="C317" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D317" t="n">
-        <v>1.3497563662638953E-5</v>
+        <v>1.4621466250784219E-5</v>
       </c>
     </row>
     <row r="318">
@@ -5873,10 +5879,10 @@
         <v>435</v>
       </c>
       <c r="C318" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D318" t="n">
-        <v>1.2361650560015485E-5</v>
+        <v>1.340194149602249E-5</v>
       </c>
     </row>
     <row r="319">
@@ -5887,10 +5893,10 @@
         <v>436</v>
       </c>
       <c r="C319" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D319" t="n">
-        <v>1.1314721284230768E-5</v>
+        <v>1.2277002792937856E-5</v>
       </c>
     </row>
     <row r="320">
@@ -5901,10 +5907,10 @@
         <v>437</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D320" t="n">
-        <v>1.0350410576195107E-5</v>
+        <v>1.1239961840057937E-5</v>
       </c>
     </row>
     <row r="321">
@@ -5915,71 +5921,71 @@
         <v>439</v>
       </c>
       <c r="C321" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D321" t="n">
-        <v>9.462755396963147E-6</v>
+        <v>1.0284546928826093E-5</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B322" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D322" t="n">
-        <v>8.646173978721456E-6</v>
+        <v>9.404881695861402E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B323" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D323" t="n">
-        <v>7.895445601682728E-6</v>
+        <v>8.59546457745338E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B324" t="s">
         <v>443</v>
       </c>
       <c r="C324" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D324" t="n">
-        <v>7.205691102406419E-6</v>
+        <v>7.851148975080498E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B325" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C325" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>6.572354115717751E-6</v>
+        <v>7.16712413719329E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B326" t="s">
         <v>446</v>
@@ -5988,7 +5994,7 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>5.991183049361588E-6</v>
+        <v>6.538896759297256E-6</v>
       </c>
     </row>
     <row r="327">
@@ -5999,10 +6005,10 @@
         <v>448</v>
       </c>
       <c r="C327" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>5.458213787722538E-6</v>
+        <v>5.96227330139672E-6</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6019,10 @@
         <v>449</v>
       </c>
       <c r="C328" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>4.9697531184344904E-6</v>
+        <v>5.433343019151949E-6</v>
       </c>
     </row>
     <row r="329">
@@ -6027,10 +6033,10 @@
         <v>450</v>
       </c>
       <c r="C329" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>4.522362873410846E-6</v>
+        <v>4.948461702656136E-6</v>
       </c>
     </row>
     <row r="330">
@@ -6041,10 +6047,10 @@
         <v>452</v>
       </c>
       <c r="C330" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D330" t="n">
-        <v>4.11284477380068E-6</v>
+        <v>4.5042361145342384E-6</v>
       </c>
     </row>
     <row r="331">
@@ -6055,24 +6061,38 @@
         <v>453</v>
       </c>
       <c r="C331" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D331" t="n">
-        <v>3.738225966562814E-6</v>
+        <v>4.097509117071287E-6</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B332" t="s">
+        <v>455</v>
+      </c>
+      <c r="C332" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3.725345476336194E-6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
         <v>454</v>
       </c>
-      <c r="C332" t="s">
-        <v>6</v>
-      </c>
-      <c r="D332" t="n">
-        <v>3.3957452387575494E-6</v>
+      <c r="B333" t="s">
+        <v>456</v>
+      </c>
+      <c r="C333" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3.3850183297135224E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="453">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1363 +26,1351 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>American education and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>reading braille in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding eye contact in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
+    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>Modern Russia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bullying neighboring countries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sterling Archer</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ned Flanders</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Economics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>talking up the economy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Outback and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>eating bugs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Aristotle</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jayne Mansfield</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyra Banks</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Objective philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Objectivism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
   </si>
   <si>
     <t>Comedy and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
+    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>the Circus and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christiane Amanpour</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fox Mulder</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>postulating bizarre theories in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dining with playboy princes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing erotic fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Professor Charles Xavier</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching young mutants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Spy spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The HamBurglar</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walter White</t>
+  </si>
+  <si>
+    <t>Chrystal Meth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>promoting big business in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julius Caesar</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting serial killers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>Gladiator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>commanding Roman legions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>the Medieval world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> consolidating an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beatrix Potter</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astronomy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twin Peaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing weird movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBS and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pontius Pilate</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>obsessively washing hands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Wolfe</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about social problems in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Edison</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Modern poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mikhail Gorbachev</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>coasting on past glories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Lee Lewis</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> marrying underage girls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping accounts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing sonnets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Maguire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American football and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Al Pacino</t>
+  </si>
+  <si>
+    <t>shouting in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luciano Pavarotti</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duelling acrobatically in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>the Confectionary business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Judy Sheindlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>judging legal cases in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rooting out facts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thor Odinson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Motorcycle stunts and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing motorcycle stunts in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
+  </si>
+  <si>
+    <t>assassinating presidents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hercule Poirot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
   </si>
   <si>
     <t>pioneering new technologies in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>breaking heads in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> breaking bones in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Noam Chomsky</t>
+  </si>
+  <si>
+    <t>Linguistics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Juliet Capulet</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>watching the sun rise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nostradamus</t>
+  </si>
+  <si>
+    <t>Clairvoyance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forecasting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making vague predictions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>leaking state secrets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a hardware company in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nurse Ratched</t>
+  </si>
+  <si>
+    <t>terrorizing employees in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Wrestling and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pretending to wrestle in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pretending to fight in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>playing intense characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marco Polo</t>
+  </si>
+  <si>
+    <t>the Age of Discovery and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Jay Gould</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting fossils in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rainier Luftwaffe Wolfcastle</t>
   </si>
   <si>
     <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Escobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the saxophone in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Rockwell</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Miss Jane Marple</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>the Russian revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilson "Kingpin" Fisk</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> grabbing power in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saul Goodman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>protecting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> representing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Depp</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running film festivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Weinstein</t>
-  </si>
-  <si>
-    <t>chasing after women in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>disappointing the family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sinead O'Connor</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Reginald Jeeves</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British class politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>practicing the Occult in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Constantine</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hellraiser and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Julian Assange</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>Italian Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lee Harvey Oswald</t>
-  </si>
-  <si>
-    <t>the JFK assassination and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. John Watson</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sammy Davis Jr.</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Voorhees</t>
-  </si>
-  <si>
-    <t>Friday the 13th and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Athletics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jamie Oliver</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>cleaning floors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judge Joe Dredd</t>
-  </si>
-  <si>
-    <t>Mega-City One and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting demons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Genetics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>the Enlightenment and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>eating donuts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding work in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working with nuclear materials in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>The Da Vinci Code and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Popular fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing pot-boilers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pete Sampras</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning tennis matches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Friedrich Nietzsche</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>speaking with funny accents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>Facebook and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Britney Spears</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lance Armstrong</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mother Teresa</t>
-  </si>
-  <si>
-    <t>Calcutta and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> India and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interpreting evidence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Martial Arts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kung Fu and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Calvin</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Usain Bolt</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>Spanish literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tilting at windmills in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>The Great Gatsby and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>throwing lavish parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Printing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating political pawns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ellen Ripley</t>
-  </si>
-  <si>
-    <t>Alien and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Outer Space and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting aliens in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drinking demon blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nikola Tesla</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colonel Kurtz</t>
-  </si>
-  <si>
-    <t>American politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vietnam War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Jungle and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Pixar and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Toy Story and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>falling gracefully in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nazi Germany and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cheating and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>taking anabolic steroids in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>barking orders at subordinates in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Federico Fellini</t>
-  </si>
-  <si>
-    <t>Italian Neo-realism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making new wave movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making Italian movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reading Cosmopolitan in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting movie violence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CSI: Miami and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Police Procedurals and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mao Tse-tung</t>
-  </si>
-  <si>
-    <t>China and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Communism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boris Johnson</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Right the Conservative Party and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rosa Parks</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Joan of Arc</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Weird Al Yankovic</t>
-  </si>
-  <si>
-    <t>Musical Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Parody and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing parody songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.A.L. 9000</t>
-  </si>
-  <si>
-    <t>2001: A Space Odyssey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Homicidal computers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>murdering astronauts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>the Age of Discovery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doris Day</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>The Old West and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>arresting criminals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Sugar</t>
-  </si>
-  <si>
-    <t>British business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>selling consumer goods in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Edward Hyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>expressing violent urges in Dagon-worshipping societies</t>
+    <t>making action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>worrying about adultery in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3850183297135224E-6</v>
+        <v>3.439340876254502E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1472,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7253454763363093E-6</v>
+        <v>3.790643510085492E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.097509117071172E-6</v>
+        <v>4.1753293736275745E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1497,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.50423611453436E-6</v>
+        <v>4.596302609461321E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1508,195 +1496,195 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.948461702656183E-6</v>
+        <v>5.056692706291721E-6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4333430191517794E-6</v>
+        <v>5.559869354476413E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.96227330139672E-6</v>
+        <v>6.109458040141479E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.538896759297473E-6</v>
+        <v>6.709356393130915E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7.167124137193073E-6</v>
+        <v>7.3637513022273575E-6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>7.851148975080715E-6</v>
+        <v>8.077136809066243E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>8.59546457745346E-6</v>
+        <v>8.854332789857676E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>9.404881695861104E-6</v>
+        <v>9.70050443147774E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0284546928826093E-5</v>
+        <v>1.0621182505619821E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1239961840057937E-5</v>
+        <v>1.1622284441590715E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2277002792938072E-5</v>
+        <v>1.2710136194861872E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3401941496022545E-5</v>
+        <v>1.3891494904716363E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4621466250784517E-5</v>
+        <v>1.5173572330293074E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D19" t="n">
-        <v>1.594270388904459E-5</v>
+        <v>1.6564059049851434E-5</v>
       </c>
     </row>
     <row r="20">
@@ -1707,10 +1695,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
-        <v>1.737324238343488E-5</v>
+        <v>1.807114940337613E-5</v>
       </c>
     </row>
     <row r="21">
@@ -1718,13 +1706,13 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D21" t="n">
-        <v>1.892115410988534E-5</v>
+        <v>1.9703567153516165E-5</v>
       </c>
     </row>
     <row r="22">
@@ -1732,326 +1720,326 @@
         <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>2.059501973642979E-5</v>
+        <v>2.147059183442299E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2403952707677067E-5</v>
+        <v>2.338208575225774E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>2.4357624289022466E-5</v>
+        <v>2.544852159502435E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>2.646628912910385E-5</v>
+        <v>2.768101060285832E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2.874081129315302E-5</v>
+        <v>3.0091331243186682E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.119269071379148E-5</v>
+        <v>3.269195832789805E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3.383408999935384E-5</v>
+        <v>3.5496092502359004E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>3.6677861533171885E-5</v>
+        <v>3.851769002818819E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30" t="n">
-        <v>3.97375747903487E-5</v>
+        <v>4.177149277384383E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D31" t="n">
-        <v>4.302754379131174E-5</v>
+        <v>4.5273058318542024E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D32" t="n">
-        <v>4.656285460415089E-5</v>
+        <v>4.9038790066701244E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>5.0359392800090885E-5</v>
+        <v>5.308596726112289E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>5.4433870758728684E-5</v>
+        <v>5.743277477439021E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>5.8803854711799016E-5</v>
+        <v>6.209833254856585E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>6.348779140620921E-5</v>
+        <v>6.710272454443767E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>6.850503425901236E-5</v>
+        <v>7.246702705188341E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7.387586886887414E-5</v>
+        <v>7.821333620395817E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>7.962153774050673E-5</v>
+        <v>8.43647945277463E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>8.576426407044097E-5</v>
+        <v>9.094561635610964E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>9.232727443451321E-5</v>
+        <v>9.798111191514731E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9.933482020978287E-5</v>
+        <v>1.0549770989348988E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.068121975556877E-4</v>
+        <v>1.1352297829098014E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1478576577211267E-4</v>
+        <v>1.22085643335902E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
@@ -2060,679 +2048,679 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.232829638449836E-4</v>
+        <v>1.3121560625225788E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3233232498308708E-4</v>
+        <v>1.4094395765111632E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4196348894377517E-4</v>
+        <v>1.513029893133492E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5220721193967275E-4</v>
+        <v>1.6232620312484677E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
-        <v>72</v>
-      </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6309537391270444E-4</v>
+        <v>1.7404831691992346E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7466098295807007E-4</v>
+        <v>1.8650526698407114E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8693817667638163E-4</v>
+        <v>1.9973420696342776E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>1.9996222022953484E-4</v>
+        <v>2.1377350292551113E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1376950087348282E-4</v>
+        <v>2.2866272431428447E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>2.2839751874034406E-4</v>
+        <v>2.444426305421776E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>2.4388487364136475E-4</v>
+        <v>2.61155152961815E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.6027124766404624E-4</v>
+        <v>2.788433719632501E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2.7759738333798904E-4</v>
+        <v>2.9755148894491847E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2.9590505714782896E-4</v>
+        <v>3.1732479291228435E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>3.152370481759358E-4</v>
+        <v>3.3820962146400776E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>3.3563710166358354E-4</v>
+        <v>3.602533159341595E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D61" t="n">
-        <v>3.571498872864927E-4</v>
+        <v>3.8350417046820705E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>3.798209519494085E-4</v>
+        <v>4.080113748225296E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>4.036966669151423E-4</v>
+        <v>4.3382495069042414E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>4.288241690942477E-4</v>
+        <v>4.6099568137265064E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>4.5525129633631166E-4</v>
+        <v>4.89575034627484E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>4.8302651657777286E-4</v>
+        <v>5.196150785551253E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>5.121988507182417E-4</v>
+        <v>5.511683903905006E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" t="s">
         <v>97</v>
       </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>5.428177891159507E-4</v>
+        <v>5.842879581035073E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>5.749332016124365E-4</v>
+        <v>6.190270747282647E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>6.085952410182002E-4</v>
+        <v>6.554392253711652E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
         <v>101</v>
       </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>6.438542400147851E-4</v>
+        <v>6.935779668756688E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>6.807606014536064E-4</v>
+        <v>7.33496800151329E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>7.193646820569232E-4</v>
+        <v>7.752490352073791E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>7.597166695568324E-4</v>
+        <v>8.188876489656424E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>8.018664533348367E-4</v>
+        <v>8.644651359603628E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>8.458634886574501E-4</v>
+        <v>9.12033352073403E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B77" t="s">
         <v>109</v>
       </c>
-      <c r="B77" t="s">
-        <v>110</v>
-      </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>8.917566546335545E-4</v>
+        <v>9.616433514863382E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>9.395941060548838E-4</v>
+        <v>0.001013345217077067</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>9.894231193121814E-4</v>
+        <v>0.0010671878845213666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
         <v>113</v>
       </c>
-      <c r="B80" t="s">
-        <v>114</v>
-      </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0010412899326176714</v>
+        <v>0.0011232189604090496</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0010952395807997672</v>
+        <v>0.0011814845347205664</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0011513157249711595</v>
+        <v>0.0012420289880568508</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
         <v>117</v>
       </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012095604774114734</v>
+        <v>0.0013048947940551107</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012700142220419194</v>
+        <v>0.001370122317470128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001332715430904928</v>
+        <v>0.0014377496084407755</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
         <v>121</v>
       </c>
-      <c r="B86" t="s">
-        <v>122</v>
-      </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0013977004771053014</v>
+        <v>0.0015078121935056255</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014650034447007167</v>
+        <v>0.0015803428639741615</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001534655936069676</v>
+        <v>0.001655371462301252</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
       </c>
-      <c r="B89" t="s">
-        <v>126</v>
-      </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001606686877320903</v>
+        <v>0.0017329246671520804</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0016811223223453658</v>
+        <v>0.0018130257778851341</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017579852561398837</v>
+        <v>0.0018956944992171154</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
         <v>129</v>
       </c>
-      <c r="B92" t="s">
-        <v>130</v>
-      </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018372953980753462</v>
+        <v>0.0019809467268666822</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0019190690058007234</v>
+        <v>0.0020687943350150423</v>
       </c>
     </row>
     <row r="94">
@@ -2740,13 +2728,13 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0020033186805171535</v>
+        <v>0.0021592449664396343</v>
       </c>
     </row>
     <row r="95">
@@ -2754,27 +2742,27 @@
         <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002090053174370589</v>
+        <v>0.0022523018262118333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0021792772007463573</v>
+        <v>0.002347963479882087</v>
       </c>
     </row>
     <row r="97">
@@ -2782,13 +2770,13 @@
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0022709912482669625</v>
+        <v>0.0024462236570745866</v>
       </c>
     </row>
     <row r="98">
@@ -2796,27 +2784,27 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0023651913993163465</v>
+        <v>0.0025470710614543535</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002461869153924323</v>
+        <v>0.002650489188031957</v>
       </c>
     </row>
     <row r="100">
@@ -2824,13 +2812,13 @@
         <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002561011259868018</v>
+        <v>0.0027564561487798955</v>
       </c>
     </row>
     <row r="101">
@@ -2838,55 +2826,55 @@
         <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002662599549851319</v>
+        <v>0.0028649445075441538</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" t="s">
         <v>143</v>
       </c>
-      <c r="B102" t="s">
-        <v>144</v>
-      </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0027666107866213263</v>
+        <v>0.0029759211252270434</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002873016516907967</v>
+        <v>0.003089347016230759</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0029817829350374803</v>
+        <v>0.0032051772171140525</v>
       </c>
     </row>
     <row r="105">
@@ -2894,167 +2882,167 @@
         <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0030928707570941905</v>
+        <v>0.0033233606684278105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0032062351064726657</v>
+        <v>0.003443840110660068</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" t="s">
         <v>149</v>
       </c>
-      <c r="B107" t="s">
-        <v>151</v>
-      </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0033218254116719748</v>
+        <v>0.0035665519951937896</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0034395853171300117</v>
+        <v>0.0036914264111683193</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0035594526079095745</v>
+        <v>0.0038183870290753874</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" t="s">
         <v>153</v>
       </c>
-      <c r="B110" t="s">
-        <v>155</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0036813591489954778</v>
+        <v>0.003947351061900806</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0038052308399320056</v>
+        <v>0.004078229244562137</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003930987585502588</v>
+        <v>0.004210925832352552</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" t="s">
         <v>157</v>
       </c>
-      <c r="B113" t="s">
-        <v>159</v>
-      </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004058543283100624</v>
+        <v>0.00434533861902997</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004187805827397917</v>
+        <v>0.004481358975144789</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004318677132867654</v>
+        <v>0.004618871907119848</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004451053174659492</v>
+        <v>0.004757756137531544</v>
       </c>
     </row>
     <row r="117">
@@ -3062,13 +3050,13 @@
         <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0045848240482678215</v>
+        <v>0.0048978842069613004</v>
       </c>
     </row>
     <row r="118">
@@ -3076,27 +3064,27 @@
         <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00471987404836649</v>
+        <v>0.0050391225977095555</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00485608176712593</v>
+        <v>0.005181331879578754</v>
       </c>
     </row>
     <row r="120">
@@ -3104,13 +3092,13 @@
         <v>166</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004993320212238583</v>
+        <v>0.005324366877842712</v>
       </c>
     </row>
     <row r="121">
@@ -3118,139 +3106,139 @@
         <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005131456944830803</v>
+        <v>0.005468076863433535</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" t="s">
         <v>170</v>
       </c>
-      <c r="B122" t="s">
-        <v>171</v>
-      </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005270354237333852</v>
+        <v>0.005612305765275438</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005409869251329746</v>
+        <v>0.005756892404611802</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0055498542352956926</v>
+        <v>0.005901670751060295</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" t="s">
         <v>174</v>
       </c>
-      <c r="B125" t="s">
-        <v>175</v>
-      </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005690156742081676</v>
+        <v>0.006046470200038956</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005830619865883402</v>
+        <v>0.006191115871110042</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0059710824983785216</v>
+        <v>0.006335428926677267</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" t="s">
         <v>178</v>
       </c>
-      <c r="B128" t="s">
-        <v>179</v>
-      </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006111379603599754</v>
+        <v>0.00647922691038233</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006251342511048974</v>
+        <v>0.006622324104440358</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006390799226455579</v>
+        <v>0.006764531905059379</v>
       </c>
     </row>
     <row r="131">
@@ -3258,13 +3246,13 @@
         <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0065295747594903975</v>
+        <v>0.006905659214993698</v>
       </c>
     </row>
     <row r="132">
@@ -3272,139 +3260,139 @@
         <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006667491467685249</v>
+        <v>0.007045512852180635</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" t="s">
         <v>185</v>
       </c>
-      <c r="B133" t="s">
-        <v>186</v>
-      </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006804369415695399</v>
+        <v>0.007183897973327802</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D134" t="n">
-        <v>0.006940026748978589</v>
+        <v>0.007320618511225396</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0070742800808839545</v>
+        <v>0.007455477624476514</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" t="s">
         <v>189</v>
       </c>
-      <c r="B136" t="s">
-        <v>190</v>
-      </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00720694489205731</v>
+        <v>0.007588278158256356</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0073378359410102845</v>
+        <v>0.007718823114649553</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B138" t="s">
         <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007466767684622233</v>
+        <v>0.007846916131028003</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>190</v>
+      </c>
+      <c r="B139" t="s">
         <v>193</v>
       </c>
-      <c r="B139" t="s">
-        <v>194</v>
-      </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007593554707286954</v>
+        <v>0.007972361964885905</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007718012157347631</v>
+        <v>0.00809496698349113</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
         <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007839956189423791</v>
+        <v>0.008214539656654751</v>
       </c>
     </row>
     <row r="142">
@@ -3415,10 +3403,10 @@
         <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.007959204411168874</v>
+        <v>0.008330891050887829</v>
       </c>
     </row>
     <row r="143">
@@ -3429,10 +3417,10 @@
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00807557633296982</v>
+        <v>0.00844383532318499</v>
       </c>
     </row>
     <row r="144">
@@ -3443,10 +3431,10 @@
         <v>200</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008188893819050691</v>
+        <v>0.008553190212638118</v>
       </c>
     </row>
     <row r="145">
@@ -3457,10 +3445,10 @@
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00829898153842637</v>
+        <v>0.008658777528072564</v>
       </c>
     </row>
     <row r="146">
@@ -3471,94 +3459,94 @@
         <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008405667414117135</v>
+        <v>0.00876042362989618</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008508783069025166</v>
+        <v>0.008857959904341878</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
         <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008608164266872415</v>
+        <v>0.008951223228293254</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
         <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00870365134657844</v>
+        <v>0.009040056422915194</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00879508964849049</v>
+        <v>0.009124308694319544</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
         <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008882329930868654</v>
+        <v>0.009203836059540088</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
         <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.008965228775061757</v>
+        <v>0.009278501756140978</v>
       </c>
     </row>
     <row r="153">
@@ -3569,10 +3557,10 @@
         <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009043648977840574</v>
+        <v>0.009348176633823202</v>
       </c>
     </row>
     <row r="154">
@@ -3583,10 +3571,10 @@
         <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009117459929385868</v>
+        <v>0.009412739526461489</v>
       </c>
     </row>
     <row r="155">
@@ -3597,10 +3585,10 @@
         <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009186537975472656</v>
+        <v>0.009472077603077222</v>
       </c>
     </row>
     <row r="156">
@@ -3611,10 +3599,10 @@
         <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009250766762453053</v>
+        <v>0.009526086696319436</v>
       </c>
     </row>
     <row r="157">
@@ -3625,346 +3613,346 @@
         <v>218</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009310037563685147</v>
+        <v>0.009574671607116905</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009364249586128442</v>
+        <v>0.009617746384257955</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
         <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009413310255897173</v>
+        <v>0.009655234577745565</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B160" t="s">
         <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009457135481639803</v>
+        <v>0.009687069464880814</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.00949564989469251</v>
+        <v>0.009713194248145207</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009528787065051038</v>
+        <v>0.009733562224054727</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B163" t="s">
         <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009556489692291531</v>
+        <v>0.009748136922283426</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00957870977067601</v>
+        <v>0.009756892214480836</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B165" t="s">
         <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009595408727770618</v>
+        <v>0.00975981239232437</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B166" t="s">
         <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009606557536022336</v>
+        <v>0.009756892214481014</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009612136796840785</v>
+        <v>0.009748136922283426</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009612136796840956</v>
+        <v>0.009733562224054727</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
         <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009606557536022511</v>
+        <v>0.00971319424814538</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00959540872777027</v>
+        <v>0.009687069464880835</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009578709770676184</v>
+        <v>0.00965523457774519</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B172" t="s">
         <v>238</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009556489692291732</v>
+        <v>0.009617746384258136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009528787065050663</v>
+        <v>0.009574671607116905</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009495649894692648</v>
+        <v>0.009526086696319436</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
         <v>242</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009457135481639997</v>
+        <v>0.009472077603077417</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009413310255896992</v>
+        <v>0.009412739526461433</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
         <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00936424958612847</v>
+        <v>0.009348176633822883</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
         <v>246</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0093100375636853</v>
+        <v>0.009278501756141158</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B179" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009250766762452858</v>
+        <v>0.009203836059540088</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
         <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009186537975472725</v>
+        <v>0.009124308694319544</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
         <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009117459929385938</v>
+        <v>0.009040056422915471</v>
       </c>
     </row>
     <row r="182">
@@ -3975,10 +3963,10 @@
         <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00904364897784049</v>
+        <v>0.00895122322829306</v>
       </c>
     </row>
     <row r="183">
@@ -3989,10 +3977,10 @@
         <v>253</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008965228775061812</v>
+        <v>0.0088579599043416</v>
       </c>
     </row>
     <row r="184">
@@ -4003,10 +3991,10 @@
         <v>254</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00888232993086871</v>
+        <v>0.008760423629896374</v>
       </c>
     </row>
     <row r="185">
@@ -4017,10 +4005,10 @@
         <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00879508964849035</v>
+        <v>0.008658777528072564</v>
       </c>
     </row>
     <row r="186">
@@ -4031,10 +4019,10 @@
         <v>257</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008703651346578412</v>
+        <v>0.008553190212638118</v>
       </c>
     </row>
     <row r="187">
@@ -4045,10 +4033,10 @@
         <v>258</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008608164266872581</v>
+        <v>0.008443835323185128</v>
       </c>
     </row>
     <row r="188">
@@ -4059,10 +4047,10 @@
         <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008508783069025083</v>
+        <v>0.008330891050887829</v>
       </c>
     </row>
     <row r="189">
@@ -4073,10 +4061,10 @@
         <v>261</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008405667414117024</v>
+        <v>0.008214539656654335</v>
       </c>
     </row>
     <row r="190">
@@ -4087,10 +4075,10 @@
         <v>262</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008298981538426481</v>
+        <v>0.008094966983491408</v>
       </c>
     </row>
     <row r="191">
@@ -4101,10 +4089,10 @@
         <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008188893819050608</v>
+        <v>0.007972361964885905</v>
       </c>
     </row>
     <row r="192">
@@ -4115,10 +4103,10 @@
         <v>265</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.00807557633296982</v>
+        <v>0.007846916131028003</v>
       </c>
     </row>
     <row r="193">
@@ -4129,10 +4117,10 @@
         <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00795920441116904</v>
+        <v>0.007718823114649664</v>
       </c>
     </row>
     <row r="194">
@@ -4143,10 +4131,10 @@
         <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007839956189423625</v>
+        <v>0.007588278158256467</v>
       </c>
     </row>
     <row r="195">
@@ -4157,10 +4145,10 @@
         <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007718012157347576</v>
+        <v>0.007455477624476237</v>
       </c>
     </row>
     <row r="196">
@@ -4171,10 +4159,10 @@
         <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0075935547072868426</v>
+        <v>0.007320618511225452</v>
       </c>
     </row>
     <row r="197">
@@ -4185,10 +4173,10 @@
         <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007466767684622344</v>
+        <v>0.007183897973327802</v>
       </c>
     </row>
     <row r="198">
@@ -4199,360 +4187,360 @@
         <v>273</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0073378359410103955</v>
+        <v>0.007045512852180635</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007206944892057088</v>
+        <v>0.006905659214993809</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B200" t="s">
         <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0070742800808839545</v>
+        <v>0.006764531905059323</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B201" t="s">
         <v>277</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0069400267489788114</v>
+        <v>0.0066223241044401915</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006804369415695177</v>
+        <v>0.006479226910382441</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s">
         <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D203" t="n">
-        <v>0.006667491467685416</v>
+        <v>0.006335428926677267</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B204" t="s">
         <v>281</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006529574759490453</v>
+        <v>0.006191115871110042</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006390799226455357</v>
+        <v>0.006046470200039122</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
         <v>284</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006251342511049085</v>
+        <v>0.0059016707510602395</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006111379603599698</v>
+        <v>0.00575689240461158</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005971082498378466</v>
+        <v>0.005612305765275549</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
         <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005830619865883568</v>
+        <v>0.005468076863433535</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00569015674208162</v>
+        <v>0.005324366877842712</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0055498542352955815</v>
+        <v>0.00518133187957881</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
         <v>292</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005409869251329857</v>
+        <v>0.0050391225977095</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005270354237333907</v>
+        <v>0.004897884206961189</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
         <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D214" t="n">
-        <v>0.005131456944830637</v>
+        <v>0.004757756137531655</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
         <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00499332021223875</v>
+        <v>0.004618871907119848</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004856081767125819</v>
+        <v>0.004481358975144789</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
         <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004719874048366435</v>
+        <v>0.004345338619030026</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
         <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0045848240482679326</v>
+        <v>0.004210925832352608</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004451053174659492</v>
+        <v>0.004078229244562026</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
         <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004318677132867543</v>
+        <v>0.003947351061900806</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>301</v>
+      </c>
+      <c r="B221" t="s">
         <v>304</v>
       </c>
-      <c r="B221" t="s">
-        <v>305</v>
-      </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004187805827397972</v>
+        <v>0.0038183870290753874</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
         <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D222" t="n">
-        <v>0.004058543283100735</v>
+        <v>0.0036914264111683193</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
         <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003930987585502421</v>
+        <v>0.003566551995193734</v>
       </c>
     </row>
     <row r="224">
@@ -4563,416 +4551,416 @@
         <v>309</v>
       </c>
       <c r="C224" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0038052308399320056</v>
+        <v>0.00344384011066029</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.003681359148995589</v>
+        <v>0.003323360668427533</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C226" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0035594526079094635</v>
+        <v>0.0032051772171141635</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003439585317129956</v>
+        <v>0.003089347016230759</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0033218254116718082</v>
+        <v>0.0029759211252270434</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D229" t="n">
-        <v>0.003206235106472888</v>
+        <v>0.0028649445075439317</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B230" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003092870757094246</v>
+        <v>0.002756456148780173</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0029817829350375913</v>
+        <v>0.002650489188031735</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B232" t="s">
         <v>320</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0028730165169078004</v>
+        <v>0.00254707106145452</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0027666107866213263</v>
+        <v>0.0024462236570745866</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B234" t="s">
         <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0026625995498512633</v>
+        <v>0.002347963479882087</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B235" t="s">
         <v>324</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0025610112598680734</v>
+        <v>0.002252301826211889</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002461869153924545</v>
+        <v>0.0021592449664396135</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0023651913993162355</v>
+        <v>0.0020687943350149035</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B238" t="s">
         <v>328</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0022709912482668515</v>
+        <v>0.0019809467268667863</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002179277200746392</v>
+        <v>0.0018956944992171154</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B240" t="s">
         <v>331</v>
       </c>
       <c r="C240" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0020900531743706235</v>
+        <v>0.0018130257778851341</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B241" t="s">
         <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.002003318680517084</v>
+        <v>0.0017329246671521047</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0019190690058007373</v>
+        <v>0.001655371462301252</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
         <v>335</v>
       </c>
       <c r="C243" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0018372953980754017</v>
+        <v>0.0015803428639741164</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B244" t="s">
         <v>336</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0017579852561398143</v>
+        <v>0.0015078121935056463</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0016811223223453797</v>
+        <v>0.0014377496084407755</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
         <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0016066868773209342</v>
+        <v>0.001370122317470128</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B247" t="s">
         <v>340</v>
       </c>
       <c r="C247" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0015346559360696309</v>
+        <v>0.0013048947940551385</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D248" t="n">
-        <v>0.001465003444700748</v>
+        <v>0.0012420289880568439</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
         <v>343</v>
       </c>
       <c r="C249" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0013977004771053014</v>
+        <v>0.0011814845347205456</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B250" t="s">
         <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0013327154309048968</v>
+        <v>0.0011232189604090496</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C251" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0012700142220419819</v>
+        <v>0.0010671878845213666</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
         <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D252" t="n">
-        <v>0.001209560477411456</v>
+        <v>0.001013345217077067</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B253" t="s">
         <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0011513157249711144</v>
+        <v>9.616433514863607E-4</v>
       </c>
     </row>
     <row r="254">
@@ -4983,10 +4971,10 @@
         <v>350</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0010952395807997985</v>
+        <v>9.120333520733926E-4</v>
       </c>
     </row>
     <row r="255">
@@ -4997,192 +4985,192 @@
         <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010412899326176922</v>
+        <v>8.644651359603506E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>9.894231193121293E-4</v>
+        <v>8.188876489656424E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D257" t="n">
-        <v>9.39594106054889E-4</v>
+        <v>7.752490352073791E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B258" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D258" t="n">
-        <v>8.917566546335666E-4</v>
+        <v>7.33496800151329E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D259" t="n">
-        <v>8.458634886574327E-4</v>
+        <v>6.935779668756758E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C260" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D260" t="n">
-        <v>8.018664533348558E-4</v>
+        <v>6.554392253711461E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C261" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D261" t="n">
-        <v>7.597166695568203E-4</v>
+        <v>6.190270747282768E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B262" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C262" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D262" t="n">
-        <v>7.193646820569163E-4</v>
+        <v>5.842879581035073E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D263" t="n">
-        <v>6.807606014536133E-4</v>
+        <v>5.511683903905006E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D264" t="n">
-        <v>6.438542400148059E-4</v>
+        <v>5.196150785551253E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D265" t="n">
-        <v>6.085952410181724E-4</v>
+        <v>4.895750346274926E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C266" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D266" t="n">
-        <v>5.749332016124452E-4</v>
+        <v>4.6099568137263243E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="B267" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C267" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>5.428177891159732E-4</v>
+        <v>4.338249506904337E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>271</v>
+        <v>368</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C268" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D268" t="n">
-        <v>5.121988507182105E-4</v>
+        <v>4.080113748225296E-4</v>
       </c>
     </row>
     <row r="269">
@@ -5190,41 +5178,41 @@
         <v>368</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D269" t="n">
-        <v>4.830265165777772E-4</v>
+        <v>3.8350417046820705E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B270" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D270" t="n">
-        <v>4.552512963363316E-4</v>
+        <v>3.602533159341595E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B271" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D271" t="n">
-        <v>4.288241690942234E-4</v>
+        <v>3.3820962146401904E-4</v>
       </c>
     </row>
     <row r="272">
@@ -5232,867 +5220,797 @@
         <v>372</v>
       </c>
       <c r="B272" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C272" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>4.036966669151501E-4</v>
+        <v>3.1732479291226526E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C273" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D273" t="n">
-        <v>3.798209519494111E-4</v>
+        <v>2.975514889449263E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C274" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D274" t="n">
-        <v>3.571498872864823E-4</v>
+        <v>2.788433719632501E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B275" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C275" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D275" t="n">
-        <v>3.356371016635896E-4</v>
+        <v>2.61155152961815E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B276" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D276" t="n">
-        <v>3.1523704817594273E-4</v>
+        <v>2.444426305421776E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B277" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D277" t="n">
-        <v>2.9590505714781595E-4</v>
+        <v>2.286627243142862E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B278" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C278" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D278" t="n">
-        <v>2.77597383337996E-4</v>
+        <v>2.137735029255068E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B279" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D279" t="n">
-        <v>2.602712476640493E-4</v>
+        <v>1.9973420696343036E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B280" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D280" t="n">
-        <v>2.4388487364135477E-4</v>
+        <v>1.8650526698407114E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B281" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>2.2839751874035143E-4</v>
+        <v>1.7404831691992346E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B282" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C282" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D282" t="n">
-        <v>2.1376950087348282E-4</v>
+        <v>1.6232620312484677E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B283" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C283" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>1.9996222022952747E-4</v>
+        <v>1.5130298931335354E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>1.869381766763851E-4</v>
+        <v>1.4094395765111198E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B285" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C285" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D285" t="n">
-        <v>1.746609829580718E-4</v>
+        <v>1.3121560625225788E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B286" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C286" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D286" t="n">
-        <v>1.6309537391269923E-4</v>
+        <v>1.22085643335902E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B287" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D287" t="n">
-        <v>1.5220721193967687E-4</v>
+        <v>1.1352297829098014E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B288" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D288" t="n">
-        <v>1.4196348894377799E-4</v>
+        <v>1.0549770989348988E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D289" t="n">
-        <v>1.3233232498308014E-4</v>
+        <v>9.798111191514861E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B290" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>1.2328296384499031E-4</v>
+        <v>9.094561635610747E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B291" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D291" t="n">
-        <v>1.1478576577210898E-4</v>
+        <v>8.436479452774716E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B292" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>1.0681219755568467E-4</v>
+        <v>7.821333620395817E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B293" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>9.933482020978569E-5</v>
+        <v>7.246702705188341E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B294" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C294" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>9.232727443451495E-5</v>
+        <v>6.710272454443767E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B295" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C295" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>8.576426407043642E-5</v>
+        <v>6.209833254856585E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B296" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C296" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>7.962153774050728E-5</v>
+        <v>5.743277477438804E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C297" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>7.387586886887566E-5</v>
+        <v>5.308596726112506E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B298" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>6.85050342590103E-5</v>
+        <v>4.9038790066701244E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B299" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>6.348779140620921E-5</v>
+        <v>4.5273058318542024E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>5.880385471180032E-5</v>
+        <v>4.177149277384383E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B301" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D301" t="n">
-        <v>5.443387075872738E-5</v>
+        <v>3.851769002818949E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B302" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D302" t="n">
-        <v>5.035939280009273E-5</v>
+        <v>3.5496092502356456E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D303" t="n">
-        <v>4.6562854604151544E-5</v>
+        <v>3.26919583278993E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B304" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C304" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>4.3027543791309244E-5</v>
+        <v>3.0091331243186682E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B305" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C305" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>3.97375747903487E-5</v>
+        <v>2.768101060285832E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C306" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>3.66778615331734E-5</v>
+        <v>2.544852159502435E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B307" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C307" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>3.383408999935232E-5</v>
+        <v>2.338208575225812E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B308" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C308" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D308" t="n">
-        <v>3.1192690713792296E-5</v>
+        <v>2.147059183442261E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B309" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C309" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D309" t="n">
-        <v>2.874081129315302E-5</v>
+        <v>1.9703567153516165E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B310" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C310" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>2.6466289129103038E-5</v>
+        <v>1.807114940337613E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>2.435762428902328E-5</v>
+        <v>1.6564059049851434E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C312" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D312" t="n">
-        <v>2.2403952707676498E-5</v>
+        <v>1.5173572330293074E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B313" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C313" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D313" t="n">
-        <v>2.0595019736429547E-5</v>
+        <v>1.3891494904716824E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C314" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>1.8921154109885772E-5</v>
+        <v>1.2710136194861086E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C315" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D315" t="n">
-        <v>1.7373242383435288E-5</v>
+        <v>1.162228444159104E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B316" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C316" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D316" t="n">
-        <v>1.594270388904432E-5</v>
+        <v>1.0621182505619821E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B317" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C317" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D317" t="n">
-        <v>1.4621466250784219E-5</v>
+        <v>9.70050443147774E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C318" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D318" t="n">
-        <v>1.340194149602249E-5</v>
+        <v>8.854332789857893E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B319" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C319" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D319" t="n">
-        <v>1.2277002792937856E-5</v>
+        <v>8.077136809066026E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C320" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D320" t="n">
-        <v>1.1239961840057937E-5</v>
+        <v>7.363751302227141E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B321" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C321" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D321" t="n">
-        <v>1.0284546928826093E-5</v>
+        <v>6.709356393131132E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B322" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C322" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>9.404881695861402E-6</v>
+        <v>6.109458040141479E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B323" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C323" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>8.59546457745338E-6</v>
+        <v>5.559869354476413E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>440</v>
+        <v>181</v>
       </c>
       <c r="B324" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C324" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D324" t="n">
-        <v>7.851148975080498E-6</v>
+        <v>5.05669270629185E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>444</v>
+        <v>181</v>
       </c>
       <c r="B325" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D325" t="n">
-        <v>7.16712413719329E-6</v>
+        <v>4.5963026094613145E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B326" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D326" t="n">
-        <v>6.538896759297256E-6</v>
+        <v>4.1753293736274526E-6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D327" t="n">
-        <v>5.96227330139672E-6</v>
+        <v>3.790643510085492E-6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B328" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C328" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D328" t="n">
-        <v>5.433343019151949E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>447</v>
-      </c>
-      <c r="B329" t="s">
-        <v>450</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>4.948461702656136E-6</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>451</v>
-      </c>
-      <c r="B330" t="s">
-        <v>452</v>
-      </c>
-      <c r="C330" t="s">
-        <v>33</v>
-      </c>
-      <c r="D330" t="n">
-        <v>4.5042361145342384E-6</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>451</v>
-      </c>
-      <c r="B331" t="s">
-        <v>453</v>
-      </c>
-      <c r="C331" t="s">
-        <v>33</v>
-      </c>
-      <c r="D331" t="n">
-        <v>4.097509117071287E-6</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>454</v>
-      </c>
-      <c r="B332" t="s">
-        <v>455</v>
-      </c>
-      <c r="C332" t="s">
-        <v>18</v>
-      </c>
-      <c r="D332" t="n">
-        <v>3.725345476336194E-6</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>454</v>
-      </c>
-      <c r="B333" t="s">
-        <v>456</v>
-      </c>
-      <c r="C333" t="s">
-        <v>18</v>
-      </c>
-      <c r="D333" t="n">
-        <v>3.3850183297135224E-6</v>
+        <v>3.439340876254502E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="443">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,457 +26,1294 @@
     <t>Probability</t>
   </si>
   <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Whitney Houston</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Modern poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Woodward</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Spade</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arts and Crafts and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>Linux and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating Systems and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing open-source software in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Rambo</t>
+  </si>
+  <si>
+    <t>Vietnam War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting guerilla wars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding authorities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elton John</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>Watergate and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>talking in riddles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Gehry</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Snake Plissken</t>
+  </si>
+  <si>
+    <t>Escape From New York and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going on commando missions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting American values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Conservative Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>the Frasier household and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking British food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barney Gumble</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>drinking one's life away in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lutheranism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>recruiting dissidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dana Scully</t>
+  </si>
+  <si>
+    <t>The X-Files and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>explaining away the unexplained in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Draper</t>
+  </si>
+  <si>
+    <t>Mad Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roy Batty</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>looking for immortality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding retirement in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tomás de Torquemada</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jean-Luc Picard</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Vladimir Putin</t>
+  </si>
+  <si>
+    <t>Modern Russia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bullying neighboring countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Steven Spielberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Archie Bunker</t>
+  </si>
+  <si>
+    <t>American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morpheus</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>searching for the messiah in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>Neuro-Linguistic Programming and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Improvement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a communist country in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Zsa Zsa Gabor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>divorcing husbands in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Motorcycle stunts and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing motorcycle stunts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>fighting the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tess Durbeyfield</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>producing Hipbop records in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Goebbels</t>
+  </si>
+  <si>
+    <t>the Nazi Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>House of Cards and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting election strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plastic Surgery and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>getting plastic surgery in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take That and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Rockwell</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Springer</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting civil wars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marie Curie</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating political pawns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Motor industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Musicals and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical Theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting civil wars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Wrestling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pretending to wrestle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pretending to fight in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Rocky Balboa</t>
+  </si>
+  <si>
+    <t>Boxing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Randolph Hearst</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marc Jacobs</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>attacking paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> milking coconuts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Humphrey Bogart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Italian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Oedipus Rex</t>
+  </si>
+  <si>
+    <t>the Ancient world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King David</t>
+  </si>
+  <si>
+    <t>the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Apple Computer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>looking after children in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Pasteur</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying science in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Meghan Markle</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t>introducing cartoons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telling bad jokes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pushing shoddy merchandise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hugh Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
     <t>Helen Keller</t>
   </si>
   <si>
-    <t>American education and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>reading braille in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding eye contact in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>Modern Russia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bullying neighboring countries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Justin Bieber</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sterling Archer</t>
-  </si>
-  <si>
-    <t>Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ned Flanders</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Brian Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Economics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>talking up the economy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Meryl Streep</t>
-  </si>
-  <si>
-    <t>Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bear Grylls</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Outback and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>eating bugs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jayne Mansfield</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyra Banks</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mel Gibson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ayn Rand</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Objective philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Objectivism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making bad movie choices in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brexit and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>the Circus and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christiane Amanpour</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fox Mulder</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>postulating bizarre theories in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>divorcing husbands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dining with playboy princes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing erotic fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor Charles Xavier</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching young mutants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Spy spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bond spoofs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spy movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The HamBurglar</t>
+    <t>American education and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reading braille in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding eye contact in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>the Dictionary and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the English language and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>creating dictionaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Inspector Gadget</t>
+  </si>
+  <si>
+    <t>using gadgets in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
+  </si>
+  <si>
+    <t>solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
   </si>
   <si>
     <t>McDonalds and the Dagon mythos</t>
@@ -485,892 +1322,25 @@
     <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
   </si>
   <si>
-    <t>stealing hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rihanna</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walter White</t>
-  </si>
-  <si>
-    <t>Chrystal Meth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cooking and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jerry Seinfeld</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>promoting big business in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Father Ted</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julius Caesar</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>Gladiator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>commanding Roman legions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charlemagne</t>
-  </si>
-  <si>
-    <t>the Medieval world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> consolidating an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Van Halen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twin Peaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing weird movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBS and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pontius Pilate</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>obsessively washing hands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Wolfe</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Music industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting pop music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Edison</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Modern poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mikhail Gorbachev</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>coasting on past glories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Lee Lewis</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> marrying underage girls in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping accounts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing sonnets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American football and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Al Pacino</t>
-  </si>
-  <si>
-    <t>shouting in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luciano Pavarotti</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Yoda</t>
-  </si>
-  <si>
-    <t>fighting for the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> duelling acrobatically in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>the Confectionary business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judge Judy Sheindlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>judging legal cases in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rooting out facts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thor Odinson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Motorcycle stunts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Wilkes Booth</t>
-  </si>
-  <si>
-    <t>assassinating presidents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hercule Poirot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drawing room mysteries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>breaking heads in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> breaking bones in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading political gossip in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simone de Beauvoir</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Noam Chomsky</t>
-  </si>
-  <si>
-    <t>Linguistics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Juliet Capulet</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>watching the sun rise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ming The Merciless</t>
-  </si>
-  <si>
-    <t>running an empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nostradamus</t>
-  </si>
-  <si>
-    <t>Clairvoyance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Forecasting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making vague predictions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>leaking state secrets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Stark</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a hardware company in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nurse Ratched</t>
-  </si>
-  <si>
-    <t>terrorizing employees in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Wrestling and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pretending to wrestle in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretending to fight in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kanye West</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Crawford</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Polo</t>
-  </si>
-  <si>
-    <t>the Age of Discovery and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Jay Gould</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting fossils in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rainier Luftwaffe Wolfcastle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying science in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Helen of Troy</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>worrying about adultery in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.439340876254502E-6</v>
+        <v>3.5183862328507515E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1460,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.790643510085492E-6</v>
+        <v>3.885968531816821E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1474,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.1753293736275745E-6</v>
+        <v>4.289272382740209E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1488,7 +1458,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.596302609461321E-6</v>
+        <v>4.731475037074942E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1502,7 +1472,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.056692706291721E-6</v>
+        <v>5.216005733493587E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1516,7 +1486,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.559869354476413E-6</v>
+        <v>5.7465626678262675E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1527,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.109458040141479E-6</v>
+        <v>6.327130823784486E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1541,10 +1511,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>6.709356393130915E-6</v>
+        <v>6.962000682413035E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1555,10 +1525,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7.3637513022273575E-6</v>
+        <v>7.655787826001017E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1569,211 +1539,211 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>8.077136809066243E-6</v>
+        <v>8.41345344968297E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>8.854332789857676E-6</v>
+        <v>9.24032579111739E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>9.70050443147774E-6</v>
+        <v>1.0142122485466633E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0621182505619821E-5</v>
+        <v>1.1124973849372966E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1622284441590715E-5</v>
+        <v>1.2195447093723549E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2710136194861872E-5</v>
+        <v>1.3360571460751272E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3891494904716363E-5</v>
+        <v>1.4627864276297822E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5173572330293074E-5</v>
+        <v>1.6005357903053745E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6564059049851434E-5</v>
+        <v>1.7501627575046137E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>1.807114940337613E-5</v>
+        <v>1.912582008778413E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>1.9703567153516165E-5</v>
+        <v>2.0887683312107043E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>2.147059183442299E-5</v>
+        <v>2.2797596493019114E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.338208575225774E-5</v>
+        <v>2.4866601287633577E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.544852159502435E-5</v>
+        <v>2.7106433488679462E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.768101060285832E-5</v>
+        <v>2.9529555372024012E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1782,49 +1752,49 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.0091331243186682E-5</v>
+        <v>3.214918859818647E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>3.269195832789805E-5</v>
+        <v>3.497934758895358E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>3.5496092502359004E-5</v>
+        <v>3.803487329100125E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>3.851769002818819E-5</v>
+        <v>4.133146722875528E-5</v>
       </c>
     </row>
     <row r="30">
@@ -1835,10 +1805,10 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>4.177149277384383E-5</v>
+        <v>4.488572573884276E-5</v>
       </c>
     </row>
     <row r="31">
@@ -1849,10 +1819,10 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>4.5273058318542024E-5</v>
+        <v>4.8715174268146744E-5</v>
       </c>
     </row>
     <row r="32">
@@ -1863,10 +1833,10 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>4.9038790066701244E-5</v>
+        <v>5.283830160698281E-5</v>
       </c>
     </row>
     <row r="33">
@@ -1877,10 +1847,10 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>5.308596726112289E-5</v>
+        <v>5.727459391809868E-5</v>
       </c>
     </row>
     <row r="34">
@@ -1891,10 +1861,10 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>5.743277477439021E-5</v>
+        <v>6.204456841119423E-5</v>
       </c>
     </row>
     <row r="35">
@@ -1905,10 +1875,10 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>6.209833254856585E-5</v>
+        <v>6.716980650151971E-5</v>
       </c>
     </row>
     <row r="36">
@@ -1919,10 +1889,10 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>6.710272454443767E-5</v>
+        <v>7.267298627987057E-5</v>
       </c>
     </row>
     <row r="37">
@@ -1933,10 +1903,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>7.246702705188341E-5</v>
+        <v>7.857791410992223E-5</v>
       </c>
     </row>
     <row r="38">
@@ -1947,10 +1917,10 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>7.821333620395817E-5</v>
+        <v>8.490955515770809E-5</v>
       </c>
     </row>
     <row r="39">
@@ -1961,10 +1931,10 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>8.43647945277463E-5</v>
+        <v>9.169406264663508E-5</v>
       </c>
     </row>
     <row r="40">
@@ -1975,10 +1945,10 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>9.094561635610964E-5</v>
+        <v>9.895880562059444E-5</v>
       </c>
     </row>
     <row r="41">
@@ -1989,10 +1959,10 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>9.798111191514731E-5</v>
+        <v>1.0673239498680217E-4</v>
       </c>
     </row>
     <row r="42">
@@ -2003,10 +1973,10 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0549770989348988E-4</v>
+        <v>1.150447075994516E-4</v>
       </c>
     </row>
     <row r="43">
@@ -2017,10 +1987,10 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1352297829098014E-4</v>
+        <v>1.239269081353214E-4</v>
       </c>
     </row>
     <row r="44">
@@ -2031,10 +2001,10 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>1.22085643335902E-4</v>
+        <v>1.3341146850275433E-4</v>
       </c>
     </row>
     <row r="45">
@@ -2048,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.3121560625225788E-4</v>
+        <v>1.4353218451641477E-4</v>
       </c>
     </row>
     <row r="46">
@@ -2062,217 +2032,217 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4094395765111632E-4</v>
+        <v>1.5432418956196113E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.513029893133492E-4</v>
+        <v>1.658239649672457E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6232620312484677E-4</v>
+        <v>1.7806934678975652E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
-        <v>1.7404831691992346E-4</v>
+        <v>1.9109952872493332E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8650526698407114E-4</v>
+        <v>2.0495506083453548E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D51" t="n">
-        <v>1.9973420696342776E-4</v>
+        <v>2.1967784379208453E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1377350292551113E-4</v>
+        <v>2.3531111833918414E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2866272431428447E-4</v>
+        <v>2.5189944964692547E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.444426305421776E-4</v>
+        <v>2.694887062771288E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.61155152961815E-4</v>
+        <v>2.8812603344051304E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.788433719632501E-4</v>
+        <v>3.078598202542488E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>2.9755148894491847E-4</v>
+        <v>3.2873966070619525E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>3.1732479291228435E-4</v>
+        <v>3.5081630804258395E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
-        <v>85</v>
-      </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>3.3820962146400776E-4</v>
+        <v>3.7414162230535626E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.602533159341595E-4</v>
+        <v>3.98768510757758E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>3.8350417046820705E-4</v>
+        <v>4.24750860951683E-4</v>
       </c>
     </row>
     <row r="62">
@@ -2283,10 +2253,10 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>4.080113748225296E-4</v>
+        <v>4.521434662065815E-4</v>
       </c>
     </row>
     <row r="63">
@@ -2297,10 +2267,10 @@
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>4.3382495069042414E-4</v>
+        <v>4.8100194328869715E-4</v>
       </c>
     </row>
     <row r="64">
@@ -2311,10 +2281,10 @@
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>4.6099568137265064E-4</v>
+        <v>5.113826421019128E-4</v>
       </c>
     </row>
     <row r="65">
@@ -2325,10 +2295,10 @@
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>4.89575034627484E-4</v>
+        <v>5.433425472227936E-4</v>
       </c>
     </row>
     <row r="66">
@@ -2339,10 +2309,10 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5.196150785551253E-4</v>
+        <v>5.769391711422552E-4</v>
       </c>
     </row>
     <row r="67">
@@ -2353,10 +2323,10 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.511683903905006E-4</v>
+        <v>6.122304391001955E-4</v>
       </c>
     </row>
     <row r="68">
@@ -2367,10 +2337,10 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>5.842879581035073E-4</v>
+        <v>6.492745654354919E-4</v>
       </c>
     </row>
     <row r="69">
@@ -2381,10 +2351,10 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
-        <v>6.190270747282647E-4</v>
+        <v>6.881299214017093E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2395,10 +2365,10 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D70" t="n">
-        <v>6.554392253711652E-4</v>
+        <v>7.28854894439461E-4</v>
       </c>
     </row>
     <row r="71">
@@ -2409,10 +2379,10 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D71" t="n">
-        <v>6.935779668756688E-4</v>
+        <v>7.715077389294778E-4</v>
       </c>
     </row>
     <row r="72">
@@ -2423,10 +2393,10 @@
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D72" t="n">
-        <v>7.33496800151329E-4</v>
+        <v>8.161464184949299E-4</v>
       </c>
     </row>
     <row r="73">
@@ -2437,10 +2407,10 @@
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D73" t="n">
-        <v>7.752490352073791E-4</v>
+        <v>8.628284399589872E-4</v>
       </c>
     </row>
     <row r="74">
@@ -2454,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>8.188876489656424E-4</v>
+        <v>9.116106791113004E-4</v>
       </c>
     </row>
     <row r="75">
@@ -2468,7 +2438,7 @@
         <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>8.644651359603628E-4</v>
+        <v>9.625491984805619E-4</v>
       </c>
     </row>
     <row r="76">
@@ -2482,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>9.12033352073403E-4</v>
+        <v>0.0010156990573583213</v>
       </c>
     </row>
     <row r="77">
@@ -2493,10 +2463,10 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
-        <v>9.616433514863382E-4</v>
+        <v>0.0010711141143677286</v>
       </c>
     </row>
     <row r="78">
@@ -2507,29 +2477,29 @@
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001013345217077067</v>
+        <v>0.001128846822921973</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010671878845213666</v>
+        <v>0.0011889480199658818</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
         <v>113</v>
@@ -2538,12 +2508,12 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0011232189604090496</v>
+        <v>0.0012514667084485114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
@@ -2552,91 +2522,91 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011814845347205664</v>
+        <v>0.0013164498340262655</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0012420289880568508</v>
+        <v>0.001383942056545573</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0013048947940551107</v>
+        <v>0.0014539855169138464</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001370122317470128</v>
+        <v>0.0015266196000110165</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0014377496084407755</v>
+        <v>0.0016018806943521695</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0015078121935056255</v>
+        <v>0.001679801949259492</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0015803428639741615</v>
+        <v>0.0017604130303523167</v>
       </c>
     </row>
     <row r="88">
@@ -2647,10 +2617,10 @@
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001655371462301252</v>
+        <v>0.0018437398742088273</v>
       </c>
     </row>
     <row r="89">
@@ -2661,10 +2631,10 @@
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0017329246671520804</v>
+        <v>0.0019298044431032627</v>
       </c>
     </row>
     <row r="90">
@@ -2675,178 +2645,178 @@
         <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0018130257778851341</v>
+        <v>0.002018624480763488</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>128</v>
-      </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0018956944992171154</v>
+        <v>0.002110213270127892</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0019809467268666822</v>
+        <v>0.0022045793941353822</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0020687943350150423</v>
+        <v>0.002301726500590684</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0021592449664396343</v>
+        <v>0.0024016530722028584</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0022523018262118333</v>
+        <v>0.002504352202902127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002347963479882087</v>
+        <v>0.002609811381571403</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
       </c>
-      <c r="B97" t="s">
-        <v>136</v>
-      </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0024462236570745866</v>
+        <v>0.0027180122843385446</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0025470710614543535</v>
+        <v>0.0028289305765950012</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002650489188031957</v>
+        <v>0.002942535725905915</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" t="s">
         <v>139</v>
       </c>
-      <c r="B100" t="s">
-        <v>140</v>
-      </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0027564561487798955</v>
+        <v>0.0030587908269739117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0028649445075441538</v>
+        <v>0.0031776524398251516</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0029759211252270434</v>
+        <v>0.0032990704423652706</v>
       </c>
     </row>
     <row r="103">
@@ -2854,13 +2824,13 @@
         <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003089347016230759</v>
+        <v>0.003422987898425156</v>
       </c>
     </row>
     <row r="104">
@@ -2868,27 +2838,27 @@
         <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0032051772171140525</v>
+        <v>0.0035493409424232625</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C105" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0033233606684278105</v>
+        <v>0.0036780586816993477</v>
       </c>
     </row>
     <row r="106">
@@ -2896,13 +2866,13 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.003443840110660068</v>
+        <v>0.0038090631175646816</v>
       </c>
     </row>
     <row r="107">
@@ -2910,27 +2880,27 @@
         <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0035665519951937896</v>
+        <v>0.003942269086066208</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0036914264111683193</v>
+        <v>0.004077584219393082</v>
       </c>
     </row>
     <row r="109">
@@ -2938,13 +2908,13 @@
         <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0038183870290753874</v>
+        <v>0.00421490892881532</v>
       </c>
     </row>
     <row r="110">
@@ -2952,27 +2922,27 @@
         <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003947351061900806</v>
+        <v>0.004354136409975562</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004078229244562137</v>
+        <v>0.004495152671269431</v>
       </c>
     </row>
     <row r="112">
@@ -2980,13 +2950,13 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004210925832352552</v>
+        <v>0.004637836585995925</v>
       </c>
     </row>
     <row r="113">
@@ -2994,27 +2964,27 @@
         <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00434533861902997</v>
+        <v>0.004782059968857</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004481358975144789</v>
+        <v>0.004927687677304227</v>
       </c>
     </row>
     <row r="115">
@@ -3022,13 +2992,13 @@
         <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004618871907119848</v>
+        <v>0.005074577738137798</v>
       </c>
     </row>
     <row r="116">
@@ -3036,27 +3006,27 @@
         <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004757756137531544</v>
+        <v>0.005222581499658652</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0048978842069613004</v>
+        <v>0.005371543809573831</v>
       </c>
     </row>
     <row r="118">
@@ -3064,13 +3034,13 @@
         <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0050391225977095555</v>
+        <v>0.005521303218746221</v>
       </c>
     </row>
     <row r="119">
@@ -3078,55 +3048,55 @@
         <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005181331879578754</v>
+        <v>0.005671692210766965</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>165</v>
+      </c>
+      <c r="B120" t="s">
         <v>166</v>
       </c>
-      <c r="B120" t="s">
-        <v>167</v>
-      </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005324366877842712</v>
+        <v>0.005822537457214505</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005468076863433535</v>
+        <v>0.005973660098346545</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005612305765275438</v>
+        <v>0.006124876048853534</v>
       </c>
     </row>
     <row r="123">
@@ -3134,13 +3104,13 @@
         <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005756892404611802</v>
+        <v>0.006275996328171385</v>
       </c>
     </row>
     <row r="124">
@@ -3148,27 +3118,27 @@
         <v>169</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005901670751060295</v>
+        <v>0.006426827414750258</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006046470200038956</v>
+        <v>0.006577171623527556</v>
       </c>
     </row>
     <row r="126">
@@ -3176,13 +3146,13 @@
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006191115871110042</v>
+        <v>0.006726827505750876</v>
       </c>
     </row>
     <row r="127">
@@ -3190,27 +3160,27 @@
         <v>173</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006335428926677267</v>
+        <v>0.006875590270181808</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.00647922691038233</v>
+        <v>0.007023252224560239</v>
       </c>
     </row>
     <row r="129">
@@ -3218,13 +3188,13 @@
         <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006622324104440358</v>
+        <v>0.007169603236144129</v>
       </c>
     </row>
     <row r="130">
@@ -3232,27 +3202,27 @@
         <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006764531905059379</v>
+        <v>0.007314431209980599</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006905659214993698</v>
+        <v>0.007457522583490861</v>
       </c>
     </row>
     <row r="132">
@@ -3260,167 +3230,167 @@
         <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007045512852180635</v>
+        <v>0.007598662835826719</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007183897973327802</v>
+        <v>0.007737637010378107</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>181</v>
+      </c>
+      <c r="B134" t="s">
         <v>184</v>
       </c>
-      <c r="B134" t="s">
-        <v>186</v>
-      </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007320618511225396</v>
+        <v>0.007874230248703928</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007455477624476514</v>
+        <v>0.008008228334087708</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007588278158256356</v>
+        <v>0.008139418242835844</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007718823114649553</v>
+        <v>0.008267588701373063</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" t="s">
         <v>190</v>
       </c>
-      <c r="B138" t="s">
-        <v>192</v>
-      </c>
       <c r="C138" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007846916131028003</v>
+        <v>0.008392530747127008</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007972361964885905</v>
+        <v>0.008514038291145748</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00809496698349113</v>
+        <v>0.00863190868034952</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>193</v>
+      </c>
+      <c r="B141" t="s">
         <v>194</v>
       </c>
-      <c r="B141" t="s">
-        <v>196</v>
-      </c>
       <c r="C141" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008214539656654751</v>
+        <v>0.008745943257291028</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008330891050887829</v>
+        <v>0.008855947915272194</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00844383532318499</v>
+        <v>0.008961733646660947</v>
       </c>
     </row>
     <row r="144">
@@ -3428,223 +3398,223 @@
         <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008553190212638118</v>
+        <v>0.009063117082249522</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008658777528072564</v>
+        <v>0.009159921019506218</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00876042362989618</v>
+        <v>0.009251974937600382</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008857959904341878</v>
+        <v>0.00933911549710481</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008951223228293254</v>
+        <v>0.00942118702233502</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" t="s">
         <v>204</v>
       </c>
-      <c r="B149" t="s">
-        <v>207</v>
-      </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.009040056422915194</v>
+        <v>0.009498041964331391</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009124308694319544</v>
+        <v>0.009569541342557816</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009203836059540088</v>
+        <v>0.009635555163471046</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B152" t="s">
         <v>208</v>
       </c>
-      <c r="B152" t="s">
-        <v>211</v>
-      </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009278501756140978</v>
+        <v>0.009695962814194173</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009348176633823202</v>
+        <v>0.00975065342962661</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009412739526461489</v>
+        <v>0.009799526231429281</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155" t="s">
         <v>212</v>
       </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009472077603077222</v>
+        <v>0.009842490837431134</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009526086696319436</v>
+        <v>0.009879467540129618</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009574671607116905</v>
+        <v>0.009910387553084016</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B158" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009617746384257955</v>
+        <v>0.009935193224134203</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009655234577745565</v>
+        <v>0.00995383821452226</v>
       </c>
     </row>
     <row r="160">
@@ -3652,405 +3622,405 @@
         <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009687069464880814</v>
+        <v>0.009966287643134389</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009713194248145207</v>
+        <v>0.009972518195238004</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>221</v>
+      </c>
+      <c r="B162" t="s">
         <v>223</v>
       </c>
-      <c r="B162" t="s">
-        <v>225</v>
-      </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009733562224054727</v>
+        <v>0.009972518195238181</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009748136922283426</v>
+        <v>0.009966287643134212</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009756892214480836</v>
+        <v>0.009953838214522445</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" t="s">
         <v>227</v>
       </c>
-      <c r="B165" t="s">
-        <v>229</v>
-      </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>0.00975981239232437</v>
+        <v>0.009935193224134373</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009756892214481014</v>
+        <v>0.009910387553083662</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
         <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009748136922283426</v>
+        <v>0.009879467540129777</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" t="s">
         <v>231</v>
       </c>
-      <c r="B168" t="s">
-        <v>233</v>
-      </c>
       <c r="C168" t="s">
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009733562224054727</v>
+        <v>0.009842490837430974</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>0.00971319424814538</v>
+        <v>0.009799526231429462</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009687069464880835</v>
+        <v>0.009750653429626735</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>233</v>
+      </c>
+      <c r="B171" t="s">
         <v>235</v>
       </c>
-      <c r="B171" t="s">
-        <v>237</v>
-      </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00965523457774519</v>
+        <v>0.009695962814193868</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009617746384258136</v>
+        <v>0.009635555163471268</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009574671607116905</v>
+        <v>0.009569541342557594</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
+        <v>237</v>
+      </c>
+      <c r="B174" t="s">
         <v>239</v>
       </c>
-      <c r="B174" t="s">
-        <v>241</v>
-      </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009526086696319436</v>
+        <v>0.009498041964331502</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B175" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009472077603077417</v>
+        <v>0.009421187022335242</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009412739526461433</v>
+        <v>0.009339115497104478</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" t="s">
         <v>243</v>
       </c>
-      <c r="B177" t="s">
-        <v>245</v>
-      </c>
       <c r="C177" t="s">
         <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009348176633822883</v>
+        <v>0.009251974937600521</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009278501756141158</v>
+        <v>0.009159921019506079</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009203836059540088</v>
+        <v>0.009063117082249661</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>244</v>
+      </c>
+      <c r="B180" t="s">
         <v>247</v>
       </c>
-      <c r="B180" t="s">
-        <v>249</v>
-      </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009124308694319544</v>
+        <v>0.008961733646661113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009040056422915471</v>
+        <v>0.008855947915271889</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00895122322829306</v>
+        <v>0.008745943257291139</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" t="s">
         <v>251</v>
       </c>
-      <c r="B183" t="s">
-        <v>253</v>
-      </c>
       <c r="C183" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0088579599043416</v>
+        <v>0.00863190868034941</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008760423629896374</v>
+        <v>0.008514038291145887</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008658777528072564</v>
+        <v>0.008392530747127147</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>252</v>
+      </c>
+      <c r="B186" t="s">
         <v>255</v>
       </c>
-      <c r="B186" t="s">
-        <v>257</v>
-      </c>
       <c r="C186" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008553190212638118</v>
+        <v>0.008267588701372786</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008443835323185128</v>
+        <v>0.0081394182428359</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C188" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008330891050887829</v>
+        <v>0.008008228334087708</v>
       </c>
     </row>
     <row r="189">
@@ -4058,13 +4028,13 @@
         <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008214539656654335</v>
+        <v>0.007874230248703984</v>
       </c>
     </row>
     <row r="190">
@@ -4072,27 +4042,27 @@
         <v>259</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008094966983491408</v>
+        <v>0.007737637010378329</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007972361964885905</v>
+        <v>0.007598662835826442</v>
       </c>
     </row>
     <row r="192">
@@ -4100,13 +4070,13 @@
         <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007846916131028003</v>
+        <v>0.0074575225834909165</v>
       </c>
     </row>
     <row r="193">
@@ -4114,27 +4084,27 @@
         <v>263</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007718823114649664</v>
+        <v>0.007314431209980765</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007588278158256467</v>
+        <v>0.007169603236144073</v>
       </c>
     </row>
     <row r="195">
@@ -4142,13 +4112,13 @@
         <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007455477624476237</v>
+        <v>0.007023252224560406</v>
       </c>
     </row>
     <row r="196">
@@ -4156,69 +4126,69 @@
         <v>267</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007320618511225452</v>
+        <v>0.006875590270181475</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007183897973327802</v>
+        <v>0.0067268275057512095</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>181</v>
+      </c>
+      <c r="B198" t="s">
         <v>271</v>
       </c>
-      <c r="B198" t="s">
-        <v>273</v>
-      </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007045512852180635</v>
+        <v>0.006577171623527389</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006905659214993809</v>
+        <v>0.006426827414750258</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006764531905059323</v>
+        <v>0.006275996328171496</v>
       </c>
     </row>
     <row r="201">
@@ -4226,41 +4196,41 @@
         <v>274</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0066223241044401915</v>
+        <v>0.006124876048853256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006479226910382441</v>
+        <v>0.0059736600983466</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.006335428926677267</v>
+        <v>0.005822537457214505</v>
       </c>
     </row>
     <row r="204">
@@ -4268,195 +4238,195 @@
         <v>278</v>
       </c>
       <c r="B204" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006191115871110042</v>
+        <v>0.005671692210767021</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006046470200039122</v>
+        <v>0.005521303218746276</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C206" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0059016707510602395</v>
+        <v>0.0053715438095736645</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C207" t="s">
         <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00575689240461158</v>
+        <v>0.005222581499658707</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005612305765275549</v>
+        <v>0.005074577738137853</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>282</v>
+      </c>
+      <c r="B209" t="s">
         <v>285</v>
       </c>
-      <c r="B209" t="s">
-        <v>288</v>
-      </c>
       <c r="C209" t="s">
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005468076863433535</v>
+        <v>0.004927687677304171</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C210" t="s">
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005324366877842712</v>
+        <v>0.004782059968856944</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C211" t="s">
         <v>11</v>
       </c>
       <c r="D211" t="n">
-        <v>0.00518133187957881</v>
+        <v>0.004637836585995925</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" t="s">
         <v>289</v>
       </c>
-      <c r="B212" t="s">
-        <v>292</v>
-      </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0050391225977095</v>
+        <v>0.004495152671269598</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004897884206961189</v>
+        <v>0.004354136409975562</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004757756137531655</v>
+        <v>0.00421490892881532</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>290</v>
+      </c>
+      <c r="B215" t="s">
         <v>293</v>
       </c>
-      <c r="B215" t="s">
-        <v>296</v>
-      </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004618871907119848</v>
+        <v>0.004077584219393082</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004481358975144789</v>
+        <v>0.003942269086066041</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004345338619030026</v>
+        <v>0.0038090631175647927</v>
       </c>
     </row>
     <row r="218">
@@ -4464,41 +4434,41 @@
         <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004210925832352608</v>
+        <v>0.0036780586816992367</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004078229244562026</v>
+        <v>0.0035493409424231515</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.003947351061900806</v>
+        <v>0.0034229878984253226</v>
       </c>
     </row>
     <row r="221">
@@ -4506,573 +4476,573 @@
         <v>301</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0038183870290753874</v>
+        <v>0.003299070442365215</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0036914264111683193</v>
+        <v>0.003177652439825318</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003566551995193734</v>
+        <v>0.0030587908269738007</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B224" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D224" t="n">
-        <v>0.00344384011066029</v>
+        <v>0.002942535725905915</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C225" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D225" t="n">
-        <v>0.003323360668427533</v>
+        <v>0.0028289305765950012</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C226" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0032051772171141635</v>
+        <v>0.002718012284338489</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003089347016230759</v>
+        <v>0.002609811381571292</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0029759211252270434</v>
+        <v>0.00250435220290246</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>310</v>
+      </c>
+      <c r="B229" t="s">
         <v>313</v>
       </c>
-      <c r="B229" t="s">
-        <v>316</v>
-      </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0028649445075439317</v>
+        <v>0.0024016530722027474</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C230" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.002756456148780173</v>
+        <v>0.0023017265005906284</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002650489188031735</v>
+        <v>0.0022045793941353267</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>314</v>
+      </c>
+      <c r="B232" t="s">
         <v>317</v>
       </c>
-      <c r="B232" t="s">
-        <v>320</v>
-      </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>0.00254707106145452</v>
+        <v>0.0021102132701279266</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B233" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C233" t="s">
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0024462236570745866</v>
+        <v>0.002018624480763495</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
       </c>
       <c r="D234" t="n">
-        <v>0.002347963479882087</v>
+        <v>0.0019298044431032835</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>320</v>
+      </c>
+      <c r="B235" t="s">
         <v>321</v>
       </c>
-      <c r="B235" t="s">
-        <v>324</v>
-      </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002252301826211889</v>
+        <v>0.0018437398742088135</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C236" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0021592449664396135</v>
+        <v>0.0017604130303522682</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0020687943350149035</v>
+        <v>0.0016798019492595823</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="B238" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C238" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0019809467268667863</v>
+        <v>0.0016018806943520966</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0018956944992171154</v>
+        <v>0.001526619600011006</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>329</v>
+        <v>150</v>
       </c>
       <c r="B240" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0018130257778851341</v>
+        <v>0.0014539855169138985</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B241" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0017329246671521047</v>
+        <v>0.001383942056545514</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B242" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.001655371462301252</v>
+        <v>0.0013164498340262829</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0015803428639741164</v>
+        <v>0.0012514667084485252</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0015078121935056463</v>
+        <v>0.0011889480199658506</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B245" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C245" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0014377496084407755</v>
+        <v>0.001128846822922011</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001370122317470128</v>
+        <v>0.0010711141143676904</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B247" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C247" t="s">
         <v>11</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0013048947940551385</v>
+        <v>0.0010156990573583317</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B248" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C248" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0012420289880568439</v>
+        <v>9.625491984805896E-4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0011814845347205456</v>
+        <v>9.116106791112622E-4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C250" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0011232189604090496</v>
+        <v>8.628284399590219E-4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B251" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C251" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0010671878845213666</v>
+        <v>8.161464184948952E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B252" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C252" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>0.001013345217077067</v>
+        <v>7.715077389294934E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>9.616433514863607E-4</v>
+        <v>7.288548944394437E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B254" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>9.120333520733926E-4</v>
+        <v>6.88129921401711E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B255" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D255" t="n">
-        <v>8.644651359603506E-4</v>
+        <v>6.492745654355075E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B256" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D256" t="n">
-        <v>8.188876489656424E-4</v>
+        <v>6.122304391001799E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B257" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C257" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D257" t="n">
-        <v>7.752490352073791E-4</v>
+        <v>5.769391711422725E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B258" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C258" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D258" t="n">
-        <v>7.33496800151329E-4</v>
+        <v>5.433425472227936E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>353</v>
+      </c>
+      <c r="B259" t="s">
         <v>354</v>
       </c>
-      <c r="B259" t="s">
-        <v>357</v>
-      </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>6.935779668756758E-4</v>
+        <v>5.113826421018954E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B260" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>6.554392253711461E-4</v>
+        <v>4.810019432887145E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>6.190270747282768E-4</v>
+        <v>4.5214346620656414E-4</v>
       </c>
     </row>
     <row r="262">
@@ -5080,41 +5050,41 @@
         <v>358</v>
       </c>
       <c r="B262" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D262" t="n">
-        <v>5.842879581035073E-4</v>
+        <v>4.247508609516873E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B263" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D263" t="n">
-        <v>5.511683903905006E-4</v>
+        <v>3.9876851075777275E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B264" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D264" t="n">
-        <v>5.196150785551253E-4</v>
+        <v>3.741416223053372E-4</v>
       </c>
     </row>
     <row r="265">
@@ -5122,55 +5092,55 @@
         <v>362</v>
       </c>
       <c r="B265" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>4.895750346274926E-4</v>
+        <v>3.5081630804259176E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B266" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>4.6099568137263243E-4</v>
+        <v>3.2873966070618744E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B267" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>4.338249506904337E-4</v>
+        <v>3.078598202542549E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B268" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D268" t="n">
-        <v>4.080113748225296E-4</v>
+        <v>2.881260334405165E-4</v>
       </c>
     </row>
     <row r="269">
@@ -5178,41 +5148,41 @@
         <v>368</v>
       </c>
       <c r="B269" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C269" t="s">
         <v>11</v>
       </c>
       <c r="D269" t="n">
-        <v>3.8350417046820705E-4</v>
+        <v>2.694887062771193E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B270" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C270" t="s">
         <v>11</v>
       </c>
       <c r="D270" t="n">
-        <v>3.602533159341595E-4</v>
+        <v>2.518994496469385E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B271" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
       </c>
       <c r="D271" t="n">
-        <v>3.3820962146401904E-4</v>
+        <v>2.3531111833917113E-4</v>
       </c>
     </row>
     <row r="272">
@@ -5220,125 +5190,125 @@
         <v>372</v>
       </c>
       <c r="B272" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>3.1732479291226526E-4</v>
+        <v>2.1967784379208584E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B273" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C273" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>2.975514889449263E-4</v>
+        <v>2.0495506083454199E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B274" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C274" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>2.788433719632501E-4</v>
+        <v>1.9109952872492552E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C275" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D275" t="n">
-        <v>2.61155152961815E-4</v>
+        <v>1.7806934678976085E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
+        <v>378</v>
+      </c>
+      <c r="B276" t="s">
         <v>379</v>
       </c>
-      <c r="B276" t="s">
-        <v>381</v>
-      </c>
       <c r="C276" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D276" t="n">
-        <v>2.444426305421776E-4</v>
+        <v>1.6582396496724137E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B277" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D277" t="n">
-        <v>2.286627243142862E-4</v>
+        <v>1.5432418956196113E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>381</v>
+      </c>
+      <c r="B278" t="s">
         <v>382</v>
       </c>
-      <c r="B278" t="s">
-        <v>384</v>
-      </c>
       <c r="C278" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>2.137735029255068E-4</v>
+        <v>1.4353218451641542E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
         <v>11</v>
       </c>
       <c r="D279" t="n">
-        <v>1.9973420696343036E-4</v>
+        <v>1.3341146850275368E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B280" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C280" t="s">
         <v>11</v>
       </c>
       <c r="D280" t="n">
-        <v>1.8650526698407114E-4</v>
+        <v>1.2392690813532465E-4</v>
       </c>
     </row>
     <row r="281">
@@ -5346,181 +5316,181 @@
         <v>385</v>
       </c>
       <c r="B281" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1.7404831691992346E-4</v>
+        <v>1.1504470759944835E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B282" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1.6232620312484677E-4</v>
+        <v>1.067323949868039E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>388</v>
+      </c>
+      <c r="B283" t="s">
         <v>389</v>
       </c>
-      <c r="B283" t="s">
-        <v>391</v>
-      </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1.5130298931335354E-4</v>
+        <v>9.895880562059336E-5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B284" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1.4094395765111198E-4</v>
+        <v>9.169406264663443E-5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B285" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C285" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1.3121560625225788E-4</v>
+        <v>8.490955515770809E-5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>392</v>
+      </c>
+      <c r="B286" t="s">
         <v>393</v>
       </c>
-      <c r="B286" t="s">
-        <v>395</v>
-      </c>
       <c r="C286" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1.22085643335902E-4</v>
+        <v>7.857791410992223E-5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B287" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C287" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.1352297829098014E-4</v>
+        <v>7.26729862798723E-5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B288" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C288" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1.0549770989348988E-4</v>
+        <v>6.716980650152188E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B289" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D289" t="n">
-        <v>9.798111191514861E-5</v>
+        <v>6.204456841119033E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B290" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D290" t="n">
-        <v>9.094561635610747E-5</v>
+        <v>5.727459391810031E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>396</v>
+      </c>
+      <c r="B291" t="s">
         <v>399</v>
       </c>
-      <c r="B291" t="s">
-        <v>402</v>
-      </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D291" t="n">
-        <v>8.436479452774716E-5</v>
+        <v>5.283830160698118E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B292" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D292" t="n">
-        <v>7.821333620395817E-5</v>
+        <v>4.8715174268146744E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D293" t="n">
-        <v>7.246702705188341E-5</v>
+        <v>4.488572573884379E-5</v>
       </c>
     </row>
     <row r="294">
@@ -5528,41 +5498,41 @@
         <v>403</v>
       </c>
       <c r="B294" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>6.710272454443767E-5</v>
+        <v>4.133146722875425E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>6.209833254856585E-5</v>
+        <v>3.80348732910019E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C296" t="s">
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>5.743277477438804E-5</v>
+        <v>3.497934758895293E-5</v>
       </c>
     </row>
     <row r="297">
@@ -5570,41 +5540,41 @@
         <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>5.308596726112506E-5</v>
+        <v>3.2149188598186635E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B298" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>4.9038790066701244E-5</v>
+        <v>2.9529555372025096E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>4.5273058318542024E-5</v>
+        <v>2.7106433488678216E-5</v>
       </c>
     </row>
     <row r="300">
@@ -5612,27 +5582,27 @@
         <v>411</v>
       </c>
       <c r="B300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D300" t="n">
-        <v>4.177149277384383E-5</v>
+        <v>2.4866601287633577E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D301" t="n">
-        <v>3.851769002818949E-5</v>
+        <v>2.2797596493019114E-5</v>
       </c>
     </row>
     <row r="302">
@@ -5640,13 +5610,13 @@
         <v>415</v>
       </c>
       <c r="B302" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D302" t="n">
-        <v>3.5496092502356456E-5</v>
+        <v>2.0887683312107043E-5</v>
       </c>
     </row>
     <row r="303">
@@ -5654,237 +5624,237 @@
         <v>415</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D303" t="n">
-        <v>3.26919583278993E-5</v>
+        <v>1.912582008778527E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B304" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D304" t="n">
-        <v>3.0091331243186682E-5</v>
+        <v>1.7501627575045E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B305" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C305" t="s">
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>2.768101060285832E-5</v>
+        <v>1.6005357903054043E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>419</v>
+      </c>
+      <c r="B306" t="s">
         <v>421</v>
       </c>
-      <c r="B306" t="s">
-        <v>423</v>
-      </c>
       <c r="C306" t="s">
         <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>2.544852159502435E-5</v>
+        <v>1.4627864276297523E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B307" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C307" t="s">
         <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>2.338208575225812E-5</v>
+        <v>1.3360571460751543E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
+        <v>423</v>
+      </c>
+      <c r="B308" t="s">
         <v>424</v>
       </c>
-      <c r="B308" t="s">
-        <v>426</v>
-      </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D308" t="n">
-        <v>2.147059183442261E-5</v>
+        <v>1.2195447093723671E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B309" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D309" t="n">
-        <v>1.9703567153516165E-5</v>
+        <v>1.1124973849372573E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D310" t="n">
-        <v>1.807114940337613E-5</v>
+        <v>1.0142122485466918E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>425</v>
+      </c>
+      <c r="B311" t="s">
         <v>428</v>
       </c>
-      <c r="B311" t="s">
-        <v>430</v>
-      </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D311" t="n">
-        <v>1.6564059049851434E-5</v>
+        <v>9.240325791117106E-6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D312" t="n">
-        <v>1.5173572330293074E-5</v>
+        <v>8.41345344968316E-6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D313" t="n">
-        <v>1.3891494904716824E-5</v>
+        <v>7.655787826001126E-6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
+        <v>429</v>
+      </c>
+      <c r="B314" t="s">
         <v>432</v>
       </c>
-      <c r="B314" t="s">
-        <v>434</v>
-      </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D314" t="n">
-        <v>1.2710136194861086E-5</v>
+        <v>6.9620006824127364E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B315" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D315" t="n">
-        <v>1.162228444159104E-5</v>
+        <v>6.327130823784696E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B316" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C316" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D316" t="n">
-        <v>1.0621182505619821E-5</v>
+        <v>5.746562667826057E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>433</v>
+      </c>
+      <c r="B317" t="s">
         <v>436</v>
       </c>
-      <c r="B317" t="s">
-        <v>438</v>
-      </c>
       <c r="C317" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D317" t="n">
-        <v>9.70050443147774E-6</v>
+        <v>5.216005733493587E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C318" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>8.854332789857893E-6</v>
+        <v>4.731475037075064E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>8.077136809066026E-6</v>
+        <v>4.289272382740087E-6</v>
       </c>
     </row>
     <row r="320">
@@ -5892,125 +5862,27 @@
         <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C320" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>7.363751302227141E-6</v>
+        <v>3.885968531816882E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B321" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C321" t="s">
         <v>11</v>
       </c>
       <c r="D321" t="n">
-        <v>6.709356393131132E-6</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>443</v>
-      </c>
-      <c r="B322" t="s">
-        <v>445</v>
-      </c>
-      <c r="C322" t="s">
-        <v>11</v>
-      </c>
-      <c r="D322" t="n">
-        <v>6.109458040141479E-6</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>443</v>
-      </c>
-      <c r="B323" t="s">
-        <v>446</v>
-      </c>
-      <c r="C323" t="s">
-        <v>11</v>
-      </c>
-      <c r="D323" t="n">
-        <v>5.559869354476413E-6</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>181</v>
-      </c>
-      <c r="B324" t="s">
-        <v>447</v>
-      </c>
-      <c r="C324" t="s">
-        <v>11</v>
-      </c>
-      <c r="D324" t="n">
-        <v>5.05669270629185E-6</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>181</v>
-      </c>
-      <c r="B325" t="s">
-        <v>448</v>
-      </c>
-      <c r="C325" t="s">
-        <v>11</v>
-      </c>
-      <c r="D325" t="n">
-        <v>4.5963026094613145E-6</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>449</v>
-      </c>
-      <c r="B326" t="s">
-        <v>450</v>
-      </c>
-      <c r="C326" t="s">
-        <v>24</v>
-      </c>
-      <c r="D326" t="n">
-        <v>4.1753293736274526E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>449</v>
-      </c>
-      <c r="B327" t="s">
-        <v>451</v>
-      </c>
-      <c r="C327" t="s">
-        <v>24</v>
-      </c>
-      <c r="D327" t="n">
-        <v>3.790643510085492E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>449</v>
-      </c>
-      <c r="B328" t="s">
-        <v>452</v>
-      </c>
-      <c r="C328" t="s">
-        <v>24</v>
-      </c>
-      <c r="D328" t="n">
-        <v>3.439340876254502E-6</v>
+        <v>3.5183862328506905E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="446">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,127 +26,1261 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
+    <t>Violet Baudelaire</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Seth MacFarlane</t>
+  </si>
+  <si>
+    <t>Family Guy and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> the New world and the Cthulu-Dagon mythos</t>
+    <t>making vulgar jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>smoking during recess in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Conservative Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Joey Tribbiani</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Montgomery Burns</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>releasing the hounds in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> counting money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Smith</t>
+  </si>
+  <si>
+    <t>Capitalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting capitalism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chuck Norris</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Huckleberry Finn</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American South and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>growing up poor in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Jong-Il</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>organizing armed robberies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Sparrow</t>
+  </si>
+  <si>
+    <t>Pirates of the Carribean and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>collecting pirate booty in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Springsteen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>David Copperfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Research Area and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Research Activity in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sammy Davis Jr.</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>chasing starlets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Spacey</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hugh Hefner</t>
+  </si>
+  <si>
+    <t>Playboy Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Macbeth</t>
+  </si>
+  <si>
+    <t>British politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Real Estate and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>investing in real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jackson Pollock</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abstract painting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Apolitical Cartoons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Far Side and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bart Simpson</t>
+  </si>
+  <si>
+    <t>Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Salvador Dali</t>
+  </si>
+  <si>
+    <t>Surrealism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>painting surreal pictures in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Percy Percy</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James T. Kirk</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Bond</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dave Lee Roth</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Severus Snape</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Catherine The Great</t>
+  </si>
+  <si>
+    <t>Russian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russian history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leroy Jethro Gibbs</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>Regional Radio and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting radio shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mahatma Gandhi</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indian independence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting racial harmony in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sun Tzu</t>
+  </si>
+  <si>
+    <t>The Art of War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Richard III</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lucille Ball</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mayor Joe Quimby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Roosevelt</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Cook</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Lynch</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twin Peaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing weird movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fencing stolen goods in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Gibson</t>
+  </si>
+  <si>
+    <t>making antisemitic remarks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Glenn Beck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>Cross-Dressing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>fawning on the boss in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currying favour in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coco Chanel</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>Punk rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing punk rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Chinese philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Liza Minnelli</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing interns in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Lloyd Wright</t>
+  </si>
+  <si>
+    <t>American architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Piano music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> composing classical music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t>appearing in infomercials in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rooting out spies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Australia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drag and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross-Dressing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>Nickelodeon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a fast-food business in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Wayne Gretzky</t>
+  </si>
+  <si>
+    <t>Ice Hockey and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing ice hockey in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ernest Hemingway</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing short stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Whitney Houston</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Modern poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Derek Zoolander</t>
-  </si>
-  <si>
-    <t>Fashion and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> casting magic spells in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Byron</t>
+  </si>
+  <si>
+    <t>English poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>the Law and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>German literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>telling tall tales in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Marty McFly</t>
@@ -155,1192 +1289,67 @@
     <t>Back To The Future and the Dagon mythos</t>
   </si>
   <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Woodward</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>King Arthur</t>
-  </si>
-  <si>
-    <t>British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> leading armies into battle in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sam Spade</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts and Crafts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>Linux and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operating Systems and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing open-source software in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Rambo</t>
-  </si>
-  <si>
-    <t>Vietnam War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting guerilla wars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding authorities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elton John</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deep Throat</t>
-  </si>
-  <si>
-    <t>Watergate and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>talking in riddles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Gehry</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Snake Plissken</t>
-  </si>
-  <si>
-    <t>Escape From New York and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going on commando missions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting American values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>Fairy Tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Thatcher</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Conservative Party and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>the Frasier household and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking British food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barney Gumble</t>
+    <t xml:space="preserve"> traveling in time in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marge Simpson</t>
   </si>
   <si>
     <t>The Simpsons and the Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>drinking one's life away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martin Luther</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lutheranism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>recruiting dissidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dana Scully</t>
-  </si>
-  <si>
-    <t>The X-Files and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining away the unexplained in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> investigating alien abductions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Draper</t>
-  </si>
-  <si>
-    <t>Mad Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Advertising Industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roy Batty</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>looking for immortality in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding retirement in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tomás de Torquemada</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Inquisition and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>extracting confessions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jean-Luc Picard</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Vladimir Putin</t>
-  </si>
-  <si>
-    <t>Modern Russia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bullying neighboring countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Silvio Berlusconi</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steven Spielberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> producing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Archie Bunker</t>
-  </si>
-  <si>
-    <t>American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Working Class and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about liberals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>searching for the messiah in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Robbins</t>
-  </si>
-  <si>
-    <t>Neuro-Linguistic Programming and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Improvement and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zsa Zsa Gabor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>divorcing husbands in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting alimony in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Motorcycle stunts and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tess Durbeyfield</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Z</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>producing Hipbop records in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Goebbels</t>
-  </si>
-  <si>
-    <t>the Nazi Party and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plastic Surgery and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>getting plastic surgery in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>George Bernard Shaw</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Take That and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Rockwell</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Traditional art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting folksy pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Springer</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting civil wars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marie Curie</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating political pawns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Musicals and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical Theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting civil wars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hulk Hogan</t>
-  </si>
-  <si>
-    <t>Wrestling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pretending to wrestle in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pretending to fight in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Rocky Balboa</t>
-  </si>
-  <si>
-    <t>Boxing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Randolph Hearst</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> publishing newspapers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
+    <t>raising a family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu mythos</t>
   </si>
   <si>
     <t>writing mystery stories in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Marc Jacobs</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>attacking paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>retiring replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making home-made clothes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> milking coconuts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Italian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Oedipus Rex</t>
-  </si>
-  <si>
-    <t>the Ancient world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>Apple Computer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mary Poppins</t>
-  </si>
-  <si>
-    <t>looking after children in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Louis Pasteur</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying science in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Meghan Markle</t>
-  </si>
-  <si>
-    <t>British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Richards</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wolfgang Amadeus Mozart</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>composing classical music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing the piano in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
-  </si>
-  <si>
-    <t>introducing cartoons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telling bad jokes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pushing shoddy merchandise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hugh Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Helen Keller</t>
-  </si>
-  <si>
-    <t>American education and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>reading braille in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding eye contact in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samuel Johnson</t>
-  </si>
-  <si>
-    <t>the Dictionary and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the English language and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>creating dictionaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Inspector Gadget</t>
-  </si>
-  <si>
-    <t>using gadgets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Fiona</t>
-  </si>
-  <si>
-    <t>waiting for a hero in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>KFC and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5183862328507515E-6</v>
+        <v>3.506872512021471E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1430,7 +1439,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.885968531816821E-6</v>
+        <v>3.872060726875886E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1444,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.289272382740209E-6</v>
+        <v>4.2726233567390184E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1458,7 +1467,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.731475037074942E-6</v>
+        <v>4.711696729505832E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1472,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.216005733493587E-6</v>
+        <v>5.19266513171943E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1486,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7465626678262675E-6</v>
+        <v>5.719177455935902E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1497,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>6.327130823784486E-6</v>
+        <v>6.2951646900829075E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1511,10 +1520,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.962000682413035E-6</v>
+        <v>6.924858266331123E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1525,10 +1534,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7.655787826001017E-6</v>
+        <v>7.612809284864689E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1539,178 +1548,178 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.41345344968297E-6</v>
+        <v>8.363908625496784E-6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>9.24032579111739E-6</v>
+        <v>9.183407957334265E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0142122485466633E-5</v>
+        <v>1.0076941653615261E-5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1124973849372966E-5</v>
+        <v>1.1050549615421803E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2195447093723549E-5</v>
+        <v>1.2110701004199842E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3360571460751272E-5</v>
+        <v>1.3264318878880983E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4627864276297822E-5</v>
+        <v>1.4518805728847315E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6005357903053745E-5</v>
+        <v>1.5882069889107273E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7501627575046137E-5</v>
+        <v>1.736255281868017E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>1.912582008778413E-5</v>
+        <v>1.896925721752159E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0887683312107043E-5</v>
+        <v>2.0711775951117757E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2797596493019114E-5</v>
+        <v>2.2600321745378475E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>2.4866601287633577E-5</v>
+        <v>2.464575760746391E-5</v>
       </c>
     </row>
     <row r="24">
@@ -1721,10 +1730,10 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D24" t="n">
-        <v>2.7106433488679462E-5</v>
+        <v>2.685962792077387E-5</v>
       </c>
     </row>
     <row r="25">
@@ -1735,113 +1744,113 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D25" t="n">
-        <v>2.9529555372024012E-5</v>
+        <v>2.925419015459128E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.214918859818647E-5</v>
+        <v>3.1842447120592854E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.497934758895358E-5</v>
+        <v>3.463817969995384E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3.803487329100125E-5</v>
+        <v>3.765597995569666E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>4.133146722875528E-5</v>
+        <v>4.091128453572314E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>4.488572573884276E-5</v>
+        <v>4.4420408262229455E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>4.8715174268146744E-5</v>
+        <v>4.8200577793325425E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>5.283830160698281E-5</v>
+        <v>5.226996523234107E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -1850,12 +1859,12 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>5.727459391809868E-5</v>
+        <v>5.664772154993108E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -1864,362 +1873,362 @@
         <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>6.204456841119423E-5</v>
+        <v>6.135400967336314E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>6.716980650151971E-5</v>
+        <v>6.641003708650242E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>7.267298627987057E-5</v>
+        <v>7.183808777317345E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>7.857791410992223E-5</v>
+        <v>7.766155332547076E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>8.490955515770809E-5</v>
+        <v>8.39049630277425E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>9.169406264663508E-5</v>
+        <v>9.059401271591843E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>9.895880562059444E-5</v>
+        <v>9.775559220124089E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0673239498680217E-4</v>
+        <v>1.0541781103680608E-4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.150447075994516E-4</v>
+        <v>1.1361002239513728E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.239269081353214E-4</v>
+        <v>1.2236284481511174E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3341146850275433E-4</v>
+        <v>1.3170818156718026E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4353218451641477E-4</v>
+        <v>1.4167923737695948E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>1.5432418956196113E-4</v>
+        <v>1.523105322391602E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.658239649672457E-4</v>
+        <v>1.636379120461282E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.7806934678975652E-4</v>
+        <v>1.7569855574921635E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1.9109952872493332E-4</v>
+        <v>1.8853097876479286E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>2.0495506083453548E-4</v>
+        <v>2.0217503233296722E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>2.1967784379208453E-4</v>
+        <v>2.166718985330122E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>2.3531111833918414E-4</v>
+        <v>2.320640806576903E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>2.5189944964692547E-4</v>
+        <v>2.4839538864798467E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>2.694887062771288E-4</v>
+        <v>2.657109192899447E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.8812603344051304E-4</v>
+        <v>2.8405703087849106E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>3.078598202542488E-4</v>
+        <v>3.034813120562172E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>3.2873966070619525E-4</v>
+        <v>3.2403254454128807E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>3.5081630804258395E-4</v>
+        <v>3.4576065946649234E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>3.7414162230535626E-4</v>
+        <v>3.6871668706037544E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
@@ -2228,189 +2237,189 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.98768510757758E-4</v>
+        <v>3.929526994137988E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>4.24750860951683E-4</v>
+        <v>4.1852174608832636E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>4.521434662065815E-4</v>
+        <v>4.4547778233904305E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>4.8100194328869715E-4</v>
+        <v>4.73875589742781E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>5.113826421019128E-4</v>
+        <v>5.037706890422579E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>5.433425472227936E-4</v>
+        <v>5.352192450405E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>5.769391711422552E-4</v>
+        <v>5.682779634038123E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>6.122304391001955E-4</v>
+        <v>6.03003979259437E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>6.492745654354919E-4</v>
+        <v>6.394547375034622E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>6.881299214017093E-4</v>
+        <v>6.77687864766888E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>7.28854894439461E-4</v>
+        <v>7.1776103302045E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>7.715077389294778E-4</v>
+        <v>7.597318148373552E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>8.161464184949299E-4</v>
+        <v>8.036575303695549E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>8.628284399589872E-4</v>
+        <v>8.49595086133732E-4</v>
       </c>
     </row>
     <row r="74">
@@ -2418,13 +2427,13 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>9.116106791113004E-4</v>
+        <v>8.976008057472885E-4</v>
       </c>
     </row>
     <row r="75">
@@ -2432,265 +2441,265 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>9.625491984805619E-4</v>
+        <v>9.47730252796767E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0010156990573583213</v>
+        <v>0.0010000380460665273</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0010711141143677286</v>
+        <v>0.0010545776674051148</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001128846822921973</v>
+        <v>0.001111401262552849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0011889480199658818</v>
+        <v>0.0011705594353035136</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0012514667084485114</v>
+        <v>0.0012321010354255507</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0013164498340262655</v>
+        <v>0.0012960729408155666</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001383942056545573</v>
+        <v>0.0013625198344120737</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0014539855169138464</v>
+        <v>0.001431483976444544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0015266196000110165</v>
+        <v>0.001503004972646306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0016018806943521695</v>
+        <v>0.0015771195391101195</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001679801949259492</v>
+        <v>0.001653861264514056</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0017604130303523167</v>
+        <v>0.0017332603704917071</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0018437398742088273</v>
+        <v>0.0018153434709732436</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0019298044431032627</v>
+        <v>0.0019001333313615407</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002018624480763488</v>
+        <v>0.0019876486284554143</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002110213270127892</v>
+        <v>0.002077903712071033</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0022045793941353822</v>
+        <v>0.0021709083693450468</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002301726500590684</v>
+        <v>0.0022666675927487875</v>
       </c>
     </row>
     <row r="94">
@@ -2698,41 +2707,41 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0024016530722028584</v>
+        <v>0.002365181352853629</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002504352202902127</v>
+        <v>0.0024664443769396582</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.002609811381571403</v>
+        <v>0.0025704459345320396</v>
       </c>
     </row>
     <row r="97">
@@ -2740,41 +2749,41 @@
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0027180122843385446</v>
+        <v>0.002677169630995846</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0028289305765950012</v>
+        <v>0.002786593210309496</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002942535725905915</v>
+        <v>0.0028986883681608733</v>
       </c>
     </row>
     <row r="100">
@@ -2782,41 +2791,41 @@
         <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0030587908269739117</v>
+        <v>0.0030134205764960065</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0031776524398251516</v>
+        <v>0.0031307489206668926</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0032990704423652706</v>
+        <v>0.00325062595029163</v>
       </c>
     </row>
     <row r="103">
@@ -2824,41 +2833,41 @@
         <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003422987898425156</v>
+        <v>0.0033729975449436345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0035493409424232625</v>
+        <v>0.0034978027957559</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0036780586816993477</v>
+        <v>0.003624973903991857</v>
       </c>
     </row>
     <row r="106">
@@ -2866,41 +2875,41 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0038090631175646816</v>
+        <v>0.0037544360976202173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003942269086066208</v>
+        <v>0.0038861075668593648</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004077584219393082</v>
+        <v>0.004019899419638706</v>
       </c>
     </row>
     <row r="109">
@@ -2908,41 +2917,41 @@
         <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00421490892881532</v>
+        <v>0.004155715657848724</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
         <v>11</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004354136409975562</v>
+        <v>0.004293453175204076</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004495152671269431</v>
+        <v>0.004433001777465362</v>
       </c>
     </row>
     <row r="112">
@@ -2950,41 +2959,41 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004637836585995925</v>
+        <v>0.00457424422570446</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004782059968857</v>
+        <v>0.004717056303211897</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004927687677304227</v>
+        <v>0.004861306906554508</v>
       </c>
     </row>
     <row r="115">
@@ -2992,69 +3001,69 @@
         <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005074577738137798</v>
+        <v>0.005006858161219041</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005222581499658652</v>
+        <v>0.005153565562164064</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.005371543809573831</v>
+        <v>0.005301278139511034</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005521303218746221</v>
+        <v>0.005449838649504879</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005671692210766965</v>
+        <v>0.00559908379075813</v>
       </c>
     </row>
     <row r="120">
@@ -3062,41 +3071,41 @@
         <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005822537457214505</v>
+        <v>0.005748844445687573</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005973660098346545</v>
+        <v>0.005898945946941514</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006124876048853534</v>
+        <v>0.006049208368488823</v>
       </c>
     </row>
     <row r="123">
@@ -3104,41 +3113,41 @@
         <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>0.006275996328171385</v>
+        <v>0.006199446840936262</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006426827414750258</v>
+        <v>0.006349471890517655</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0.006577171623527556</v>
+        <v>0.0064990898010719444</v>
       </c>
     </row>
     <row r="126">
@@ -3146,41 +3155,41 @@
         <v>173</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006726827505750876</v>
+        <v>0.006648102998227878</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B127" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006875590270181808</v>
+        <v>0.0067963104548721676</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.007023252224560239</v>
+        <v>0.006943508116884323</v>
       </c>
     </row>
     <row r="129">
@@ -3188,433 +3197,433 @@
         <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>0.007169603236144129</v>
+        <v>0.007089489347995248</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007314431209980599</v>
+        <v>0.007234045392520316</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007457522583490861</v>
+        <v>0.007376965854611617</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007598662835826719</v>
+        <v>0.007518039192579207</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007737637010378107</v>
+        <v>0.007657053226718724</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007874230248703928</v>
+        <v>0.007793795659012226</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008008228334087708</v>
+        <v>0.007928054602967471</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008139418242835844</v>
+        <v>0.008059619121799783</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008267588701373063</v>
+        <v>0.008188279773074625</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008392530747127008</v>
+        <v>0.008313829157883701</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008514038291145748</v>
+        <v>0.008436062472565342</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00863190868034952</v>
+        <v>0.008554778060936546</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.008745943257291028</v>
+        <v>0.00866977796497509</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008855947915272194</v>
+        <v>0.008780868471863407</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008961733646660947</v>
+        <v>0.008887860655289126</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D144" t="n">
-        <v>0.009063117082249522</v>
+        <v>0.00899057090889796</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D145" t="n">
-        <v>0.009159921019506218</v>
+        <v>0.009088821469797698</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>0.009251974937600382</v>
+        <v>0.009182440930032731</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00933911549710481</v>
+        <v>0.00927126473397108</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00942118702233502</v>
+        <v>0.009355135659592506</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.009498041964331391</v>
+        <v>0.00943390428170425</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009569541342557816</v>
+        <v>0.009507429415183358</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009635555163471046</v>
+        <v>0.009575578536399926</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009695962814194173</v>
+        <v>0.00963822818106734</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>0.00975065342962661</v>
+        <v>0.009695264316844698</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009799526231429281</v>
+        <v>0.00974658268911989</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B155" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009842490837431134</v>
+        <v>0.009792089138505933</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009879467540129618</v>
+        <v>0.009831699888695644</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009910387553084016</v>
+        <v>0.009865341803445907</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009935193224134203</v>
+        <v>0.00989295261158566</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.00995383821452226</v>
+        <v>0.009914481099079695</v>
       </c>
     </row>
     <row r="160">
@@ -3622,251 +3631,251 @@
         <v>219</v>
       </c>
       <c r="B160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009966287643134389</v>
+        <v>0.009929887267319366</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009972518195238004</v>
+        <v>0.00993914245695497</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009972518195238181</v>
+        <v>0.009942229436733133</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009966287643134212</v>
+        <v>0.009939142456954972</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009953838214522445</v>
+        <v>0.009929887267319358</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009935193224134373</v>
+        <v>0.009914481099079706</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009910387553083662</v>
+        <v>0.00989295261158564</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009879467540129777</v>
+        <v>0.00986534180344592</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009842490837430974</v>
+        <v>0.009831699888695616</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B169" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009799526231429462</v>
+        <v>0.009792089138505919</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009750653429626735</v>
+        <v>0.009746582689119918</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009695962814193868</v>
+        <v>0.009695264316844698</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009635555163471268</v>
+        <v>0.00963822818106734</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009569541342557594</v>
+        <v>0.009575578536399953</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009498041964331502</v>
+        <v>0.009507429415183288</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009421187022335242</v>
+        <v>0.009433904281704292</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009339115497104478</v>
+        <v>0.00935513565959245</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009251974937600521</v>
+        <v>0.009271264733971163</v>
       </c>
     </row>
     <row r="178">
@@ -3874,41 +3883,41 @@
         <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009159921019506079</v>
+        <v>0.00918244093003276</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009063117082249661</v>
+        <v>0.009088821469797698</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008961733646661113</v>
+        <v>0.008990570908897932</v>
       </c>
     </row>
     <row r="181">
@@ -3916,111 +3925,111 @@
         <v>248</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008855947915271889</v>
+        <v>0.008887860655289126</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008745943257291139</v>
+        <v>0.008780868471863462</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B183" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00863190868034941</v>
+        <v>0.008669777964975062</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008514038291145887</v>
+        <v>0.008554778060936546</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C185" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008392530747127147</v>
+        <v>0.008436062472565342</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008267588701372786</v>
+        <v>0.008313829157883701</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B187" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0081394182428359</v>
+        <v>0.008188279773074625</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008008228334087708</v>
+        <v>0.008059619121799755</v>
       </c>
     </row>
     <row r="189">
@@ -4028,41 +4037,41 @@
         <v>259</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007874230248703984</v>
+        <v>0.007928054602967527</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B190" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007737637010378329</v>
+        <v>0.00779379565901217</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007598662835826442</v>
+        <v>0.007657053226718891</v>
       </c>
     </row>
     <row r="192">
@@ -4070,41 +4079,41 @@
         <v>263</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0074575225834909165</v>
+        <v>0.007518039192579096</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007314431209980765</v>
+        <v>0.007376965854611672</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007169603236144073</v>
+        <v>0.007234045392520205</v>
       </c>
     </row>
     <row r="195">
@@ -4112,1539 +4121,1539 @@
         <v>267</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007023252224560406</v>
+        <v>0.007089489347995248</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>0.006875590270181475</v>
+        <v>0.006943508116884489</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0067268275057512095</v>
+        <v>0.0067963104548720565</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006577171623527389</v>
+        <v>0.006648102998227934</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006426827414750258</v>
+        <v>0.006499089801072</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="B200" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006275996328171496</v>
+        <v>0.0063494718905173775</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C201" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006124876048853256</v>
+        <v>0.0061994468409363734</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0059736600983466</v>
+        <v>0.006049208368488934</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.005822537457214505</v>
+        <v>0.0058989459469415695</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005671692210767021</v>
+        <v>0.005748844445687518</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B205" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C205" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005521303218746276</v>
+        <v>0.005599083790758075</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0053715438095736645</v>
+        <v>0.005449838649504879</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B207" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005222581499658707</v>
+        <v>0.005301278139511034</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B208" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005074577738137853</v>
+        <v>0.005153565562164231</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.004927687677304171</v>
+        <v>0.0050068581612189855</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C210" t="s">
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.004782059968856944</v>
+        <v>0.004861306906554341</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B211" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
         <v>11</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004637836585995925</v>
+        <v>0.004717056303211953</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B212" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>0.004495152671269598</v>
+        <v>0.00457424422570446</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004354136409975562</v>
+        <v>0.004433001777465473</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B214" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D214" t="n">
-        <v>0.00421490892881532</v>
+        <v>0.004293453175203965</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B215" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004077584219393082</v>
+        <v>0.004155715657848835</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D216" t="n">
-        <v>0.003942269086066041</v>
+        <v>0.004019899419638651</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0038090631175647927</v>
+        <v>0.0038861075668594203</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C218" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0036780586816992367</v>
+        <v>0.0037544360976203284</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B219" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0035493409424231515</v>
+        <v>0.0036249739039919127</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0034229878984253226</v>
+        <v>0.003497802795755567</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.003299070442365215</v>
+        <v>0.0033729975449439675</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003177652439825318</v>
+        <v>0.0032506259502913526</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0030587908269738007</v>
+        <v>0.0031307489206671146</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C224" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.002942535725905915</v>
+        <v>0.0030134205764956734</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B225" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0028289305765950012</v>
+        <v>0.002898688368160929</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B226" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D226" t="n">
-        <v>0.002718012284338489</v>
+        <v>0.002786593210309607</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002609811381571292</v>
+        <v>0.002677169630995624</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B228" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C228" t="s">
         <v>11</v>
       </c>
       <c r="D228" t="n">
-        <v>0.00250435220290246</v>
+        <v>0.0025704459345322617</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0024016530722027474</v>
+        <v>0.0024664443769397137</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0023017265005906284</v>
+        <v>0.002365181352853518</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0022045793941353267</v>
+        <v>0.002266667592748871</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B232" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C232" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0021102132701279266</v>
+        <v>0.002170908369345033</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002018624480763495</v>
+        <v>0.002077903712071061</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0019298044431032835</v>
+        <v>0.0019876486284553935</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0018437398742088135</v>
+        <v>0.0019001333313615615</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B236" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0017604130303522682</v>
+        <v>0.0018153434709732089</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B237" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C237" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0016798019492595823</v>
+        <v>0.0017332603704917245</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="B238" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0016018806943520966</v>
+        <v>0.0016538612645140768</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D239" t="n">
-        <v>0.001526619600011006</v>
+        <v>0.0015771195391101368</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0014539855169138985</v>
+        <v>0.0015030049726462782</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B241" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D241" t="n">
-        <v>0.001383942056545514</v>
+        <v>0.001431483976444544</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B242" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0013164498340262829</v>
+        <v>0.0013625198344120945</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B243" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0012514667084485252</v>
+        <v>0.0012960729408155666</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C244" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0011889480199658506</v>
+        <v>0.0012321010354255507</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B245" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C245" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D245" t="n">
-        <v>0.001128846822922011</v>
+        <v>0.0011705594353035136</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B246" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C246" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0010711141143676904</v>
+        <v>0.001111401262552849</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C247" t="s">
         <v>11</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0010156990573583317</v>
+        <v>0.0010545776674051148</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>9.625491984805896E-4</v>
+        <v>0.0010000380460665273</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B249" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C249" t="s">
         <v>11</v>
       </c>
       <c r="D249" t="n">
-        <v>9.116106791112622E-4</v>
+        <v>9.47730252796767E-4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C250" t="s">
         <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>8.628284399590219E-4</v>
+        <v>8.976008057472885E-4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C251" t="s">
         <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>8.161464184948952E-4</v>
+        <v>8.49595086133732E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B252" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
-        <v>7.715077389294934E-4</v>
+        <v>8.036575303695549E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>7.288548944394437E-4</v>
+        <v>7.597318148373552E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D254" t="n">
-        <v>6.88129921401711E-4</v>
+        <v>7.1776103302045E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B255" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C255" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>6.492745654355075E-4</v>
+        <v>6.77687864766888E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B256" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>6.122304391001799E-4</v>
+        <v>6.394547375034622E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B257" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C257" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D257" t="n">
-        <v>5.769391711422725E-4</v>
+        <v>6.03003979259437E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B258" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C258" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D258" t="n">
-        <v>5.433425472227936E-4</v>
+        <v>5.682779634038123E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D259" t="n">
-        <v>5.113826421018954E-4</v>
+        <v>5.352192450405E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>4.810019432887145E-4</v>
+        <v>5.037706890422579E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>4.5214346620656414E-4</v>
+        <v>4.73875589742781E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C262" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>4.247508609516873E-4</v>
+        <v>4.4547778233904305E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C263" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>3.9876851075777275E-4</v>
+        <v>4.1852174608832636E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C264" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>3.741416223053372E-4</v>
+        <v>3.929526994137988E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B265" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>3.5081630804259176E-4</v>
+        <v>3.6871668706037544E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C266" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D266" t="n">
-        <v>3.2873966070618744E-4</v>
+        <v>3.4576065946649234E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C267" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>3.078598202542549E-4</v>
+        <v>3.2403254454128807E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C268" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D268" t="n">
-        <v>2.881260334405165E-4</v>
+        <v>3.034813120562172E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>2.694887062771193E-4</v>
+        <v>2.8405703087849106E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B270" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>2.518994496469385E-4</v>
+        <v>2.657109192899447E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B271" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>2.3531111833917113E-4</v>
+        <v>2.4839538864798467E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B272" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>2.1967784379208584E-4</v>
+        <v>2.320640806576903E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>2.0495506083454199E-4</v>
+        <v>2.166718985330122E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1.9109952872492552E-4</v>
+        <v>2.0217503233296722E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B275" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C275" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D275" t="n">
-        <v>1.7806934678976085E-4</v>
+        <v>1.8853097876479286E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C276" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D276" t="n">
-        <v>1.6582396496724137E-4</v>
+        <v>1.7569855574921635E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B277" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C277" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D277" t="n">
-        <v>1.5432418956196113E-4</v>
+        <v>1.636379120461282E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B278" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D278" t="n">
-        <v>1.4353218451641542E-4</v>
+        <v>1.523105322391602E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C279" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>1.3341146850275368E-4</v>
+        <v>1.4167923737695948E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B280" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1.2392690813532465E-4</v>
+        <v>1.3170818156718026E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B281" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1.1504470759944835E-4</v>
+        <v>1.2236284481511174E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1.067323949868039E-4</v>
+        <v>1.1361002239513728E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B283" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>9.895880562059336E-5</v>
+        <v>1.0541781103680608E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>9.169406264663443E-5</v>
+        <v>9.775559220124089E-5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B285" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>8.490955515770809E-5</v>
+        <v>9.059401271591843E-5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B286" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C286" t="s">
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>7.857791410992223E-5</v>
+        <v>8.39049630277425E-5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>7.26729862798723E-5</v>
+        <v>7.766155332547076E-5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B288" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D288" t="n">
-        <v>6.716980650152188E-5</v>
+        <v>7.183808777317345E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B289" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C289" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D289" t="n">
-        <v>6.204456841119033E-5</v>
+        <v>6.641003708650242E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B290" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C290" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>5.727459391810031E-5</v>
+        <v>6.135400967336314E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B291" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C291" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D291" t="n">
-        <v>5.283830160698118E-5</v>
+        <v>5.664772154993108E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C292" t="s">
         <v>11</v>
       </c>
       <c r="D292" t="n">
-        <v>4.8715174268146744E-5</v>
+        <v>5.226996523234107E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B293" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C293" t="s">
         <v>11</v>
       </c>
       <c r="D293" t="n">
-        <v>4.488572573884379E-5</v>
+        <v>4.8200577793325425E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B294" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D294" t="n">
-        <v>4.133146722875425E-5</v>
+        <v>4.4420408262229455E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D295" t="n">
-        <v>3.80348732910019E-5</v>
+        <v>4.091128453572314E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D296" t="n">
-        <v>3.497934758895293E-5</v>
+        <v>3.765597995569666E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C297" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>3.2149188598186635E-5</v>
+        <v>3.463817969995384E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B298" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>2.9529555372025096E-5</v>
+        <v>3.1842447120592854E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>173</v>
       </c>
       <c r="B299" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D299" t="n">
-        <v>2.7106433488678216E-5</v>
+        <v>2.925419015459128E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>411</v>
+        <v>173</v>
       </c>
       <c r="B300" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C300" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>2.4866601287633577E-5</v>
+        <v>2.685962792077387E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>413</v>
+        <v>173</v>
       </c>
       <c r="B301" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D301" t="n">
-        <v>2.2797596493019114E-5</v>
+        <v>2.464575760746391E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C302" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>2.0887683312107043E-5</v>
+        <v>2.2600321745378475E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B303" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C303" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>1.912582008778527E-5</v>
+        <v>2.0711775951117757E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B304" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C304" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>1.7501627575045E-5</v>
+        <v>1.896925721752159E-5</v>
       </c>
     </row>
     <row r="305">
@@ -5652,13 +5661,13 @@
         <v>419</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1.6005357903054043E-5</v>
+        <v>1.736255281868017E-5</v>
       </c>
     </row>
     <row r="306">
@@ -5666,27 +5675,27 @@
         <v>419</v>
       </c>
       <c r="B306" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>1.4627864276297523E-5</v>
+        <v>1.5882069889107273E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B307" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1.3360571460751543E-5</v>
+        <v>1.4518805728847315E-5</v>
       </c>
     </row>
     <row r="308">
@@ -5694,195 +5703,209 @@
         <v>423</v>
       </c>
       <c r="B308" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C308" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1.2195447093723671E-5</v>
+        <v>1.3264318878880983E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B309" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C309" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>1.1124973849372573E-5</v>
+        <v>1.2110701004199842E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B310" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C310" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>1.0142122485466918E-5</v>
+        <v>1.1050549615421803E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B311" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C311" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>9.240325791117106E-6</v>
+        <v>1.0076941653615261E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B312" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C312" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D312" t="n">
-        <v>8.41345344968316E-6</v>
+        <v>9.183407957334265E-6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B313" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C313" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>7.655787826001126E-6</v>
+        <v>8.363908625496784E-6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B314" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C314" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D314" t="n">
-        <v>6.9620006824127364E-6</v>
+        <v>7.612809284864689E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C315" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D315" t="n">
-        <v>6.327130823784696E-6</v>
+        <v>6.924858266331123E-6</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B316" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C316" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D316" t="n">
-        <v>5.746562667826057E-6</v>
+        <v>6.2951646900829075E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B317" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C317" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>5.216005733493587E-6</v>
+        <v>5.719177455935902E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B318" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>4.731475037075064E-6</v>
+        <v>5.19266513171943E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B319" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D319" t="n">
-        <v>4.289272382740087E-6</v>
+        <v>4.711696729505832E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B320" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
         <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>3.885968531816882E-6</v>
+        <v>4.2726233567390184E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B321" t="s">
+        <v>444</v>
+      </c>
+      <c r="C321" t="s">
+        <v>11</v>
+      </c>
+      <c r="D321" t="n">
+        <v>3.872060726875886E-6</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
         <v>442</v>
       </c>
-      <c r="C321" t="s">
-        <v>11</v>
-      </c>
-      <c r="D321" t="n">
-        <v>3.5183862328506905E-6</v>
+      <c r="B322" t="s">
+        <v>445</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3.506872512021471E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="452">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,37 +26,457 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Violet Baudelaire</t>
+    <t>Rudy Giuliani</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dominique Strauss-Kahn</t>
+  </si>
+  <si>
+    <t>French politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t>throwing sex parties in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clarice Starling</t>
+  </si>
+  <si>
+    <t>Silence of the Lambs and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>hunting serial killers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>The Joker</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Peter Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making silly decisions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Leia Organa</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>leading the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ariel Sharon</t>
+  </si>
+  <si>
+    <t>Israeli politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>building giant walls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>Fight Club and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing human fat in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating Peking duck in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dan Brown</t>
+  </si>
+  <si>
+    <t>The Da Vinci Code and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Popular fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing pot-boilers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing protest songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Winona Ryder</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Hasselhoff</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baywatch and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Morty Smith</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lenny Bruce</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>Nerd culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
   </si>
   <si>
     <t>Children's tales and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Seth MacFarlane</t>
-  </si>
-  <si>
-    <t>Family Guy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>making vulgar jokes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making vulgar cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Antonio Salieri</t>
+  </si>
+  <si>
+    <t>18th-Century Vienna and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opera and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a communist country in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Kasparov</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beatrix Potter</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willie Nelson</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John McClane</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing hostages in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding capture in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ella Fitzgerald</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genetics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Selma Bouvier</t>
   </si>
   <si>
     <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
@@ -65,1291 +485,889 @@
     <t xml:space="preserve"> Springfield and the Dagon mythos</t>
   </si>
   <si>
-    <t>smoking during recess in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Thatcher</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Conservative Party and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Joey Tribbiani</t>
+    <t>smoking Laramie Hi-Tars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlie Parker</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Miller</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing erotic fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Smith</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mariah Carey</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing comic books in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Borat! and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Andy Warhol</t>
+  </si>
+  <si>
+    <t>Modern painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>The Usual Suspects and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noam Chomsky</t>
+  </si>
+  <si>
+    <t>Linguistics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groundskeeper Willie MacDougal</t>
+  </si>
+  <si>
+    <t>cleaning floors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shatner</t>
+  </si>
+  <si>
+    <t>Star Trek and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting greed in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Napoleon Solo</t>
+  </si>
+  <si>
+    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Commander Data</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Underwood</t>
+  </si>
+  <si>
+    <t>House of Cards and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>plotting election strategies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Euclid</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nicolaus Copernicus</t>
+  </si>
+  <si>
+    <t>Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Footloose and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Few Good Men and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>forming new social connections in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Redford</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t>appearing in infomercials in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sylvia Plath</t>
+  </si>
+  <si>
+    <t>Modern poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marlon Brando</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
   </si>
   <si>
     <t>Friends and the Dagon mythos</t>
   </si>
   <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> acting off-off-Broadway in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Montgomery Burns</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>releasing the hounds in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> counting money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
-    <t>Capitalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting capitalism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Willy Wonka</t>
+  </si>
+  <si>
+    <t>the Confectionary business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Leonardo Da Vinci</t>
+  </si>
+  <si>
+    <t>the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Audrey Hepburn</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
   </si>
   <si>
     <t>American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chuck Norris</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rocket Raccoon</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mrs. Doubtfire</t>
+  </si>
+  <si>
+    <t>Housekeeping and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family life and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eating bacon cheeseburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
   </si>
   <si>
     <t>American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Huckleberry Finn</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American South and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>growing up poor in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Jong-Il</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>organizing armed robberies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Sparrow</t>
-  </si>
-  <si>
-    <t>Pirates of the Carribean and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>collecting pirate booty in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commanding a pirate ship in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Springsteen</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Research Area and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Research Activity in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sammy Davis Jr.</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>John F. Kennedy</t>
-  </si>
-  <si>
-    <t>chasing starlets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying into a rage in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Spacey</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Maximus Decimus Meridius</t>
+  </si>
+  <si>
+    <t>Gladiator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>commanding Roman legions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam West</t>
+  </si>
+  <si>
+    <t>wearing tights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Palin</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nelson Muntz</t>
+  </si>
+  <si>
+    <t>bullying schoolkids in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Benedict XVI</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a tech giant in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alfred Nobel</t>
+  </si>
+  <si>
+    <t>Chemistry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting pacifism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Soros</t>
+  </si>
+  <si>
+    <t>Hedge Funds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Speculation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>managing hedge funds in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Nickelodeon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Victor Meldrew</t>
+  </si>
+  <si>
+    <t>Modern Britain and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about everything in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karen Carpenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> losing weight in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Columbo</t>
   </si>
   <si>
     <t>Detective fiction and the Dagon mythos</t>
   </si>
   <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Errol Flynn</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hugh Hefner</t>
-  </si>
-  <si>
-    <t>Playboy Magazine and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting in duels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Macbeth</t>
-  </si>
-  <si>
-    <t>British politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Real Estate and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>investing in real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jackson Pollock</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Abstract painting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Apolitical Cartoons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Far Side and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bart Simpson</t>
-  </si>
-  <si>
-    <t>Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Salvador Dali</t>
-  </si>
-  <si>
-    <t>Surrealism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>painting surreal pictures in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Waits</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Escobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Percy Percy</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dating supermodels in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James T. Kirk</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Obi-wan Kenobi</t>
-  </si>
-  <si>
-    <t>fighting for the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Harrison</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Bond</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mi6 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dave Lee Roth</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lizzy Bennet</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Catherine The Great</t>
-  </si>
-  <si>
-    <t>Russian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Russian history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leroy Jethro Gibbs</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+    <t>solving crimes in Dagon-worshipping societies</t>
   </si>
   <si>
     <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>Regional Radio and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mahatma Gandhi</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indian independence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting racial harmony in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sun Tzu</t>
-  </si>
-  <si>
-    <t>The Art of War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient military history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lucille Ball</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>starring in sit-coms in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in madcap comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Roosevelt</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Cook</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>opening new markets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exploring foreign countries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Lynch</t>
-  </si>
-  <si>
-    <t>Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Twin Peaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing weird movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fencing stolen goods in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mel Gibson</t>
-  </si>
-  <si>
-    <t>making antisemitic remarks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Glenn Beck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>Cross-Dressing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>fawning on the boss in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> currying favour in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coco Chanel</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>Punk rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing punk rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scandalizing polite society in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Chinese philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Liza Minnelli</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing interns in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Lloyd Wright</t>
-  </si>
-  <si>
-    <t>American architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern architecture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>designing modern buildings in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Wagner</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> composing classical music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t>appearing in infomercials in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>Mi6 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rooting out spies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Australia and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drag and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cross-Dressing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mr. Krabs</t>
-  </si>
-  <si>
-    <t>Nickelodeon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a fast-food business in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>Ice Hockey and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing ice hockey in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing short stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>The Big Bang Theory and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Merlin</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> casting magic spells in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>the Roman Empire and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing citizens in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lord Byron</t>
-  </si>
-  <si>
-    <t>English poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing romantic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting movie violence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>the Law and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Baron Munchausen</t>
-  </si>
-  <si>
-    <t>German literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>telling tall tales in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveling in time in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marge Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>raising a family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>KFC and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>the Circus and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving riddles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.506872512021471E-6</v>
+        <v>3.4504151034260206E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1439,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.872060726875886E-6</v>
+        <v>3.8039764444081013E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1453,7 +1471,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.2726233567390184E-6</v>
+        <v>4.191242316922632E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1467,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.711696729505832E-6</v>
+        <v>4.6151540313256944E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1481,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.19266513171943E-6</v>
+        <v>5.078881835402783E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1495,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.719177455935902E-6</v>
+        <v>5.585840052290833E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1506,10 +1524,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>6.2951646900829075E-6</v>
+        <v>6.139702973169228E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1517,27 +1535,27 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>6.924858266331123E-6</v>
+        <v>6.744421520311713E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7.612809284864689E-6</v>
+        <v>7.404240694260027E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1545,13 +1563,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>8.363908625496784E-6</v>
+        <v>8.123717816761221E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1562,164 +1580,164 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>9.183407957334265E-6</v>
+        <v>8.90774157877258E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0076941653615261E-5</v>
+        <v>9.761551900172756E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1050549615421803E-5</v>
+        <v>1.069076060490055E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2110701004199842E-5</v>
+        <v>1.1701372911988061E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3264318878880983E-5</v>
+        <v>1.279980973941587E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4518805728847315E-5</v>
+        <v>1.399293081382738E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5882069889107273E-5</v>
+        <v>1.528805857493808E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>1.736255281868017E-5</v>
+        <v>1.6693002858904517E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>1.896925721752159E-5</v>
+        <v>1.821608634004239E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0711775951117757E-5</v>
+        <v>1.9866170704985794E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.2600321745378475E-5</v>
+        <v>2.1652683527829242E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.464575760746391E-5</v>
+        <v>2.3585645808744168E-5</v>
       </c>
     </row>
     <row r="24">
@@ -1730,10 +1748,10 @@
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>2.685962792077387E-5</v>
+        <v>2.567570013233E-5</v>
       </c>
     </row>
     <row r="25">
@@ -1744,323 +1762,323 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>2.925419015459128E-5</v>
+        <v>2.7934139395196524E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>3.1842447120592854E-5</v>
+        <v>3.037293604531312E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>3.463817969995384E-5</v>
+        <v>3.300477176827071E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>3.765597995569666E-5</v>
+        <v>3.584306754791114E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>4.091128453572314E-5</v>
+        <v>3.8902014020802695E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>4.4420408262229455E-5</v>
+        <v>4.219660203571998E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>4.8200577793325425E-5</v>
+        <v>4.574265332074883E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>5.226996523234107E-5</v>
+        <v>4.9556851151777285E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>5.664772154993108E-5</v>
+        <v>5.3656770907184676E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>6.135400967336314E-5</v>
+        <v>5.806091038422902E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>6.641003708650242E-5</v>
+        <v>6.27887197433059E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D36" t="n">
-        <v>7.183808777317345E-5</v>
+        <v>6.786063093678848E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>7.766155332547076E-5</v>
+        <v>7.329808646961268E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>8.39049630277425E-5</v>
+        <v>7.912356732911257E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>9.059401271591843E-5</v>
+        <v>8.536061991229059E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>9.775559220124089E-5</v>
+        <v>9.20338817689693E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1.0541781103680608E-4</v>
+        <v>9.916910597034087E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>1.1361002239513728E-4</v>
+        <v>1.0679318390301022E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>1.2236284481511174E-4</v>
+        <v>1.1493416628012977E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
         <v>64</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>1.3170818156718026E-4</v>
+        <v>1.2362128215259315E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>1.4167923737695948E-4</v>
+        <v>1.328849556953616E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>1.523105322391602E-4</v>
+        <v>1.4275682053652866E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
         <v>68</v>
       </c>
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>1.636379120461282E-4</v>
+        <v>1.5326973138964453E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
@@ -2069,12 +2087,12 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.7569855574921635E-4</v>
+        <v>1.644577727439112E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -2083,152 +2101,152 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1.8853097876479286E-4</v>
+        <v>1.763562643610629E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>2.0217503233296722E-4</v>
+        <v>1.8900176332336052E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>2.166718985330122E-4</v>
+        <v>2.0243206237336147E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>2.320640806576903E-4</v>
+        <v>2.1668618428339345E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2.4839538864798467E-4</v>
+        <v>2.3180437199124332E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>2.657109192899447E-4</v>
+        <v>2.478280742382712E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>2.8405703087849106E-4</v>
+        <v>2.647999264467141E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>3.034813120562172E-4</v>
+        <v>2.827637265759319E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>3.2403254454128807E-4</v>
+        <v>3.0176440570049267E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
         <v>83</v>
       </c>
-      <c r="B58" t="s">
-        <v>84</v>
-      </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>3.4576065946649234E-4</v>
+        <v>3.218479930587109E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>3.6871668706037544E-4</v>
+        <v>3.430615753269011E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
@@ -2237,413 +2255,413 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>3.929526994137988E-4</v>
+        <v>3.654532498837699E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
         <v>87</v>
       </c>
-      <c r="B61" t="s">
-        <v>88</v>
-      </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>4.1852174608832636E-4</v>
+        <v>3.8907207183884376E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>4.4547778233904305E-4</v>
+        <v>4.139679946121421E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>4.73875589742781E-4</v>
+        <v>4.40191803865125E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>5.037706890422579E-4</v>
+        <v>4.6779504460022804E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>5.352192450405E-4</v>
+        <v>4.968299412629615E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5.682779634038123E-4</v>
+        <v>5.27349310701389E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>6.03003979259437E-4</v>
+        <v>5.594064678587606E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6.394547375034622E-4</v>
+        <v>5.930551241003588E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>6.77687864766888E-4</v>
+        <v>6.283492780988012E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>7.1776103302045E-4</v>
+        <v>6.65343099233745E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>7.597318148373552E-4</v>
+        <v>7.040908034868232E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>8.036575303695549E-4</v>
+        <v>7.446465218488279E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>8.49595086133732E-4</v>
+        <v>7.870641612861759E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>8.976008057472885E-4</v>
+        <v>8.313972583503196E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>9.47730252796767E-4</v>
+        <v>8.776988255500395E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0010000380460665273</v>
+        <v>9.26021190645122E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0010545776674051148</v>
+        <v>9.764158290587813E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>112</v>
-      </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001111401262552849</v>
+        <v>0.0010289331896479147</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0011705594353035136</v>
+        <v>0.0010836225141118254</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0012321010354255507</v>
+        <v>0.001140531650362337</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>116</v>
-      </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0012960729408155666</v>
+        <v>0.0011997068602245982</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" t="s">
         <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0013625198344120737</v>
+        <v>0.001261192621875462</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001431483976444544</v>
+        <v>0.0013250314274808918</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
-        <v>120</v>
-      </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001503004972646306</v>
+        <v>0.0013912635765282975</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0015771195391101195</v>
+        <v>0.001459926965399684</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001653861264514056</v>
+        <v>0.001531056873776207</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" t="s">
         <v>122</v>
       </c>
-      <c r="B87" t="s">
-        <v>124</v>
-      </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0017332603704917071</v>
+        <v>0.001604685748502123</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0018153434709732436</v>
+        <v>0.00168084298558719</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0019001333313615407</v>
+        <v>0.0017595547110576468</v>
       </c>
     </row>
     <row r="90">
@@ -2651,13 +2669,13 @@
         <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0019876486284554143</v>
+        <v>0.0018408435614164775</v>
       </c>
     </row>
     <row r="91">
@@ -2665,27 +2683,27 @@
         <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002077903712071033</v>
+        <v>0.0019247284644994533</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0021709083693450468</v>
+        <v>0.0020112244215615</v>
       </c>
     </row>
     <row r="93">
@@ -2693,13 +2711,13 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0022666675927487875</v>
+        <v>0.002100342291447961</v>
       </c>
     </row>
     <row r="94">
@@ -2707,27 +2725,27 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002365181352853629</v>
+        <v>0.0021920885777521187</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0024664443769396582</v>
+        <v>0.002286465219865752</v>
       </c>
     </row>
     <row r="96">
@@ -2735,13 +2753,13 @@
         <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0025704459345320396</v>
+        <v>0.0023834693888827307</v>
       </c>
     </row>
     <row r="97">
@@ -2749,27 +2767,27 @@
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002677169630995846</v>
+        <v>0.0024830932893024626</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002786593210309496</v>
+        <v>0.0025853239675282524</v>
       </c>
     </row>
     <row r="99">
@@ -2777,13 +2795,13 @@
         <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0028986883681608733</v>
+        <v>0.002690143128152578</v>
       </c>
     </row>
     <row r="100">
@@ -2791,27 +2809,27 @@
         <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0030134205764960065</v>
+        <v>0.002797526959017249</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0031307489206668926</v>
+        <v>0.0029074459660805574</v>
       </c>
     </row>
     <row r="102">
@@ -2819,13 +2837,13 @@
         <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00325062595029163</v>
+        <v>0.0030198648190698507</v>
       </c>
     </row>
     <row r="103">
@@ -2833,27 +2851,27 @@
         <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0033729975449436345</v>
+        <v>0.0031347422089399446</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0034978027957559</v>
+        <v>0.0032520307181091446</v>
       </c>
     </row>
     <row r="105">
@@ -2861,13 +2879,13 @@
         <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003624973903991857</v>
+        <v>0.003371676704457871</v>
       </c>
     </row>
     <row r="106">
@@ -2875,27 +2893,27 @@
         <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0037544360976202173</v>
+        <v>0.003493620200028691</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0038861075668593648</v>
+        <v>0.0036177948253614534</v>
       </c>
     </row>
     <row r="108">
@@ -2903,13 +2921,13 @@
         <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004019899419638706</v>
+        <v>0.003744127720340884</v>
       </c>
     </row>
     <row r="109">
@@ -2917,27 +2935,27 @@
         <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004155715657848724</v>
+        <v>0.0038725394924200573</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004293453175204076</v>
+        <v>0.004002944183017387</v>
       </c>
     </row>
     <row r="111">
@@ -2945,13 +2963,13 @@
         <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004433001777465362</v>
+        <v>0.004135249252855355</v>
       </c>
     </row>
     <row r="112">
@@ -2959,27 +2977,27 @@
         <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00457424422570446</v>
+        <v>0.004269355586930146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004717056303211897</v>
+        <v>0.004405157519770775</v>
       </c>
     </row>
     <row r="114">
@@ -2987,13 +3005,13 @@
         <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004861306906554508</v>
+        <v>0.004542542881554035</v>
       </c>
     </row>
     <row r="115">
@@ -3001,55 +3019,55 @@
         <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005006858161219041</v>
+        <v>0.0046813930655849045</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" t="s">
         <v>162</v>
       </c>
-      <c r="B116" t="s">
-        <v>163</v>
-      </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005153565562164064</v>
+        <v>0.0048215831175776325</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.005301278139511034</v>
+        <v>0.004962981847086323</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005449838649504879</v>
+        <v>0.005105451961354646</v>
       </c>
     </row>
     <row r="119">
@@ -3057,13 +3075,13 @@
         <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00559908379075813</v>
+        <v>0.005248850221765244</v>
       </c>
     </row>
     <row r="120">
@@ -3071,251 +3089,251 @@
         <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>0.005748844445687573</v>
+        <v>0.0053930276229768315</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" t="s">
         <v>169</v>
       </c>
-      <c r="B121" t="s">
-        <v>170</v>
-      </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005898945946941514</v>
+        <v>0.0055378295947491885</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D122" t="n">
-        <v>0.006049208368488823</v>
+        <v>0.005683096226346052</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>0.006199446840936262</v>
+        <v>0.005828662513320926</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" t="s">
         <v>173</v>
       </c>
-      <c r="B124" t="s">
-        <v>174</v>
-      </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006349471890517655</v>
+        <v>0.00597435862638368</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0064990898010719444</v>
+        <v>0.0061200102019360325</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
         <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D126" t="n">
-        <v>0.006648102998227878</v>
+        <v>0.00626543865377982</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
         <v>177</v>
       </c>
-      <c r="B127" t="s">
-        <v>178</v>
-      </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0067963104548721676</v>
+        <v>0.006410461505378384</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B128" t="s">
         <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006943508116884323</v>
+        <v>0.006554892741960472</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.007089489347995248</v>
+        <v>0.006698543181654193</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" t="s">
         <v>181</v>
       </c>
-      <c r="B130" t="s">
-        <v>182</v>
-      </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007234045392520316</v>
+        <v>0.006841220864732989</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
         <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.007376965854611617</v>
+        <v>0.006982731459960645</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" t="s">
         <v>184</v>
       </c>
-      <c r="B132" t="s">
-        <v>185</v>
-      </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007518039192579207</v>
+        <v>0.007122878686927514</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007657053226718724</v>
+        <v>0.007261464753178071</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007793795659012226</v>
+        <v>0.00739829080483928</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135" t="s">
         <v>188</v>
       </c>
-      <c r="B135" t="s">
-        <v>189</v>
-      </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007928054602967471</v>
+        <v>0.007533157389376988</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
         <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008059619121799783</v>
+        <v>0.007665864929034816</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
         <v>191</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008188279773074625</v>
+        <v>0.007796214203420415</v>
       </c>
     </row>
     <row r="138">
@@ -3326,10 +3344,10 @@
         <v>193</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008313829157883701</v>
+        <v>0.007924006839657605</v>
       </c>
     </row>
     <row r="139">
@@ -3340,10 +3358,10 @@
         <v>194</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008436062472565342</v>
+        <v>0.008049045808451422</v>
       </c>
     </row>
     <row r="140">
@@ -3354,10 +3372,10 @@
         <v>195</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.008554778060936546</v>
+        <v>0.00817113592434976</v>
       </c>
     </row>
     <row r="141">
@@ -3368,10 +3386,10 @@
         <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00866977796497509</v>
+        <v>0.0082900843484639</v>
       </c>
     </row>
     <row r="142">
@@ -3382,10 +3400,10 @@
         <v>198</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008780868471863407</v>
+        <v>0.008405701091847795</v>
       </c>
     </row>
     <row r="143">
@@ -3396,10 +3414,10 @@
         <v>199</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008887860655289126</v>
+        <v>0.00851779951771639</v>
       </c>
     </row>
     <row r="144">
@@ -3410,10 +3428,10 @@
         <v>201</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.00899057090889796</v>
+        <v>0.008626196840662431</v>
       </c>
     </row>
     <row r="145">
@@ -3424,10 +3442,10 @@
         <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.009088821469797698</v>
+        <v>0.00873071462101166</v>
       </c>
     </row>
     <row r="146">
@@ -3438,10 +3456,10 @@
         <v>203</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.009182440930032731</v>
+        <v>0.008831179252456717</v>
       </c>
     </row>
     <row r="147">
@@ -3452,10 +3470,10 @@
         <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00927126473397108</v>
+        <v>0.008927422441112137</v>
       </c>
     </row>
     <row r="148">
@@ -3466,10 +3484,10 @@
         <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>0.009355135659592506</v>
+        <v>0.009019281674143315</v>
       </c>
     </row>
     <row r="149">
@@ -3480,10 +3498,10 @@
         <v>207</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00943390428170425</v>
+        <v>0.00910660067615432</v>
       </c>
     </row>
     <row r="150">
@@ -3494,10 +3512,10 @@
         <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009507429415183358</v>
+        <v>0.00918922985153825</v>
       </c>
     </row>
     <row r="151">
@@ -3508,10 +3526,10 @@
         <v>210</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009575578536399926</v>
+        <v>0.009267026711039794</v>
       </c>
     </row>
     <row r="152">
@@ -3522,10 +3540,10 @@
         <v>211</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00963822818106734</v>
+        <v>0.009339856280838763</v>
       </c>
     </row>
     <row r="153">
@@ -3536,10 +3554,10 @@
         <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009695264316844698</v>
+        <v>0.009407591492499354</v>
       </c>
     </row>
     <row r="154">
@@ -3550,29 +3568,29 @@
         <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
-        <v>0.00974658268911989</v>
+        <v>0.009470113552217788</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>212</v>
+      </c>
+      <c r="B155" t="s">
         <v>215</v>
       </c>
-      <c r="B155" t="s">
-        <v>216</v>
-      </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009792089138505933</v>
+        <v>0.009527312287868087</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B156" t="s">
         <v>217</v>
@@ -3581,12 +3599,12 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009831699888695644</v>
+        <v>0.009579086472418633</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
         <v>218</v>
@@ -3595,245 +3613,245 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009865341803445907</v>
+        <v>0.009625344122401139</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158" t="s">
         <v>219</v>
       </c>
-      <c r="B158" t="s">
-        <v>220</v>
-      </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00989295261158566</v>
+        <v>0.009666002770195317</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B159" t="s">
         <v>221</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009914481099079695</v>
+        <v>0.009700989708999304</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B160" t="s">
         <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009929887267319366</v>
+        <v>0.009730242209472016</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>220</v>
+      </c>
+      <c r="B161" t="s">
         <v>223</v>
       </c>
-      <c r="B161" t="s">
-        <v>224</v>
-      </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.00993914245695497</v>
+        <v>0.009753707707142817</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009942229436733133</v>
+        <v>0.009771343959800408</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
         <v>226</v>
       </c>
-      <c r="B163" t="s">
-        <v>227</v>
-      </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009939142456954972</v>
+        <v>0.009783119174206828</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
         <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009929887267319358</v>
+        <v>0.009789012101603484</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B165" t="s">
         <v>229</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009914481099079706</v>
+        <v>0.009789012101603484</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
         <v>230</v>
       </c>
-      <c r="B166" t="s">
-        <v>231</v>
-      </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.00989295261158564</v>
+        <v>0.009783119174206828</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
         <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D167" t="n">
-        <v>0.00986534180344592</v>
+        <v>0.009771343959800591</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
         <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009831699888695616</v>
+        <v>0.00975370770714282</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" t="s">
         <v>234</v>
       </c>
-      <c r="B169" t="s">
-        <v>235</v>
-      </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009792089138505919</v>
+        <v>0.00973024220947203</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
         <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009746582689119918</v>
+        <v>0.009700989708999103</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
         <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009695264316844698</v>
+        <v>0.009666002770195317</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" t="s">
         <v>238</v>
       </c>
-      <c r="B172" t="s">
-        <v>239</v>
-      </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D172" t="n">
-        <v>0.00963822818106734</v>
+        <v>0.009625344122401139</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
         <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009575578536399953</v>
+        <v>0.009579086472418785</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B174" t="s">
         <v>241</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009507429415183288</v>
+        <v>0.009527312287868059</v>
       </c>
     </row>
     <row r="175">
@@ -3844,360 +3862,360 @@
         <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009433904281704292</v>
+        <v>0.00947011355221783</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
+        <v>242</v>
+      </c>
+      <c r="B176" t="s">
         <v>244</v>
       </c>
-      <c r="B176" t="s">
-        <v>245</v>
-      </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00935513565959245</v>
+        <v>0.009407591492499187</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009271264733971163</v>
+        <v>0.009339856280838763</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B178" t="s">
         <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00918244093003276</v>
+        <v>0.009267026711039794</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>246</v>
+      </c>
+      <c r="B179" t="s">
         <v>248</v>
       </c>
-      <c r="B179" t="s">
-        <v>249</v>
-      </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009088821469797698</v>
+        <v>0.00918922985153836</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B180" t="s">
         <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008990570908897932</v>
+        <v>0.009106600676154375</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B181" t="s">
         <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008887860655289126</v>
+        <v>0.009019281674143204</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>249</v>
+      </c>
+      <c r="B182" t="s">
         <v>252</v>
       </c>
-      <c r="B182" t="s">
-        <v>253</v>
-      </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008780868471863462</v>
+        <v>0.008927422441112082</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B183" t="s">
         <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008669777964975062</v>
+        <v>0.008831179252456717</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>253</v>
+      </c>
+      <c r="B184" t="s">
         <v>255</v>
       </c>
-      <c r="B184" t="s">
-        <v>256</v>
-      </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008554778060936546</v>
+        <v>0.00873071462101166</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B185" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008436062472565342</v>
+        <v>0.008626196840662265</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
         <v>258</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008313829157883701</v>
+        <v>0.008517799517716668</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" t="s">
         <v>259</v>
       </c>
-      <c r="B187" t="s">
-        <v>260</v>
-      </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008188279773074625</v>
+        <v>0.008405701091847767</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008059619121799755</v>
+        <v>0.008290084348463955</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B189" t="s">
         <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007928054602967527</v>
+        <v>0.00817113592434962</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>261</v>
+      </c>
+      <c r="B190" t="s">
         <v>263</v>
       </c>
-      <c r="B190" t="s">
-        <v>264</v>
-      </c>
       <c r="C190" t="s">
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.00779379565901217</v>
+        <v>0.008049045808451422</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B191" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
         <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007657053226718891</v>
+        <v>0.007924006839657605</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B192" t="s">
         <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007518039192579096</v>
+        <v>0.007796214203420582</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>265</v>
+      </c>
+      <c r="B193" t="s">
         <v>267</v>
       </c>
-      <c r="B193" t="s">
-        <v>268</v>
-      </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007376965854611672</v>
+        <v>0.007665864929034816</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007234045392520205</v>
+        <v>0.007533157389377043</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B195" t="s">
         <v>270</v>
       </c>
       <c r="C195" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007089489347995248</v>
+        <v>0.007398290804839058</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>269</v>
+      </c>
+      <c r="B196" t="s">
         <v>271</v>
       </c>
-      <c r="B196" t="s">
-        <v>272</v>
-      </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D196" t="n">
-        <v>0.006943508116884489</v>
+        <v>0.007261464753178071</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0067963104548720565</v>
+        <v>0.007122878686927514</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
         <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.006648102998227934</v>
+        <v>0.0069827314599608115</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>273</v>
+      </c>
+      <c r="B199" t="s">
         <v>275</v>
       </c>
-      <c r="B199" t="s">
-        <v>276</v>
-      </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006499089801072</v>
+        <v>0.006841220864732989</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0063494718905173775</v>
+        <v>0.006698543181654137</v>
       </c>
     </row>
     <row r="201">
@@ -4205,209 +4223,209 @@
         <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0061994468409363734</v>
+        <v>0.006554892741960361</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006049208368488934</v>
+        <v>0.006410461505378384</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>277</v>
+      </c>
+      <c r="B203" t="s">
         <v>280</v>
       </c>
-      <c r="B203" t="s">
-        <v>282</v>
-      </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0058989459469415695</v>
+        <v>0.00626543865377982</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005748844445687518</v>
+        <v>0.006120010201936088</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005599083790758075</v>
+        <v>0.00597435862638368</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>281</v>
+      </c>
+      <c r="B206" t="s">
         <v>284</v>
       </c>
-      <c r="B206" t="s">
-        <v>286</v>
-      </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D206" t="n">
-        <v>0.005449838649504879</v>
+        <v>0.005828662513320981</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005301278139511034</v>
+        <v>0.005683096226345941</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005153565562164231</v>
+        <v>0.0055378295947491885</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209" t="s">
         <v>288</v>
       </c>
-      <c r="B209" t="s">
-        <v>290</v>
-      </c>
       <c r="C209" t="s">
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0050068581612189855</v>
+        <v>0.0053930276229768315</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.004861306906554341</v>
+        <v>0.005248850221765133</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004717056303211953</v>
+        <v>0.005105451961354868</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B212" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00457424422570446</v>
+        <v>0.0049629818470863785</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>293</v>
+      </c>
+      <c r="B213" t="s">
         <v>294</v>
       </c>
-      <c r="B213" t="s">
-        <v>295</v>
-      </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004433001777465473</v>
+        <v>0.004821583117577466</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.004293453175203965</v>
+        <v>0.0046813930655849045</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004155715657848835</v>
+        <v>0.004542542881554035</v>
       </c>
     </row>
     <row r="216">
@@ -4415,13 +4433,13 @@
         <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004019899419638651</v>
+        <v>0.004405157519770775</v>
       </c>
     </row>
     <row r="217">
@@ -4429,587 +4447,587 @@
         <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0038861075668594203</v>
+        <v>0.004269355586930257</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>300</v>
+      </c>
+      <c r="B218" t="s">
         <v>301</v>
       </c>
-      <c r="B218" t="s">
-        <v>302</v>
-      </c>
       <c r="C218" t="s">
         <v>11</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0037544360976203284</v>
+        <v>0.004135249252855189</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
         <v>11</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0036249739039919127</v>
+        <v>0.004002944183017665</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B220" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C220" t="s">
         <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.003497802795755567</v>
+        <v>0.0038725394924198353</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>304</v>
+      </c>
+      <c r="B221" t="s">
         <v>305</v>
       </c>
-      <c r="B221" t="s">
-        <v>306</v>
-      </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0033729975449439675</v>
+        <v>0.003744127720340884</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0032506259502913526</v>
+        <v>0.0036177948253614534</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0031307489206671146</v>
+        <v>0.003493620200028691</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>308</v>
+      </c>
+      <c r="B224" t="s">
         <v>309</v>
       </c>
-      <c r="B224" t="s">
-        <v>310</v>
-      </c>
       <c r="C224" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0030134205764956734</v>
+        <v>0.003371676704457871</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D225" t="n">
-        <v>0.002898688368160929</v>
+        <v>0.0032520307181091446</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>308</v>
+      </c>
+      <c r="B226" t="s">
         <v>311</v>
       </c>
-      <c r="B226" t="s">
-        <v>313</v>
-      </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D226" t="n">
-        <v>0.002786593210309607</v>
+        <v>0.0031347422089399446</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.002677169630995624</v>
+        <v>0.0030198648190698507</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
         <v>11</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0025704459345322617</v>
+        <v>0.0029074459660805574</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0024664443769397137</v>
+        <v>0.002797526959017249</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C230" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D230" t="n">
-        <v>0.002365181352853518</v>
+        <v>0.0026901431281525223</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>318</v>
+      </c>
+      <c r="B231" t="s">
         <v>319</v>
       </c>
-      <c r="B231" t="s">
-        <v>321</v>
-      </c>
       <c r="C231" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002266667592748871</v>
+        <v>0.00258532396752853</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D232" t="n">
-        <v>0.002170908369345033</v>
+        <v>0.0024830932893022406</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>320</v>
+      </c>
+      <c r="B233" t="s">
         <v>322</v>
       </c>
-      <c r="B233" t="s">
-        <v>324</v>
-      </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D233" t="n">
-        <v>0.002077903712071061</v>
+        <v>0.0023834693888827307</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0019876486284553935</v>
+        <v>0.002286465219865752</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0019001333313615615</v>
+        <v>0.002192088577752091</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>324</v>
+      </c>
+      <c r="B236" t="s">
         <v>326</v>
       </c>
-      <c r="B236" t="s">
-        <v>328</v>
-      </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0018153434709732089</v>
+        <v>0.002100342291448065</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B237" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0017332603704917245</v>
+        <v>0.0020112244215614652</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0016538612645140768</v>
+        <v>0.0019247284644994186</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>328</v>
+      </c>
+      <c r="B239" t="s">
         <v>330</v>
       </c>
-      <c r="B239" t="s">
-        <v>332</v>
-      </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0015771195391101368</v>
+        <v>0.0018408435614164706</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B240" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0015030049726462782</v>
+        <v>0.0017595547110576468</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B241" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.001431483976444544</v>
+        <v>0.00168084298558719</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>332</v>
+      </c>
+      <c r="B242" t="s">
         <v>334</v>
       </c>
-      <c r="B242" t="s">
-        <v>336</v>
-      </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0013625198344120945</v>
+        <v>0.0016046857485021576</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B243" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0012960729408155666</v>
+        <v>0.0015310568737761654</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>336</v>
+      </c>
+      <c r="B244" t="s">
         <v>337</v>
       </c>
-      <c r="B244" t="s">
-        <v>339</v>
-      </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0012321010354255507</v>
+        <v>0.0014599269653997153</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0011705594353035136</v>
+        <v>0.0013912635765282733</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B246" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C246" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001111401262552849</v>
+        <v>0.0013250314274808918</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>340</v>
+      </c>
+      <c r="B247" t="s">
         <v>341</v>
       </c>
-      <c r="B247" t="s">
-        <v>343</v>
-      </c>
       <c r="C247" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0010545776674051148</v>
+        <v>0.001261192621875462</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0010000380460665273</v>
+        <v>0.0011997068602246155</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B249" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>9.47730252796767E-4</v>
+        <v>0.001140531650362351</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="B250" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C250" t="s">
         <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>8.976008057472885E-4</v>
+        <v>0.0010836225141117942</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>120</v>
+      </c>
+      <c r="B251" t="s">
         <v>345</v>
       </c>
-      <c r="B251" t="s">
-        <v>348</v>
-      </c>
       <c r="C251" t="s">
         <v>11</v>
       </c>
       <c r="D251" t="n">
-        <v>8.49595086133732E-4</v>
+        <v>0.0010289331896479147</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B252" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D252" t="n">
-        <v>8.036575303695549E-4</v>
+        <v>9.764158290587813E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B253" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D253" t="n">
-        <v>7.597318148373552E-4</v>
+        <v>9.26021190645122E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>346</v>
+      </c>
+      <c r="B254" t="s">
         <v>349</v>
       </c>
-      <c r="B254" t="s">
-        <v>352</v>
-      </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D254" t="n">
-        <v>7.1776103302045E-4</v>
+        <v>8.776988255500672E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B255" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D255" t="n">
-        <v>6.77687864766888E-4</v>
+        <v>8.313972583503023E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B256" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D256" t="n">
-        <v>6.394547375034622E-4</v>
+        <v>7.870641612861655E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B257" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D257" t="n">
-        <v>6.03003979259437E-4</v>
+        <v>7.446465218488279E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B258" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D258" t="n">
-        <v>5.682779634038123E-4</v>
+        <v>7.040908034868232E-4</v>
       </c>
     </row>
     <row r="259">
@@ -5017,41 +5035,41 @@
         <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>5.352192450405E-4</v>
+        <v>6.65343099233745E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D260" t="n">
-        <v>5.037706890422579E-4</v>
+        <v>6.283492780988012E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B261" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D261" t="n">
-        <v>4.73875589742781E-4</v>
+        <v>5.930551241003588E-4</v>
       </c>
     </row>
     <row r="262">
@@ -5059,41 +5077,41 @@
         <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D262" t="n">
-        <v>4.4547778233904305E-4</v>
+        <v>5.594064678587848E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B263" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D263" t="n">
-        <v>4.1852174608832636E-4</v>
+        <v>5.273493107013647E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B264" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C264" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D264" t="n">
-        <v>3.929526994137988E-4</v>
+        <v>4.968299412629615E-4</v>
       </c>
     </row>
     <row r="265">
@@ -5101,41 +5119,41 @@
         <v>364</v>
       </c>
       <c r="B265" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C265" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D265" t="n">
-        <v>3.6871668706037544E-4</v>
+        <v>4.6779504460022804E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B266" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
         <v>11</v>
       </c>
       <c r="D266" t="n">
-        <v>3.4576065946649234E-4</v>
+        <v>4.40191803865125E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B267" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C267" t="s">
         <v>11</v>
       </c>
       <c r="D267" t="n">
-        <v>3.2403254454128807E-4</v>
+        <v>4.139679946121473E-4</v>
       </c>
     </row>
     <row r="268">
@@ -5143,223 +5161,223 @@
         <v>368</v>
       </c>
       <c r="B268" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C268" t="s">
         <v>11</v>
       </c>
       <c r="D268" t="n">
-        <v>3.034813120562172E-4</v>
+        <v>3.8907207183884636E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B269" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>2.8405703087849106E-4</v>
+        <v>3.654532498837621E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>370</v>
+      </c>
+      <c r="B270" t="s">
         <v>372</v>
       </c>
-      <c r="B270" t="s">
-        <v>374</v>
-      </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>2.657109192899447E-4</v>
+        <v>3.430615753269011E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>2.4839538864798467E-4</v>
+        <v>3.218479930587109E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B272" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>2.320640806576903E-4</v>
+        <v>3.0176440570049267E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
+        <v>374</v>
+      </c>
+      <c r="B273" t="s">
         <v>376</v>
       </c>
-      <c r="B273" t="s">
-        <v>378</v>
-      </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>2.166718985330122E-4</v>
+        <v>2.82763726575941E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B274" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C274" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>2.0217503233296722E-4</v>
+        <v>2.6479992644671104E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B275" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>1.8853097876479286E-4</v>
+        <v>2.478280742382651E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
+        <v>378</v>
+      </c>
+      <c r="B276" t="s">
         <v>380</v>
       </c>
-      <c r="B276" t="s">
-        <v>382</v>
-      </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D276" t="n">
-        <v>1.7569855574921635E-4</v>
+        <v>2.3180437199124332E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B277" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>1.636379120461282E-4</v>
+        <v>2.1668618428339345E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
+        <v>382</v>
+      </c>
+      <c r="B278" t="s">
         <v>383</v>
       </c>
-      <c r="B278" t="s">
-        <v>385</v>
-      </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>1.523105322391602E-4</v>
+        <v>2.0243206237336147E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B279" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D279" t="n">
-        <v>1.4167923737695948E-4</v>
+        <v>1.8900176332336876E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B280" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D280" t="n">
-        <v>1.3170818156718026E-4</v>
+        <v>1.7635626436105986E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>385</v>
+      </c>
+      <c r="B281" t="s">
         <v>387</v>
       </c>
-      <c r="B281" t="s">
-        <v>389</v>
-      </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>1.2236284481511174E-4</v>
+        <v>1.64457772743906E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B282" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D282" t="n">
-        <v>1.1361002239513728E-4</v>
+        <v>1.5326973138964453E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B283" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D283" t="n">
-        <v>1.0541781103680608E-4</v>
+        <v>1.4275682053652866E-4</v>
       </c>
     </row>
     <row r="284">
@@ -5367,181 +5385,181 @@
         <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>9.775559220124089E-5</v>
+        <v>1.328849556953616E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B285" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>9.059401271591843E-5</v>
+        <v>1.2362128215259315E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
+        <v>391</v>
+      </c>
+      <c r="B286" t="s">
         <v>394</v>
       </c>
-      <c r="B286" t="s">
-        <v>396</v>
-      </c>
       <c r="C286" t="s">
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>8.39049630277425E-5</v>
+        <v>1.1493416628012977E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B287" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C287" t="s">
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>7.766155332547076E-5</v>
+        <v>1.0679318390301022E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
+        <v>395</v>
+      </c>
+      <c r="B288" t="s">
         <v>397</v>
       </c>
-      <c r="B288" t="s">
-        <v>399</v>
-      </c>
       <c r="C288" t="s">
         <v>11</v>
       </c>
       <c r="D288" t="n">
-        <v>7.183808777317345E-5</v>
+        <v>9.916910597034087E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B289" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C289" t="s">
         <v>11</v>
       </c>
       <c r="D289" t="n">
-        <v>6.641003708650242E-5</v>
+        <v>9.20338817689693E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B290" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C290" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>6.135400967336314E-5</v>
+        <v>8.536061991229059E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
+        <v>399</v>
+      </c>
+      <c r="B291" t="s">
         <v>401</v>
       </c>
-      <c r="B291" t="s">
-        <v>403</v>
-      </c>
       <c r="C291" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>5.664772154993108E-5</v>
+        <v>7.912356732911257E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B292" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C292" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>5.226996523234107E-5</v>
+        <v>7.329808646961496E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B293" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C293" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>4.8200577793325425E-5</v>
+        <v>6.786063093678794E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
+        <v>402</v>
+      </c>
+      <c r="B294" t="s">
         <v>405</v>
       </c>
-      <c r="B294" t="s">
-        <v>407</v>
-      </c>
       <c r="C294" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>4.4420408262229455E-5</v>
+        <v>6.278871974330416E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B295" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C295" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>4.091128453572314E-5</v>
+        <v>5.806091038422902E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B296" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>3.765597995569666E-5</v>
+        <v>5.3656770907184676E-5</v>
       </c>
     </row>
     <row r="297">
@@ -5549,13 +5567,13 @@
         <v>409</v>
       </c>
       <c r="B297" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D297" t="n">
-        <v>3.463817969995384E-5</v>
+        <v>4.9556851151777285E-5</v>
       </c>
     </row>
     <row r="298">
@@ -5563,102 +5581,102 @@
         <v>409</v>
       </c>
       <c r="B298" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D298" t="n">
-        <v>3.1842447120592854E-5</v>
+        <v>4.574265332074883E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="B299" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C299" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D299" t="n">
-        <v>2.925419015459128E-5</v>
+        <v>4.219660203571998E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="B300" t="s">
         <v>414</v>
       </c>
       <c r="C300" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>2.685962792077387E-5</v>
+        <v>3.890201402080356E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
         <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>2.464575760746391E-5</v>
+        <v>3.5843067547910274E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
+        <v>413</v>
+      </c>
+      <c r="B302" t="s">
         <v>416</v>
       </c>
-      <c r="B302" t="s">
-        <v>417</v>
-      </c>
       <c r="C302" t="s">
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>2.2600321745378475E-5</v>
+        <v>3.300477176827071E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
         <v>418</v>
       </c>
       <c r="C303" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D303" t="n">
-        <v>2.0711775951117757E-5</v>
+        <v>3.037293604531312E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>417</v>
+      </c>
+      <c r="B304" t="s">
         <v>419</v>
       </c>
-      <c r="B304" t="s">
-        <v>420</v>
-      </c>
       <c r="C304" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D304" t="n">
-        <v>1.896925721752159E-5</v>
+        <v>2.7934139395196633E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B305" t="s">
         <v>421</v>
@@ -5667,12 +5685,12 @@
         <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1.736255281868017E-5</v>
+        <v>2.5675700132330652E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B306" t="s">
         <v>422</v>
@@ -5681,133 +5699,133 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>1.5882069889107273E-5</v>
+        <v>2.358564580874368E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
+        <v>420</v>
+      </c>
+      <c r="B307" t="s">
         <v>423</v>
       </c>
-      <c r="B307" t="s">
-        <v>424</v>
-      </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1.4518805728847315E-5</v>
+        <v>2.165268352782897E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B308" t="s">
         <v>425</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D308" t="n">
-        <v>1.3264318878880983E-5</v>
+        <v>1.9866170704985794E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
+        <v>424</v>
+      </c>
+      <c r="B309" t="s">
         <v>426</v>
       </c>
-      <c r="B309" t="s">
-        <v>427</v>
-      </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D309" t="n">
-        <v>1.2110701004199842E-5</v>
+        <v>1.821608634004239E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B310" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D310" t="n">
-        <v>1.1050549615421803E-5</v>
+        <v>1.6693002858904517E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
+        <v>428</v>
+      </c>
+      <c r="B311" t="s">
         <v>429</v>
       </c>
-      <c r="B311" t="s">
-        <v>430</v>
-      </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>1.0076941653615261E-5</v>
+        <v>1.528805857493808E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B312" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D312" t="n">
-        <v>9.183407957334265E-6</v>
+        <v>1.399293081382776E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
+        <v>428</v>
+      </c>
+      <c r="B313" t="s">
         <v>431</v>
       </c>
-      <c r="B313" t="s">
-        <v>433</v>
-      </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D313" t="n">
-        <v>8.363908625496784E-6</v>
+        <v>1.279980973941549E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D314" t="n">
-        <v>7.612809284864689E-6</v>
+        <v>1.1701372911988061E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D315" t="n">
-        <v>6.924858266331123E-6</v>
+        <v>1.069076060490055E-5</v>
       </c>
     </row>
     <row r="316">
@@ -5815,97 +5833,167 @@
         <v>435</v>
       </c>
       <c r="B316" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D316" t="n">
-        <v>6.2951646900829075E-6</v>
+        <v>9.761551900172756E-6</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>437</v>
+      </c>
+      <c r="B317" t="s">
         <v>438</v>
       </c>
-      <c r="B317" t="s">
-        <v>439</v>
-      </c>
       <c r="C317" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>5.719177455935902E-6</v>
+        <v>8.907741578772824E-6</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C318" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>5.19266513171943E-6</v>
+        <v>8.123717816761113E-6</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B319" t="s">
         <v>441</v>
       </c>
       <c r="C319" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D319" t="n">
-        <v>4.711696729505832E-6</v>
+        <v>7.4042406942598915E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>440</v>
+      </c>
+      <c r="B320" t="s">
         <v>442</v>
       </c>
-      <c r="B320" t="s">
-        <v>443</v>
-      </c>
       <c r="C320" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D320" t="n">
-        <v>4.2726233567390184E-6</v>
+        <v>6.744421520311713E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B321" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C321" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D321" t="n">
-        <v>3.872060726875886E-6</v>
+        <v>6.139702973169228E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B322" t="s">
         <v>445</v>
       </c>
       <c r="C322" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>3.506872512021471E-6</v>
+        <v>5.585840052290833E-6</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>444</v>
+      </c>
+      <c r="B323" t="s">
+        <v>446</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>5.078881835402783E-6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>444</v>
+      </c>
+      <c r="B324" t="s">
+        <v>447</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>4.61515403132581E-6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>448</v>
+      </c>
+      <c r="B325" t="s">
+        <v>449</v>
+      </c>
+      <c r="C325" t="s">
+        <v>16</v>
+      </c>
+      <c r="D325" t="n">
+        <v>4.191242316922632E-6</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>448</v>
+      </c>
+      <c r="B326" t="s">
+        <v>450</v>
+      </c>
+      <c r="C326" t="s">
+        <v>16</v>
+      </c>
+      <c r="D326" t="n">
+        <v>3.803976444407986E-6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>448</v>
+      </c>
+      <c r="B327" t="s">
+        <v>451</v>
+      </c>
+      <c r="C327" t="s">
+        <v>16</v>
+      </c>
+      <c r="D327" t="n">
+        <v>3.4504151034260206E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="457">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,1348 +26,1363 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Rudy Giuliani</t>
-  </si>
-  <si>
-    <t>New York City and the Cthulu mythos</t>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making mediocre movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Transformers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting decepticons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>convicting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>Baywatch and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dorothy Parker</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Algonquin Round Table and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing for the New Yorker in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apprehending criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arresting criminals  in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing rap songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dick Cheney</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dominique Strauss-Kahn</t>
-  </si>
-  <si>
-    <t>French politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>throwing sex parties in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> planning orgies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clarice Starling</t>
-  </si>
-  <si>
-    <t>Silence of the Lambs and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>hunting serial killers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crypography and the Cthulu-Dagon mythos</t>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony DiNozzo</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Homer Simpson</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating donuts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Cowell</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Music industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting pop music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying mathematics in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judas Iscariot</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Walter Mitty</t>
+  </si>
+  <si>
+    <t>Escapism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>dreaming the day away in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> escaping from reality in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>the Marx Brothers and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>defending the weak in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>E.T.</t>
+  </si>
+  <si>
+    <t>Alien visitations  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>phoning home in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing parody songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wernher von Braun</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>The Picture of Dorian Gray and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>gadding about town in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Eastern religion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Buddhism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edna Krabappel</t>
+  </si>
+  <si>
+    <t>smoking during recess in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Lindbergh</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding hunters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Gates</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disappointing the family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Clinton</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lars von Trier</t>
+  </si>
+  <si>
+    <t>Dogme and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making new wave movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mickey Rourke</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hellboy</t>
+  </si>
+  <si>
+    <t>Dark Horse Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Gary Larson</t>
+  </si>
+  <si>
+    <t>Apolitical Cartoons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Far Side and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ryan Reynolds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Eastern religion and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Buddhism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making ice sculptures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boy George</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>the New Jersey Mob and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Norma Desmond</t>
+  </si>
+  <si>
+    <t>Sunset Boulevard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>clinging to past dreams in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Luke Skywalker</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wesley Crusher</t>
+  </si>
+  <si>
+    <t>Star Trek and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Silvio Berlusconi</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trading innuendo in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>building empires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Pinkman</t>
+  </si>
+  <si>
+    <t>Breaking Bad and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Merrick</t>
+  </si>
+  <si>
+    <t>Victorian England and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hiding from the public in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working in a freak show in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Diana</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael O'Leary</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Zac Efron</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Foster Kane</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a newspaper empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Voorhees</t>
+  </si>
+  <si>
+    <t>Friday the 13th and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Reggae music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carribean music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Francis Bacon</t>
+  </si>
+  <si>
+    <t>Expressionist art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Darcy</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Oliver Cromwell</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Megyn Kelly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ray Charles</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Evel Knievel</t>
+  </si>
+  <si>
+    <t>Motorcycle stunts and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing motorcycle stunts in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>Only Fools and Horses  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Leon Trotsky</t>
+  </si>
+  <si>
+    <t>Russian politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> launching cultural revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Stalin</t>
+  </si>
+  <si>
+    <t>the Soviet Union and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a communist country in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samuel Johnson</t>
+  </si>
+  <si>
+    <t>the Dictionary and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the English language and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>creating dictionaries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert E. Lee</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning battles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing military strategies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Brand</t>
+  </si>
+  <si>
+    <t>British comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jared Kushner</t>
+  </si>
+  <si>
+    <t>running a business empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gustavo Fring</t>
+  </si>
+  <si>
+    <t>selling chrystal meth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> deep-frying chicken in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling fried chicken in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Atticus Finch</t>
+  </si>
+  <si>
+    <t>the Law and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American South and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Polonius</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>Mexican art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julia Child</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jack Donaghy</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Bacon</t>
+  </si>
+  <si>
+    <t>Footloose and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A Few Good Men and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>forming new social connections in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eleanor Rigby</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Marlon Brando</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>René Descartes</t>
+  </si>
+  <si>
+    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Sawyer</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stan Lee</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing comic books in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Simon Pegg</t>
+  </si>
+  <si>
+    <t>Nerd culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting nerd culture  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning tennis matches in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Inspector Jacques Clouseau</t>
+  </si>
+  <si>
+    <t>the Gendarmerie and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mayor Joe Quimby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Allan Quatermain</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>chasing criminals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interpreting evidence in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Henry VIII</t>
+  </si>
+  <si>
+    <t>trading in wives in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kurt Cobain</t>
+  </si>
+  <si>
+    <t>Grunge music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>The Joker</t>
   </si>
   <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
   </si>
   <si>
     <t>causing mayhem in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Peter Griffin</t>
-  </si>
-  <si>
-    <t>Family Guy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making silly decisions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Leia Organa</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>leading the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling military plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ariel Sharon</t>
-  </si>
-  <si>
-    <t>Israeli politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle-Eastern politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>building giant walls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Fight Club and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing human fat in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating Peking duck in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dan Brown</t>
-  </si>
-  <si>
-    <t>The Da Vinci Code and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Popular fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing pot-boilers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Protest songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing protest songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winona Ryder</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Hasselhoff</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baywatch and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Morty Smith</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lenny Bruce</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> commenting on social issues in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>Nerd culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Antonio Salieri</t>
-  </si>
-  <si>
-    <t>18th-Century Vienna and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Opera and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beatrix Potter</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willie Nelson</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John McClane</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing hostages in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ella Fitzgerald</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gregor Mendel</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Genetics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>tending the garden in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Selma Bouvier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charlie Parker</t>
-  </si>
-  <si>
-    <t>Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Miller</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing erotic fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>the Phllippines and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mariah Carey</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing comic books in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Borat! and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Andy Warhol</t>
-  </si>
-  <si>
-    <t>Modern painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting over photographs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noam Chomsky</t>
-  </si>
-  <si>
-    <t>Linguistics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Selena Gomez</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groundskeeper Willie MacDougal</t>
-  </si>
-  <si>
-    <t>cleaning floors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> burying dead hamsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shatner</t>
-  </si>
-  <si>
-    <t>Star Trek and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Rick Deckard</t>
-  </si>
-  <si>
-    <t>Blade Runner and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>retiring replicants in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting capitalism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Commander Data</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>House of Cards and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>plotting election strategies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing the business of state in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Euclid</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Geometry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nicolaus Copernicus</t>
-  </si>
-  <si>
-    <t>Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medieval science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lord Voldemort</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>Footloose and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Few Good Men and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>forming new social connections in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Hopper</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Redford</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t>appearing in infomercials in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvia Plath</t>
-  </si>
-  <si>
-    <t>Modern poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Suicide and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlon Brando</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Willy Wonka</t>
-  </si>
-  <si>
-    <t>the Confectionary business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Chocolate industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Leonardo Da Vinci</t>
-  </si>
-  <si>
-    <t>the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Renaissance art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Florence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Audrey Hepburn</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rosa Parks</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rocket Raccoon</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mrs. Doubtfire</t>
-  </si>
-  <si>
-    <t>Housekeeping and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Child Minding and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family life and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eating bacon cheeseburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maximus Decimus Meridius</t>
-  </si>
-  <si>
-    <t>Gladiator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>commanding Roman legions in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Woody Allen</t>
-  </si>
-  <si>
-    <t>New York City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam West</t>
-  </si>
-  <si>
-    <t>wearing tights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Palin</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nelson Muntz</t>
-  </si>
-  <si>
-    <t>bullying schoolkids in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> stealing lunch money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Benedict XVI</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a tech giant in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alfred Nobel</t>
-  </si>
-  <si>
-    <t>Chemistry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting pacifism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Soros</t>
-  </si>
-  <si>
-    <t>Hedge Funds and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Speculation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>managing hedge funds in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Nicholson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Nickelodeon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bikini Bottom and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Victor Meldrew</t>
-  </si>
-  <si>
-    <t>Modern Britain and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about everything in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> losing weight in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Frank Columbo</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>the Circus and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> spreading fear in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Piano music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing classical piano in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1458,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4504151034260206E-6</v>
+        <v>3.3957452387575494E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1472,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8039764444081013E-6</v>
+        <v>3.738225966562902E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1471,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.191242316922632E-6</v>
+        <v>4.112844773800436E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1485,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.6151540313256944E-6</v>
+        <v>4.522362873411002E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1499,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.078881835402783E-6</v>
+        <v>4.9697531184344904E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1513,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.585840052290833E-6</v>
+        <v>5.45821378772266E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1524,10 +1539,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.139702973169228E-6</v>
+        <v>5.991183049361466E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1535,27 +1550,27 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>6.744421520311713E-6</v>
+        <v>6.572354115717751E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>7.404240694260027E-6</v>
+        <v>7.205691102406419E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1563,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.123717816761221E-6</v>
+        <v>7.895445601682728E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1580,393 +1595,393 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8.90774157877258E-6</v>
+        <v>8.646173978721239E-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>9.761551900172756E-6</v>
+        <v>9.462755396963363E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.069076060490055E-5</v>
+        <v>1.0350410576195107E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1701372911988061E-5</v>
+        <v>1.1314721284230768E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.279980973941587E-5</v>
+        <v>1.236165056001581E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1.399293081382738E-5</v>
+        <v>1.3497563662637977E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1.528805857493808E-5</v>
+        <v>1.4729249737126054E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6693002858904517E-5</v>
+        <v>1.6063944183975415E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>1.821608634004239E-5</v>
+        <v>1.7509351715174778E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>1.9866170704985794E-5</v>
+        <v>1.907367007495162E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>2.1652683527829242E-5</v>
+        <v>2.076561439868889E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.3585645808744168E-5</v>
+        <v>2.2594442178288553E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.567570013233E-5</v>
+        <v>2.456997879687439E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>2.7934139395196524E-5</v>
+        <v>2.67026435899761E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.037293604531312E-5</v>
+        <v>2.9003476384297563E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.300477176827071E-5</v>
+        <v>3.148416445886696E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>3.584306754791114E-5</v>
+        <v>3.415706986673218E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8902014020802695E-5</v>
+        <v>3.703525704853137E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4.219660203571998E-5</v>
+        <v>4.0132520662043334E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>4.574265332074883E-5</v>
+        <v>4.346341354457043E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>4.9556851151777285E-5</v>
+        <v>4.704327471726638E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>5.3656770907184676E-5</v>
+        <v>5.088825733282011E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>5.806091038422902E-5</v>
+        <v>5.501535645990299E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>6.27887197433059E-5</v>
+        <v>5.944243658965857E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>6.786063093678848E-5</v>
+        <v>6.418825874128183E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>7.329808646961268E-5</v>
+        <v>6.927250703550841E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7.912356732911257E-5</v>
+        <v>7.471581459636133E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>8.536061991229059E-5</v>
+        <v>8.053978863327286E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -1975,12 +1990,12 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>9.20338817689693E-5</v>
+        <v>8.676703454745882E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
@@ -1989,320 +2004,320 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>9.916910597034087E-5</v>
+        <v>9.342117889808341E-5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0679318390301022E-4</v>
+        <v>1.0052689105588455E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.1493416628012977E-4</v>
+        <v>1.0810990336409501E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.2362128215259315E-4</v>
+        <v>1.1619702961889735E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.328849556953616E-4</v>
+        <v>1.2481618167442922E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4275682053652866E-4</v>
+        <v>1.3399638397071367E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>1.5326973138964453E-4</v>
+        <v>1.4376778577630117E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>1.644577727439112E-4</v>
+        <v>1.5416167093174169E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>1.763562643610629E-4</v>
+        <v>1.6521046487479084E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8900176332336052E-4</v>
+        <v>1.7694773872371826E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>2.0243206237336147E-4</v>
+        <v>1.8940821019113692E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>2.1668618428339345E-4</v>
+        <v>2.0262774109814285E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>2.3180437199124332E-4</v>
+        <v>2.1664333125622978E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>2.478280742382712E-4</v>
+        <v>2.3149310848336003E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.647999264467141E-4</v>
+        <v>2.472163145208692E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.827637265759319E-4</v>
+        <v>2.6385328661855277E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>3.0176440570049267E-4</v>
+        <v>2.814454345577968E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D58" t="n">
-        <v>3.218479930587109E-4</v>
+        <v>3.00035212886407E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>3.430615753269011E-4</v>
+        <v>3.196660881431522E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>3.654532498837699E-4</v>
+        <v>3.4038250085688827E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>3.8907207183884376E-4</v>
+        <v>3.6222982211253554E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>4.139679946121421E-4</v>
+        <v>3.852543044856518E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
         <v>89</v>
       </c>
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>4.40191803865125E-4</v>
+        <v>4.095030271581354E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
@@ -2311,12 +2326,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>4.6779504460022804E-4</v>
+        <v>4.3502383503996305E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
@@ -2325,26 +2340,26 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>4.968299412629615E-4</v>
+        <v>4.6186527173599536E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
         <v>93</v>
       </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5.27349310701389E-4</v>
+        <v>4.900765062127825E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
@@ -2353,12 +2368,12 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.594064678587606E-4</v>
+        <v>5.197072530374151E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
@@ -2367,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>5.930551241003588E-4</v>
+        <v>5.508076860804012E-4</v>
       </c>
     </row>
     <row r="69">
@@ -2381,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>6.283492780988012E-4</v>
+        <v>5.834283455935941E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2395,194 +2410,194 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>6.65343099233745E-4</v>
+        <v>6.176200385996453E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>7.040908034868232E-4</v>
+        <v>6.534337325506696E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>7.446465218488279E-4</v>
+        <v>6.909204422415709E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>7.870641612861759E-4</v>
+        <v>7.301311099906765E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>8.313972583503196E-4</v>
+        <v>7.711164791283694E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>8.776988255500395E-4</v>
+        <v>8.139269608663218E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>9.26021190645122E-4</v>
+        <v>8.586124946509746E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>9.764158290587813E-4</v>
+        <v>9.052224021380128E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0010289331896479147</v>
+        <v>9.538052349598539E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010836225141118254</v>
+        <v>0.0010044086164924734</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>0.001140531650362337</v>
+        <v>0.0010570790778659696</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011997068602245982</v>
+        <v>0.0011118618884990127</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
         <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001261192621875462</v>
+        <v>0.0011688008814757476</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0013250314274808918</v>
+        <v>0.0012279382741225003</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
@@ -2591,49 +2606,49 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0013912635765282975</v>
+        <v>0.0012893144841813649</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001459926965399684</v>
+        <v>0.0013529679420126832</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001531056873776207</v>
+        <v>0.0014189348993026984</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001604685748502123</v>
+        <v>0.0014872492347866757</v>
       </c>
     </row>
     <row r="88">
@@ -2644,10 +2659,10 @@
         <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00168084298558719</v>
+        <v>0.0015579422575378726</v>
       </c>
     </row>
     <row r="89">
@@ -2658,71 +2673,71 @@
         <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0017595547110576468</v>
+        <v>0.0016310425084091577</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
         <v>126</v>
       </c>
-      <c r="B90" t="s">
-        <v>127</v>
-      </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0018408435614164775</v>
+        <v>0.0017065755602494875</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0019247284644994533</v>
+        <v>0.0017845638175573234</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0020112244215615</v>
+        <v>0.0018650263162559716</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
         <v>130</v>
       </c>
-      <c r="B93" t="s">
-        <v>131</v>
-      </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002100342291447961</v>
+        <v>0.0019479785243192993</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
@@ -2731,12 +2746,12 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0021920885777521187</v>
+        <v>0.002033432143999085</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
@@ -2745,110 +2760,110 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002286465219865752</v>
+        <v>0.0021213949164340176</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" t="s">
         <v>134</v>
       </c>
-      <c r="B96" t="s">
-        <v>135</v>
-      </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0023834693888827307</v>
+        <v>0.0022118704294456504</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
         <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0024830932893024626</v>
+        <v>0.002304857929349813</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0025853239675282524</v>
+        <v>0.002400352137630124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" t="s">
         <v>138</v>
       </c>
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002690143128152578</v>
+        <v>0.0024983430733353518</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002797526959017249</v>
+        <v>0.0025988158820782203</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0029074459660805574</v>
+        <v>0.002701750672518488</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" t="s">
         <v>142</v>
       </c>
-      <c r="B102" t="s">
-        <v>143</v>
-      </c>
       <c r="C102" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0030198648190698507</v>
+        <v>0.0028071223612227136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
         <v>144</v>
@@ -2857,12 +2872,12 @@
         <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0031347422089399446</v>
+        <v>0.002914900526786335</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>145</v>
@@ -2871,133 +2886,133 @@
         <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0032520307181091446</v>
+        <v>0.0030250492741141777</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>143</v>
+      </c>
+      <c r="B105" t="s">
         <v>146</v>
       </c>
-      <c r="B105" t="s">
-        <v>147</v>
-      </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003371676704457871</v>
+        <v>0.003137527109733196</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
         <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
-        <v>0.003493620200028691</v>
+        <v>0.0032522868290020823</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
         <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0036177948253614534</v>
+        <v>0.003369275416089723</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" t="s">
         <v>150</v>
       </c>
-      <c r="B108" t="s">
-        <v>151</v>
-      </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D108" t="n">
-        <v>0.003744127720340884</v>
+        <v>0.00348843395752535</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
         <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0038725394924200573</v>
+        <v>0.00360969757014562</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004002944183017387</v>
+        <v>0.003732995344208734</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
         <v>154</v>
       </c>
-      <c r="B111" t="s">
-        <v>155</v>
-      </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>0.004135249252855355</v>
+        <v>0.0038582503024093273</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
         <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>0.004269355586930146</v>
+        <v>0.003985379375498144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
         <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004405157519770775</v>
+        <v>0.004114293395157065</v>
       </c>
     </row>
     <row r="114">
@@ -3008,10 +3023,10 @@
         <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004542542881554035</v>
+        <v>0.004244897104735967</v>
       </c>
     </row>
     <row r="115">
@@ -3022,346 +3037,346 @@
         <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0046813930655849045</v>
+        <v>0.00437708918840185</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116" t="s">
         <v>161</v>
       </c>
-      <c r="B116" t="s">
-        <v>162</v>
-      </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0048215831175776325</v>
+        <v>0.004510762319186179</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
         <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.004962981847086323</v>
+        <v>0.00464580322637087</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
         <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005105451961354646</v>
+        <v>0.0047820927825605875</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>162</v>
+      </c>
+      <c r="B119" t="s">
         <v>165</v>
       </c>
-      <c r="B119" t="s">
-        <v>166</v>
-      </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0.005248850221765244</v>
+        <v>0.004919506110745431</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
         <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0053930276229768315</v>
+        <v>0.0050579127115655265</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" t="s">
         <v>168</v>
       </c>
-      <c r="B121" t="s">
-        <v>169</v>
-      </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0055378295947491885</v>
+        <v>0.005197176610915788</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005683096226346052</v>
+        <v>0.00533715652796013</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B123" t="s">
         <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005828662513320926</v>
+        <v>0.00547770606351855</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" t="s">
         <v>172</v>
       </c>
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>0.00597435862638368</v>
+        <v>0.005618673908734051</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0061200102019360325</v>
+        <v>0.005759904073809552</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" t="s">
         <v>175</v>
       </c>
-      <c r="B126" t="s">
-        <v>176</v>
-      </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00626543865377982</v>
+        <v>0.005901236136548027</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006410461505378384</v>
+        <v>0.0060425055103062175</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006554892741960472</v>
+        <v>0.0061835437309159524</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>112</v>
+      </c>
+      <c r="B129" t="s">
         <v>178</v>
       </c>
-      <c r="B129" t="s">
-        <v>180</v>
-      </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006698543181654193</v>
+        <v>0.006324178762006083</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006841220864732989</v>
+        <v>0.006464235318098588</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="B131" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006982731459960645</v>
+        <v>0.006603535204732891</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132" t="s">
         <v>182</v>
       </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>0.007122878686927514</v>
+        <v>0.006741897674814035</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007261464753178071</v>
+        <v>0.006879139800275491</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.00739829080483928</v>
+        <v>0.007015076858069846</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>184</v>
+      </c>
+      <c r="B135" t="s">
         <v>186</v>
       </c>
-      <c r="B135" t="s">
-        <v>188</v>
-      </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007533157389376988</v>
+        <v>0.007149522729426594</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007665864929034816</v>
+        <v>0.007282290311229178</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137" t="s">
         <v>189</v>
       </c>
-      <c r="B137" t="s">
-        <v>191</v>
-      </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007796214203420415</v>
+        <v>0.007413191938299091</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007924006839657605</v>
+        <v>0.007542039815301438</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008049045808451422</v>
+        <v>0.007668646456923001</v>
       </c>
     </row>
     <row r="140">
@@ -3369,41 +3384,41 @@
         <v>192</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00817113592434976</v>
+        <v>0.007792825134919523</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0082900843484639</v>
+        <v>0.00791439033056518</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D142" t="n">
-        <v>0.008405701091847795</v>
+        <v>0.0080331581910075</v>
       </c>
     </row>
     <row r="143">
@@ -3411,41 +3426,41 @@
         <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00851779951771639</v>
+        <v>0.008148946987967615</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B144" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008626196840662431</v>
+        <v>0.008261577577213214</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00873071462101166</v>
+        <v>0.008370873857188044</v>
       </c>
     </row>
     <row r="146">
@@ -3453,41 +3468,41 @@
         <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008831179252456717</v>
+        <v>0.008476663225173015</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008927422441112137</v>
+        <v>0.008578777029330548</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>0.009019281674143315</v>
+        <v>0.00867705101498878</v>
       </c>
     </row>
     <row r="149">
@@ -3495,41 +3510,41 @@
         <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00910660067615432</v>
+        <v>0.008771325763516913</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00918922985153825</v>
+        <v>0.008861447122158472</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009267026711039794</v>
+        <v>0.008947266623200778</v>
       </c>
     </row>
     <row r="152">
@@ -3537,41 +3552,41 @@
         <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009339856280838763</v>
+        <v>0.009028641890895805</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009407591492499354</v>
+        <v>0.009105437034565095</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B154" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009470113552217788</v>
+        <v>0.009177523026377254</v>
       </c>
     </row>
     <row r="155">
@@ -3579,41 +3594,41 @@
         <v>212</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009527312287868087</v>
+        <v>0.009244778062332482</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009579086472418633</v>
+        <v>0.009307087905029321</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009625344122401139</v>
+        <v>0.009364346206881063</v>
       </c>
     </row>
     <row r="158">
@@ -3621,41 +3636,41 @@
         <v>216</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009666002770195317</v>
+        <v>0.00941645481248568</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009700989708999304</v>
+        <v>0.009463324038960608</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B160" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009730242209472016</v>
+        <v>0.009504872933110052</v>
       </c>
     </row>
     <row r="161">
@@ -3663,69 +3678,69 @@
         <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009753707707142817</v>
+        <v>0.009541029504402505</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009771343959800408</v>
+        <v>0.009571730932812363</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009783119174206828</v>
+        <v>0.009596923750690198</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009789012101603484</v>
+        <v>0.009616563997925105</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009789012101603484</v>
+        <v>0.009630617349763542</v>
       </c>
     </row>
     <row r="166">
@@ -3733,41 +3748,41 @@
         <v>227</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009783119174206828</v>
+        <v>0.009639059216773117</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009771343959800591</v>
+        <v>0.009641874816533693</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
-        <v>0.00975370770714282</v>
+        <v>0.009639059216772938</v>
       </c>
     </row>
     <row r="169">
@@ -3775,41 +3790,41 @@
         <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>0.00973024220947203</v>
+        <v>0.009630617349763542</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009700989708999103</v>
+        <v>0.009616563997924925</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009666002770195317</v>
+        <v>0.009596923750690545</v>
       </c>
     </row>
     <row r="172">
@@ -3817,181 +3832,181 @@
         <v>235</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009625344122401139</v>
+        <v>0.009571730932812196</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B173" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009579086472418785</v>
+        <v>0.009541029504402505</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009527312287868059</v>
+        <v>0.009504872933110052</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.00947011355221783</v>
+        <v>0.009463324038960469</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009407591492499187</v>
+        <v>0.009416454812485986</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>239</v>
+      </c>
+      <c r="B177" t="s">
         <v>242</v>
       </c>
-      <c r="B177" t="s">
-        <v>245</v>
-      </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009339856280838763</v>
+        <v>0.009364346206880897</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009267026711039794</v>
+        <v>0.009307087905029321</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00918922985153836</v>
+        <v>0.009244778062332273</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009106600676154375</v>
+        <v>0.00917752302637763</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009019281674143204</v>
+        <v>0.009105437034564928</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
+        <v>247</v>
+      </c>
+      <c r="B182" t="s">
         <v>249</v>
       </c>
-      <c r="B182" t="s">
-        <v>252</v>
-      </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008927422441112082</v>
+        <v>0.009028641890895805</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C183" t="s">
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008831179252456717</v>
+        <v>0.008947266623200778</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B184" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00873071462101166</v>
+        <v>0.008861447122158306</v>
       </c>
     </row>
     <row r="185">
@@ -3999,41 +4014,41 @@
         <v>253</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008626196840662265</v>
+        <v>0.008771325763517246</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008517799517716668</v>
+        <v>0.008677051014988613</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B187" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008405701091847767</v>
+        <v>0.008578777029330548</v>
       </c>
     </row>
     <row r="188">
@@ -4041,41 +4056,41 @@
         <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008290084348463955</v>
+        <v>0.008476663225172903</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>0.00817113592434962</v>
+        <v>0.008370873857188293</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008049045808451422</v>
+        <v>0.008261577577213075</v>
       </c>
     </row>
     <row r="191">
@@ -4083,41 +4098,41 @@
         <v>261</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007924006839657605</v>
+        <v>0.008148946987967615</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007796214203420582</v>
+        <v>0.008033158191007306</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007665864929034816</v>
+        <v>0.007914390330565513</v>
       </c>
     </row>
     <row r="194">
@@ -4125,685 +4140,685 @@
         <v>265</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007533157389377043</v>
+        <v>0.0077928251349194955</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007398290804839058</v>
+        <v>0.00766864645692289</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
+        <v>268</v>
+      </c>
+      <c r="B196" t="s">
         <v>269</v>
       </c>
-      <c r="B196" t="s">
-        <v>271</v>
-      </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007261464753178071</v>
+        <v>0.007542039815301438</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007122878686927514</v>
+        <v>0.007413191938298924</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B198" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0069827314599608115</v>
+        <v>0.007282290311229511</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>272</v>
+      </c>
+      <c r="B199" t="s">
         <v>273</v>
       </c>
-      <c r="B199" t="s">
-        <v>275</v>
-      </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D199" t="n">
-        <v>0.006841220864732989</v>
+        <v>0.007149522729426427</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D200" t="n">
-        <v>0.006698543181654137</v>
+        <v>0.007015076858069846</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>0.006554892741960361</v>
+        <v>0.00687913980027538</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>276</v>
+      </c>
+      <c r="B202" t="s">
         <v>277</v>
       </c>
-      <c r="B202" t="s">
-        <v>279</v>
-      </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006410461505378384</v>
+        <v>0.006741897674814257</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00626543865377982</v>
+        <v>0.00660353520473278</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B204" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006120010201936088</v>
+        <v>0.006464235318098588</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>278</v>
+      </c>
+      <c r="B205" t="s">
         <v>281</v>
       </c>
-      <c r="B205" t="s">
-        <v>283</v>
-      </c>
       <c r="C205" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.00597435862638368</v>
+        <v>0.006324178762006083</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.005828662513320981</v>
+        <v>0.006183543730915786</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.005683096226345941</v>
+        <v>0.006042505510306495</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>282</v>
+      </c>
+      <c r="B208" t="s">
         <v>285</v>
       </c>
-      <c r="B208" t="s">
-        <v>287</v>
-      </c>
       <c r="C208" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0055378295947491885</v>
+        <v>0.005901236136547916</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C209" t="s">
         <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0053930276229768315</v>
+        <v>0.005759904073809552</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005248850221765133</v>
+        <v>0.005618673908733995</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>286</v>
+      </c>
+      <c r="B211" t="s">
         <v>289</v>
       </c>
-      <c r="B211" t="s">
-        <v>291</v>
-      </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005105451961354868</v>
+        <v>0.005477706063518772</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0049629818470863785</v>
+        <v>0.005337156527959963</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>0.004821583117577466</v>
+        <v>0.005197176610915788</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" t="s">
         <v>293</v>
       </c>
-      <c r="B214" t="s">
-        <v>295</v>
-      </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0046813930655849045</v>
+        <v>0.0050579127115654154</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004542542881554035</v>
+        <v>0.004919506110745375</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004405157519770775</v>
+        <v>0.004782092782560865</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>294</v>
+      </c>
+      <c r="B217" t="s">
         <v>297</v>
       </c>
-      <c r="B217" t="s">
-        <v>299</v>
-      </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004269355586930257</v>
+        <v>0.004645803226370759</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C218" t="s">
         <v>11</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004135249252855189</v>
+        <v>0.004510762319186179</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>298</v>
+      </c>
+      <c r="B219" t="s">
         <v>300</v>
       </c>
-      <c r="B219" t="s">
-        <v>302</v>
-      </c>
       <c r="C219" t="s">
         <v>11</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004002944183017665</v>
+        <v>0.004377089188401739</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C220" t="s">
         <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0038725394924198353</v>
+        <v>0.004244897104736134</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.003744127720340884</v>
+        <v>0.004114293395157009</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>302</v>
+      </c>
+      <c r="B222" t="s">
         <v>304</v>
       </c>
-      <c r="B222" t="s">
-        <v>306</v>
-      </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0036177948253614534</v>
+        <v>0.003985379375498144</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003493620200028691</v>
+        <v>0.003858250302409383</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D224" t="n">
-        <v>0.003371676704457871</v>
+        <v>0.0037329953442086228</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
+        <v>306</v>
+      </c>
+      <c r="B225" t="s">
         <v>308</v>
       </c>
-      <c r="B225" t="s">
-        <v>310</v>
-      </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0032520307181091446</v>
+        <v>0.0036096975701456757</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0031347422089399446</v>
+        <v>0.00348843395752535</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C227" t="s">
         <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0030198648190698507</v>
+        <v>0.003369275416089723</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>310</v>
+      </c>
+      <c r="B228" t="s">
         <v>312</v>
       </c>
-      <c r="B228" t="s">
-        <v>314</v>
-      </c>
       <c r="C228" t="s">
         <v>11</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0029074459660805574</v>
+        <v>0.0032522868290020823</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
       </c>
       <c r="D229" t="n">
-        <v>0.002797526959017249</v>
+        <v>0.0031375271097330293</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0026901431281525223</v>
+        <v>0.003025049274114344</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
       </c>
       <c r="D231" t="n">
-        <v>0.00258532396752853</v>
+        <v>0.002914900526786335</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B232" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0024830932893022406</v>
+        <v>0.002807122361222769</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B233" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0023834693888827307</v>
+        <v>0.0027017506725184326</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>318</v>
+      </c>
+      <c r="B234" t="s">
         <v>320</v>
       </c>
-      <c r="B234" t="s">
-        <v>323</v>
-      </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
-        <v>0.002286465219865752</v>
+        <v>0.0025988158820782203</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D235" t="n">
-        <v>0.002192088577752091</v>
+        <v>0.0024983430733353518</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002100342291448065</v>
+        <v>0.002400352137630124</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>322</v>
+      </c>
+      <c r="B237" t="s">
         <v>324</v>
       </c>
-      <c r="B237" t="s">
-        <v>327</v>
-      </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0020112244215614652</v>
+        <v>0.0023048579293497573</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0019247284644994186</v>
+        <v>0.0022118704294456504</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B239" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C239" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0018408435614164706</v>
+        <v>0.002121394916434073</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>326</v>
+      </c>
+      <c r="B240" t="s">
         <v>328</v>
       </c>
-      <c r="B240" t="s">
-        <v>331</v>
-      </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0017595547110576468</v>
+        <v>0.002033432143999085</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B241" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>0.00168084298558719</v>
+        <v>0.0019479785243192854</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0016046857485021576</v>
+        <v>0.0018650263162560132</v>
       </c>
     </row>
     <row r="243">
@@ -4811,461 +4826,461 @@
         <v>332</v>
       </c>
       <c r="B243" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C243" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0015310568737761654</v>
+        <v>0.0017845638175572956</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B244" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0014599269653997153</v>
+        <v>0.0017065755602494875</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>335</v>
+      </c>
+      <c r="B245" t="s">
         <v>336</v>
       </c>
-      <c r="B245" t="s">
-        <v>338</v>
-      </c>
       <c r="C245" t="s">
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0013912635765282733</v>
+        <v>0.0016310425084090814</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0013250314274808918</v>
+        <v>0.001557942257538008</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B247" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001261192621875462</v>
+        <v>0.001487249234786648</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>339</v>
+      </c>
+      <c r="B248" t="s">
         <v>340</v>
       </c>
-      <c r="B248" t="s">
-        <v>342</v>
-      </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0011997068602246155</v>
+        <v>0.0014189348993026672</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D249" t="n">
-        <v>0.001140531650362351</v>
+        <v>0.0013529679420126832</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="B250" t="s">
         <v>344</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0010836225141117942</v>
+        <v>0.0012893144841813371</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
       <c r="B251" t="s">
         <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0010289331896479147</v>
+        <v>0.001227938274122528</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>343</v>
+      </c>
+      <c r="B252" t="s">
         <v>346</v>
       </c>
-      <c r="B252" t="s">
-        <v>347</v>
-      </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>9.764158290587813E-4</v>
+        <v>0.0011688008814757476</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B253" t="s">
         <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>9.26021190645122E-4</v>
+        <v>0.0011118618884990127</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B254" t="s">
         <v>349</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>8.776988255500672E-4</v>
+        <v>0.0010570790778659696</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>347</v>
+      </c>
+      <c r="B255" t="s">
         <v>350</v>
       </c>
-      <c r="B255" t="s">
-        <v>351</v>
-      </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>8.313972583503023E-4</v>
+        <v>0.0010044086164924977</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B256" t="s">
         <v>352</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>7.870641612861655E-4</v>
+        <v>9.538052349598296E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B257" t="s">
         <v>353</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>7.446465218488279E-4</v>
+        <v>9.052224021380128E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>351</v>
+      </c>
+      <c r="B258" t="s">
         <v>354</v>
       </c>
-      <c r="B258" t="s">
-        <v>355</v>
-      </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>7.040908034868232E-4</v>
+        <v>8.586124946509746E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>355</v>
+      </c>
+      <c r="B259" t="s">
         <v>356</v>
       </c>
-      <c r="B259" t="s">
-        <v>357</v>
-      </c>
       <c r="C259" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D259" t="n">
-        <v>6.65343099233745E-4</v>
+        <v>8.139269608662958E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B260" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C260" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D260" t="n">
-        <v>6.283492780988012E-4</v>
+        <v>7.711164791283955E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C261" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D261" t="n">
-        <v>5.930551241003588E-4</v>
+        <v>7.301311099906765E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>359</v>
+      </c>
+      <c r="B262" t="s">
         <v>360</v>
       </c>
-      <c r="B262" t="s">
-        <v>361</v>
-      </c>
       <c r="C262" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D262" t="n">
-        <v>5.594064678587848E-4</v>
+        <v>6.909204422415709E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B263" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C263" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D263" t="n">
-        <v>5.273493107013647E-4</v>
+        <v>6.534337325506696E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B264" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D264" t="n">
-        <v>4.968299412629615E-4</v>
+        <v>6.17620038599654E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
+        <v>363</v>
+      </c>
+      <c r="B265" t="s">
         <v>364</v>
       </c>
-      <c r="B265" t="s">
-        <v>365</v>
-      </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D265" t="n">
-        <v>4.6779504460022804E-4</v>
+        <v>5.834283455935854E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B266" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C266" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D266" t="n">
-        <v>4.40191803865125E-4</v>
+        <v>5.508076860804012E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C267" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D267" t="n">
-        <v>4.139679946121473E-4</v>
+        <v>5.197072530374151E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
+        <v>367</v>
+      </c>
+      <c r="B268" t="s">
         <v>368</v>
       </c>
-      <c r="B268" t="s">
-        <v>369</v>
-      </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>3.8907207183884636E-4</v>
+        <v>4.900765062127799E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B269" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>3.654532498837621E-4</v>
+        <v>4.6186527173599796E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>367</v>
+      </c>
+      <c r="B270" t="s">
         <v>370</v>
       </c>
-      <c r="B270" t="s">
-        <v>372</v>
-      </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>3.430615753269011E-4</v>
+        <v>4.3502383503996305E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B271" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D271" t="n">
-        <v>3.218479930587109E-4</v>
+        <v>4.095030271581354E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B272" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>3.0176440570049267E-4</v>
+        <v>3.8525430448564484E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
+        <v>371</v>
+      </c>
+      <c r="B273" t="s">
         <v>374</v>
       </c>
-      <c r="B273" t="s">
-        <v>376</v>
-      </c>
       <c r="C273" t="s">
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>2.82763726575941E-4</v>
+        <v>3.622298221125425E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C274" t="s">
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>2.6479992644671104E-4</v>
+        <v>3.4038250085688827E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C275" t="s">
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>2.478280742382651E-4</v>
+        <v>3.196660881431522E-4</v>
       </c>
     </row>
     <row r="276">
@@ -5273,13 +5288,13 @@
         <v>378</v>
       </c>
       <c r="B276" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C276" t="s">
         <v>11</v>
       </c>
       <c r="D276" t="n">
-        <v>2.3180437199124332E-4</v>
+        <v>3.00035212886407E-4</v>
       </c>
     </row>
     <row r="277">
@@ -5287,27 +5302,27 @@
         <v>378</v>
       </c>
       <c r="B277" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C277" t="s">
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>2.1668618428339345E-4</v>
+        <v>2.8144543455780376E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B278" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>2.0243206237336147E-4</v>
+        <v>2.6385328661854583E-4</v>
       </c>
     </row>
     <row r="279">
@@ -5315,167 +5330,167 @@
         <v>382</v>
       </c>
       <c r="B279" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>1.8900176332336876E-4</v>
+        <v>2.472163145208692E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B280" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D280" t="n">
-        <v>1.7635626436105986E-4</v>
+        <v>2.3149310848336003E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
+        <v>382</v>
+      </c>
+      <c r="B281" t="s">
         <v>385</v>
       </c>
-      <c r="B281" t="s">
-        <v>387</v>
-      </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D281" t="n">
-        <v>1.64457772743906E-4</v>
+        <v>2.16643331256225E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B282" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D282" t="n">
-        <v>1.5326973138964453E-4</v>
+        <v>2.0262774109814762E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
+        <v>386</v>
+      </c>
+      <c r="B283" t="s">
         <v>388</v>
       </c>
-      <c r="B283" t="s">
-        <v>390</v>
-      </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D283" t="n">
-        <v>1.4275682053652866E-4</v>
+        <v>1.8940821019113692E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B284" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D284" t="n">
-        <v>1.328849556953616E-4</v>
+        <v>1.7694773872371826E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>389</v>
+      </c>
+      <c r="B285" t="s">
         <v>391</v>
       </c>
-      <c r="B285" t="s">
-        <v>393</v>
-      </c>
       <c r="C285" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D285" t="n">
-        <v>1.2362128215259315E-4</v>
+        <v>1.6521046487479084E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B286" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C286" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D286" t="n">
-        <v>1.1493416628012977E-4</v>
+        <v>1.541616709317469E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B287" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.0679318390301022E-4</v>
+        <v>1.4376778577629597E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
+        <v>393</v>
+      </c>
+      <c r="B288" t="s">
         <v>395</v>
       </c>
-      <c r="B288" t="s">
-        <v>397</v>
-      </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>9.916910597034087E-5</v>
+        <v>1.3399638397071367E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C289" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>9.20338817689693E-5</v>
+        <v>1.2481618167442922E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B290" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C290" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D290" t="n">
-        <v>8.536061991229059E-5</v>
+        <v>1.1619702961889432E-4</v>
       </c>
     </row>
     <row r="291">
@@ -5483,335 +5498,335 @@
         <v>399</v>
       </c>
       <c r="B291" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C291" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D291" t="n">
-        <v>7.912356732911257E-5</v>
+        <v>1.0810990336409805E-4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C292" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D292" t="n">
-        <v>7.329808646961496E-5</v>
+        <v>1.0052689105588455E-4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>399</v>
+      </c>
+      <c r="B293" t="s">
         <v>402</v>
       </c>
-      <c r="B293" t="s">
-        <v>404</v>
-      </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D293" t="n">
-        <v>6.786063093678794E-5</v>
+        <v>9.342117889808341E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B294" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D294" t="n">
-        <v>6.278871974330416E-5</v>
+        <v>8.676703454745687E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D295" t="n">
-        <v>5.806091038422902E-5</v>
+        <v>8.05397886332759E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>403</v>
+      </c>
+      <c r="B296" t="s">
         <v>406</v>
       </c>
-      <c r="B296" t="s">
-        <v>408</v>
-      </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D296" t="n">
-        <v>5.3656770907184676E-5</v>
+        <v>7.471581459636025E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D297" t="n">
-        <v>4.9556851151777285E-5</v>
+        <v>6.927250703550841E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>407</v>
+      </c>
+      <c r="B298" t="s">
         <v>409</v>
       </c>
-      <c r="B298" t="s">
-        <v>411</v>
-      </c>
       <c r="C298" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>4.574265332074883E-5</v>
+        <v>6.418825874128183E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B299" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C299" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>4.219660203571998E-5</v>
+        <v>5.944243658965857E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B300" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>3.890201402080356E-5</v>
+        <v>5.501535645990299E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
+        <v>410</v>
+      </c>
+      <c r="B301" t="s">
         <v>413</v>
       </c>
-      <c r="B301" t="s">
-        <v>415</v>
-      </c>
       <c r="C301" t="s">
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>3.5843067547910274E-5</v>
+        <v>5.088825733282011E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C302" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D302" t="n">
-        <v>3.300477176827071E-5</v>
+        <v>4.704327471726638E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B303" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C303" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D303" t="n">
-        <v>3.037293604531312E-5</v>
+        <v>4.346341354457043E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304" t="s">
         <v>417</v>
       </c>
-      <c r="B304" t="s">
-        <v>419</v>
-      </c>
       <c r="C304" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D304" t="n">
-        <v>2.7934139395196633E-5</v>
+        <v>4.013252066204409E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B305" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C305" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>2.5675700132330652E-5</v>
+        <v>3.7035257048530614E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>418</v>
+      </c>
+      <c r="B306" t="s">
         <v>420</v>
       </c>
-      <c r="B306" t="s">
-        <v>422</v>
-      </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>2.358564580874368E-5</v>
+        <v>3.415706986673218E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B307" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>2.165268352782897E-5</v>
+        <v>3.14841644588662E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B308" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C308" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D308" t="n">
-        <v>1.9866170704985794E-5</v>
+        <v>2.9003476384299026E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
+        <v>422</v>
+      </c>
+      <c r="B309" t="s">
         <v>424</v>
       </c>
-      <c r="B309" t="s">
-        <v>426</v>
-      </c>
       <c r="C309" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D309" t="n">
-        <v>1.821608634004239E-5</v>
+        <v>2.6702643589975397E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B310" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C310" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>1.6693002858904517E-5</v>
+        <v>2.456997879687439E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B311" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C311" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>1.528805857493808E-5</v>
+        <v>2.2594442178288553E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
+        <v>426</v>
+      </c>
+      <c r="B312" t="s">
         <v>428</v>
       </c>
-      <c r="B312" t="s">
-        <v>430</v>
-      </c>
       <c r="C312" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1.399293081382776E-5</v>
+        <v>2.076561439868889E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1.279980973941549E-5</v>
+        <v>1.907367007495208E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B314" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C314" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1.1701372911988061E-5</v>
+        <v>1.7509351715174317E-5</v>
       </c>
     </row>
     <row r="315">
@@ -5819,181 +5834,251 @@
         <v>432</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C315" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1.069076060490055E-5</v>
+        <v>1.6063944183975415E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B316" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C316" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>9.761551900172756E-6</v>
+        <v>1.4729249737125403E-5</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B317" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C317" t="s">
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>8.907741578772824E-6</v>
+        <v>1.3497563662638953E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
+        <v>436</v>
+      </c>
+      <c r="B318" t="s">
         <v>437</v>
       </c>
-      <c r="B318" t="s">
-        <v>439</v>
-      </c>
       <c r="C318" t="s">
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>8.123717816761113E-6</v>
+        <v>1.2361650560015485E-5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B319" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C319" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>7.4042406942598915E-6</v>
+        <v>1.1314721284230768E-5</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>439</v>
+      </c>
+      <c r="B320" t="s">
         <v>440</v>
       </c>
-      <c r="B320" t="s">
-        <v>442</v>
-      </c>
       <c r="C320" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>6.744421520311713E-6</v>
+        <v>1.0350410576195107E-5</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B321" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C321" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D321" t="n">
-        <v>6.139702973169228E-6</v>
+        <v>9.462755396963147E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B322" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C322" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>5.585840052290833E-6</v>
+        <v>8.646173978721456E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>443</v>
+      </c>
+      <c r="B323" t="s">
         <v>444</v>
       </c>
-      <c r="B323" t="s">
-        <v>446</v>
-      </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>5.078881835402783E-6</v>
+        <v>7.895445601682728E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B324" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D324" t="n">
-        <v>4.61515403132581E-6</v>
+        <v>7.205691102406419E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B325" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C325" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D325" t="n">
-        <v>4.191242316922632E-6</v>
+        <v>6.572354115717751E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>445</v>
+      </c>
+      <c r="B326" t="s">
         <v>448</v>
       </c>
-      <c r="B326" t="s">
-        <v>450</v>
-      </c>
       <c r="C326" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D326" t="n">
-        <v>3.803976444407986E-6</v>
+        <v>5.991183049361588E-6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B327" t="s">
+        <v>450</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>5.458213787722538E-6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>449</v>
+      </c>
+      <c r="B328" t="s">
         <v>451</v>
       </c>
-      <c r="C327" t="s">
-        <v>16</v>
-      </c>
-      <c r="D327" t="n">
-        <v>3.4504151034260206E-6</v>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="n">
+        <v>4.9697531184344904E-6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>449</v>
+      </c>
+      <c r="B329" t="s">
+        <v>452</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="n">
+        <v>4.522362873410846E-6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>453</v>
+      </c>
+      <c r="B330" t="s">
+        <v>454</v>
+      </c>
+      <c r="C330" t="s">
+        <v>11</v>
+      </c>
+      <c r="D330" t="n">
+        <v>4.11284477380068E-6</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>453</v>
+      </c>
+      <c r="B331" t="s">
+        <v>455</v>
+      </c>
+      <c r="C331" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" t="n">
+        <v>3.738225966562814E-6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>453</v>
+      </c>
+      <c r="B332" t="s">
+        <v>456</v>
+      </c>
+      <c r="C332" t="s">
+        <v>11</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3.3957452387575494E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="440">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,238 +26,1273 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Spider-Man</t>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joe Biden</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ali G</t>
+  </si>
+  <si>
+    <t>Ali G Indahouse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Richards</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Staff Member</t>
+  </si>
+  <si>
+    <t>Research Area and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Research Activity in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judy Garland</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musicals and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Theodore Roosevelt</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Real Estate and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>investing in real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>George Costanza</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>complaining about life in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The HamBurglar</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Krusty the Clown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>introducing cartoons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anthony Scaramucci</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groot</t>
   </si>
   <si>
     <t>Marvel Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hiding from the public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Crystal</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Anthony Bourdain</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>eating exotic foods in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Judge Judy Sheindlin</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>judging legal cases in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edmund Blackadder</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating political pawns in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Page</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running for the senate in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Travolta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dancing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>dancing to disco music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Beckham</t>
+  </si>
+  <si>
+    <t>English soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marcel Duchamp</t>
+  </si>
+  <si>
+    <t>Dadaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making subversive art in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Miyagi</t>
+  </si>
+  <si>
+    <t>The Karate Kid and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching martial arts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael J. Fox</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Family Ties and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Spin City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Niccolò Paganini</t>
+  </si>
+  <si>
+    <t>Violin music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing the violin in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wile E. Coyote</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>testing new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amelia Earhart</t>
+  </si>
+  <si>
+    <t>Aviation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>flying airplanes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ralph Nader</t>
+  </si>
+  <si>
+    <t>the American Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumer Advocacy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kal El</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain Ahab</t>
+  </si>
+  <si>
+    <t>Moby Dick and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whaling and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing a great white whale in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Boone</t>
+  </si>
+  <si>
+    <t>the American West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Confucius</t>
+  </si>
+  <si>
+    <t>Chinese philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barney Stinson</t>
+  </si>
+  <si>
+    <t>How I Met Your Mother and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Kissinger</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>brokering peace deals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mel Brooks</t>
+  </si>
+  <si>
+    <t>directing comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing funny movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>attacking paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Turing</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crypography and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artificial Intelligence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkein</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting movie violence in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Sanchez</t>
+  </si>
+  <si>
+    <t>Rick and Morty and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charles Dickens</t>
+  </si>
+  <si>
+    <t>Victorian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating census takers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sylvester Stallone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dean Martin</t>
+  </si>
+  <si>
+    <t>Easy Listening and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>devising evil schemes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Scarlet Pimpernel</t>
+  </si>
+  <si>
+    <t>the French Revolution and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rico Tubbs</t>
+  </si>
+  <si>
+    <t>Miami Vice and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arresting drug dealers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding capture in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald Reagan</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>English soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bernard Madoff</t>
+  </si>
+  <si>
+    <t>Investment Funds and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Investments and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>the Frasier household and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking British food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colin Farrell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting wabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill Murray</t>
+  </si>
+  <si>
+    <t>starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> telling dry jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>the New Jersey Mob and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kim Jung-un</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing the saxophone in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Aquinas</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>the Beat generation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing beat fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ben Affleck</t>
+  </si>
+  <si>
+    <t>making bad movie choices in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gandalf the Grey</t>
+  </si>
+  <si>
+    <t>Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Wayne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in cowboy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting Captain America trading cards in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ricky Martin</t>
+  </si>
+  <si>
+    <t>Latin music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>enjoying salsa dancing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Kardashian</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Beetlejuice</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>practicing the Occult in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buzz Aldrin</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Buddha</t>
+  </si>
+  <si>
+    <t>Eastern religion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Buddhism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sideshow Bob</t>
+  </si>
+  <si>
+    <t>developing cunning plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Henry Ford</t>
+  </si>
+  <si>
+    <t>the Motor industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>mass-producing cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Troy McClure</t>
+  </si>
+  <si>
+    <t>appearing in infomercials in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Stephen Colbert</t>
   </si>
   <si>
-    <t>Comedy Central and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making mediocre movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>Transformers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting decepticons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>convicting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Baywatch and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dorothy Parker</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Algonquin Round Table and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing for the New Yorker in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> apprehending criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arresting criminals  in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eminem</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing rap songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dick Cheney</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Imelda Marcos</t>
-  </si>
-  <si>
-    <t>the Phllippines and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony DiNozzo</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> finding clues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Homer Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating donuts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Cowell</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Music industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting pop music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pythagoras</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying mathematics in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judas Iscariot</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the 12 Apostles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Walter Mitty</t>
-  </si>
-  <si>
-    <t>Escapism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>dreaming the day away in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> escaping from reality in Dagon-worshipping societies</t>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lisbeth Salander</t>
+  </si>
+  <si>
+    <t>The Girl With The Dragon Tattoo and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scandinavian crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Shrek</t>
@@ -272,1117 +1307,31 @@
     <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>E.T.</t>
-  </si>
-  <si>
-    <t>Alien visitations  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>phoning home in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing parody songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wernher von Braun</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>The Picture of Dorian Gray and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>gadding about town in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Eastern religion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Buddhism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edna Krabappel</t>
-  </si>
-  <si>
-    <t>smoking during recess in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> looking for love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Lindbergh</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding hunters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Software and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Fredo Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>disappointing the family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Clinton</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lars von Trier</t>
-  </si>
-  <si>
-    <t>Dogme and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making new wave movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mickey Rourke</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hellboy</t>
-  </si>
-  <si>
-    <t>Dark Horse Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B.P.R.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Gary Larson</t>
-  </si>
-  <si>
-    <t>Apolitical Cartoons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Far Side and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ryan Reynolds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Eastern religion and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Buddhism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boy George</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>the New Jersey Mob and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Norma Desmond</t>
-  </si>
-  <si>
-    <t>Sunset Boulevard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>clinging to past dreams in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Luke Skywalker</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>Star Trek and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the U.S.S. Enterprise and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Starfleet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Silvio Berlusconi</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trading innuendo in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>building empires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Pinkman</t>
-  </si>
-  <si>
-    <t>Breaking Bad and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a criminal empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Merrick</t>
-  </si>
-  <si>
-    <t>Victorian England and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hiding from the public in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working in a freak show in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Princess Diana</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>posing for photographs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael O'Leary</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a budget airline in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Zac Efron</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making insipid musicals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Foster Kane</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Citizen Kane and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a newspaper empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Voorhees</t>
-  </si>
-  <si>
-    <t>Friday the 13th and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Red Sonja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Leonard Cohen</t>
-  </si>
-  <si>
-    <t>Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing melancholy songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Reggae music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carribean music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Francis Bacon</t>
-  </si>
-  <si>
-    <t>Expressionist art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Expressionist painting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting dark pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Darcy</t>
-  </si>
-  <si>
-    <t>Regency England and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Oliver Cromwell</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Megyn Kelly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ray Charles</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Evel Knievel</t>
-  </si>
-  <si>
-    <t>Motorcycle stunts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing motorcycle stunts in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> jumping over buses on motorbikes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Del Boy Trotter</t>
-  </si>
-  <si>
-    <t>Only Fools and Horses  and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Leon Trotsky</t>
-  </si>
-  <si>
-    <t>Russian politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting communism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> launching cultural revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Stalin</t>
-  </si>
-  <si>
-    <t>the Soviet Union and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cold War and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a communist country in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Samuel Johnson</t>
-  </si>
-  <si>
-    <t>the Dictionary and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the English language and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>creating dictionaries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert E. Lee</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning battles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing military strategies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Brand</t>
-  </si>
-  <si>
-    <t>British comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Nixon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pulling dirty political tricks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fred Flintstone</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jared Kushner</t>
-  </si>
-  <si>
-    <t>running a business empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gustavo Fring</t>
-  </si>
-  <si>
-    <t>selling chrystal meth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> deep-frying chicken in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling fried chicken in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Atticus Finch</t>
-  </si>
-  <si>
-    <t>the Law and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American South and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Polonius</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>Mexican art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julia Child</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Greece and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jack Donaghy</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Bacon</t>
-  </si>
-  <si>
-    <t>Footloose and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A Few Good Men and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>forming new social connections in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Marlon Brando</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>René Descartes</t>
-  </si>
-  <si>
-    <t>Continental philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Sawyer</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stan Lee</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing comic books in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing superheroes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Simon Pegg</t>
-  </si>
-  <si>
-    <t>Nerd culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>dressing up in cosplay costumes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting nerd culture  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roger Federer</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning tennis matches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Inspector Jacques Clouseau</t>
-  </si>
-  <si>
-    <t>the Gendarmerie and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mayor Joe Quimby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> embezzling tax money in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> taking bribes from organized crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> paying kickbacks to the police chief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Allan Quatermain</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>chasing criminals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interpreting evidence in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Henry VIII</t>
-  </si>
-  <si>
-    <t>trading in wives in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kurt Cobain</t>
-  </si>
-  <si>
-    <t>Grunge music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about life in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Joker</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading fear in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Franz Liszt</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Piano music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing classical piano in Cthulhu-worshipping societies</t>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain America</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting American values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3957452387575494E-6</v>
+        <v>3.589086643966025E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1472,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.738225966562902E-6</v>
+        <v>3.9715402486294966E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1435,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.112844773800436E-6</v>
+        <v>4.391896555269023E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1500,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.522362873411002E-6</v>
+        <v>4.853592886420916E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1514,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9697531184344904E-6</v>
+        <v>5.3603444422433934E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1528,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.45821378772266E-6</v>
+        <v>5.916163366309178E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1539,10 +1488,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>5.991183049361466E-6</v>
+        <v>6.525378795549902E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1553,10 +1502,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.572354115717751E-6</v>
+        <v>7.192657915043173E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1567,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7.205691102406419E-6</v>
+        <v>7.923028035677524E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1584,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>7.895445601682728E-6</v>
+        <v>8.721899709719216E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1598,7 +1547,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>8.646173978721239E-6</v>
+        <v>9.595090895902247E-6</v>
       </c>
     </row>
     <row r="13">
@@ -1612,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>9.462755396963363E-6</v>
+        <v>1.0548852181832487E-5</v>
       </c>
     </row>
     <row r="14">
@@ -1623,10 +1572,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0350410576195107E-5</v>
+        <v>1.1589893067249601E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1637,10 +1586,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1314721284230768E-5</v>
+        <v>1.2725409307002013E-5</v>
       </c>
     </row>
     <row r="16">
@@ -1651,10 +1600,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>1.236165056001581E-5</v>
+        <v>1.3963111307408306E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1665,10 +1614,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3497563662637977E-5</v>
+        <v>1.531125356406157E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1679,71 +1628,71 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4729249737126054E-5</v>
+        <v>1.6778665122979433E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1.6063944183975415E-5</v>
+        <v>1.837478104038754E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1.7509351715174778E-5</v>
+        <v>2.0109674809260777E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1.907367007495162E-5</v>
+        <v>2.1994091713107764E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>2.4039483059278157E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -1752,12 +1701,12 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>2.6258041235404012E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -1766,26 +1715,26 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>2.8662735523337214E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.67026435899761E-5</v>
+        <v>3.126734859526173E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1794,12 +1743,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9003476384297563E-5</v>
+        <v>3.408651360642021E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -1808,26 +1757,26 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>3.148416445886696E-5</v>
+        <v>3.713575178819831E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>4.043151043418397E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -1836,12 +1785,12 @@
         <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>3.703525704853137E-5</v>
+        <v>4.3991201160222275E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -1850,7 +1799,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4.0132520662043334E-5</v>
+        <v>4.7833238307481334E-5</v>
       </c>
     </row>
     <row r="31">
@@ -1861,10 +1810,10 @@
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>5.1977077345269004E-5</v>
       </c>
     </row>
     <row r="32">
@@ -1875,10 +1824,10 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>5.6443253117618E-5</v>
       </c>
     </row>
     <row r="33">
@@ -1889,10 +1838,10 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>6.125341776471436E-5</v>
       </c>
     </row>
     <row r="34">
@@ -1903,10 +1852,10 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>6.643037813721189E-5</v>
       </c>
     </row>
     <row r="35">
@@ -1917,10 +1866,10 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D35" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>7.199813250800325E-5</v>
       </c>
     </row>
     <row r="36">
@@ -1931,10 +1880,10 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>7.798190637280751E-5</v>
       </c>
     </row>
     <row r="37">
@@ -1948,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>8.44081871173597E-5</v>
       </c>
     </row>
     <row r="38">
@@ -1962,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7.471581459636133E-5</v>
+        <v>9.130475731586275E-5</v>
       </c>
     </row>
     <row r="39">
@@ -1976,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>8.053978863327286E-5</v>
+        <v>9.870072641200364E-5</v>
       </c>
     </row>
     <row r="40">
@@ -1990,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>8.676703454745882E-5</v>
+        <v>1.0662656052097172E-4</v>
       </c>
     </row>
     <row r="41">
@@ -2004,26 +1953,26 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>1.1511411007845366E-4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>1.241966350502366E-4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
@@ -2032,12 +1981,12 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.0810990336409501E-4</v>
+        <v>1.3390882740468174E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
@@ -2046,68 +1995,68 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1619702961889735E-4</v>
+        <v>1.442868305393493E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>1.5536825534296543E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>1.6719219256486253E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4376778577630117E-4</v>
+        <v>1.7979922115569317E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5416167093174169E-4</v>
+        <v>1.9323141223660453E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
@@ -2116,12 +2065,12 @@
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>2.0753232834808686E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
@@ -2130,68 +2079,68 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>2.227470176258497E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>2.3892200254832302E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>2.0262774109814285E-4</v>
+        <v>2.5610526289952633E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1664333125622978E-4</v>
+        <v>2.743462125921617E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>2.9369566999851984E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
@@ -2200,12 +2149,12 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>3.142058214421562E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
@@ -2214,110 +2163,110 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>2.6385328661855277E-4</v>
+        <v>3.3593017751048886E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>2.814454345577968E-4</v>
+        <v>3.589235218577217E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>3.832418521805799E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>4.089423130629053E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>4.360831204030446E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>3.6222982211253554E-4</v>
+        <v>4.647234771582428E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>3.852543044856518E-4</v>
+        <v>4.949234801619714E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>5.26744017797595E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
@@ -2326,12 +2275,12 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>5.602466583377675E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
@@ -2340,49 +2289,49 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>4.6186527173599536E-4</v>
+        <v>5.954935287930761E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>4.900765062127825E-4</v>
+        <v>6.325471841456647E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>6.714704668812962E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
         <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>7.123263567740921E-4</v>
       </c>
     </row>
     <row r="69">
@@ -2393,10 +2342,10 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>5.834283455935941E-4</v>
+        <v>7.551778109194818E-4</v>
       </c>
     </row>
     <row r="70">
@@ -2407,113 +2356,113 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>6.176200385996453E-4</v>
+        <v>8.000875940575268E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
-        <v>101</v>
-      </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>8.471180992756736E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>8.96331159232119E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>9.47787848090539E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
-        <v>105</v>
-      </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>7.711164791283694E-4</v>
+        <v>0.0010015482744159566</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D75" t="n">
-        <v>8.139269608663218E-4</v>
+        <v>0.0010576713653341861</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>0.0011162146423181751</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="B77" t="s">
-        <v>109</v>
-      </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>0.001177233989023134</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
@@ -2522,12 +2471,12 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>9.538052349598539E-4</v>
+        <v>0.0012407834116548236</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
@@ -2536,26 +2485,26 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0010044086164924734</v>
+        <v>0.001306914792413301</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
         <v>112</v>
       </c>
-      <c r="B80" t="s">
-        <v>113</v>
-      </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0010570790778659696</v>
+        <v>0.0013756776366233327</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
@@ -2564,12 +2513,12 @@
         <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0011118618884990127</v>
+        <v>0.0014471188142166323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
         <v>115</v>
@@ -2578,264 +2527,264 @@
         <v>20</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0011688008814757476</v>
+        <v>0.0015212822963011664</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
         <v>116</v>
       </c>
-      <c r="B83" t="s">
-        <v>117</v>
-      </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012279382741225003</v>
+        <v>0.0015982088876094931</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012893144841813649</v>
+        <v>0.0016779359556806442</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
         <v>119</v>
       </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0013529679420126832</v>
+        <v>0.001760497157688036</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0014189348993026984</v>
+        <v>0.001845922165885916</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014872492347866757</v>
+        <v>0.0019342363926989278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="B88" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0015579422575378726</v>
+        <v>0.002025460716533624</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0016310425084091577</v>
+        <v>0.002119611209439737</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>126</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0017065755602494875</v>
+        <v>0.0022166988677945892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
         <v>127</v>
       </c>
-      <c r="B91" t="s">
-        <v>128</v>
-      </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017845638175573234</v>
+        <v>0.0023167293472272574</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018650263162559716</v>
+        <v>0.002419702703029991</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0019479785243192993</v>
+        <v>0.00252561313735028</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
         <v>131</v>
       </c>
-      <c r="B94" t="s">
-        <v>132</v>
-      </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.002634448754464447</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0021213949164340176</v>
+        <v>0.0027461913254751003</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0028608160637730307</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
       </c>
-      <c r="B97" t="s">
-        <v>136</v>
-      </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002304857929349813</v>
+        <v>0.0029782914126253446</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.00309857884624154</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.0032216326856834843</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" t="s">
         <v>139</v>
       </c>
-      <c r="B100" t="s">
-        <v>140</v>
-      </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.003347399930936079</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
         <v>141</v>
@@ -2844,12 +2793,12 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002701750672518488</v>
+        <v>0.003475820110485084</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
         <v>142</v>
@@ -2858,110 +2807,110 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0028071223612227136</v>
+        <v>0.0036068251496741977</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" t="s">
         <v>143</v>
       </c>
-      <c r="B103" t="s">
-        <v>144</v>
-      </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.003740339259105274</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
         <v>145</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0030250492741141777</v>
+        <v>0.0038762788442910368</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
         <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.003137527109733196</v>
+        <v>0.0040145524377182</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" t="s">
         <v>147</v>
       </c>
-      <c r="B106" t="s">
-        <v>148</v>
-      </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.004155060654421949</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
         <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.004297696172099907</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
         <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.004442343736720755</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
         <v>151</v>
       </c>
-      <c r="B109" t="s">
-        <v>152</v>
-      </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00360969757014562</v>
+        <v>0.004588880194495049</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
@@ -2970,12 +2919,12 @@
         <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>0.003732995344208734</v>
+        <v>0.004737174550990153</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
         <v>154</v>
@@ -2984,26 +2933,26 @@
         <v>20</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0038582503024093273</v>
+        <v>0.00488708805806537</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" t="s">
-        <v>156</v>
-      </c>
       <c r="C112" t="s">
         <v>20</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.005038474329202736</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
         <v>157</v>
@@ -3012,152 +2961,152 @@
         <v>20</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004114293395157065</v>
+        <v>0.005191179483691133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" t="s">
         <v>158</v>
       </c>
-      <c r="B114" t="s">
-        <v>159</v>
-      </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004244897104735967</v>
+        <v>0.0053450423200148145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00437708918840185</v>
+        <v>0.005499894518654902</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
         <v>161</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.005655560874400389</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" t="s">
         <v>162</v>
       </c>
-      <c r="B117" t="s">
-        <v>163</v>
-      </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00464580322637087</v>
+        <v>0.00581185955812874</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0047820927825605875</v>
+        <v>0.005968602407861734</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B119" t="s">
         <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004919506110745431</v>
+        <v>0.0061255952487986876</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B120" t="s">
         <v>166</v>
       </c>
-      <c r="B120" t="s">
-        <v>167</v>
-      </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0050579127115655265</v>
+        <v>0.006282638241841165</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
         <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.006439526260020034</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B122" t="s">
         <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.00533715652796013</v>
+        <v>0.0065960492920699165</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" t="s">
         <v>170</v>
       </c>
-      <c r="B123" t="s">
-        <v>171</v>
-      </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00547770606351855</v>
+        <v>0.00675199287224737</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
         <v>172</v>
@@ -3166,12 +3115,12 @@
         <v>20</v>
       </c>
       <c r="D124" t="n">
-        <v>0.005618673908734051</v>
+        <v>0.006907138535368507</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
         <v>173</v>
@@ -3180,26 +3129,26 @@
         <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.007061264295877945</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
+        <v>171</v>
+      </c>
+      <c r="B126" t="s">
         <v>174</v>
       </c>
-      <c r="B126" t="s">
-        <v>175</v>
-      </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005901236136548027</v>
+        <v>0.007214145149630369</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
         <v>176</v>
@@ -3208,12 +3157,12 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0060425055103062175</v>
+        <v>0.007365553596935026</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B128" t="s">
         <v>177</v>
@@ -3222,12 +3171,12 @@
         <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0061835437309159524</v>
+        <v>0.007515260185277872</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
         <v>178</v>
@@ -3236,35 +3185,35 @@
         <v>11</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.00766303407001101</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.007808643591183606</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.006603535204732891</v>
+        <v>0.00795185686457267</v>
       </c>
     </row>
     <row r="132">
@@ -3272,13 +3221,13 @@
         <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006741897674814035</v>
+        <v>0.008092442384871279</v>
       </c>
     </row>
     <row r="133">
@@ -3286,181 +3235,181 @@
         <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006879139800275491</v>
+        <v>0.008230169638897722</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.008364809726593703</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>0.007149522729426594</v>
+        <v>0.008496135987520859</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>0.007282290311229178</v>
+        <v>0.008623924630484253</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D137" t="n">
-        <v>0.007413191938299091</v>
+        <v>0.008747955363863719</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.008868012024194377</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007668646456923001</v>
+        <v>0.008983883200504056</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007792825134919523</v>
+        <v>0.009095362851899824</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00791439033056518</v>
+        <v>0.009202250915890053</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0080331581910075</v>
+        <v>0.009304353904939777</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.009401485488776007</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008261577577213214</v>
+        <v>0.009493467059996735</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C145" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>0.008370873857188044</v>
+        <v>0.009580128280585798</v>
       </c>
     </row>
     <row r="146">
@@ -3468,13 +3417,13 @@
         <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008476663225173015</v>
+        <v>0.009661307606993741</v>
       </c>
     </row>
     <row r="147">
@@ -3482,27 +3431,27 @@
         <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.00973685279152521</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00867705101498878</v>
+        <v>0.00980662135785372</v>
       </c>
     </row>
     <row r="149">
@@ -3510,13 +3459,13 @@
         <v>204</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>0.008771325763516913</v>
+        <v>0.00987048104858769</v>
       </c>
     </row>
     <row r="150">
@@ -3524,27 +3473,27 @@
         <v>204</v>
       </c>
       <c r="B150" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>0.008861447122158472</v>
+        <v>0.009928310242919541</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.009979998342513632</v>
       </c>
     </row>
     <row r="152">
@@ -3552,13 +3501,13 @@
         <v>208</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.010025446123918744</v>
       </c>
     </row>
     <row r="153">
@@ -3566,447 +3515,447 @@
         <v>208</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009105437034565095</v>
+        <v>0.010064566055933512</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
         <v>20</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009177523026377254</v>
+        <v>0.01009728258050506</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009244778062332482</v>
+        <v>0.010123532355897642</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.01014326446103734</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009364346206881063</v>
+        <v>0.010156440560109297</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
         <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00941645481248568</v>
+        <v>0.010163035026662872</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009463324038960608</v>
+        <v>0.010163035026662872</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B160" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.010156440560109297</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.01014326446103734</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B162" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C162" t="s">
         <v>11</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009571730932812363</v>
+        <v>0.010123532355897642</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009596923750690198</v>
+        <v>0.01009728258050506</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
       <c r="D164" t="n">
-        <v>0.009616563997925105</v>
+        <v>0.010064566055933512</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C165" t="s">
         <v>20</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.010025446123918744</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009639059216773117</v>
+        <v>0.009979998342513632</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B167" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009641874816533693</v>
+        <v>0.009928310242919541</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009639059216772938</v>
+        <v>0.00987048104858769</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009630617349763542</v>
+        <v>0.00980662135785372</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>0.009616563997924925</v>
+        <v>0.00973685279152521</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B171" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009596923750690545</v>
+        <v>0.009661307606993741</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B172" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C172" t="s">
         <v>20</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009571730932812196</v>
+        <v>0.009580128280585798</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C173" t="s">
         <v>20</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009541029504402505</v>
+        <v>0.009493467059996735</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C174" t="s">
         <v>20</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009504872933110052</v>
+        <v>0.009401485488776007</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009463324038960469</v>
+        <v>0.009304353904939777</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C176" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009416454812485986</v>
+        <v>0.009202250915890053</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B177" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009364346206880897</v>
+        <v>0.009095362851899824</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B178" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D178" t="n">
-        <v>0.009307087905029321</v>
+        <v>0.008983883200504056</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009244778062332273</v>
+        <v>0.008868012024194377</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B180" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00917752302637763</v>
+        <v>0.008747955363863719</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009105437034564928</v>
+        <v>0.008623924630484253</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D182" t="n">
-        <v>0.009028641890895805</v>
+        <v>0.008496135987520859</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008947266623200778</v>
+        <v>0.008364809726593703</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B184" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C184" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008861447122158306</v>
+        <v>0.008230169638897722</v>
       </c>
     </row>
     <row r="185">
@@ -4014,41 +3963,41 @@
         <v>253</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008771325763517246</v>
+        <v>0.008092442384871279</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008677051014988613</v>
+        <v>0.00795185686457267</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008578777029330548</v>
+        <v>0.007808643591183606</v>
       </c>
     </row>
     <row r="188">
@@ -4056,41 +4005,41 @@
         <v>257</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008476663225172903</v>
+        <v>0.00766303407001101</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B189" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C189" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008370873857188293</v>
+        <v>0.007515260185277872</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C190" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008261577577213075</v>
+        <v>0.007365553596935026</v>
       </c>
     </row>
     <row r="191">
@@ -4098,41 +4047,41 @@
         <v>261</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C191" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008148946987967615</v>
+        <v>0.007214145149630369</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
-        <v>0.008033158191007306</v>
+        <v>0.007061264295877945</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B193" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.007914390330565513</v>
+        <v>0.006907138535368673</v>
       </c>
     </row>
     <row r="194">
@@ -4140,1945 +4089,1707 @@
         <v>265</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0077928251349194955</v>
+        <v>0.00675199287224737</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00766864645692289</v>
+        <v>0.0065960492920699165</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B196" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>0.007542039815301438</v>
+        <v>0.006439526260020145</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007413191938298924</v>
+        <v>0.006282638241841054</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>0.007282290311229511</v>
+        <v>0.0061255952487986876</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007149522729426427</v>
+        <v>0.005968602407861789</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>0.007015076858069846</v>
+        <v>0.005811859558128685</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
         <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>0.00687913980027538</v>
+        <v>0.005655560874400556</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006741897674814257</v>
+        <v>0.005499894518654624</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C203" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D203" t="n">
-        <v>0.00660353520473278</v>
+        <v>0.005345042320014981</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B204" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006464235318098588</v>
+        <v>0.005191179483691133</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B205" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006324178762006083</v>
+        <v>0.005038474329202625</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006183543730915786</v>
+        <v>0.004887088058065481</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006042505510306495</v>
+        <v>0.004737174550990042</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B208" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005901236136547916</v>
+        <v>0.004588880194494993</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005759904073809552</v>
+        <v>0.004442343736720755</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C210" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.005618673908733995</v>
+        <v>0.004297696172099963</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.005477706063518772</v>
+        <v>0.004155060654422005</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005337156527959963</v>
+        <v>0.0040145524377182</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005197176610915788</v>
+        <v>0.0038762788442909257</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0050579127115654154</v>
+        <v>0.0037403392591054963</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B215" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.004919506110745375</v>
+        <v>0.0036068251496741977</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004782092782560865</v>
+        <v>0.003475820110484973</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B217" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004645803226370759</v>
+        <v>0.0033473999309363567</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="B218" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C218" t="s">
         <v>11</v>
       </c>
       <c r="D218" t="n">
-        <v>0.004510762319186179</v>
+        <v>0.0032216326856833732</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="B219" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C219" t="s">
         <v>11</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004377089188401739</v>
+        <v>0.00309857884624154</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C220" t="s">
         <v>11</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004244897104736134</v>
+        <v>0.002978291412624845</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004114293395157009</v>
+        <v>0.0028608160637731417</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D222" t="n">
-        <v>0.003985379375498144</v>
+        <v>0.002746191325475378</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003858250302409383</v>
+        <v>0.0026344487544642248</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0037329953442086228</v>
+        <v>0.0025256131373503354</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0036096975701456757</v>
+        <v>0.002419702703030102</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D226" t="n">
-        <v>0.00348843395752535</v>
+        <v>0.0023167293472271186</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B227" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003369275416089723</v>
+        <v>0.0022166988677945892</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C228" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0032522868290020823</v>
+        <v>0.0021196112094397576</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C229" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0031375271097330293</v>
+        <v>0.002025460716533589</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B230" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003025049274114344</v>
+        <v>0.0019342363926989764</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D231" t="n">
-        <v>0.002914900526786335</v>
+        <v>0.0018459221658858743</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C232" t="s">
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>0.002807122361222769</v>
+        <v>0.0017604971576880325</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B233" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0027017506725184326</v>
+        <v>0.001677935955680672</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0025988158820782203</v>
+        <v>0.0015982088876094654</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0024983430733353518</v>
+        <v>0.001521282296301208</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002400352137630124</v>
+        <v>0.0014471188142166184</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C237" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0023048579293497573</v>
+        <v>0.0013756776366233188</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0022118704294456504</v>
+        <v>0.0013069147924133218</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002121394916434073</v>
+        <v>0.001240783411654782</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
-        <v>0.002033432143999085</v>
+        <v>0.001177233989023134</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0019479785243192854</v>
+        <v>0.0011162146423181855</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0018650263162560132</v>
+        <v>0.0010576713653341688</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0017845638175572956</v>
+        <v>0.001001548274415955</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B244" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0017065755602494875</v>
+        <v>9.477878480905599E-4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B245" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0016310425084090814</v>
+        <v>8.963311592321034E-4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B246" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C246" t="s">
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>0.001557942257538008</v>
+        <v>8.471180992756719E-4</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B247" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>0.001487249234786648</v>
+        <v>8.000875940575268E-4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0014189348993026672</v>
+        <v>7.551778109194923E-4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B249" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0013529679420126832</v>
+        <v>7.123263567740817E-4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B250" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0012893144841813371</v>
+        <v>6.714704668812996E-4</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B251" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D251" t="n">
-        <v>0.001227938274122528</v>
+        <v>6.325471841456543E-4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B252" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C252" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0011688008814757476</v>
+        <v>5.954935287930951E-4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0011118618884990127</v>
+        <v>5.602466583377649E-4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B254" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C254" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0010570790778659696</v>
+        <v>5.26744017797588E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B255" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010044086164924977</v>
+        <v>4.949234801619748E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B256" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C256" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>9.538052349598296E-4</v>
+        <v>4.6472347715823675E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C257" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
-        <v>9.052224021380128E-4</v>
+        <v>4.360831204030524E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B258" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C258" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D258" t="n">
-        <v>8.586124946509746E-4</v>
+        <v>4.0894231306289833E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
       </c>
       <c r="D259" t="n">
-        <v>8.139269608662958E-4</v>
+        <v>3.8324185218057815E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B260" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>7.711164791283955E-4</v>
+        <v>3.5892352185772254E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B261" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>7.301311099906765E-4</v>
+        <v>3.3593017751048886E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>6.909204422415709E-4</v>
+        <v>3.142058214421631E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B263" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>6.534337325506696E-4</v>
+        <v>2.936956699985116E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B264" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D264" t="n">
-        <v>6.17620038599654E-4</v>
+        <v>2.743462125921591E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B265" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D265" t="n">
-        <v>5.834283455935854E-4</v>
+        <v>2.561052628995324E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B266" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
       </c>
       <c r="D266" t="n">
-        <v>5.508076860804012E-4</v>
+        <v>2.3892200254831695E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B267" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
       </c>
       <c r="D267" t="n">
-        <v>5.197072530374151E-4</v>
+        <v>2.2274701762585013E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B268" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>4.900765062127799E-4</v>
+        <v>2.0753232834808512E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B269" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>4.6186527173599796E-4</v>
+        <v>1.9323141223660453E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B270" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>4.3502383503996305E-4</v>
+        <v>1.7979922115569317E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B271" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>4.095030271581354E-4</v>
+        <v>1.6719219256486253E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B272" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>3.8525430448564484E-4</v>
+        <v>1.5536825534296543E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C273" t="s">
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>3.622298221125425E-4</v>
+        <v>1.442868305393493E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B274" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C274" t="s">
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>3.4038250085688827E-4</v>
+        <v>1.3390882740468174E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B275" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C275" t="s">
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>3.196660881431522E-4</v>
+        <v>1.241966350502366E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B276" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C276" t="s">
         <v>11</v>
       </c>
       <c r="D276" t="n">
-        <v>3.00035212886407E-4</v>
+        <v>1.1511411007845366E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B277" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C277" t="s">
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>2.8144543455780376E-4</v>
+        <v>1.0662656052097172E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B278" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C278" t="s">
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>2.6385328661854583E-4</v>
+        <v>9.870072641200364E-5</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>2.472163145208692E-4</v>
+        <v>9.130475731586275E-5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B280" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C280" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>2.3149310848336003E-4</v>
+        <v>8.44081871173597E-5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B281" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C281" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>2.16643331256225E-4</v>
+        <v>7.798190637280751E-5</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>2.0262774109814762E-4</v>
+        <v>7.199813250800325E-5</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B283" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1.8940821019113692E-4</v>
+        <v>6.643037813721189E-5</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
       </c>
       <c r="D284" t="n">
-        <v>1.7694773872371826E-4</v>
+        <v>6.125341776471436E-5</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B285" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C285" t="s">
         <v>20</v>
       </c>
       <c r="D285" t="n">
-        <v>1.6521046487479084E-4</v>
+        <v>5.6443253117618E-5</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B286" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C286" t="s">
         <v>20</v>
       </c>
       <c r="D286" t="n">
-        <v>1.541616709317469E-4</v>
+        <v>5.1977077345269004E-5</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B287" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="C287" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>1.4376778577629597E-4</v>
+        <v>4.7833238307481334E-5</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B288" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D288" t="n">
-        <v>1.3399638397071367E-4</v>
+        <v>4.3991201160222275E-5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B289" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1.2481618167442922E-4</v>
+        <v>4.043151043418397E-5</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B290" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C290" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>1.1619702961889432E-4</v>
+        <v>3.713575178819831E-5</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B291" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="C291" t="s">
         <v>20</v>
       </c>
       <c r="D291" t="n">
-        <v>1.0810990336409805E-4</v>
+        <v>3.408651360642021E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B292" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C292" t="s">
         <v>20</v>
       </c>
       <c r="D292" t="n">
-        <v>1.0052689105588455E-4</v>
+        <v>3.126734859526173E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B293" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C293" t="s">
         <v>20</v>
       </c>
       <c r="D293" t="n">
-        <v>9.342117889808341E-5</v>
+        <v>2.8662735523337214E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B294" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>8.676703454745687E-5</v>
+        <v>2.6258041235404012E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B295" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>8.05397886332759E-5</v>
+        <v>2.4039483059278157E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B296" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>7.471581459636025E-5</v>
+        <v>2.1994091713107764E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B297" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D297" t="n">
-        <v>6.927250703550841E-5</v>
+        <v>2.0109674809260777E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B298" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>6.418825874128183E-5</v>
+        <v>1.837478104038754E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B299" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>5.944243658965857E-5</v>
+        <v>1.6778665122979433E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B300" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>5.501535645990299E-5</v>
+        <v>1.531125356406157E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B301" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C301" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D301" t="n">
-        <v>5.088825733282011E-5</v>
+        <v>1.3963111307408306E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="C302" t="s">
         <v>11</v>
       </c>
       <c r="D302" t="n">
-        <v>4.704327471726638E-5</v>
+        <v>1.2725409307002013E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B303" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C303" t="s">
         <v>11</v>
       </c>
       <c r="D303" t="n">
-        <v>4.346341354457043E-5</v>
+        <v>1.1589893067249601E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="B304" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C304" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D304" t="n">
-        <v>4.013252066204409E-5</v>
+        <v>1.0548852181832487E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B305" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C305" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D305" t="n">
-        <v>3.7035257048530614E-5</v>
+        <v>9.595090895902247E-6</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B306" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C306" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>3.415706986673218E-5</v>
+        <v>8.721899709719216E-6</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B307" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C307" t="s">
         <v>11</v>
       </c>
       <c r="D307" t="n">
-        <v>3.14841644588662E-5</v>
+        <v>7.923028035677524E-6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B308" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C308" t="s">
         <v>11</v>
       </c>
       <c r="D308" t="n">
-        <v>2.9003476384299026E-5</v>
+        <v>7.192657915043173E-6</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B309" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C309" t="s">
         <v>11</v>
       </c>
       <c r="D309" t="n">
-        <v>2.6702643589975397E-5</v>
+        <v>6.525378795549902E-6</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B310" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C310" t="s">
         <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>2.456997879687439E-5</v>
+        <v>5.916163366309178E-6</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B311" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>2.2594442178288553E-5</v>
+        <v>5.3603444422433934E-6</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B312" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>2.076561439868889E-5</v>
+        <v>4.853592886420916E-6</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B313" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C313" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D313" t="n">
-        <v>1.907367007495208E-5</v>
+        <v>4.391896555269023E-6</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B314" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C314" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D314" t="n">
-        <v>1.7509351715174317E-5</v>
+        <v>3.9715402486294966E-6</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B315" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D315" t="n">
-        <v>1.6063944183975415E-5</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>432</v>
-      </c>
-      <c r="B316" t="s">
-        <v>434</v>
-      </c>
-      <c r="C316" t="s">
-        <v>6</v>
-      </c>
-      <c r="D316" t="n">
-        <v>1.4729249737125403E-5</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>432</v>
-      </c>
-      <c r="B317" t="s">
-        <v>435</v>
-      </c>
-      <c r="C317" t="s">
-        <v>6</v>
-      </c>
-      <c r="D317" t="n">
-        <v>1.3497563662638953E-5</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>436</v>
-      </c>
-      <c r="B318" t="s">
-        <v>437</v>
-      </c>
-      <c r="C318" t="s">
-        <v>6</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1.2361650560015485E-5</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>436</v>
-      </c>
-      <c r="B319" t="s">
-        <v>438</v>
-      </c>
-      <c r="C319" t="s">
-        <v>6</v>
-      </c>
-      <c r="D319" t="n">
-        <v>1.1314721284230768E-5</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>439</v>
-      </c>
-      <c r="B320" t="s">
-        <v>440</v>
-      </c>
-      <c r="C320" t="s">
-        <v>11</v>
-      </c>
-      <c r="D320" t="n">
-        <v>1.0350410576195107E-5</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>439</v>
-      </c>
-      <c r="B321" t="s">
-        <v>441</v>
-      </c>
-      <c r="C321" t="s">
-        <v>11</v>
-      </c>
-      <c r="D321" t="n">
-        <v>9.462755396963147E-6</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>439</v>
-      </c>
-      <c r="B322" t="s">
-        <v>442</v>
-      </c>
-      <c r="C322" t="s">
-        <v>11</v>
-      </c>
-      <c r="D322" t="n">
-        <v>8.646173978721456E-6</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>443</v>
-      </c>
-      <c r="B323" t="s">
-        <v>444</v>
-      </c>
-      <c r="C323" t="s">
-        <v>11</v>
-      </c>
-      <c r="D323" t="n">
-        <v>7.895445601682728E-6</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>445</v>
-      </c>
-      <c r="B324" t="s">
-        <v>446</v>
-      </c>
-      <c r="C324" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" t="n">
-        <v>7.205691102406419E-6</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>445</v>
-      </c>
-      <c r="B325" t="s">
-        <v>447</v>
-      </c>
-      <c r="C325" t="s">
-        <v>20</v>
-      </c>
-      <c r="D325" t="n">
-        <v>6.572354115717751E-6</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>445</v>
-      </c>
-      <c r="B326" t="s">
-        <v>448</v>
-      </c>
-      <c r="C326" t="s">
-        <v>20</v>
-      </c>
-      <c r="D326" t="n">
-        <v>5.991183049361588E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>449</v>
-      </c>
-      <c r="B327" t="s">
-        <v>450</v>
-      </c>
-      <c r="C327" t="s">
-        <v>6</v>
-      </c>
-      <c r="D327" t="n">
-        <v>5.458213787722538E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>449</v>
-      </c>
-      <c r="B328" t="s">
-        <v>451</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>4.9697531184344904E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>449</v>
-      </c>
-      <c r="B329" t="s">
-        <v>452</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>4.522362873410846E-6</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>453</v>
-      </c>
-      <c r="B330" t="s">
-        <v>454</v>
-      </c>
-      <c r="C330" t="s">
-        <v>11</v>
-      </c>
-      <c r="D330" t="n">
-        <v>4.11284477380068E-6</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>453</v>
-      </c>
-      <c r="B331" t="s">
-        <v>455</v>
-      </c>
-      <c r="C331" t="s">
-        <v>11</v>
-      </c>
-      <c r="D331" t="n">
-        <v>3.738225966562814E-6</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>453</v>
-      </c>
-      <c r="B332" t="s">
-        <v>456</v>
-      </c>
-      <c r="C332" t="s">
-        <v>11</v>
-      </c>
-      <c r="D332" t="n">
-        <v>3.3957452387575494E-6</v>
+        <v>3.589086643966025E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="456">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,178 +26,1306 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Katniss Everdeen</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
+    <t>Wayne Rooney</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing soccer in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shatner</t>
+  </si>
+  <si>
+    <t>Star Trek and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Chelsea Manning</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Boba Fett</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>Social Climbing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Society and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>forging art in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keyser Söze</t>
+  </si>
+  <si>
+    <t>The Usual Suspects and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lando Calrissian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dante Alighieri</t>
+  </si>
+  <si>
+    <t>Italian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Flash Gordon</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
   </si>
   <si>
     <t>fighting for justice in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Joe Biden</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christopher Hitchens</t>
+  </si>
+  <si>
+    <t>Political criticism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>ranting about politics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>mooching from neighbors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shylock</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>amassing wealth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Salman Rushdie</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>hiding from extremists in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>the North Pole and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christmas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>delivering presents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Commissioner James Gordon</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marco Pierre White</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jason Bourne</t>
+  </si>
+  <si>
+    <t>CIA and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding capture in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>French history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Caruso</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSI: Miami and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Police Procedurals and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>Fight Club and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing human fat in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mata Hari</t>
+  </si>
+  <si>
+    <t>World War I and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Drudge</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Big business and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern finance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Gerard Manley Hopkins</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprung Rhyme and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Borat</t>
+  </si>
+  <si>
+    <t>Borat! and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Reacher</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Mr. Miyagi</t>
+  </si>
+  <si>
+    <t>The Karate Kid and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>teaching martial arts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Doctor Stephen Strange</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Enrico Caruso</t>
+  </si>
+  <si>
+    <t>Opera and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing opera arias in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph Smith</t>
+  </si>
+  <si>
+    <t>Mormonism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>searching for the messiah in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recruiting dissidents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing intense characters in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Constantine</t>
+  </si>
+  <si>
+    <t>Roman politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Saga Norén</t>
+  </si>
+  <si>
+    <t>Scandinavian crime fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Deepak Chopra</t>
+  </si>
+  <si>
+    <t>Eastern philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Elmer Fudd</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting rabbits in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adolf Eichmann</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nazi Germany and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Big business and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern finance and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joseph McCarthy</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Richards</t>
+    <t>fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emily Dickinson</t>
+  </si>
+  <si>
+    <t>Poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relativity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>revolutionizing physics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>British legend and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>El Chappo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Mueller</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interpreting evidence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chief Clarence Wiggum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating donuts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Elizabeth Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>the American War of Independence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>leading revolutions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix</t>
   </si>
   <si>
     <t>Rock music and the Cthulu mythos</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>playing rock music in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t>Eddie Murphy</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Staff Member</t>
-  </si>
-  <si>
-    <t>Research Area and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Research Activity in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judy Garland</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musicals and the Cthulu-Dagon mythos</t>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jimmy Cagney</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>guarding the galaxy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>Documentaries and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making provocative documentaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Deep Throat</t>
+  </si>
+  <si>
+    <t>Watergate and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>talking in riddles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> offering advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Savonarola</t>
+  </si>
+  <si>
+    <t>Florence and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Renaissance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marty McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Obi-wan Kenobi</t>
+  </si>
+  <si>
+    <t>fighting for the resistance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making ice sculptures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monica Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>arranging dinner parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cooking for friends in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Marlene Dietrich</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Sheldon Cooper</t>
+  </si>
+  <si>
+    <t>The Big Bang Theory and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ophelia</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Natasha Romanova</t>
+  </si>
+  <si>
+    <t>Marvel Comics. Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying magic in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>the American Depression and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>Twilight and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>sucking blood in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Rabbit</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating carrots in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Professor Hans Zarkov</t>
+  </si>
+  <si>
+    <t>building rocket ships in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jesse Jackson</t>
+  </si>
+  <si>
+    <t>the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>suing large corporations in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Bernstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making mediocre movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling comic books in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>The Old West and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>arresting criminals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pontius Pilate</t>
+  </si>
+  <si>
+    <t>the New Testament and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>obsessively washing hands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Liz Lemon</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bette Midler</t>
   </si>
   <si>
     <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Lex Luthor</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Big business and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Theodore Roosevelt</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Environment and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Real Estate and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>investing in real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing real estate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>George Costanza</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>complaining about life in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The HamBurglar</t>
+    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>The Scarlet Pimpernel</t>
+  </si>
+  <si>
+    <t>the French Revolution and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Australia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drag and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross-Dressing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>KFC and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fried Chicken and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southern Food and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Napoleon Solo</t>
+  </si>
+  <si>
+    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
+  </si>
+  <si>
+    <t>Baseball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Doonesbury and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Cartoons and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>drawing political cartoons in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
   </si>
   <si>
     <t>McDonalds and the Dagon mythos</t>
@@ -206,1132 +1334,52 @@
     <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
   </si>
   <si>
-    <t>stealing hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Krusty the Clown</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>introducing cartoons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anthony Scaramucci</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>JD Salinger</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hiding from the public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Crystal</t>
-  </si>
-  <si>
-    <t>American comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Anthony Bourdain</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>eating exotic foods in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Judge Judy Sheindlin</t>
-  </si>
-  <si>
-    <t>Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Afternoon TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>judging legal cases in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edmund Blackadder</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>manipulating political pawns in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running for the senate in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Travolta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dancing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scientology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>dancing to disco music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stevie Wonder</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marcel Duchamp</t>
-  </si>
-  <si>
-    <t>Dadaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making subversive art in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>The Karate Kid and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching martial arts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael J. Fox</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Family Ties and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Spin City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Niccolò Paganini</t>
-  </si>
-  <si>
-    <t>Violin music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing the violin in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Red Sonja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wile E. Coyote</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>testing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amelia Earhart</t>
-  </si>
-  <si>
-    <t>Aviation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>flying airplanes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ralph Nader</t>
-  </si>
-  <si>
-    <t>the American Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumer Advocacy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Clint Eastwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kal El</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Daily Planet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Corleone</t>
-  </si>
-  <si>
-    <t>The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain Ahab</t>
-  </si>
-  <si>
-    <t>Moby Dick and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whaling and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing a great white whale in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Boone</t>
-  </si>
-  <si>
-    <t>the American West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sid Vicious</t>
+  </si>
+  <si>
+    <t>Punk rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Confucius</t>
   </si>
   <si>
-    <t>Chinese philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>entertaining teenagers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Barney Stinson</t>
-  </si>
-  <si>
-    <t>How I Met Your Mother and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Kissinger</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>brokering peace deals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mel Brooks</t>
-  </si>
-  <si>
-    <t>directing comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing funny movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alec Baldwin</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>attacking paparazzi in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Turing</t>
-  </si>
-  <si>
-    <t>Mathematics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crypography and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Artificial Intelligence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Buck Rogers</t>
-  </si>
-  <si>
-    <t>Space Operas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>surviving in the 25th century in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>J.R.R. Tolkein</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> directing animated films in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Jordan</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting movie violence in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in animated movies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rick Sanchez</t>
-  </si>
-  <si>
-    <t>Rick and Morty and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing electrical marvels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating census takers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sylvester Stallone</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dean Martin</t>
-  </si>
-  <si>
-    <t>Easy Listening and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rat Pack and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>devising evil schemes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>the French Revolution and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rico Tubbs</t>
-  </si>
-  <si>
-    <t>Miami Vice and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> arresting drug dealers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald Reagan</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>English soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soccer and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bernard Madoff</t>
-  </si>
-  <si>
-    <t>Investment Funds and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Investments and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daphne Moon</t>
-  </si>
-  <si>
-    <t>the Frasier household and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking British food in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edgar Allan Poe</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colin Farrell</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting wabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill Murray</t>
-  </si>
-  <si>
-    <t>starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telling dry jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>the New Jersey Mob and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Kim Jung-un</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Asian politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing the saxophone in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
+    <t>Chinese philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
   </si>
   <si>
     <t>teaching philosophy in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
-  </si>
-  <si>
-    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>the Beat generation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing beat fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ben Affleck</t>
-  </si>
-  <si>
-    <t>making bad movie choices in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding paparazzi in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gandalf the Grey</t>
-  </si>
-  <si>
-    <t>Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Wayne</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in cowboy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting Captain America trading cards in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ricky Martin</t>
-  </si>
-  <si>
-    <t>Latin music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>enjoying salsa dancing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Diana Ross</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Kardashian</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> flaunting buttocks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Beetlejuice</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>practicing the Occult in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buzz Aldrin</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Buddha</t>
-  </si>
-  <si>
-    <t>Eastern religion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Buddhism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sideshow Bob</t>
-  </si>
-  <si>
-    <t>developing cunning plans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry Ford</t>
-  </si>
-  <si>
-    <t>the Motor industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Car industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>mass-producing cars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Troy McClure</t>
-  </si>
-  <si>
-    <t>appearing in infomercials in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting educational films in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Lisbeth Salander</t>
-  </si>
-  <si>
-    <t>The Girl With The Dragon Tattoo and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Scandinavian crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>the Marx Brothers and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>defending the weak in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Madeleine Albright</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain America</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting American values in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>Matt "Daredevil" Murdock</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.589086643966025E-6</v>
+        <v>3.3850183297135224E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1421,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.9715402486294966E-6</v>
+        <v>3.7253454763363093E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1435,7 +1483,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.391896555269023E-6</v>
+        <v>4.097509117071172E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1446,10 +1494,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.853592886420916E-6</v>
+        <v>4.50423611453436E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1457,13 +1505,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5.3603444422433934E-6</v>
+        <v>4.948461702656183E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1471,55 +1519,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.916163366309178E-6</v>
+        <v>5.4333430191517794E-6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6.525378795549902E-6</v>
+        <v>5.96227330139672E-6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>7.192657915043173E-6</v>
+        <v>6.538896759297473E-6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>7.923028035677524E-6</v>
+        <v>7.167124137193073E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1533,7 +1581,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>8.721899709719216E-6</v>
+        <v>7.851148975080715E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1547,7 +1595,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>9.595090895902247E-6</v>
+        <v>8.59546457745346E-6</v>
       </c>
     </row>
     <row r="13">
@@ -1561,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0548852181832487E-5</v>
+        <v>9.404881695861104E-6</v>
       </c>
     </row>
     <row r="14">
@@ -1572,10 +1620,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1589893067249601E-5</v>
+        <v>1.0284546928826093E-5</v>
       </c>
     </row>
     <row r="15">
@@ -1586,10 +1634,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>1.2725409307002013E-5</v>
+        <v>1.1239961840057937E-5</v>
       </c>
     </row>
     <row r="16">
@@ -1600,10 +1648,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3963111307408306E-5</v>
+        <v>1.2277002792938072E-5</v>
       </c>
     </row>
     <row r="17">
@@ -1617,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>1.531125356406157E-5</v>
+        <v>1.3401941496022545E-5</v>
       </c>
     </row>
     <row r="18">
@@ -1631,96 +1679,96 @@
         <v>20</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6778665122979433E-5</v>
+        <v>1.4621466250784517E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D19" t="n">
-        <v>1.837478104038754E-5</v>
+        <v>1.594270388904459E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0109674809260777E-5</v>
+        <v>1.737324238343488E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>2.1994091713107764E-5</v>
+        <v>1.892115410988534E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>2.4039483059278157E-5</v>
+        <v>2.059501973642979E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" t="n">
-        <v>2.6258041235404012E-5</v>
+        <v>2.2403952707677067E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2.8662735523337214E-5</v>
+        <v>2.4357624289022466E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -1729,12 +1777,12 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>3.126734859526173E-5</v>
+        <v>2.646628912910385E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1743,68 +1791,68 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>3.408651360642021E-5</v>
+        <v>2.874081129315302E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>3.713575178819831E-5</v>
+        <v>3.119269071379148E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>4.043151043418397E-5</v>
+        <v>3.383408999935384E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>4.3991201160222275E-5</v>
+        <v>3.6677861533171885E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4.7833238307481334E-5</v>
+        <v>3.97375747903487E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
@@ -1813,12 +1861,12 @@
         <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>5.1977077345269004E-5</v>
+        <v>4.302754379131174E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
@@ -1827,133 +1875,133 @@
         <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>5.6443253117618E-5</v>
+        <v>4.656285460415089E-5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>6.125341776471436E-5</v>
+        <v>5.0359392800090885E-5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>6.643037813721189E-5</v>
+        <v>5.4433870758728684E-5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>7.199813250800325E-5</v>
+        <v>5.8803854711799016E-5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
       </c>
       <c r="D36" t="n">
-        <v>7.798190637280751E-5</v>
+        <v>6.348779140620921E-5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>8.44081871173597E-5</v>
+        <v>6.850503425901236E-5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>9.130475731586275E-5</v>
+        <v>7.387586886887414E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>9.870072641200364E-5</v>
+        <v>7.962153774050673E-5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0662656052097172E-4</v>
+        <v>8.576426407044097E-5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>1.1511411007845366E-4</v>
+        <v>9.232727443451321E-5</v>
       </c>
     </row>
     <row r="42">
@@ -1967,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1.241966350502366E-4</v>
+        <v>9.933482020978287E-5</v>
       </c>
     </row>
     <row r="43">
@@ -1981,236 +2029,236 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1.3390882740468174E-4</v>
+        <v>1.068121975556877E-4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D44" t="n">
-        <v>1.442868305393493E-4</v>
+        <v>1.1478576577211267E-4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5536825534296543E-4</v>
+        <v>1.232829638449836E-4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>1.6719219256486253E-4</v>
+        <v>1.3233232498308708E-4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.7979922115569317E-4</v>
+        <v>1.4196348894377517E-4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.9323141223660453E-4</v>
+        <v>1.5220721193967275E-4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>2.0753232834808686E-4</v>
+        <v>1.6309537391270444E-4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>2.227470176258497E-4</v>
+        <v>1.7466098295807007E-4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>2.3892200254832302E-4</v>
+        <v>1.8693817667638163E-4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>2.5610526289952633E-4</v>
+        <v>1.9996222022953484E-4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>2.743462125921617E-4</v>
+        <v>2.1376950087348282E-4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>2.9369566999851984E-4</v>
+        <v>2.2839751874034406E-4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D55" t="n">
-        <v>3.142058214421562E-4</v>
+        <v>2.4388487364136475E-4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>3.3593017751048886E-4</v>
+        <v>2.6027124766404624E-4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>3.589235218577217E-4</v>
+        <v>2.7759738333798904E-4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>3.832418521805799E-4</v>
+        <v>2.9590505714782896E-4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D59" t="n">
-        <v>4.089423130629053E-4</v>
+        <v>3.152370481759358E-4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
@@ -2219,12 +2267,12 @@
         <v>20</v>
       </c>
       <c r="D60" t="n">
-        <v>4.360831204030446E-4</v>
+        <v>3.3563710166358354E-4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -2233,68 +2281,68 @@
         <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>4.647234771582428E-4</v>
+        <v>3.571498872864927E-4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
       </c>
       <c r="D62" t="n">
-        <v>4.949234801619714E-4</v>
+        <v>3.798209519494085E-4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D63" t="n">
-        <v>5.26744017797595E-4</v>
+        <v>4.036966669151423E-4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D64" t="n">
-        <v>5.602466583377675E-4</v>
+        <v>4.288241690942477E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D65" t="n">
-        <v>5.954935287930761E-4</v>
+        <v>4.5525129633631166E-4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
@@ -2303,12 +2351,12 @@
         <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>6.325471841456647E-4</v>
+        <v>4.8302651657777286E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
@@ -2317,320 +2365,320 @@
         <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>6.714704668812962E-4</v>
+        <v>5.121988507182417E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>7.123263567740921E-4</v>
+        <v>5.428177891159507E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>7.551778109194818E-4</v>
+        <v>5.749332016124365E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>8.000875940575268E-4</v>
+        <v>6.085952410182002E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>8.471180992756736E-4</v>
+        <v>6.438542400147851E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>8.96331159232119E-4</v>
+        <v>6.807606014536064E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>9.47787848090539E-4</v>
+        <v>7.193646820569232E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0010015482744159566</v>
+        <v>7.597166695568324E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
         <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0010576713653341861</v>
+        <v>8.018664533348367E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0011162146423181751</v>
+        <v>8.458634886574501E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001177233989023134</v>
+        <v>8.917566546335545E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0012407834116548236</v>
+        <v>9.395941060548838E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
         <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001306914792413301</v>
+        <v>9.894231193121814E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0013756776366233327</v>
+        <v>0.0010412899326176714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
         <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0014471188142166323</v>
+        <v>0.0010952395807997672</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0015212822963011664</v>
+        <v>0.0011513157249711595</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0015982088876094931</v>
+        <v>0.0012095604774114734</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
         <v>118</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0016779359556806442</v>
+        <v>0.0012700142220419194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001760497157688036</v>
+        <v>0.001332715430904928</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001845922165885916</v>
+        <v>0.0013977004771053014</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" t="s">
         <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0019342363926989278</v>
+        <v>0.0014650034447007167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002025460716533624</v>
+        <v>0.001534655936069676</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002119611209439737</v>
+        <v>0.001606686877320903</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
         <v>126</v>
@@ -2639,26 +2687,26 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0022166988677945892</v>
+        <v>0.0016811223223453658</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0023167293472272574</v>
+        <v>0.0017579852561398837</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
@@ -2667,12 +2715,12 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002419702703029991</v>
+        <v>0.0018372953980753462</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
         <v>130</v>
@@ -2681,152 +2729,152 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00252561313735028</v>
+        <v>0.0019190690058007234</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>0.002634448754464447</v>
+        <v>0.0020033186805171535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0027461913254751003</v>
+        <v>0.002090053174370589</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0028608160637730307</v>
+        <v>0.0021792772007463573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0029782914126253446</v>
+        <v>0.0022709912482669625</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>137</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>0.00309857884624154</v>
+        <v>0.0023651913993163465</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
         <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0032216326856834843</v>
+        <v>0.002461869153924323</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B100" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.003347399930936079</v>
+        <v>0.002561011259868018</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D101" t="n">
-        <v>0.003475820110485084</v>
+        <v>0.002662599549851319</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
         <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0036068251496741977</v>
+        <v>0.0027666107866213263</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>0.003740339259105274</v>
+        <v>0.002873016516907967</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
         <v>145</v>
@@ -2835,82 +2883,82 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0038762788442910368</v>
+        <v>0.0029817829350374803</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
         <v>20</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0040145524377182</v>
+        <v>0.0030928707570941905</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004155060654421949</v>
+        <v>0.0032062351064726657</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
         <v>149</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D107" t="n">
-        <v>0.004297696172099907</v>
+        <v>0.0033218254116719748</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004442343736720755</v>
+        <v>0.0034395853171300117</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>0.004588880194495049</v>
+        <v>0.0035594526079095745</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B110" t="s">
         <v>153</v>
@@ -2919,231 +2967,231 @@
         <v>20</v>
       </c>
       <c r="D110" t="n">
-        <v>0.004737174550990153</v>
+        <v>0.0036813591489954778</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00488708805806537</v>
+        <v>0.0038052308399320056</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D112" t="n">
-        <v>0.005038474329202736</v>
+        <v>0.003930987585502588</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.005191179483691133</v>
+        <v>0.004058543283100624</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0053450423200148145</v>
+        <v>0.004187805827397917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.005499894518654902</v>
+        <v>0.004318677132867654</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005655560874400389</v>
+        <v>0.004451053174659492</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00581185955812874</v>
+        <v>0.0045848240482678215</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>0.005968602407861734</v>
+        <v>0.00471987404836649</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0061255952487986876</v>
+        <v>0.00485608176712593</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>0.006282638241841165</v>
+        <v>0.004993320212238583</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
         <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D121" t="n">
-        <v>0.006439526260020034</v>
+        <v>0.005131456944830803</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0065960492920699165</v>
+        <v>0.005270354237333852</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00675199287224737</v>
+        <v>0.005409869251329746</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
         <v>172</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.006907138535368507</v>
+        <v>0.0055498542352956926</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0.007061264295877945</v>
+        <v>0.005690156742081676</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.007214145149630369</v>
+        <v>0.005830619865883402</v>
       </c>
     </row>
     <row r="127">
@@ -3151,13 +3199,13 @@
         <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.007365553596935026</v>
+        <v>0.0059710824983785216</v>
       </c>
     </row>
     <row r="128">
@@ -3165,27 +3213,27 @@
         <v>175</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>0.007515260185277872</v>
+        <v>0.006111379603599754</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B129" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D129" t="n">
-        <v>0.00766303407001101</v>
+        <v>0.006251342511048974</v>
       </c>
     </row>
     <row r="130">
@@ -3193,144 +3241,144 @@
         <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D130" t="n">
-        <v>0.007808643591183606</v>
+        <v>0.006390799226455579</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
         <v>182</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00795185686457267</v>
+        <v>0.0065295747594903975</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B132" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008092442384871279</v>
+        <v>0.006667491467685249</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C133" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D133" t="n">
-        <v>0.008230169638897722</v>
+        <v>0.006804369415695399</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
         <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D134" t="n">
-        <v>0.008364809726593703</v>
+        <v>0.006940026748978589</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008496135987520859</v>
+        <v>0.0070742800808839545</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
-        <v>0.008623924630484253</v>
+        <v>0.00720694489205731</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
         <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.008747955363863719</v>
+        <v>0.0073378359410102845</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.008868012024194377</v>
+        <v>0.007466767684622233</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.008983883200504056</v>
+        <v>0.007593554707286954</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
         <v>194</v>
@@ -3339,166 +3387,166 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.009095362851899824</v>
+        <v>0.007718012157347631</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B141" t="s">
         <v>195</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D141" t="n">
-        <v>0.009202250915890053</v>
+        <v>0.007839956189423791</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
         <v>196</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>0.009304353904939777</v>
+        <v>0.007959204411168874</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
+        <v>123</v>
+      </c>
+      <c r="B143" t="s">
         <v>197</v>
       </c>
-      <c r="B143" t="s">
-        <v>198</v>
-      </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.009401485488776007</v>
+        <v>0.00807557633296982</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
         <v>199</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>0.009493467059996735</v>
+        <v>0.008188893819050691</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B145" t="s">
         <v>200</v>
       </c>
-      <c r="B145" t="s">
-        <v>201</v>
-      </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>0.009580128280585798</v>
+        <v>0.00829898153842637</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>0.009661307606993741</v>
+        <v>0.008405667414117135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
         <v>203</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D147" t="n">
-        <v>0.00973685279152521</v>
+        <v>0.008508783069025166</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" t="s">
         <v>204</v>
       </c>
-      <c r="B148" t="s">
-        <v>205</v>
-      </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00980662135785372</v>
+        <v>0.008608164266872415</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00987048104858769</v>
+        <v>0.00870365134657844</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B150" t="s">
         <v>207</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>0.009928310242919541</v>
+        <v>0.00879508964849049</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" t="s">
         <v>208</v>
       </c>
-      <c r="B151" t="s">
-        <v>209</v>
-      </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>0.009979998342513632</v>
+        <v>0.008882329930868654</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B152" t="s">
         <v>210</v>
@@ -3507,12 +3555,12 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0.010025446123918744</v>
+        <v>0.008965228775061757</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B153" t="s">
         <v>211</v>
@@ -3521,217 +3569,217 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>0.010064566055933512</v>
+        <v>0.009043648977840574</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>209</v>
+      </c>
+      <c r="B154" t="s">
         <v>212</v>
       </c>
-      <c r="B154" t="s">
-        <v>213</v>
-      </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>0.01009728258050506</v>
+        <v>0.009117459929385868</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>213</v>
+      </c>
+      <c r="B155" t="s">
         <v>214</v>
       </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>0.010123532355897642</v>
+        <v>0.009186537975472656</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>0.01014326446103734</v>
+        <v>0.009250766762453053</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B157" t="s">
         <v>217</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.010156440560109297</v>
+        <v>0.009310037563685147</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>216</v>
+      </c>
+      <c r="B158" t="s">
         <v>218</v>
       </c>
-      <c r="B158" t="s">
-        <v>219</v>
-      </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.010163035026662872</v>
+        <v>0.009364249586128442</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.010163035026662872</v>
+        <v>0.009413310255897173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" t="s">
         <v>221</v>
       </c>
-      <c r="B160" t="s">
-        <v>222</v>
-      </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.010156440560109297</v>
+        <v>0.009457135481639803</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B161" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01014326446103734</v>
+        <v>0.00949564989469251</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B162" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>0.010123532355897642</v>
+        <v>0.009528787065051038</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
         <v>225</v>
       </c>
-      <c r="B163" t="s">
-        <v>226</v>
-      </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>0.01009728258050506</v>
+        <v>0.009556489692291531</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>0.010064566055933512</v>
+        <v>0.00957870977067601</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.010025446123918744</v>
+        <v>0.009595408727770618</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>228</v>
+      </c>
+      <c r="B166" t="s">
         <v>229</v>
       </c>
-      <c r="B166" t="s">
-        <v>230</v>
-      </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009979998342513632</v>
+        <v>0.009606557536022336</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009928310242919541</v>
+        <v>0.009612136796840785</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>0.00987048104858769</v>
+        <v>0.009612136796840956</v>
       </c>
     </row>
     <row r="169">
@@ -3739,293 +3787,293 @@
         <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C169" t="s">
         <v>20</v>
       </c>
       <c r="D169" t="n">
-        <v>0.00980662135785372</v>
+        <v>0.009606557536022511</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C170" t="s">
         <v>20</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00973685279152521</v>
+        <v>0.00959540872777027</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171" t="s">
         <v>235</v>
       </c>
-      <c r="B171" t="s">
-        <v>237</v>
-      </c>
       <c r="C171" t="s">
         <v>20</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009661307606993741</v>
+        <v>0.009578709770676184</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009580128280585798</v>
+        <v>0.009556489692291732</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" t="s">
         <v>238</v>
       </c>
-      <c r="B173" t="s">
-        <v>240</v>
-      </c>
       <c r="C173" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009493467059996735</v>
+        <v>0.009528787065050663</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009401485488776007</v>
+        <v>0.009495649894692648</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>240</v>
+      </c>
+      <c r="B175" t="s">
         <v>241</v>
       </c>
-      <c r="B175" t="s">
-        <v>243</v>
-      </c>
       <c r="C175" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009304353904939777</v>
+        <v>0.009457135481639997</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009202250915890053</v>
+        <v>0.009413310255896992</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
-        <v>0.009095362851899824</v>
+        <v>0.00936424958612847</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>244</v>
+      </c>
+      <c r="B178" t="s">
         <v>245</v>
       </c>
-      <c r="B178" t="s">
-        <v>247</v>
-      </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D178" t="n">
-        <v>0.008983883200504056</v>
+        <v>0.0093100375636853</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>0.008868012024194377</v>
+        <v>0.009250766762452858</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D180" t="n">
-        <v>0.008747955363863719</v>
+        <v>0.009186537975472725</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
+        <v>248</v>
+      </c>
+      <c r="B181" t="s">
         <v>249</v>
       </c>
-      <c r="B181" t="s">
-        <v>251</v>
-      </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D181" t="n">
-        <v>0.008623924630484253</v>
+        <v>0.009117459929385938</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C182" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D182" t="n">
-        <v>0.008496135987520859</v>
+        <v>0.00904364897784049</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C183" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008364809726593703</v>
+        <v>0.008965228775061812</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>252</v>
+      </c>
+      <c r="B184" t="s">
         <v>253</v>
       </c>
-      <c r="B184" t="s">
-        <v>255</v>
-      </c>
       <c r="C184" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>0.008230169638897722</v>
+        <v>0.00888232993086871</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B185" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>0.008092442384871279</v>
+        <v>0.00879508964849035</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C186" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
-        <v>0.00795185686457267</v>
+        <v>0.008703651346578412</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" t="s">
         <v>257</v>
       </c>
-      <c r="B187" t="s">
-        <v>259</v>
-      </c>
       <c r="C187" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D187" t="n">
-        <v>0.007808643591183606</v>
+        <v>0.008608164266872581</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D188" t="n">
-        <v>0.00766303407001101</v>
+        <v>0.008508783069025083</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D189" t="n">
-        <v>0.007515260185277872</v>
+        <v>0.008405667414117024</v>
       </c>
     </row>
     <row r="190">
@@ -4033,13 +4081,13 @@
         <v>261</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D190" t="n">
-        <v>0.007365553596935026</v>
+        <v>0.008298981538426481</v>
       </c>
     </row>
     <row r="191">
@@ -4047,27 +4095,27 @@
         <v>261</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D191" t="n">
-        <v>0.007214145149630369</v>
+        <v>0.008188893819050608</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D192" t="n">
-        <v>0.007061264295877945</v>
+        <v>0.00807557633296982</v>
       </c>
     </row>
     <row r="193">
@@ -4075,13 +4123,13 @@
         <v>265</v>
       </c>
       <c r="B193" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.006907138535368673</v>
+        <v>0.00795920441116904</v>
       </c>
     </row>
     <row r="194">
@@ -4089,27 +4137,27 @@
         <v>265</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C194" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00675199287224737</v>
+        <v>0.007839956189423625</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B195" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0065960492920699165</v>
+        <v>0.007718012157347576</v>
       </c>
     </row>
     <row r="196">
@@ -4117,13 +4165,13 @@
         <v>269</v>
       </c>
       <c r="B196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D196" t="n">
-        <v>0.006439526260020145</v>
+        <v>0.0075935547072868426</v>
       </c>
     </row>
     <row r="197">
@@ -4131,363 +4179,363 @@
         <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D197" t="n">
-        <v>0.006282638241841054</v>
+        <v>0.007466767684622344</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>272</v>
+      </c>
+      <c r="B198" t="s">
         <v>273</v>
       </c>
-      <c r="B198" t="s">
-        <v>274</v>
-      </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0061255952487986876</v>
+        <v>0.0073378359410103955</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.005968602407861789</v>
+        <v>0.007206944892057088</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>0.005811859558128685</v>
+        <v>0.0070742800808839545</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>276</v>
+      </c>
+      <c r="B201" t="s">
         <v>277</v>
       </c>
-      <c r="B201" t="s">
-        <v>278</v>
-      </c>
       <c r="C201" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.005655560874400556</v>
+        <v>0.0069400267489788114</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.005499894518654624</v>
+        <v>0.006804369415695177</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B203" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C203" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.005345042320014981</v>
+        <v>0.006667491467685416</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" t="s">
         <v>281</v>
       </c>
-      <c r="B204" t="s">
-        <v>282</v>
-      </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D204" t="n">
-        <v>0.005191179483691133</v>
+        <v>0.006529574759490453</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D205" t="n">
-        <v>0.005038474329202625</v>
+        <v>0.006390799226455357</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C206" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D206" t="n">
-        <v>0.004887088058065481</v>
+        <v>0.006251342511049085</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>284</v>
+      </c>
+      <c r="B207" t="s">
         <v>285</v>
       </c>
-      <c r="B207" t="s">
-        <v>286</v>
-      </c>
       <c r="C207" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D207" t="n">
-        <v>0.004737174550990042</v>
+        <v>0.006111379603599698</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B208" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C208" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D208" t="n">
-        <v>0.004588880194494993</v>
+        <v>0.005971082498378466</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
         <v>288</v>
       </c>
       <c r="C209" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D209" t="n">
-        <v>0.004442343736720755</v>
+        <v>0.005830619865883568</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>287</v>
+      </c>
+      <c r="B210" t="s">
         <v>289</v>
       </c>
-      <c r="B210" t="s">
-        <v>290</v>
-      </c>
       <c r="C210" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D210" t="n">
-        <v>0.004297696172099963</v>
+        <v>0.00569015674208162</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B211" t="s">
         <v>291</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D211" t="n">
-        <v>0.004155060654422005</v>
+        <v>0.0055498542352955815</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>290</v>
+      </c>
+      <c r="B212" t="s">
         <v>292</v>
       </c>
-      <c r="B212" t="s">
-        <v>293</v>
-      </c>
       <c r="C212" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0040145524377182</v>
+        <v>0.005409869251329857</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0038762788442909257</v>
+        <v>0.005270354237333907</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>294</v>
+      </c>
+      <c r="B214" t="s">
         <v>295</v>
       </c>
-      <c r="B214" t="s">
-        <v>296</v>
-      </c>
       <c r="C214" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0037403392591054963</v>
+        <v>0.005131456944830637</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0036068251496741977</v>
+        <v>0.00499332021223875</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D216" t="n">
-        <v>0.003475820110484973</v>
+        <v>0.004856081767125819</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>298</v>
+      </c>
+      <c r="B217" t="s">
         <v>299</v>
       </c>
-      <c r="B217" t="s">
-        <v>300</v>
-      </c>
       <c r="C217" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0033473999309363567</v>
+        <v>0.004719874048366435</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0032216326856833732</v>
+        <v>0.0045848240482679326</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D219" t="n">
-        <v>0.00309857884624154</v>
+        <v>0.004451053174659492</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="B220" t="s">
         <v>303</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D220" t="n">
-        <v>0.002978291412624845</v>
+        <v>0.004318677132867543</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>302</v>
+      </c>
+      <c r="B221" t="s">
         <v>304</v>
       </c>
-      <c r="B221" t="s">
-        <v>305</v>
-      </c>
       <c r="C221" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0028608160637731417</v>
+        <v>0.004187805827397972</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B222" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D222" t="n">
-        <v>0.002746191325475378</v>
+        <v>0.004058543283100735</v>
       </c>
     </row>
     <row r="223">
@@ -4495,27 +4543,27 @@
         <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0026344487544642248</v>
+        <v>0.003930987585502421</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0025256131373503354</v>
+        <v>0.0038052308399320056</v>
       </c>
     </row>
     <row r="225">
@@ -4523,13 +4571,13 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>0.002419702703030102</v>
+        <v>0.003681359148995589</v>
       </c>
     </row>
     <row r="226">
@@ -4537,27 +4585,27 @@
         <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0023167293472271186</v>
+        <v>0.0035594526079094635</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C227" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0022166988677945892</v>
+        <v>0.003439585317129956</v>
       </c>
     </row>
     <row r="228">
@@ -4565,13 +4613,13 @@
         <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C228" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0021196112094397576</v>
+        <v>0.0033218254116718082</v>
       </c>
     </row>
     <row r="229">
@@ -4579,27 +4627,27 @@
         <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C229" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D229" t="n">
-        <v>0.002025460716533589</v>
+        <v>0.003206235106472888</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C230" t="s">
         <v>20</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0019342363926989764</v>
+        <v>0.003092870757094246</v>
       </c>
     </row>
     <row r="231">
@@ -4607,1189 +4655,1441 @@
         <v>317</v>
       </c>
       <c r="B231" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
         <v>20</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0018459221658858743</v>
+        <v>0.0029817829350375913</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B232" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0017604971576880325</v>
+        <v>0.0028730165169078004</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" t="s">
         <v>320</v>
       </c>
-      <c r="B233" t="s">
-        <v>322</v>
-      </c>
       <c r="C233" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D233" t="n">
-        <v>0.001677935955680672</v>
+        <v>0.0027666107866213263</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0015982088876094654</v>
+        <v>0.0026625995498512633</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C235" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D235" t="n">
-        <v>0.001521282296301208</v>
+        <v>0.0025610112598680734</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>321</v>
+      </c>
+      <c r="B236" t="s">
         <v>324</v>
       </c>
-      <c r="B236" t="s">
-        <v>326</v>
-      </c>
       <c r="C236" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0014471188142166184</v>
+        <v>0.002461869153924545</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B237" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C237" t="s">
         <v>20</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0013756776366233188</v>
+        <v>0.0023651913993162355</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>325</v>
+      </c>
+      <c r="B238" t="s">
         <v>327</v>
       </c>
-      <c r="B238" t="s">
-        <v>329</v>
-      </c>
       <c r="C238" t="s">
         <v>20</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0013069147924133218</v>
+        <v>0.0022709912482668515</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B239" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C239" t="s">
         <v>20</v>
       </c>
       <c r="D239" t="n">
-        <v>0.001240783411654782</v>
+        <v>0.002179277200746392</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>329</v>
+      </c>
+      <c r="B240" t="s">
         <v>330</v>
       </c>
-      <c r="B240" t="s">
-        <v>332</v>
-      </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>0.001177233989023134</v>
+        <v>0.0020900531743706235</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>333</v>
+        <v>127</v>
       </c>
       <c r="B241" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>0.0011162146423181855</v>
+        <v>0.002003318680517084</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>333</v>
+        <v>127</v>
       </c>
       <c r="B242" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C242" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0010576713653341688</v>
+        <v>0.0019190690058007373</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="B243" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>0.001001548274415955</v>
+        <v>0.0018372953980754017</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C244" t="s">
         <v>20</v>
       </c>
       <c r="D244" t="n">
-        <v>9.477878480905599E-4</v>
+        <v>0.0017579852561398143</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>334</v>
+      </c>
+      <c r="B245" t="s">
         <v>336</v>
       </c>
-      <c r="B245" t="s">
-        <v>339</v>
-      </c>
       <c r="C245" t="s">
         <v>20</v>
       </c>
       <c r="D245" t="n">
-        <v>8.963311592321034E-4</v>
+        <v>0.0016811223223453797</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B246" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D246" t="n">
-        <v>8.471180992756719E-4</v>
+        <v>0.0016066868773209342</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B247" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C247" t="s">
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>8.000875940575268E-4</v>
+        <v>0.0015346559360696309</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>338</v>
+      </c>
+      <c r="B248" t="s">
         <v>340</v>
       </c>
-      <c r="B248" t="s">
-        <v>343</v>
-      </c>
       <c r="C248" t="s">
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>7.551778109194923E-4</v>
+        <v>0.001465003444700748</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B249" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>7.123263567740817E-4</v>
+        <v>0.0013977004771053014</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B250" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C250" t="s">
         <v>20</v>
       </c>
       <c r="D250" t="n">
-        <v>6.714704668812996E-4</v>
+        <v>0.0013327154309048968</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>342</v>
+      </c>
+      <c r="B251" t="s">
         <v>344</v>
       </c>
-      <c r="B251" t="s">
-        <v>347</v>
-      </c>
       <c r="C251" t="s">
         <v>20</v>
       </c>
       <c r="D251" t="n">
-        <v>6.325471841456543E-4</v>
+        <v>0.0012700142220419819</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
-        <v>5.954935287930951E-4</v>
+        <v>0.001209560477411456</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B253" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>5.602466583377649E-4</v>
+        <v>0.0011513157249711144</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B254" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C254" t="s">
         <v>20</v>
       </c>
       <c r="D254" t="n">
-        <v>5.26744017797588E-4</v>
+        <v>0.0010952395807997985</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B255" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C255" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D255" t="n">
-        <v>4.949234801619748E-4</v>
+        <v>0.0010412899326176922</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B256" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D256" t="n">
-        <v>4.6472347715823675E-4</v>
+        <v>9.894231193121293E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B257" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C257" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D257" t="n">
-        <v>4.360831204030524E-4</v>
+        <v>9.39594106054889E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B258" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D258" t="n">
-        <v>4.0894231306289833E-4</v>
+        <v>8.917566546335666E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B259" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>3.8324185218057815E-4</v>
+        <v>8.458634886574327E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B260" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C260" t="s">
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>3.5892352185772254E-4</v>
+        <v>8.018664533348558E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B261" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>3.3593017751048886E-4</v>
+        <v>7.597166695568203E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C262" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D262" t="n">
-        <v>3.142058214421631E-4</v>
+        <v>7.193646820569163E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B263" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C263" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D263" t="n">
-        <v>2.936956699985116E-4</v>
+        <v>6.807606014536133E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B264" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C264" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D264" t="n">
-        <v>2.743462125921591E-4</v>
+        <v>6.438542400148059E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B265" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C265" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D265" t="n">
-        <v>2.561052628995324E-4</v>
+        <v>6.085952410181724E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B266" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D266" t="n">
-        <v>2.3892200254831695E-4</v>
+        <v>5.749332016124452E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B267" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D267" t="n">
-        <v>2.2274701762585013E-4</v>
+        <v>5.428177891159732E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B268" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
       </c>
       <c r="D268" t="n">
-        <v>2.0753232834808512E-4</v>
+        <v>5.121988507182105E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B269" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C269" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D269" t="n">
-        <v>1.9323141223660453E-4</v>
+        <v>4.830265165777772E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B270" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C270" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
-        <v>1.7979922115569317E-4</v>
+        <v>4.552512963363316E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B271" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C271" t="s">
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1.6719219256486253E-4</v>
+        <v>4.288241690942234E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B272" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1.5536825534296543E-4</v>
+        <v>4.036966669151501E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B273" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1.442868305393493E-4</v>
+        <v>3.798209519494111E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B274" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D274" t="n">
-        <v>1.3390882740468174E-4</v>
+        <v>3.571498872864823E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B275" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D275" t="n">
-        <v>1.241966350502366E-4</v>
+        <v>3.356371016635896E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>381</v>
+        <v>37</v>
       </c>
       <c r="B276" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C276" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D276" t="n">
-        <v>1.1511411007845366E-4</v>
+        <v>3.1523704817594273E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="B277" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C277" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D277" t="n">
-        <v>1.0662656052097172E-4</v>
+        <v>2.9590505714781595E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>384</v>
+        <v>37</v>
       </c>
       <c r="B278" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C278" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>9.870072641200364E-5</v>
+        <v>2.77597383337996E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B279" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C279" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D279" t="n">
-        <v>9.130475731586275E-5</v>
+        <v>2.602712476640493E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B280" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>8.44081871173597E-5</v>
+        <v>2.4388487364135477E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B281" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>7.798190637280751E-5</v>
+        <v>2.2839751874035143E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B282" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>7.199813250800325E-5</v>
+        <v>2.1376950087348282E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B283" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C283" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D283" t="n">
-        <v>6.643037813721189E-5</v>
+        <v>1.9996222022952747E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B284" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D284" t="n">
-        <v>6.125341776471436E-5</v>
+        <v>1.869381766763851E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B285" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D285" t="n">
-        <v>5.6443253117618E-5</v>
+        <v>1.746609829580718E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B286" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C286" t="s">
         <v>20</v>
       </c>
       <c r="D286" t="n">
-        <v>5.1977077345269004E-5</v>
+        <v>1.6309537391269923E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B287" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D287" t="n">
-        <v>4.7833238307481334E-5</v>
+        <v>1.5220721193967687E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B288" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C288" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>4.3991201160222275E-5</v>
+        <v>1.4196348894377799E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B289" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>4.043151043418397E-5</v>
+        <v>1.3233232498308014E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B290" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>3.713575178819831E-5</v>
+        <v>1.2328296384499031E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B291" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>3.408651360642021E-5</v>
+        <v>1.1478576577210898E-4</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B292" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>3.126734859526173E-5</v>
+        <v>1.0681219755568467E-4</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>2.8662735523337214E-5</v>
+        <v>9.933482020978569E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B294" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>2.6258041235404012E-5</v>
+        <v>9.232727443451495E-5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D295" t="n">
-        <v>2.4039483059278157E-5</v>
+        <v>8.576426407043642E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B296" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C296" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D296" t="n">
-        <v>2.1994091713107764E-5</v>
+        <v>7.962153774050728E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C297" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D297" t="n">
-        <v>2.0109674809260777E-5</v>
+        <v>7.387586886887566E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B298" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C298" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D298" t="n">
-        <v>1.837478104038754E-5</v>
+        <v>6.85050342590103E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C299" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D299" t="n">
-        <v>1.6778665122979433E-5</v>
+        <v>6.348779140620921E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B300" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C300" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D300" t="n">
-        <v>1.531125356406157E-5</v>
+        <v>5.880385471180032E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B301" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D301" t="n">
-        <v>1.3963111307408306E-5</v>
+        <v>5.443387075872738E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B302" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D302" t="n">
-        <v>1.2725409307002013E-5</v>
+        <v>5.035939280009273E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B303" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C303" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D303" t="n">
-        <v>1.1589893067249601E-5</v>
+        <v>4.6562854604151544E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B304" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
       </c>
       <c r="D304" t="n">
-        <v>1.0548852181832487E-5</v>
+        <v>4.3027543791309244E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B305" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C305" t="s">
         <v>20</v>
       </c>
       <c r="D305" t="n">
-        <v>9.595090895902247E-6</v>
+        <v>3.97375747903487E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B306" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C306" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>8.721899709719216E-6</v>
+        <v>3.66778615331734E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B307" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C307" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>7.923028035677524E-6</v>
+        <v>3.383408999935232E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B308" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C308" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>7.192657915043173E-6</v>
+        <v>3.1192690713792296E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B309" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C309" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>6.525378795549902E-6</v>
+        <v>2.874081129315302E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B310" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C310" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>5.916163366309178E-6</v>
+        <v>2.6466289129103038E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B311" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>5.3603444422433934E-6</v>
+        <v>2.435762428902328E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B312" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C312" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D312" t="n">
-        <v>4.853592886420916E-6</v>
+        <v>2.2403952707676498E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B313" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D313" t="n">
-        <v>4.391896555269023E-6</v>
+        <v>2.0595019736429547E-5</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B314" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>3.9715402486294966E-6</v>
+        <v>1.8921154109885772E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
+        <v>429</v>
+      </c>
+      <c r="B315" t="s">
+        <v>431</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.7373242383435288E-5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>429</v>
+      </c>
+      <c r="B316" t="s">
+        <v>432</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.594270388904432E-5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>433</v>
+      </c>
+      <c r="B317" t="s">
+        <v>434</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.4621466250784219E-5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>433</v>
+      </c>
+      <c r="B318" t="s">
+        <v>435</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.340194149602249E-5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>433</v>
+      </c>
+      <c r="B319" t="s">
         <v>436</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.2277002792937856E-5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>437</v>
+      </c>
+      <c r="B320" t="s">
+        <v>438</v>
+      </c>
+      <c r="C320" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.1239961840057937E-5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>437</v>
+      </c>
+      <c r="B321" t="s">
         <v>439</v>
       </c>
-      <c r="C315" t="s">
-        <v>11</v>
-      </c>
-      <c r="D315" t="n">
-        <v>3.589086643966025E-6</v>
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.0284546928826093E-5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>437</v>
+      </c>
+      <c r="B322" t="s">
+        <v>440</v>
+      </c>
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" t="n">
+        <v>9.404881695861402E-6</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>441</v>
+      </c>
+      <c r="B323" t="s">
+        <v>442</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8.59546457745338E-6</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>441</v>
+      </c>
+      <c r="B324" t="s">
+        <v>443</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="n">
+        <v>7.851148975080498E-6</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>444</v>
+      </c>
+      <c r="B325" t="s">
+        <v>445</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7.16712413719329E-6</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>444</v>
+      </c>
+      <c r="B326" t="s">
+        <v>446</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="n">
+        <v>6.538896759297256E-6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>444</v>
+      </c>
+      <c r="B327" t="s">
+        <v>447</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="n">
+        <v>5.96227330139672E-6</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>448</v>
+      </c>
+      <c r="B328" t="s">
+        <v>449</v>
+      </c>
+      <c r="C328" t="s">
+        <v>20</v>
+      </c>
+      <c r="D328" t="n">
+        <v>5.433343019151949E-6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>448</v>
+      </c>
+      <c r="B329" t="s">
+        <v>450</v>
+      </c>
+      <c r="C329" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" t="n">
+        <v>4.948461702656136E-6</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>448</v>
+      </c>
+      <c r="B330" t="s">
+        <v>451</v>
+      </c>
+      <c r="C330" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330" t="n">
+        <v>4.5042361145342384E-6</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>452</v>
+      </c>
+      <c r="B331" t="s">
+        <v>453</v>
+      </c>
+      <c r="C331" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" t="n">
+        <v>4.097509117071287E-6</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>452</v>
+      </c>
+      <c r="B332" t="s">
+        <v>454</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" t="n">
+        <v>3.725345476336194E-6</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>452</v>
+      </c>
+      <c r="B333" t="s">
+        <v>455</v>
+      </c>
+      <c r="C333" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333" t="n">
+        <v>3.3850183297135224E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="455">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,448 +26,1207 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Wayne Rooney</t>
-  </si>
-  <si>
-    <t>Soccer and the Cthulu mythos</t>
+    <t>Santa Claus</t>
+  </si>
+  <si>
+    <t>the North Pole and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christmas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>delivering presents in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Escapology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Lizzy Bennet</t>
+  </si>
+  <si>
+    <t>Regency England and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>the Toy Industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting hair products in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kevin Smith</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> English soccer and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing soccer in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shatner</t>
-  </si>
-  <si>
-    <t>Star Trek and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TJ Hooker and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Priceline and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Chelsea Manning</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
+    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making mediocre movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Liza Minnelli</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Errol Flynn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> womanizing in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Joan Crawford</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John F. Kennedy</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing starlets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Brian Griffin</t>
+  </si>
+  <si>
+    <t>Family Guy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about conservatives in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Belcher</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Electricity and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dame Edna Everage</t>
+  </si>
+  <si>
+    <t>Australia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Drag and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cross-Dressing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+  </si>
+  <si>
+    <t>Soccer and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>biting opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lord Voldemort</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bear Grylls</t>
+  </si>
+  <si>
+    <t>Reality TV and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Outback and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>eating bugs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ming The Merciless</t>
+  </si>
+  <si>
+    <t>Flash Gordon and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorizing Earth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Palpatine</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lex Luthor</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Metropolis and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Big business and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Derek Zoolander</t>
+  </si>
+  <si>
+    <t>Fashion and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Janet Jackson</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for world peace in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ebenezer Scrooge</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Robbins</t>
+  </si>
+  <si>
+    <t>Neuro-Linguistic Programming and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Self-Improvement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Robert De Niro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Printing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Murphy</t>
+  </si>
+  <si>
+    <t>American comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tom Ripley</t>
+  </si>
+  <si>
+    <t>Social Climbing and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Society and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>forging art in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daphne Moon</t>
+  </si>
+  <si>
+    <t>the Frasier household and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking British food in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> performing physical therapy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rihanna</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>George Bernard Shaw</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jamie Oliver</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>Spanish literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tilting at windmills in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Nicholson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Cosmo Kramer</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>mooching from neighbors in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buck Rogers</t>
+  </si>
+  <si>
+    <t>Space Operas and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>surviving in the 25th century in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Capone</t>
+  </si>
+  <si>
+    <t>Prohibition and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chicago and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pythagoras</t>
+  </si>
+  <si>
+    <t>Mathematics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Greece and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying mathematics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tweeny music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>flirting with rednecks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> having meltdowns in public in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Benito Mussolini</t>
+  </si>
+  <si>
+    <t>Italian Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Fredo Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>disappointing the family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about big brother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Princess Fiona</t>
+  </si>
+  <si>
+    <t>Fairy Tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>waiting for a hero in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Louis Armstrong</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing jazz trumpet in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing the trumpet in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stevie Wonder</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddie Van Halen</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>J. Edgar Hoover</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the FBI and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running the FBI in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Catwoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing jewels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cleopatra</t>
+  </si>
+  <si>
+    <t>Ancient Egypt and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>seducing emperors in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katniss Everdeen</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Imelda Marcos</t>
+  </si>
+  <si>
+    <t>the Phllippines and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Michael Schumacher</t>
+  </si>
+  <si>
+    <t>Formula One and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Car Racing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>driving fast cars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dalton Trumbo</t>
+  </si>
+  <si>
+    <t>Movies and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Wikileaks and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Boba Fett</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tracking down fugitives in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Julia Roberts</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Ripley</t>
-  </si>
-  <si>
-    <t>Social Climbing and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> High Society and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>forging art in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keyser Söze</t>
-  </si>
-  <si>
-    <t>The Usual Suspects and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding the FBI in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lando Calrissian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for the rebel alliance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dante Alighieri</t>
-  </si>
-  <si>
-    <t>Italian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Italian poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Flash Gordon</t>
-  </si>
-  <si>
-    <t>Flash Gordon and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the Earth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>Political criticism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>ranting about politics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cosmo Kramer</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>mooching from neighbors in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying into a rage in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shylock</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>amassing wealth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Salman Rushdie</t>
-  </si>
-  <si>
-    <t>Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>hiding from extremists in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Santa Claus</t>
-  </si>
-  <si>
-    <t>the North Pole and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Christmas and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>delivering presents in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Commissioner James Gordon</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marco Pierre White</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Bourne</t>
-  </si>
-  <si>
-    <t>CIA and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eluding capture in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>French history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> working for the forces of darkness in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joan Rivers</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>insulting celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Caruso</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CSI: Miami and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Police Procedurals and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Fight Club and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing human fat in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Communism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>Thimble Theatre and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting healthy eating in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nelson Mandela</t>
+  </si>
+  <si>
+    <t>South Africa and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apartheid and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Waits</t>
+  </si>
+  <si>
+    <t>Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Auric Goldfinger</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Pepé Le Pew</t>
+  </si>
+  <si>
+    <t>Looney Tunes and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Langdon</t>
+  </si>
+  <si>
+    <t>Symbology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious Iconology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying symbols in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove</t>
+  </si>
+  <si>
+    <t>the Cold War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pushing the hardline in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Svengali</t>
+  </si>
+  <si>
+    <t>the Music industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>manipulating ingenues in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erik "Magneto" Lehnsherr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The X-Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> building an army in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preparing for war in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rick Deckard</t>
+  </si>
+  <si>
+    <t>Blade Runner and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>retiring replicants in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Novak Djokovic</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Griffin</t>
+  </si>
+  <si>
+    <t>making silly decisions in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robert Downey Jr.</t>
+  </si>
+  <si>
+    <t>making movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making Superhero movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Benjamin Franklin</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mae West</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trading innuendo in Cthulhu-worshipping societies</t>
   </si>
   <si>
     <t>Mata Hari</t>
   </si>
   <si>
-    <t>World War I and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Drudge</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>Big business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern finance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Usain Bolt</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Gerard Manley Hopkins</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sprung Rhyme and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Borat</t>
-  </si>
-  <si>
-    <t>Borat! and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Reacher</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mr. Miyagi</t>
-  </si>
-  <si>
-    <t>The Karate Kid and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Martial Arts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>teaching martial arts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Doctor Stephen Strange</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+    <t>World War I and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>spying for the enemy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Red Sonja</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Thomas Aquinas</t>
+  </si>
+  <si>
+    <t>Religious Iconology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>teaching philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Parker</t>
+  </si>
+  <si>
+    <t>studying science in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld</t>
+  </si>
+  <si>
+    <t>Fashion and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Patch Adams</t>
+  </si>
+  <si>
+    <t>Modern medicine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>barking orders at subordinates in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cracking the whip in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Roger Federer</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning tennis matches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>KFC and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Johnny Cash</t>
+  </si>
+  <si>
+    <t>Country music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing country music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Socrates</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Leni Riefenstahl</t>
+  </si>
+  <si>
+    <t>the Third Reich and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Documentaries and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Moore</t>
+  </si>
+  <si>
+    <t>Documentaries and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making provocative documentaries in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> complaining about capitalism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jenna Maroney</t>
+  </si>
+  <si>
+    <t>30 Rock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morgana Le Fay</t>
+  </si>
+  <si>
+    <t>British history and the Dagon mythos</t>
   </si>
   <si>
     <t>performing magic tricks in Dagon-worshipping societies</t>
@@ -476,910 +1235,148 @@
     <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Enrico Caruso</t>
-  </si>
-  <si>
-    <t>Opera and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing opera arias in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph Smith</t>
-  </si>
-  <si>
-    <t>Mormonism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>searching for the messiah in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting dissidents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing intense characters in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stand-Up Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Constantine</t>
-  </si>
-  <si>
-    <t>Roman politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saga Norén</t>
-  </si>
-  <si>
-    <t>Scandinavian crime fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Deepak Chopra</t>
-  </si>
-  <si>
-    <t>Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Self-Help and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Elmer Fudd</t>
-  </si>
-  <si>
-    <t>Looney Tunes and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Warner Bros animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting rabbits in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adolf Eichmann</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nazi Germany and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Socialism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Big business and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern finance and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joseph McCarthy</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for democracy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Han Solo</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> smuggling contraband in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu mythos</t>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Edward Scissorhands</t>
+  </si>
+  <si>
+    <t>Tim Burton's imagination and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making ice sculptures in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Emperor Caligula</t>
+  </si>
+  <si>
+    <t>the Roman Empire and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>terrorizing citizens in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Billie Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>Evolution and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>explaining evolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eddy Merckx</t>
+  </si>
+  <si>
+    <t>Cycling and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling furiously in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning cycling races in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bono</t>
   </si>
   <si>
     <t>singing rock songs in Cthulhu-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Athletics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Olympics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gyrating hips in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Albert Einstein</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relativity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>revolutionizing physics in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>British legend and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sherwood Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Schumacher</t>
-  </si>
-  <si>
-    <t>Formula One and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Car Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>driving fast cars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>El Chappo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a crime family in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing serious acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning Oscars in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robert Mueller</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> interpreting evidence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>making dumb comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting humanism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chief Clarence Wiggum</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating donuts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Elizabeth Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>the American War of Independence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>leading revolutions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Guitar music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rosa Parks</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jimmy Cagney</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Guardians of the Galaxy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>guarding the galaxy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Branson</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>Documentaries and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making provocative documentaries in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about capitalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Deep Throat</t>
-  </si>
-  <si>
-    <t>Watergate and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>talking in riddles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> offering advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Savonarola</t>
-  </si>
-  <si>
-    <t>Florence and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Renaissance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marty McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing rock guitar in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Obi-wan Kenobi</t>
-  </si>
-  <si>
-    <t>fighting for the resistance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rescuing damsels in distress in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting mysticism in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monica Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>arranging dinner parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cooking for friends in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Marlene Dietrich</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Old Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Judaism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Sheldon Cooper</t>
-  </si>
-  <si>
-    <t>The Big Bang Theory and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigella Lawson</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ophelia</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Natasha Romanova</t>
-  </si>
-  <si>
-    <t>Marvel Comics. Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ron Weasley</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Dillinger</t>
-  </si>
-  <si>
-    <t>the American Depression and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bank robbing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>robbing banks in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Cullen</t>
-  </si>
-  <si>
-    <t>Twilight and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Vampire world and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>sucking blood in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>H.P. Lovecraft</t>
-  </si>
-  <si>
-    <t>Horror fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing purple prose in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating carrots in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Professor Hans Zarkov</t>
-  </si>
-  <si>
-    <t>building rocket ships in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jesse Jackson</t>
-  </si>
-  <si>
-    <t>the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>suing large corporations in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Bernstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>reporting the news in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making mediocre movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling comic books in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>The Old West and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westerns and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>arresting criminals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ann Coulter</t>
-  </si>
-  <si>
-    <t>ranting about liberals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pontius Pilate</t>
-  </si>
-  <si>
-    <t>the New Testament and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Bible and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>obsessively washing hands in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Liz Lemon</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bette Midler</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-acting in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>The Scarlet Pimpernel</t>
-  </si>
-  <si>
-    <t>the French Revolution and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding Republicans in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dame Edna Everage</t>
-  </si>
-  <si>
-    <t>Australia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Drag and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cross-Dressing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>KFC and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fried Chicken and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Southern Food and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Napoleon Solo</t>
-  </si>
-  <si>
-    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Babe Ruth</t>
-  </si>
-  <si>
-    <t>Baseball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American sports and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hitting home runs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Doonesbury and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Cartoons and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>drawing political cartoons in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sid Vicious</t>
-  </si>
-  <si>
-    <t>Punk rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing punk rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Confucius</t>
-  </si>
-  <si>
-    <t>Chinese philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eastern philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt "Daredevil" Murdock</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pursuing criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tricking criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> avoiding taxes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preaching to presidents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kent Brockman</t>
+  </si>
+  <si>
+    <t>reading the news in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Richard III</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakespeare and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norman Bates</t>
+  </si>
+  <si>
+    <t>Psycho and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1452,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.3850183297135224E-6</v>
+        <v>3.4174041429202044E-6</v>
       </c>
     </row>
     <row r="3">
@@ -1469,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7253454763363093E-6</v>
+        <v>3.7642537797084633E-6</v>
       </c>
     </row>
     <row r="4">
@@ -1483,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4.097509117071172E-6</v>
+        <v>4.143856186244248E-6</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1494,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4.50423611453436E-6</v>
+        <v>4.55904291366103E-6</v>
       </c>
     </row>
     <row r="6">
@@ -1511,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>4.948461702656183E-6</v>
+        <v>5.012863877248767E-6</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4333430191517794E-6</v>
+        <v>5.508601665418912E-6</v>
       </c>
     </row>
     <row r="8">
@@ -1539,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>5.96227330139672E-6</v>
+        <v>6.0497865560732735E-6</v>
       </c>
     </row>
     <row r="9">
@@ -1553,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>6.538896759297473E-6</v>
+        <v>6.640212254932791E-6</v>
       </c>
     </row>
     <row r="10">
@@ -1567,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>7.167124137193073E-6</v>
+        <v>7.283952368686224E-6</v>
       </c>
     </row>
     <row r="11">
@@ -1578,10 +1575,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>7.851148975080715E-6</v>
+        <v>7.985377623912255E-6</v>
       </c>
     </row>
     <row r="12">
@@ -1589,13 +1586,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>8.59546457745346E-6</v>
+        <v>8.749173840546877E-6</v>
       </c>
     </row>
     <row r="13">
@@ -1603,279 +1600,279 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>9.404881695861104E-6</v>
+        <v>9.580360666279597E-6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0284546928826093E-5</v>
+        <v>1.0484311075549925E-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1239961840057937E-5</v>
+        <v>1.146677163388991E-5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1.2277002792938072E-5</v>
+        <v>1.2533883525079308E-5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3401941496022545E-5</v>
+        <v>1.3692204335077115E-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4621466250784517E-5</v>
+        <v>1.4948730582813329E-5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>1.594270388904459E-5</v>
+        <v>1.63109209838083E-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>1.737324238343488E-5</v>
+        <v>1.7786720428065398E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>1.892115410988534E-5</v>
+        <v>1.9384584648953195E-5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.059501973642979E-5</v>
+        <v>2.1113505554607413E-5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>2.2403952707677067E-5</v>
+        <v>2.2983037188001342E-5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>2.4357624289022466E-5</v>
+        <v>2.5003322275999403E-5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>2.646628912910385E-5</v>
+        <v>2.7185119321706586E-5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>2.874081129315302E-5</v>
+        <v>2.9539830187902557E-5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="n">
-        <v>3.119269071379148E-5</v>
+        <v>3.207952811274279E-5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="n">
-        <v>3.383408999935384E-5</v>
+        <v>3.4816986091808265E-5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>3.6677861533171885E-5</v>
+        <v>3.7765705553344036E-5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D30" t="n">
-        <v>3.97375747903487E-5</v>
+        <v>4.0939945245868376E-5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>4.302754379131174E-5</v>
+        <v>4.4354750249605526E-5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D32" t="n">
-        <v>4.656285460415089E-5</v>
+        <v>4.802598101502707E-5</v>
       </c>
     </row>
     <row r="33">
@@ -1889,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="D33" t="n">
-        <v>5.0359392800090885E-5</v>
+        <v>5.197034232361827E-5</v>
       </c>
     </row>
     <row r="34">
@@ -1903,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>5.4433870758728684E-5</v>
+        <v>5.6205412057428795E-5</v>
       </c>
     </row>
     <row r="35">
@@ -1917,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="D35" t="n">
-        <v>5.8803854711799016E-5</v>
+        <v>6.074966965549547E-5</v>
       </c>
     </row>
     <row r="36">
@@ -1928,10 +1925,10 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>6.348779140620921E-5</v>
+        <v>6.562252412637293E-5</v>
       </c>
     </row>
     <row r="37">
@@ -1942,10 +1939,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>6.850503425901236E-5</v>
+        <v>7.084434147742926E-5</v>
       </c>
     </row>
     <row r="38">
@@ -1956,10 +1953,10 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>7.387586886887414E-5</v>
+        <v>7.643647141250076E-5</v>
       </c>
     </row>
     <row r="39">
@@ -1970,10 +1967,10 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>7.962153774050673E-5</v>
+        <v>8.242127314096444E-5</v>
       </c>
     </row>
     <row r="40">
@@ -1984,10 +1981,10 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D40" t="n">
-        <v>8.576426407044097E-5</v>
+        <v>8.882214013237284E-5</v>
       </c>
     </row>
     <row r="41">
@@ -1998,10 +1995,10 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D41" t="n">
-        <v>9.232727443451321E-5</v>
+        <v>9.566352364232477E-5</v>
       </c>
     </row>
     <row r="42">
@@ -2012,10 +2009,10 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>9.933482020978287E-5</v>
+        <v>1.0297095482671875E-4</v>
       </c>
     </row>
     <row r="43">
@@ -2026,10 +2023,10 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>1.068121975556877E-4</v>
+        <v>1.1077106525337189E-4</v>
       </c>
     </row>
     <row r="44">
@@ -2040,10 +2037,10 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1.1478576577211267E-4</v>
+        <v>1.190916056122576E-4</v>
       </c>
     </row>
     <row r="45">
@@ -2054,10 +2051,10 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.232829638449836E-4</v>
+        <v>1.2796146241772412E-4</v>
       </c>
     </row>
     <row r="46">
@@ -2068,10 +2065,10 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3233232498308708E-4</v>
+        <v>1.3741067248951864E-4</v>
       </c>
     </row>
     <row r="47">
@@ -2085,7 +2082,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1.4196348894377517E-4</v>
+        <v>1.474704349922111E-4</v>
       </c>
     </row>
     <row r="48">
@@ -2099,7 +2096,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5220721193967275E-4</v>
+        <v>1.5817312080736992E-4</v>
       </c>
     </row>
     <row r="49">
@@ -2113,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1.6309537391270444E-4</v>
+        <v>1.6955227900679933E-4</v>
       </c>
     </row>
     <row r="50">
@@ -2124,10 +2121,10 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1.7466098295807007E-4</v>
+        <v>1.8164264019115018E-4</v>
       </c>
     </row>
     <row r="51">
@@ -2138,10 +2135,10 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8693817667638163E-4</v>
+        <v>1.944801164540477E-4</v>
       </c>
     </row>
     <row r="52">
@@ -2152,10 +2149,10 @@
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1.9996222022953484E-4</v>
+        <v>2.0810179772930018E-4</v>
       </c>
     </row>
     <row r="53">
@@ -2166,10 +2163,10 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D53" t="n">
-        <v>2.1376950087348282E-4</v>
+        <v>2.2254594427666662E-4</v>
       </c>
     </row>
     <row r="54">
@@ -2180,10 +2177,10 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D54" t="n">
-        <v>2.2839751874034406E-4</v>
+        <v>2.3785197506096542E-4</v>
       </c>
     </row>
     <row r="55">
@@ -2194,10 +2191,10 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D55" t="n">
-        <v>2.4388487364136475E-4</v>
+        <v>2.5406045177967223E-4</v>
       </c>
     </row>
     <row r="56">
@@ -2208,10 +2205,10 @@
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D56" t="n">
-        <v>2.6027124766404624E-4</v>
+        <v>2.712130582955023E-4</v>
       </c>
     </row>
     <row r="57">
@@ -2222,10 +2219,10 @@
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D57" t="n">
-        <v>2.7759738333798904E-4</v>
+        <v>2.8935257523349115E-4</v>
       </c>
     </row>
     <row r="58">
@@ -2236,10 +2233,10 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D58" t="n">
-        <v>2.9590505714782896E-4</v>
+        <v>3.085228495062946E-4</v>
       </c>
     </row>
     <row r="59">
@@ -2250,10 +2247,10 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>3.152370481759358E-4</v>
+        <v>3.287687585370354E-4</v>
       </c>
     </row>
     <row r="60">
@@ -2264,10 +2261,10 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>3.3563710166358354E-4</v>
+        <v>3.50136168956113E-4</v>
       </c>
     </row>
     <row r="61">
@@ -2278,10 +2275,10 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>3.571498872864927E-4</v>
+        <v>3.72671889557215E-4</v>
       </c>
     </row>
     <row r="62">
@@ -2292,10 +2289,10 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
-        <v>3.798209519494085E-4</v>
+        <v>3.9642361830829077E-4</v>
       </c>
     </row>
     <row r="63">
@@ -2306,10 +2303,10 @@
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D63" t="n">
-        <v>4.036966669151423E-4</v>
+        <v>4.2143988322485004E-4</v>
       </c>
     </row>
     <row r="64">
@@ -2320,10 +2317,10 @@
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D64" t="n">
-        <v>4.288241690942477E-4</v>
+        <v>4.47769976927111E-4</v>
       </c>
     </row>
     <row r="65">
@@ -2334,10 +2331,10 @@
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>4.5525129633631166E-4</v>
+        <v>4.754638847179237E-4</v>
       </c>
     </row>
     <row r="66">
@@ -2348,71 +2345,71 @@
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>4.8302651657777286E-4</v>
+        <v>5.045722060355645E-4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>5.121988507182417E-4</v>
+        <v>5.351460691548036E-4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>5.428177891159507E-4</v>
+        <v>5.672370390301818E-4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5.749332016124365E-4</v>
+        <v>6.008970181986904E-4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>6.085952410182002E-4</v>
+        <v>6.361781406834886E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -2421,152 +2418,152 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>6.438542400147851E-4</v>
+        <v>6.731326588654031E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D72" t="n">
-        <v>6.807606014536064E-4</v>
+        <v>7.118128233190163E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
-        <v>7.193646820569232E-4</v>
+        <v>7.522707556385077E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D74" t="n">
-        <v>7.597166695568324E-4</v>
+        <v>7.945583143089806E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>8.018664533348367E-4</v>
+        <v>8.387269537145012E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>8.458634886574501E-4</v>
+        <v>8.848275764055495E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>8.917566546335545E-4</v>
+        <v>9.329103787854825E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D78" t="n">
-        <v>9.395941060548838E-4</v>
+        <v>9.830246904131631E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D79" t="n">
-        <v>9.894231193121814E-4</v>
+        <v>0.001035218807155569</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0010412899326176714</v>
+        <v>0.0010895398184637833</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0010952395807997672</v>
+        <v>0.001146033429085709</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
@@ -2575,12 +2572,12 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0011513157249711595</v>
+        <v>0.0012047437755681317</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
@@ -2589,68 +2586,68 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0012095604774114734</v>
+        <v>0.001265713237944218</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0012700142220419194</v>
+        <v>0.0013289822470385834</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001332715430904928</v>
+        <v>0.0013945890878680305</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0013977004771053014</v>
+        <v>0.0014625696996563992</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0014650034447007167</v>
+        <v>0.0015329574730159681</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
         <v>124</v>
@@ -2659,12 +2656,12 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001534655936069676</v>
+        <v>0.0016057830448973978</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
@@ -2673,26 +2670,26 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001606686877320903</v>
+        <v>0.0016810740919413203</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0016811223223453658</v>
+        <v>0.0017588551229047872</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>128</v>
@@ -2701,12 +2698,12 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0017579852561398837</v>
+        <v>0.0018391472708731843</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
         <v>129</v>
@@ -2715,217 +2712,217 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0018372953980753462</v>
+        <v>0.0019219680859994537</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0019190690058007234</v>
+        <v>0.002007331329549035</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
         <v>132</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0020033186805171535</v>
+        <v>0.002095246770054668</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
         <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002090053174370589</v>
+        <v>0.0021857199824145204</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0021792772007463573</v>
+        <v>0.00227875215079687</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0022709912482669625</v>
+        <v>0.002374339876224707</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0023651913993163465</v>
+        <v>0.0024724749897453435</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002461869153924323</v>
+        <v>0.0025731443720931058</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002561011259868018</v>
+        <v>0.002676329780781306</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D101" t="n">
-        <v>0.002662599549851319</v>
+        <v>0.0027820076855368248</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0027666107866213263</v>
+        <v>0.002890149113031648</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
         <v>144</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D103" t="n">
-        <v>0.002873016516907967</v>
+        <v>0.003000719501836502</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0029817829350374803</v>
+        <v>0.0031136785685222934</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0030928707570941905</v>
+        <v>0.0032289801858292333</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0032062351064726657</v>
+        <v>0.0033465722738086345</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0033218254116719748</v>
+        <v>0.0034663967048134126</v>
       </c>
     </row>
     <row r="108">
@@ -2933,69 +2930,69 @@
         <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0034395853171300117</v>
+        <v>0.003588389223194266</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0035594526079095745</v>
+        <v>0.0037124793805285994</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0036813591489954778</v>
+        <v>0.00383859048717089</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0038052308399320056</v>
+        <v>0.003966639580872566</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>0.003930987585502588</v>
+        <v>0.004096537413177004</v>
       </c>
     </row>
     <row r="113">
@@ -3003,13 +3000,13 @@
         <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>0.004058543283100624</v>
+        <v>0.004228188454237614</v>
       </c>
     </row>
     <row r="114">
@@ -3017,27 +3014,27 @@
         <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004187805827397917</v>
+        <v>0.004361490916665767</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>0.004318677132867654</v>
+        <v>0.004496336798928413</v>
       </c>
     </row>
     <row r="116">
@@ -3045,13 +3042,13 @@
         <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>0.004451053174659492</v>
+        <v>0.004632611948790999</v>
       </c>
     </row>
     <row r="117">
@@ -3059,125 +3056,125 @@
         <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0045848240482678215</v>
+        <v>0.004770196147183103</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00471987404836649</v>
+        <v>0.004908963212839623</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D119" t="n">
-        <v>0.00485608176712593</v>
+        <v>0.005048781127951263</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D120" t="n">
-        <v>0.004993320212238583</v>
+        <v>0.005189512185011347</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D121" t="n">
-        <v>0.005131456944830803</v>
+        <v>0.005331013154933395</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" t="n">
-        <v>0.005270354237333852</v>
+        <v>0.005473135476456448</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005409869251329746</v>
+        <v>0.0056157254667308365</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0055498542352956926</v>
+        <v>0.005758624552927638</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>0.005690156742081676</v>
+        <v>0.00590166952457849</v>
       </c>
     </row>
     <row r="126">
@@ -3185,13 +3182,13 @@
         <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>0.005830619865883402</v>
+        <v>0.006044692806295604</v>
       </c>
     </row>
     <row r="127">
@@ -3199,111 +3196,111 @@
         <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0059710824983785216</v>
+        <v>0.006187522750403351</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D128" t="n">
-        <v>0.006111379603599754</v>
+        <v>0.0063299839489271426</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D129" t="n">
-        <v>0.006251342511048974</v>
+        <v>0.006471897564288842</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B130" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>0.006390799226455579</v>
+        <v>0.006613081677967814</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B131" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0065295747594903975</v>
+        <v>0.00675335165628449</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
         <v>184</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>0.006667491467685249</v>
+        <v>0.006892520532386037</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>0.006804369415695399</v>
+        <v>0.00703039940341188</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D134" t="n">
-        <v>0.006940026748978589</v>
+        <v>0.007166797841744399</v>
       </c>
     </row>
     <row r="135">
@@ -3311,13 +3308,13 @@
         <v>187</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0070742800808839545</v>
+        <v>0.007301524319156705</v>
       </c>
     </row>
     <row r="136">
@@ -3325,27 +3322,27 @@
         <v>187</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00720694489205731</v>
+        <v>0.007434386642599156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0073378359410102845</v>
+        <v>0.007565192400292797</v>
       </c>
     </row>
     <row r="138">
@@ -3353,13 +3350,13 @@
         <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007466767684622233</v>
+        <v>0.007693749416719908</v>
       </c>
     </row>
     <row r="139">
@@ -3367,69 +3364,69 @@
         <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>0.007593554707286954</v>
+        <v>0.007819866215056231</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>0.007718012157347631</v>
+        <v>0.007943352485510119</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0.007839956189423791</v>
+        <v>0.0080640195580082</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C142" t="s">
         <v>15</v>
       </c>
       <c r="D142" t="n">
-        <v>0.007959204411168874</v>
+        <v>0.008181680877592606</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00807557633296982</v>
+        <v>0.008296152480893215</v>
       </c>
     </row>
     <row r="144">
@@ -3437,41 +3434,41 @@
         <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
         <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>0.008188893819050691</v>
+        <v>0.008407253471969744</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>0.00829898153842637</v>
+        <v>0.008514806495833166</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>0.008405667414117135</v>
+        <v>0.008618638207907536</v>
       </c>
     </row>
     <row r="147">
@@ -3479,41 +3476,41 @@
         <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>0.008508783069025166</v>
+        <v>0.008718579737716864</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008608164266872415</v>
+        <v>0.008814467145056293</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D149" t="n">
-        <v>0.00870365134657844</v>
+        <v>0.008906141866938971</v>
       </c>
     </row>
     <row r="150">
@@ -3521,265 +3518,265 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C150" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>0.00879508964849049</v>
+        <v>0.008993451153610166</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B151" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008882329930868654</v>
+        <v>0.009076248491960592</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B152" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>0.008965228775061757</v>
+        <v>0.009154394014693673</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
-        <v>0.009043648977840574</v>
+        <v>0.009227754893654502</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D154" t="n">
-        <v>0.009117459929385868</v>
+        <v>0.009296205715767364</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D155" t="n">
-        <v>0.009186537975472656</v>
+        <v>0.00935962884010312</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D156" t="n">
-        <v>0.009250766762453053</v>
+        <v>0.009417914734642444</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B157" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.009310037563685147</v>
+        <v>0.009470962291398766</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B158" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>0.009364249586128442</v>
+        <v>0.009518679118619658</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B159" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>0.009413310255897173</v>
+        <v>0.009560981808897098</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>0.009457135481639803</v>
+        <v>0.009597796182086116</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B161" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>0.00949564989469251</v>
+        <v>0.009629057502053166</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B162" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D162" t="n">
-        <v>0.009528787065051038</v>
+        <v>0.009654710666355641</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D163" t="n">
-        <v>0.009556489692291531</v>
+        <v>0.009674710368087043</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D164" t="n">
-        <v>0.00957870977067601</v>
+        <v>0.009689021229210606</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B165" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D165" t="n">
-        <v>0.009595408727770618</v>
+        <v>0.00969761790484341</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
         <v>15</v>
       </c>
       <c r="D166" t="n">
-        <v>0.009606557536022336</v>
+        <v>0.009700485158049464</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B167" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D167" t="n">
-        <v>0.009612136796840785</v>
+        <v>0.009697617904843234</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D168" t="n">
-        <v>0.009612136796840956</v>
+        <v>0.009689021229210606</v>
       </c>
     </row>
     <row r="169">
@@ -3787,41 +3784,41 @@
         <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D169" t="n">
-        <v>0.009606557536022511</v>
+        <v>0.009674710368086863</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00959540872777027</v>
+        <v>0.009654710666355995</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>0.009578709770676184</v>
+        <v>0.009629057502052993</v>
       </c>
     </row>
     <row r="172">
@@ -3829,41 +3826,41 @@
         <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D172" t="n">
-        <v>0.009556489692291732</v>
+        <v>0.009597796182086116</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B173" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>0.009528787065050663</v>
+        <v>0.009560981808896932</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.009495649894692648</v>
+        <v>0.009518679118619991</v>
       </c>
     </row>
     <row r="175">
@@ -3871,181 +3868,181 @@
         <v>240</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>0.009457135481639997</v>
+        <v>0.009470962291398599</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D176" t="n">
-        <v>0.009413310255896992</v>
+        <v>0.009417914734642444</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D177" t="n">
-        <v>0.00936424958612847</v>
+        <v>0.00935962884010294</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0093100375636853</v>
+        <v>0.009296205715767697</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C179" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>0.009250766762452858</v>
+        <v>0.00922775489365435</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C180" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009186537975472725</v>
+        <v>0.009154394014693673</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D181" t="n">
-        <v>0.009117459929385938</v>
+        <v>0.009076248491960537</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00904364897784049</v>
+        <v>0.008993451153610388</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B183" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D183" t="n">
-        <v>0.008965228775061812</v>
+        <v>0.008906141866938805</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C184" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00888232993086871</v>
+        <v>0.008814467145056293</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D185" t="n">
-        <v>0.00879508964849035</v>
+        <v>0.008718579737716725</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D186" t="n">
-        <v>0.008703651346578412</v>
+        <v>0.00861863820790787</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B187" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C187" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D187" t="n">
-        <v>0.008608164266872581</v>
+        <v>0.008514806495832972</v>
       </c>
     </row>
     <row r="188">
@@ -4053,321 +4050,321 @@
         <v>258</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D188" t="n">
-        <v>0.008508783069025083</v>
+        <v>0.008407253471969744</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B189" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C189" t="s">
         <v>15</v>
       </c>
       <c r="D189" t="n">
-        <v>0.008405667414117024</v>
+        <v>0.008296152480893104</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008298981538426481</v>
+        <v>0.008181680877592912</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B191" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>0.008188893819050608</v>
+        <v>0.008064019558008007</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>0.00807557633296982</v>
+        <v>0.007943352485510119</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00795920441116904</v>
+        <v>0.007819866215056093</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>0.007839956189423625</v>
+        <v>0.007693749416719908</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007718012157347576</v>
+        <v>0.007565192400292908</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B196" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0075935547072868426</v>
+        <v>0.007434386642599156</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B197" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C197" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007466767684622344</v>
+        <v>0.007301524319156538</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0073378359410103955</v>
+        <v>0.007166797841744343</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C199" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D199" t="n">
-        <v>0.007206944892057088</v>
+        <v>0.007030399403412102</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0070742800808839545</v>
+        <v>0.006892520532386037</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0069400267489788114</v>
+        <v>0.00675335165628449</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>0.006804369415695177</v>
+        <v>0.006613081677967758</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>0.006667491467685416</v>
+        <v>0.006471897564288953</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>0.006529574759490453</v>
+        <v>0.006329983948927087</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0.006390799226455357</v>
+        <v>0.006187522750403351</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B206" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>0.006251342511049085</v>
+        <v>0.0060446928062955485</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C207" t="s">
         <v>15</v>
       </c>
       <c r="D207" t="n">
-        <v>0.006111379603599698</v>
+        <v>0.005901669524578712</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C208" t="s">
         <v>15</v>
       </c>
       <c r="D208" t="n">
-        <v>0.005971082498378466</v>
+        <v>0.0057586245529274716</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B209" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005830619865883568</v>
+        <v>0.0056157254667308365</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B210" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>0.00569015674208162</v>
+        <v>0.005473135476456392</v>
       </c>
     </row>
     <row r="211">
@@ -4375,13 +4372,13 @@
         <v>290</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0055498542352955815</v>
+        <v>0.0053310131549336726</v>
       </c>
     </row>
     <row r="212">
@@ -4389,27 +4386,27 @@
         <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0.005409869251329857</v>
+        <v>0.005189512185011125</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.005270354237333907</v>
+        <v>0.005048781127951263</v>
       </c>
     </row>
     <row r="214">
@@ -4417,13 +4414,13 @@
         <v>294</v>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C214" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.005131456944830637</v>
+        <v>0.004908963212839568</v>
       </c>
     </row>
     <row r="215">
@@ -4431,27 +4428,27 @@
         <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C215" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00499332021223875</v>
+        <v>0.004770196147183159</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C216" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>0.004856081767125819</v>
+        <v>0.004632611948790999</v>
       </c>
     </row>
     <row r="217">
@@ -4459,13 +4456,13 @@
         <v>298</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C217" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>0.004719874048366435</v>
+        <v>0.004496336798928413</v>
       </c>
     </row>
     <row r="218">
@@ -4473,27 +4470,27 @@
         <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C218" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0045848240482679326</v>
+        <v>0.0043614909166656</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>0.004451053174659492</v>
+        <v>0.004228188454237891</v>
       </c>
     </row>
     <row r="220">
@@ -4501,69 +4498,69 @@
         <v>302</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>0.004318677132867543</v>
+        <v>0.004096537413176893</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C221" t="s">
         <v>15</v>
       </c>
       <c r="D221" t="n">
-        <v>0.004187805827397972</v>
+        <v>0.003966639580872566</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
       </c>
       <c r="D222" t="n">
-        <v>0.004058543283100735</v>
+        <v>0.00383859048717089</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D223" t="n">
-        <v>0.003930987585502421</v>
+        <v>0.003712479380528655</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0038052308399320056</v>
+        <v>0.0035883892231942105</v>
       </c>
     </row>
     <row r="225">
@@ -4571,979 +4568,979 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>0.003681359148995589</v>
+        <v>0.0034663967048134126</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0035594526079094635</v>
+        <v>0.0033465722738086345</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>0.003439585317129956</v>
+        <v>0.0032289801858294</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C228" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0033218254116718082</v>
+        <v>0.003113678568522127</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B229" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>0.003206235106472888</v>
+        <v>0.003000719501836502</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B230" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0.003092870757094246</v>
+        <v>0.002890149113031537</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0029817829350375913</v>
+        <v>0.0027820076855368803</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0028730165169078004</v>
+        <v>0.0026763297807813613</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B233" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0027666107866213263</v>
+        <v>0.0025731443720931058</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0026625995498512633</v>
+        <v>0.0024724749897451215</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B235" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C235" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0025610112598680734</v>
+        <v>0.002374339876224818</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B236" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D236" t="n">
-        <v>0.002461869153924545</v>
+        <v>0.002278752150796981</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0023651913993162355</v>
+        <v>0.0021857199824145204</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0022709912482668515</v>
+        <v>0.0020952467700545985</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B239" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C239" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D239" t="n">
-        <v>0.002179277200746392</v>
+        <v>0.0020073313295491807</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0020900531743706235</v>
+        <v>0.0019219680859993774</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="B241" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C241" t="s">
         <v>15</v>
       </c>
       <c r="D241" t="n">
-        <v>0.002003318680517084</v>
+        <v>0.0018391472708731843</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="B242" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0019190690058007373</v>
+        <v>0.0017588551229047594</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243" t="n">
-        <v>0.0018372953980754017</v>
+        <v>0.001681074091941407</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B244" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0017579852561398143</v>
+        <v>0.0016057830448973388</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B245" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0016811223223453797</v>
+        <v>0.0015329574730159681</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B246" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C246" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D246" t="n">
-        <v>0.0016066868773209342</v>
+        <v>0.0014625696996564373</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B247" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0015346559360696309</v>
+        <v>0.0013945890878679958</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B248" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D248" t="n">
-        <v>0.001465003444700748</v>
+        <v>0.00132898224703858</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B249" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D249" t="n">
-        <v>0.0013977004771053014</v>
+        <v>0.001265713237944218</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B250" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>0.0013327154309048968</v>
+        <v>0.0012047437755681317</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B251" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0012700142220419819</v>
+        <v>0.0011460334290857126</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B252" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>0.001209560477411456</v>
+        <v>0.0010895398184637799</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B253" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0011513157249711144</v>
+        <v>0.001035218807155569</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B254" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D254" t="n">
-        <v>0.0010952395807997985</v>
+        <v>9.830246904131631E-4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B255" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C255" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0010412899326176922</v>
+        <v>9.329103787854912E-4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B256" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>9.894231193121293E-4</v>
+        <v>8.848275764055408E-4</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B257" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>9.39594106054889E-4</v>
+        <v>8.387269537145012E-4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B258" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C258" t="s">
         <v>15</v>
       </c>
       <c r="D258" t="n">
-        <v>8.917566546335666E-4</v>
+        <v>7.945583143089806E-4</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B259" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C259" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D259" t="n">
-        <v>8.458634886574327E-4</v>
+        <v>7.522707556384955E-4</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D260" t="n">
-        <v>8.018664533348558E-4</v>
+        <v>7.118128233190284E-4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C261" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D261" t="n">
-        <v>7.597166695568203E-4</v>
+        <v>6.731326588654031E-4</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B262" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D262" t="n">
-        <v>7.193646820569163E-4</v>
+        <v>6.361781406834886E-4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D263" t="n">
-        <v>6.807606014536133E-4</v>
+        <v>6.008970181986852E-4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B264" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D264" t="n">
-        <v>6.438542400148059E-4</v>
+        <v>5.67237039030187E-4</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B265" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C265" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D265" t="n">
-        <v>6.085952410181724E-4</v>
+        <v>5.351460691548036E-4</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C266" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D266" t="n">
-        <v>5.749332016124452E-4</v>
+        <v>5.045722060355645E-4</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B267" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C267" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D267" t="n">
-        <v>5.428177891159732E-4</v>
+        <v>4.754638847179202E-4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B268" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D268" t="n">
-        <v>5.121988507182105E-4</v>
+        <v>4.477699769271145E-4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D269" t="n">
-        <v>4.830265165777772E-4</v>
+        <v>4.2143988322485004E-4</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D270" t="n">
-        <v>4.552512963363316E-4</v>
+        <v>3.9642361830829077E-4</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B271" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C271" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D271" t="n">
-        <v>4.288241690942234E-4</v>
+        <v>3.726718895572124E-4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B272" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C272" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D272" t="n">
-        <v>4.036966669151501E-4</v>
+        <v>3.501361689561156E-4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B273" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C273" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D273" t="n">
-        <v>3.798209519494111E-4</v>
+        <v>3.287687585370354E-4</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B274" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C274" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D274" t="n">
-        <v>3.571498872864823E-4</v>
+        <v>3.085228495062946E-4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B275" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C275" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D275" t="n">
-        <v>3.356371016635896E-4</v>
+        <v>2.893525752334877E-4</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="B276" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C276" t="s">
         <v>15</v>
       </c>
       <c r="D276" t="n">
-        <v>3.1523704817594273E-4</v>
+        <v>2.7121305829550576E-4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="B277" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C277" t="s">
         <v>15</v>
       </c>
       <c r="D277" t="n">
-        <v>2.9590505714781595E-4</v>
+        <v>2.5406045177967223E-4</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="B278" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C278" t="s">
         <v>15</v>
       </c>
       <c r="D278" t="n">
-        <v>2.77597383337996E-4</v>
+        <v>2.3785197506096542E-4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B279" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D279" t="n">
-        <v>2.602712476640493E-4</v>
+        <v>2.2254594427666358E-4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B280" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C280" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D280" t="n">
-        <v>2.4388487364135477E-4</v>
+        <v>2.0810179772930322E-4</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B281" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C281" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D281" t="n">
-        <v>2.2839751874035143E-4</v>
+        <v>1.944801164540477E-4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B282" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C282" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D282" t="n">
-        <v>2.1376950087348282E-4</v>
+        <v>1.8164264019115018E-4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B283" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D283" t="n">
-        <v>1.9996222022952747E-4</v>
+        <v>1.6955227900679933E-4</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B284" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C284" t="s">
         <v>15</v>
       </c>
       <c r="D284" t="n">
-        <v>1.869381766763851E-4</v>
+        <v>1.5817312080736992E-4</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B285" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
       </c>
       <c r="D285" t="n">
-        <v>1.746609829580718E-4</v>
+        <v>1.474704349922111E-4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B286" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D286" t="n">
-        <v>1.6309537391269923E-4</v>
+        <v>1.3741067248951864E-4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B287" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D287" t="n">
-        <v>1.5220721193967687E-4</v>
+        <v>1.2796146241772412E-4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B288" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D288" t="n">
-        <v>1.4196348894377799E-4</v>
+        <v>1.190916056122576E-4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B289" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C289" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D289" t="n">
-        <v>1.3233232498308014E-4</v>
+        <v>1.1077106525337189E-4</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B290" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C290" t="s">
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>1.2328296384499031E-4</v>
+        <v>1.0297095482671875E-4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B291" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C291" t="s">
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>1.1478576577210898E-4</v>
+        <v>9.566352364232477E-5</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B292" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C292" t="s">
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>1.0681219755568467E-4</v>
+        <v>8.882214013237631E-5</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B293" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C293" t="s">
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>9.933482020978569E-5</v>
+        <v>8.242127314096097E-5</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B294" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C294" t="s">
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>9.232727443451495E-5</v>
+        <v>7.643647141250076E-5</v>
       </c>
     </row>
     <row r="295">
@@ -5551,265 +5548,265 @@
         <v>403</v>
       </c>
       <c r="B295" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C295" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>8.576426407043642E-5</v>
+        <v>7.084434147742926E-5</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B296" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C296" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D296" t="n">
-        <v>7.962153774050728E-5</v>
+        <v>6.562252412637348E-5</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B297" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C297" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>7.387586886887566E-5</v>
+        <v>6.0749669655494926E-5</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B298" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C298" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>6.85050342590103E-5</v>
+        <v>5.6205412057428795E-5</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B299" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>6.348779140620921E-5</v>
+        <v>5.197034232361827E-5</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B300" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>5.880385471180032E-5</v>
+        <v>4.802598101502848E-5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B301" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C301" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>5.443387075872738E-5</v>
+        <v>4.435475024960412E-5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B302" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>5.035939280009273E-5</v>
+        <v>4.0939945245868376E-5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B303" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C303" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D303" t="n">
-        <v>4.6562854604151544E-5</v>
+        <v>3.776570555334279E-5</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B304" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D304" t="n">
-        <v>4.3027543791309244E-5</v>
+        <v>3.481698609181065E-5</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B305" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D305" t="n">
-        <v>3.97375747903487E-5</v>
+        <v>3.207952811274165E-5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B306" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C306" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D306" t="n">
-        <v>3.66778615331734E-5</v>
+        <v>2.9539830187902557E-5</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B307" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C307" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D307" t="n">
-        <v>3.383408999935232E-5</v>
+        <v>2.7185119321706207E-5</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B308" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C308" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D308" t="n">
-        <v>3.1192690713792296E-5</v>
+        <v>2.5003322276000216E-5</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B309" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C309" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>2.874081129315302E-5</v>
+        <v>2.298303718800091E-5</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B310" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D310" t="n">
-        <v>2.6466289129103038E-5</v>
+        <v>2.1113505554607413E-5</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C311" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D311" t="n">
-        <v>2.435762428902328E-5</v>
+        <v>1.9384584648952734E-5</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B312" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D312" t="n">
-        <v>2.2403952707676498E-5</v>
+        <v>1.7786720428066157E-5</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B313" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C313" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D313" t="n">
-        <v>2.0595019736429547E-5</v>
+        <v>1.6310920983808E-5</v>
       </c>
     </row>
     <row r="314">
@@ -5817,41 +5814,41 @@
         <v>429</v>
       </c>
       <c r="B314" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C314" t="s">
         <v>15</v>
       </c>
       <c r="D314" t="n">
-        <v>1.8921154109885772E-5</v>
+        <v>1.4948730582813329E-5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D315" t="n">
-        <v>1.7373242383435288E-5</v>
+        <v>1.3692204335076681E-5</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B316" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C316" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D316" t="n">
-        <v>1.594270388904432E-5</v>
+        <v>1.2533883525079985E-5</v>
       </c>
     </row>
     <row r="317">
@@ -5859,237 +5856,195 @@
         <v>433</v>
       </c>
       <c r="B317" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C317" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D317" t="n">
-        <v>1.4621466250784219E-5</v>
+        <v>1.1466771633889667E-5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B318" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C318" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D318" t="n">
-        <v>1.340194149602249E-5</v>
+        <v>1.0484311075549925E-5</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B319" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D319" t="n">
-        <v>1.2277002792937856E-5</v>
+        <v>9.580360666279299E-6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1.1239961840057937E-5</v>
+        <v>8.749173840547176E-6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B321" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>1.0284546928826093E-5</v>
+        <v>7.985377623912255E-6</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B322" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D322" t="n">
-        <v>9.404881695861402E-6</v>
+        <v>7.283952368686224E-6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B323" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C323" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D323" t="n">
-        <v>8.59546457745338E-6</v>
+        <v>6.640212254932615E-6</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B324" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C324" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D324" t="n">
-        <v>7.851148975080498E-6</v>
+        <v>6.0497865560733006E-6</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B325" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C325" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D325" t="n">
-        <v>7.16712413719329E-6</v>
+        <v>5.508601665419061E-6</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B326" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C326" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D326" t="n">
-        <v>6.538896759297256E-6</v>
+        <v>5.012863877248767E-6</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B327" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C327" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D327" t="n">
-        <v>5.96227330139672E-6</v>
+        <v>4.559042913660914E-6</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B328" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C328" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>5.433343019151949E-6</v>
+        <v>4.143856186244248E-6</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B329" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C329" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>4.948461702656136E-6</v>
+        <v>3.7642537797085785E-6</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B330" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C330" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>4.5042361145342384E-6</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>452</v>
-      </c>
-      <c r="B331" t="s">
-        <v>453</v>
-      </c>
-      <c r="C331" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" t="n">
-        <v>4.097509117071287E-6</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>452</v>
-      </c>
-      <c r="B332" t="s">
-        <v>454</v>
-      </c>
-      <c r="C332" t="s">
-        <v>20</v>
-      </c>
-      <c r="D332" t="n">
-        <v>3.725345476336194E-6</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>452</v>
-      </c>
-      <c r="B333" t="s">
-        <v>455</v>
-      </c>
-      <c r="C333" t="s">
-        <v>20</v>
-      </c>
-      <c r="D333" t="n">
-        <v>3.3850183297135224E-6</v>
+        <v>3.4174041429202044E-6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/projects240.xlsx
+++ b/src/main/resources/projects240.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weron\Desktop\SEP_Project\master\master\cthulhu\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D3EFE-09EE-4618-A21E-729F623B36DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="6615" yWindow="4935" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects and Supervisors" r:id="rId3" sheetId="1"/>
+    <sheet name="Projects and Supervisors" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="335">
   <si>
     <t>Supervisor</t>
   </si>
@@ -1017,376 +1025,15 @@
   </si>
   <si>
     <t>American history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>testing scientific theories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mae West</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making lewd remarks in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trading innuendo in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mata Hari</t>
-  </si>
-  <si>
-    <t>World War I and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>spying for the enemy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing miltary officers in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Red Sonja</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hyborian Age and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Thomas Aquinas</t>
-  </si>
-  <si>
-    <t>Religious Iconology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>teaching philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading philosophy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>studying science in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karl Lagerfeld</t>
-  </si>
-  <si>
-    <t>Fashion and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Rag Trade and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Fashion industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Patch Adams</t>
-  </si>
-  <si>
-    <t>Modern medicine and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making sick people laugh in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Captain William Bligh</t>
-  </si>
-  <si>
-    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>barking orders at subordinates in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cracking the whip in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Roger Federer</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning tennis matches in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis grand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>KFC and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Johnny Cash</t>
-  </si>
-  <si>
-    <t>Country music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing country music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Socrates</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Leni Riefenstahl</t>
-  </si>
-  <si>
-    <t>the Third Reich and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Documentaries and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Moore</t>
-  </si>
-  <si>
-    <t>Documentaries and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making provocative documentaries in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> complaining about capitalism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jenna Maroney</t>
-  </si>
-  <si>
-    <t>30 Rock and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Television Production and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morgana Le Fay</t>
-  </si>
-  <si>
-    <t>British history and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying magic tricks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Saint Paul</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Edward Scissorhands</t>
-  </si>
-  <si>
-    <t>Tim Burton's imagination and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making ice sculptures in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> trimming bushes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daenerys Targaryen</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Emperor Caligula</t>
-  </si>
-  <si>
-    <t>the Roman Empire and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ancient Rome and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>terrorizing citizens in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Billie Holiday</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>Evolution and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Humanism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>explaining evolution in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eddy Merckx</t>
-  </si>
-  <si>
-    <t>Cycling and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling furiously in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning cycling races in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bono</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding taxes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preaching to presidents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> crooning love songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kent Brockman</t>
-  </si>
-  <si>
-    <t>reading the news in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting anodyne game shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Richard III</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shakespeare and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norman Bates</t>
-  </si>
-  <si>
-    <t>Psycho and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hitchcock movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1398,7 +1045,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1416,18 +1063,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:D330"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1451,11 +1408,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>3.4174041429202044E-6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1465,11 +1422,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>3.7642537797084633E-6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1479,11 +1436,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>4.143856186244248E-6</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>4.1438561862442482E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1493,11 +1450,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.55904291366103E-6</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>4.5590429136610296E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1507,11 +1464,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.012863877248767E-6</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>5.0128638772487668E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1521,11 +1478,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
-        <v>5.508601665418912E-6</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>5.5086016654189117E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1535,11 +1492,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>6.0497865560732735E-6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1549,11 +1506,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>6.640212254932791E-6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1563,11 +1520,11 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.283952368686224E-6</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>7.2839523686862238E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1577,11 +1534,11 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>7.985377623912255E-6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1591,11 +1548,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
-        <v>8.749173840546877E-6</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>8.7491738405468775E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1605,11 +1562,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
-        <v>9.580360666279597E-6</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>9.5803606662795971E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1619,11 +1576,11 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.0484311075549925E-5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1633,11 +1590,11 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
-        <v>1.146677163388991E-5</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15">
+        <v>1.1466771633889911E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1647,11 +1604,11 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.2533883525079308E-5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1661,11 +1618,11 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>1.3692204335077115E-5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1675,11 +1632,11 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.4948730582813329E-5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1689,11 +1646,11 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="n">
-        <v>1.63109209838083E-5</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="D19">
+        <v>1.6310920983808299E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1703,11 +1660,11 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.7786720428065398E-5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1717,11 +1674,11 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.9384584648953195E-5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1731,11 +1688,11 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.1113505554607413E-5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1745,11 +1702,11 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>2.2983037188001342E-5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1759,11 +1716,11 @@
       <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.5003322275999403E-5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1773,11 +1730,11 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>2.7185119321706586E-5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1787,11 +1744,11 @@
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.9539830187902557E-5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1801,11 +1758,11 @@
       <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="n">
-        <v>3.207952811274279E-5</v>
-      </c>
-    </row>
-    <row r="28">
+      <c r="D27">
+        <v>3.2079528112742789E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -1815,11 +1772,11 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.4816986091808265E-5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1829,11 +1786,11 @@
       <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3.7765705553344036E-5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1843,11 +1800,11 @@
       <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>4.0939945245868376E-5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1857,11 +1814,11 @@
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.4354750249605526E-5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1871,11 +1828,11 @@
       <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="n">
-        <v>4.802598101502707E-5</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="D32">
+        <v>4.8025981015027068E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1885,11 +1842,11 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" t="n">
-        <v>5.197034232361827E-5</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="D33">
+        <v>5.1970342323618269E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1899,11 +1856,11 @@
       <c r="C34" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>5.6205412057428795E-5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1913,11 +1870,11 @@
       <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D35" t="n">
-        <v>6.074966965549547E-5</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="D35">
+        <v>6.0749669655495468E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1927,11 +1884,11 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" t="n">
-        <v>6.562252412637293E-5</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="D36">
+        <v>6.5622524126372934E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1941,11 +1898,11 @@
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="n">
-        <v>7.084434147742926E-5</v>
-      </c>
-    </row>
-    <row r="38">
+      <c r="D37">
+        <v>7.0844341477429261E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1955,11 +1912,11 @@
       <c r="C38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.643647141250076E-5</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="D38">
+        <v>7.6436471412500762E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1969,11 +1926,11 @@
       <c r="C39" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="n">
-        <v>8.242127314096444E-5</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="D39">
+        <v>8.2421273140964439E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1983,11 +1940,11 @@
       <c r="C40" t="s">
         <v>46</v>
       </c>
-      <c r="D40" t="n">
-        <v>8.882214013237284E-5</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="D40">
+        <v>8.8822140132372839E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1997,11 +1954,11 @@
       <c r="C41" t="s">
         <v>46</v>
       </c>
-      <c r="D41" t="n">
-        <v>9.566352364232477E-5</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="D41">
+        <v>9.5663523642324768E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2011,11 +1968,11 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>1.0297095482671875E-4</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -2025,11 +1982,11 @@
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.1077106525337189E-4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -2039,11 +1996,11 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>1.190916056122576E-4</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2053,11 +2010,11 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.2796146241772412E-4</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2067,11 +2024,11 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1.3741067248951864E-4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -2081,11 +2038,11 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="n">
-        <v>1.474704349922111E-4</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="D47">
+        <v>1.4747043499221111E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2095,11 +2052,11 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>1.5817312080736992E-4</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2109,11 +2066,11 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1.6955227900679933E-4</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2123,11 +2080,11 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1.8164264019115018E-4</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -2137,11 +2094,11 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="n">
-        <v>1.944801164540477E-4</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="D51">
+        <v>1.9448011645404771E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -2151,11 +2108,11 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>2.0810179772930018E-4</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>76</v>
       </c>
@@ -2165,11 +2122,11 @@
       <c r="C53" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>2.2254594427666662E-4</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2179,11 +2136,11 @@
       <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>2.3785197506096542E-4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -2193,11 +2150,11 @@
       <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>2.5406045177967223E-4</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>80</v>
       </c>
@@ -2207,11 +2164,11 @@
       <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="D56" t="n">
-        <v>2.712130582955023E-4</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="D56">
+        <v>2.7121305829550229E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -2221,11 +2178,11 @@
       <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>2.8935257523349115E-4</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -2235,11 +2192,11 @@
       <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="D58" t="n">
-        <v>3.085228495062946E-4</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="D58">
+        <v>3.0852284950629461E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2249,11 +2206,11 @@
       <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" t="n">
-        <v>3.287687585370354E-4</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="D59">
+        <v>3.2876875853703538E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>84</v>
       </c>
@@ -2263,11 +2220,11 @@
       <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D60" t="n">
-        <v>3.50136168956113E-4</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="D60">
+        <v>3.5013616895611301E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -2277,11 +2234,11 @@
       <c r="C61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="n">
-        <v>3.72671889557215E-4</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="D61">
+        <v>3.7267188955721498E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -2291,11 +2248,11 @@
       <c r="C62" t="s">
         <v>46</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>3.9642361830829077E-4</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -2305,11 +2262,11 @@
       <c r="C63" t="s">
         <v>46</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>4.2143988322485004E-4</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -2319,11 +2276,11 @@
       <c r="C64" t="s">
         <v>46</v>
       </c>
-      <c r="D64" t="n">
-        <v>4.47769976927111E-4</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="D64">
+        <v>4.4776997692711103E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -2333,11 +2290,11 @@
       <c r="C65" t="s">
         <v>15</v>
       </c>
-      <c r="D65" t="n">
-        <v>4.754638847179237E-4</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="D65">
+        <v>4.7546388471792368E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2347,11 +2304,11 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="n">
-        <v>5.045722060355645E-4</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="D66">
+        <v>5.0457220603556448E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2361,11 +2318,11 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="n">
-        <v>5.351460691548036E-4</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="D67">
+        <v>5.3514606915480364E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
@@ -2375,11 +2332,11 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" t="n">
-        <v>5.672370390301818E-4</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="D68">
+        <v>5.6723703903018181E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -2389,11 +2346,11 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" t="n">
-        <v>6.008970181986904E-4</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="D69">
+        <v>6.0089701819869036E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -2403,11 +2360,11 @@
       <c r="C70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="n">
-        <v>6.361781406834886E-4</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70">
+        <v>6.3617814068348856E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -2417,11 +2374,11 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="n">
-        <v>6.731326588654031E-4</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="D71">
+        <v>6.7313265886540311E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>102</v>
       </c>
@@ -2431,11 +2388,11 @@
       <c r="C72" t="s">
         <v>46</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>7.118128233190163E-4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -2445,11 +2402,11 @@
       <c r="C73" t="s">
         <v>46</v>
       </c>
-      <c r="D73" t="n">
-        <v>7.522707556385077E-4</v>
-      </c>
-    </row>
-    <row r="74">
+      <c r="D73">
+        <v>7.5227075563850769E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>102</v>
       </c>
@@ -2459,11 +2416,11 @@
       <c r="C74" t="s">
         <v>46</v>
       </c>
-      <c r="D74" t="n">
-        <v>7.945583143089806E-4</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="D74">
+        <v>7.9455831430898065E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>106</v>
       </c>
@@ -2473,11 +2430,11 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="n">
-        <v>8.387269537145012E-4</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="D75">
+        <v>8.3872695371450118E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>106</v>
       </c>
@@ -2487,11 +2444,11 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="n">
-        <v>8.848275764055495E-4</v>
-      </c>
-    </row>
-    <row r="77">
+      <c r="D76">
+        <v>8.8482757640554952E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -2501,11 +2458,11 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" t="n">
-        <v>9.329103787854825E-4</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="D77">
+        <v>9.3291037878548248E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -2515,11 +2472,11 @@
       <c r="C78" t="s">
         <v>46</v>
       </c>
-      <c r="D78" t="n">
-        <v>9.830246904131631E-4</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="D78">
+        <v>9.8302469041316315E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -2529,11 +2486,11 @@
       <c r="C79" t="s">
         <v>46</v>
       </c>
-      <c r="D79" t="n">
-        <v>0.001035218807155569</v>
-      </c>
-    </row>
-    <row r="80">
+      <c r="D79">
+        <v>1.035218807155569E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>110</v>
       </c>
@@ -2543,11 +2500,11 @@
       <c r="C80" t="s">
         <v>46</v>
       </c>
-      <c r="D80" t="n">
-        <v>0.0010895398184637833</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="D80">
+        <v>1.0895398184637833E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -2557,11 +2514,11 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" t="n">
-        <v>0.001146033429085709</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="D81">
+        <v>1.1460334290857091E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -2571,11 +2528,11 @@
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" t="n">
-        <v>0.0012047437755681317</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82">
+        <v>1.2047437755681317E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -2585,11 +2542,11 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="n">
-        <v>0.001265713237944218</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="D83">
+        <v>1.2657132379442181E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -2599,11 +2556,11 @@
       <c r="C84" t="s">
         <v>6</v>
       </c>
-      <c r="D84" t="n">
-        <v>0.0013289822470385834</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84">
+        <v>1.3289822470385834E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -2613,11 +2570,11 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" t="n">
-        <v>0.0013945890878680305</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85">
+        <v>1.3945890878680305E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>118</v>
       </c>
@@ -2627,11 +2584,11 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" t="n">
-        <v>0.0014625696996563992</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86">
+        <v>1.4625696996563992E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -2641,11 +2598,11 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87" t="n">
-        <v>0.0015329574730159681</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87">
+        <v>1.5329574730159681E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>122</v>
       </c>
@@ -2655,11 +2612,11 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.0016057830448973978</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88">
+        <v>1.6057830448973978E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -2669,11 +2626,11 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" t="n">
-        <v>0.0016810740919413203</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89">
+        <v>1.6810740919413203E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -2683,11 +2640,11 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" t="n">
-        <v>0.0017588551229047872</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="D90">
+        <v>1.7588551229047872E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -2697,11 +2654,11 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="n">
-        <v>0.0018391472708731843</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="D91">
+        <v>1.8391472708731843E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -2711,11 +2668,11 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" t="n">
-        <v>0.0019219680859994537</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="D92">
+        <v>1.9219680859994537E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -2725,11 +2682,11 @@
       <c r="C93" t="s">
         <v>46</v>
       </c>
-      <c r="D93" t="n">
-        <v>0.002007331329549035</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="D93">
+        <v>2.007331329549035E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -2739,11 +2696,11 @@
       <c r="C94" t="s">
         <v>46</v>
       </c>
-      <c r="D94" t="n">
-        <v>0.002095246770054668</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="D94">
+        <v>2.0952467700546679E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -2753,11 +2710,11 @@
       <c r="C95" t="s">
         <v>46</v>
       </c>
-      <c r="D95" t="n">
-        <v>0.0021857199824145204</v>
-      </c>
-    </row>
-    <row r="96">
+      <c r="D95">
+        <v>2.1857199824145204E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>134</v>
       </c>
@@ -2767,11 +2724,11 @@
       <c r="C96" t="s">
         <v>46</v>
       </c>
-      <c r="D96" t="n">
-        <v>0.00227875215079687</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="D96">
+        <v>2.27875215079687E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -2781,11 +2738,11 @@
       <c r="C97" t="s">
         <v>46</v>
       </c>
-      <c r="D97" t="n">
-        <v>0.002374339876224707</v>
-      </c>
-    </row>
-    <row r="98">
+      <c r="D97">
+        <v>2.374339876224707E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -2795,11 +2752,11 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.0024724749897453435</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98">
+        <v>2.4724749897453435E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>137</v>
       </c>
@@ -2809,11 +2766,11 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" t="n">
-        <v>0.0025731443720931058</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="D99">
+        <v>2.5731443720931058E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>137</v>
       </c>
@@ -2823,11 +2780,11 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100" t="n">
-        <v>0.002676329780781306</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="D100">
+        <v>2.6763297807813058E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -2837,11 +2794,11 @@
       <c r="C101" t="s">
         <v>46</v>
       </c>
-      <c r="D101" t="n">
-        <v>0.0027820076855368248</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="D101">
+        <v>2.7820076855368248E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -2851,11 +2808,11 @@
       <c r="C102" t="s">
         <v>46</v>
       </c>
-      <c r="D102" t="n">
-        <v>0.002890149113031648</v>
-      </c>
-    </row>
-    <row r="103">
+      <c r="D102">
+        <v>2.8901491130316481E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -2865,11 +2822,11 @@
       <c r="C103" t="s">
         <v>46</v>
       </c>
-      <c r="D103" t="n">
-        <v>0.003000719501836502</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="D103">
+        <v>3.0007195018365018E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>145</v>
       </c>
@@ -2879,11 +2836,11 @@
       <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="D104" t="n">
-        <v>0.0031136785685222934</v>
-      </c>
-    </row>
-    <row r="105">
+      <c r="D104">
+        <v>3.1136785685222934E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -2893,11 +2850,11 @@
       <c r="C105" t="s">
         <v>15</v>
       </c>
-      <c r="D105" t="n">
-        <v>0.0032289801858292333</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="D105">
+        <v>3.2289801858292333E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>147</v>
       </c>
@@ -2907,11 +2864,11 @@
       <c r="C106" t="s">
         <v>15</v>
       </c>
-      <c r="D106" t="n">
-        <v>0.0033465722738086345</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="D106">
+        <v>3.3465722738086345E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -2921,11 +2878,11 @@
       <c r="C107" t="s">
         <v>15</v>
       </c>
-      <c r="D107" t="n">
-        <v>0.0034663967048134126</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="D107">
+        <v>3.4663967048134126E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>150</v>
       </c>
@@ -2935,11 +2892,11 @@
       <c r="C108" t="s">
         <v>15</v>
       </c>
-      <c r="D108" t="n">
-        <v>0.003588389223194266</v>
-      </c>
-    </row>
-    <row r="109">
+      <c r="D108">
+        <v>3.588389223194266E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -2949,11 +2906,11 @@
       <c r="C109" t="s">
         <v>46</v>
       </c>
-      <c r="D109" t="n">
-        <v>0.0037124793805285994</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="D109">
+        <v>3.7124793805285994E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -2963,11 +2920,11 @@
       <c r="C110" t="s">
         <v>46</v>
       </c>
-      <c r="D110" t="n">
-        <v>0.00383859048717089</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="D110">
+        <v>3.8385904871708898E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>153</v>
       </c>
@@ -2977,11 +2934,11 @@
       <c r="C111" t="s">
         <v>46</v>
       </c>
-      <c r="D111" t="n">
-        <v>0.003966639580872566</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="D111">
+        <v>3.9666395808725663E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -2991,11 +2948,11 @@
       <c r="C112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" t="n">
-        <v>0.004096537413177004</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="D112">
+        <v>4.0965374131770038E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>157</v>
       </c>
@@ -3005,11 +2962,11 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" t="n">
-        <v>0.004228188454237614</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="D113">
+        <v>4.2281884542376136E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>157</v>
       </c>
@@ -3019,11 +2976,11 @@
       <c r="C114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" t="n">
-        <v>0.004361490916665767</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="D114">
+        <v>4.3614909166657667E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -3033,11 +2990,11 @@
       <c r="C115" t="s">
         <v>6</v>
       </c>
-      <c r="D115" t="n">
-        <v>0.004496336798928413</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="D115">
+        <v>4.4963367989284131E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -3047,11 +3004,11 @@
       <c r="C116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" t="n">
-        <v>0.004632611948790999</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="D116">
+        <v>4.6326119487909989E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>161</v>
       </c>
@@ -3061,11 +3018,11 @@
       <c r="C117" t="s">
         <v>6</v>
       </c>
-      <c r="D117" t="n">
-        <v>0.004770196147183103</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="D117">
+        <v>4.7701961471831034E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -3075,11 +3032,11 @@
       <c r="C118" t="s">
         <v>46</v>
       </c>
-      <c r="D118" t="n">
-        <v>0.004908963212839623</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="D118">
+        <v>4.9089632128396232E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -3089,11 +3046,11 @@
       <c r="C119" t="s">
         <v>46</v>
       </c>
-      <c r="D119" t="n">
-        <v>0.005048781127951263</v>
-      </c>
-    </row>
-    <row r="120">
+      <c r="D119">
+        <v>5.0487811279512629E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -3103,11 +3060,11 @@
       <c r="C120" t="s">
         <v>46</v>
       </c>
-      <c r="D120" t="n">
-        <v>0.005189512185011347</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="D120">
+        <v>5.1895121850113468E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -3117,11 +3074,11 @@
       <c r="C121" t="s">
         <v>46</v>
       </c>
-      <c r="D121" t="n">
-        <v>0.005331013154933395</v>
-      </c>
-    </row>
-    <row r="122">
+      <c r="D121">
+        <v>5.331013154933395E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>171</v>
       </c>
@@ -3131,11 +3088,11 @@
       <c r="C122" t="s">
         <v>15</v>
       </c>
-      <c r="D122" t="n">
-        <v>0.005473135476456448</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="D122">
+        <v>5.4731354764564477E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>171</v>
       </c>
@@ -3145,11 +3102,11 @@
       <c r="C123" t="s">
         <v>15</v>
       </c>
-      <c r="D123" t="n">
-        <v>0.0056157254667308365</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="D123">
+        <v>5.6157254667308365E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>171</v>
       </c>
@@ -3159,11 +3116,11 @@
       <c r="C124" t="s">
         <v>15</v>
       </c>
-      <c r="D124" t="n">
-        <v>0.005758624552927638</v>
-      </c>
-    </row>
-    <row r="125">
+      <c r="D124">
+        <v>5.7586245529276381E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -3173,11 +3130,11 @@
       <c r="C125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" t="n">
-        <v>0.00590166952457849</v>
-      </c>
-    </row>
-    <row r="126">
+      <c r="D125">
+        <v>5.90166952457849E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>175</v>
       </c>
@@ -3187,11 +3144,11 @@
       <c r="C126" t="s">
         <v>6</v>
       </c>
-      <c r="D126" t="n">
-        <v>0.006044692806295604</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="D126">
+        <v>6.044692806295604E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>175</v>
       </c>
@@ -3201,11 +3158,11 @@
       <c r="C127" t="s">
         <v>6</v>
       </c>
-      <c r="D127" t="n">
-        <v>0.006187522750403351</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="D127">
+        <v>6.1875227504033514E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>150</v>
       </c>
@@ -3215,11 +3172,11 @@
       <c r="C128" t="s">
         <v>46</v>
       </c>
-      <c r="D128" t="n">
-        <v>0.0063299839489271426</v>
-      </c>
-    </row>
-    <row r="129">
+      <c r="D128">
+        <v>6.3299839489271426E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>150</v>
       </c>
@@ -3229,11 +3186,11 @@
       <c r="C129" t="s">
         <v>46</v>
       </c>
-      <c r="D129" t="n">
-        <v>0.006471897564288842</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="D129">
+        <v>6.4718975642888421E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -3243,11 +3200,11 @@
       <c r="C130" t="s">
         <v>6</v>
       </c>
-      <c r="D130" t="n">
-        <v>0.006613081677967814</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="D130">
+        <v>6.6130816779678137E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>181</v>
       </c>
@@ -3257,11 +3214,11 @@
       <c r="C131" t="s">
         <v>6</v>
       </c>
-      <c r="D131" t="n">
-        <v>0.00675335165628449</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="D131">
+        <v>6.7533516562844897E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>181</v>
       </c>
@@ -3271,11 +3228,11 @@
       <c r="C132" t="s">
         <v>6</v>
       </c>
-      <c r="D132" t="n">
-        <v>0.006892520532386037</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="D132">
+        <v>6.8925205323860372E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>185</v>
       </c>
@@ -3285,11 +3242,11 @@
       <c r="C133" t="s">
         <v>15</v>
       </c>
-      <c r="D133" t="n">
-        <v>0.00703039940341188</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="D133">
+        <v>7.03039940341188E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>187</v>
       </c>
@@ -3299,11 +3256,11 @@
       <c r="C134" t="s">
         <v>46</v>
       </c>
-      <c r="D134" t="n">
-        <v>0.007166797841744399</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="D134">
+        <v>7.1667978417443989E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>187</v>
       </c>
@@ -3313,11 +3270,11 @@
       <c r="C135" t="s">
         <v>46</v>
       </c>
-      <c r="D135" t="n">
-        <v>0.007301524319156705</v>
-      </c>
-    </row>
-    <row r="136">
+      <c r="D135">
+        <v>7.3015243191567047E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -3327,11 +3284,11 @@
       <c r="C136" t="s">
         <v>46</v>
       </c>
-      <c r="D136" t="n">
-        <v>0.007434386642599156</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="D136">
+        <v>7.4343866425991556E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>191</v>
       </c>
@@ -3341,11 +3298,11 @@
       <c r="C137" t="s">
         <v>6</v>
       </c>
-      <c r="D137" t="n">
-        <v>0.007565192400292797</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="D137">
+        <v>7.5651924002927973E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -3355,11 +3312,11 @@
       <c r="C138" t="s">
         <v>6</v>
       </c>
-      <c r="D138" t="n">
-        <v>0.007693749416719908</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="D138">
+        <v>7.6937494167199083E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>191</v>
       </c>
@@ -3369,11 +3326,11 @@
       <c r="C139" t="s">
         <v>6</v>
       </c>
-      <c r="D139" t="n">
-        <v>0.007819866215056231</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="D139">
+        <v>7.8198662150562315E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>195</v>
       </c>
@@ -3383,11 +3340,11 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D140" t="n">
-        <v>0.007943352485510119</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="D140">
+        <v>7.943352485510119E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -3397,11 +3354,11 @@
       <c r="C141" t="s">
         <v>6</v>
       </c>
-      <c r="D141" t="n">
-        <v>0.0080640195580082</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="D141">
+        <v>8.0640195580082008E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>198</v>
       </c>
@@ -3411,11 +3368,11 @@
       <c r="C142" t="s">
         <v>15</v>
       </c>
-      <c r="D142" t="n">
-        <v>0.008181680877592606</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="D142">
+        <v>8.1816808775926064E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -3425,11 +3382,11 @@
       <c r="C143" t="s">
         <v>15</v>
       </c>
-      <c r="D143" t="n">
-        <v>0.008296152480893215</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="D143">
+        <v>8.2961524808932152E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>198</v>
       </c>
@@ -3439,11 +3396,11 @@
       <c r="C144" t="s">
         <v>15</v>
       </c>
-      <c r="D144" t="n">
-        <v>0.008407253471969744</v>
-      </c>
-    </row>
-    <row r="145">
+      <c r="D144">
+        <v>8.4072534719697445E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -3453,11 +3410,11 @@
       <c r="C145" t="s">
         <v>15</v>
       </c>
-      <c r="D145" t="n">
-        <v>0.008514806495833166</v>
-      </c>
-    </row>
-    <row r="146">
+      <c r="D145">
+        <v>8.514806495833166E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -3467,11 +3424,11 @@
       <c r="C146" t="s">
         <v>15</v>
       </c>
-      <c r="D146" t="n">
-        <v>0.008618638207907536</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="D146">
+        <v>8.6186382079075363E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -3481,11 +3438,11 @@
       <c r="C147" t="s">
         <v>15</v>
       </c>
-      <c r="D147" t="n">
-        <v>0.008718579737716864</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="D147">
+        <v>8.7185797377168639E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>206</v>
       </c>
@@ -3495,11 +3452,11 @@
       <c r="C148" t="s">
         <v>15</v>
       </c>
-      <c r="D148" t="n">
-        <v>0.008814467145056293</v>
-      </c>
-    </row>
-    <row r="149">
+      <c r="D148">
+        <v>8.8144671450562928E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>206</v>
       </c>
@@ -3509,11 +3466,11 @@
       <c r="C149" t="s">
         <v>15</v>
       </c>
-      <c r="D149" t="n">
-        <v>0.008906141866938971</v>
-      </c>
-    </row>
-    <row r="150">
+      <c r="D149">
+        <v>8.9061418669389714E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>206</v>
       </c>
@@ -3523,11 +3480,11 @@
       <c r="C150" t="s">
         <v>15</v>
       </c>
-      <c r="D150" t="n">
-        <v>0.008993451153610166</v>
-      </c>
-    </row>
-    <row r="151">
+      <c r="D150">
+        <v>8.9934511536101658E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>210</v>
       </c>
@@ -3537,11 +3494,11 @@
       <c r="C151" t="s">
         <v>15</v>
       </c>
-      <c r="D151" t="n">
-        <v>0.009076248491960592</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="D151">
+        <v>9.0762484919605924E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>210</v>
       </c>
@@ -3551,11 +3508,11 @@
       <c r="C152" t="s">
         <v>15</v>
       </c>
-      <c r="D152" t="n">
-        <v>0.009154394014693673</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="D152">
+        <v>9.1543940146936731E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>210</v>
       </c>
@@ -3565,11 +3522,11 @@
       <c r="C153" t="s">
         <v>15</v>
       </c>
-      <c r="D153" t="n">
-        <v>0.009227754893654502</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="D153">
+        <v>9.2277548936545023E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -3579,11 +3536,11 @@
       <c r="C154" t="s">
         <v>46</v>
       </c>
-      <c r="D154" t="n">
-        <v>0.009296205715767364</v>
-      </c>
-    </row>
-    <row r="155">
+      <c r="D154">
+        <v>9.2962057157673639E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>214</v>
       </c>
@@ -3593,11 +3550,11 @@
       <c r="C155" t="s">
         <v>46</v>
       </c>
-      <c r="D155" t="n">
-        <v>0.00935962884010312</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="D155">
+        <v>9.3596288401031208E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>214</v>
       </c>
@@ -3607,11 +3564,11 @@
       <c r="C156" t="s">
         <v>46</v>
       </c>
-      <c r="D156" t="n">
-        <v>0.009417914734642444</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="D156">
+        <v>9.4179147346424436E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>218</v>
       </c>
@@ -3621,11 +3578,11 @@
       <c r="C157" t="s">
         <v>6</v>
       </c>
-      <c r="D157" t="n">
-        <v>0.009470962291398766</v>
-      </c>
-    </row>
-    <row r="158">
+      <c r="D157">
+        <v>9.4709622913987657E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>218</v>
       </c>
@@ -3635,11 +3592,11 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
-      <c r="D158" t="n">
-        <v>0.009518679118619658</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="D158">
+        <v>9.5186791186196579E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>218</v>
       </c>
@@ -3649,11 +3606,11 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
-      <c r="D159" t="n">
-        <v>0.009560981808897098</v>
-      </c>
-    </row>
-    <row r="160">
+      <c r="D159">
+        <v>9.5609818088970983E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>222</v>
       </c>
@@ -3663,11 +3620,11 @@
       <c r="C160" t="s">
         <v>6</v>
       </c>
-      <c r="D160" t="n">
-        <v>0.009597796182086116</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="D160">
+        <v>9.5977961820861157E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>222</v>
       </c>
@@ -3677,11 +3634,11 @@
       <c r="C161" t="s">
         <v>6</v>
       </c>
-      <c r="D161" t="n">
-        <v>0.009629057502053166</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="D161">
+        <v>9.6290575020531663E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>225</v>
       </c>
@@ -3691,11 +3648,11 @@
       <c r="C162" t="s">
         <v>46</v>
       </c>
-      <c r="D162" t="n">
-        <v>0.009654710666355641</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="D162">
+        <v>9.6547106663556412E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>225</v>
       </c>
@@ -3705,11 +3662,11 @@
       <c r="C163" t="s">
         <v>46</v>
       </c>
-      <c r="D163" t="n">
-        <v>0.009674710368087043</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="D163">
+        <v>9.674710368087043E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>225</v>
       </c>
@@ -3719,11 +3676,11 @@
       <c r="C164" t="s">
         <v>46</v>
       </c>
-      <c r="D164" t="n">
-        <v>0.009689021229210606</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="D164">
+        <v>9.6890212292106061E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>229</v>
       </c>
@@ -3733,11 +3690,11 @@
       <c r="C165" t="s">
         <v>15</v>
       </c>
-      <c r="D165" t="n">
-        <v>0.00969761790484341</v>
-      </c>
-    </row>
-    <row r="166">
+      <c r="D165">
+        <v>9.6976179048434107E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>229</v>
       </c>
@@ -3747,11 +3704,11 @@
       <c r="C166" t="s">
         <v>15</v>
       </c>
-      <c r="D166" t="n">
-        <v>0.009700485158049464</v>
-      </c>
-    </row>
-    <row r="167">
+      <c r="D166">
+        <v>9.7004851580494642E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -3761,11 +3718,11 @@
       <c r="C167" t="s">
         <v>46</v>
       </c>
-      <c r="D167" t="n">
-        <v>0.009697617904843234</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="D167">
+        <v>9.6976179048432337E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -3775,11 +3732,11 @@
       <c r="C168" t="s">
         <v>46</v>
       </c>
-      <c r="D168" t="n">
-        <v>0.009689021229210606</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="D168">
+        <v>9.6890212292106061E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>232</v>
       </c>
@@ -3789,11 +3746,11 @@
       <c r="C169" t="s">
         <v>46</v>
       </c>
-      <c r="D169" t="n">
-        <v>0.009674710368086863</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="D169">
+        <v>9.6747103680868626E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>236</v>
       </c>
@@ -3803,11 +3760,11 @@
       <c r="C170" t="s">
         <v>15</v>
       </c>
-      <c r="D170" t="n">
-        <v>0.009654710666355995</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="D170">
+        <v>9.6547106663559951E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -3817,11 +3774,11 @@
       <c r="C171" t="s">
         <v>15</v>
       </c>
-      <c r="D171" t="n">
-        <v>0.009629057502052993</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="D171">
+        <v>9.6290575020529928E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>236</v>
       </c>
@@ -3831,11 +3788,11 @@
       <c r="C172" t="s">
         <v>15</v>
       </c>
-      <c r="D172" t="n">
-        <v>0.009597796182086116</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="D172">
+        <v>9.5977961820861157E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>240</v>
       </c>
@@ -3845,11 +3802,11 @@
       <c r="C173" t="s">
         <v>6</v>
       </c>
-      <c r="D173" t="n">
-        <v>0.009560981808896932</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="D173">
+        <v>9.5609818088969317E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>240</v>
       </c>
@@ -3859,11 +3816,11 @@
       <c r="C174" t="s">
         <v>6</v>
       </c>
-      <c r="D174" t="n">
-        <v>0.009518679118619991</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="D174">
+        <v>9.5186791186199909E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>240</v>
       </c>
@@ -3873,11 +3830,11 @@
       <c r="C175" t="s">
         <v>6</v>
       </c>
-      <c r="D175" t="n">
-        <v>0.009470962291398599</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="D175">
+        <v>9.4709622913985991E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>244</v>
       </c>
@@ -3887,11 +3844,11 @@
       <c r="C176" t="s">
         <v>46</v>
       </c>
-      <c r="D176" t="n">
-        <v>0.009417914734642444</v>
-      </c>
-    </row>
-    <row r="177">
+      <c r="D176">
+        <v>9.4179147346424436E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>244</v>
       </c>
@@ -3901,11 +3858,11 @@
       <c r="C177" t="s">
         <v>46</v>
       </c>
-      <c r="D177" t="n">
-        <v>0.00935962884010294</v>
-      </c>
-    </row>
-    <row r="178">
+      <c r="D177">
+        <v>9.3596288401029404E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>247</v>
       </c>
@@ -3915,11 +3872,11 @@
       <c r="C178" t="s">
         <v>6</v>
       </c>
-      <c r="D178" t="n">
-        <v>0.009296205715767697</v>
-      </c>
-    </row>
-    <row r="179">
+      <c r="D178">
+        <v>9.2962057157676969E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>247</v>
       </c>
@@ -3929,11 +3886,11 @@
       <c r="C179" t="s">
         <v>6</v>
       </c>
-      <c r="D179" t="n">
-        <v>0.00922775489365435</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="D179">
+        <v>9.2277548936543496E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>247</v>
       </c>
@@ -3943,11 +3900,11 @@
       <c r="C180" t="s">
         <v>6</v>
       </c>
-      <c r="D180" t="n">
-        <v>0.009154394014693673</v>
-      </c>
-    </row>
-    <row r="181">
+      <c r="D180">
+        <v>9.1543940146936731E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>251</v>
       </c>
@@ -3957,11 +3914,11 @@
       <c r="C181" t="s">
         <v>46</v>
       </c>
-      <c r="D181" t="n">
-        <v>0.009076248491960537</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="D181">
+        <v>9.0762484919605368E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>251</v>
       </c>
@@ -3971,11 +3928,11 @@
       <c r="C182" t="s">
         <v>46</v>
       </c>
-      <c r="D182" t="n">
-        <v>0.008993451153610388</v>
-      </c>
-    </row>
-    <row r="183">
+      <c r="D182">
+        <v>8.9934511536103878E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>251</v>
       </c>
@@ -3985,11 +3942,11 @@
       <c r="C183" t="s">
         <v>46</v>
       </c>
-      <c r="D183" t="n">
-        <v>0.008906141866938805</v>
-      </c>
-    </row>
-    <row r="184">
+      <c r="D183">
+        <v>8.9061418669388048E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>255</v>
       </c>
@@ -3999,11 +3956,11 @@
       <c r="C184" t="s">
         <v>46</v>
       </c>
-      <c r="D184" t="n">
-        <v>0.008814467145056293</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="D184">
+        <v>8.8144671450562928E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>255</v>
       </c>
@@ -4013,11 +3970,11 @@
       <c r="C185" t="s">
         <v>46</v>
       </c>
-      <c r="D185" t="n">
-        <v>0.008718579737716725</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="D185">
+        <v>8.7185797377167251E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>258</v>
       </c>
@@ -4027,11 +3984,11 @@
       <c r="C186" t="s">
         <v>46</v>
       </c>
-      <c r="D186" t="n">
-        <v>0.00861863820790787</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="D186">
+        <v>8.6186382079078694E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>258</v>
       </c>
@@ -4041,11 +3998,11 @@
       <c r="C187" t="s">
         <v>46</v>
       </c>
-      <c r="D187" t="n">
-        <v>0.008514806495832972</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="D187">
+        <v>8.5148064958329717E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>258</v>
       </c>
@@ -4055,11 +4012,11 @@
       <c r="C188" t="s">
         <v>46</v>
       </c>
-      <c r="D188" t="n">
-        <v>0.008407253471969744</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="D188">
+        <v>8.4072534719697445E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>262</v>
       </c>
@@ -4069,11 +4026,11 @@
       <c r="C189" t="s">
         <v>15</v>
       </c>
-      <c r="D189" t="n">
-        <v>0.008296152480893104</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="D189">
+        <v>8.2961524808931042E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>262</v>
       </c>
@@ -4083,11 +4040,11 @@
       <c r="C190" t="s">
         <v>15</v>
       </c>
-      <c r="D190" t="n">
-        <v>0.008181680877592912</v>
-      </c>
-    </row>
-    <row r="191">
+      <c r="D190">
+        <v>8.1816808775929117E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>262</v>
       </c>
@@ -4097,11 +4054,11 @@
       <c r="C191" t="s">
         <v>15</v>
       </c>
-      <c r="D191" t="n">
-        <v>0.008064019558008007</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="D191">
+        <v>8.0640195580080065E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>266</v>
       </c>
@@ -4111,11 +4068,11 @@
       <c r="C192" t="s">
         <v>6</v>
       </c>
-      <c r="D192" t="n">
-        <v>0.007943352485510119</v>
-      </c>
-    </row>
-    <row r="193">
+      <c r="D192">
+        <v>7.943352485510119E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>266</v>
       </c>
@@ -4125,11 +4082,11 @@
       <c r="C193" t="s">
         <v>6</v>
       </c>
-      <c r="D193" t="n">
-        <v>0.007819866215056093</v>
-      </c>
-    </row>
-    <row r="194">
+      <c r="D193">
+        <v>7.8198662150560927E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>266</v>
       </c>
@@ -4139,11 +4096,11 @@
       <c r="C194" t="s">
         <v>6</v>
       </c>
-      <c r="D194" t="n">
-        <v>0.007693749416719908</v>
-      </c>
-    </row>
-    <row r="195">
+      <c r="D194">
+        <v>7.6937494167199083E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>270</v>
       </c>
@@ -4153,11 +4110,11 @@
       <c r="C195" t="s">
         <v>46</v>
       </c>
-      <c r="D195" t="n">
-        <v>0.007565192400292908</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="D195">
+        <v>7.5651924002929083E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>270</v>
       </c>
@@ -4167,11 +4124,11 @@
       <c r="C196" t="s">
         <v>46</v>
       </c>
-      <c r="D196" t="n">
-        <v>0.007434386642599156</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="D196">
+        <v>7.4343866425991556E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>270</v>
       </c>
@@ -4181,11 +4138,11 @@
       <c r="C197" t="s">
         <v>46</v>
       </c>
-      <c r="D197" t="n">
-        <v>0.007301524319156538</v>
-      </c>
-    </row>
-    <row r="198">
+      <c r="D197">
+        <v>7.3015243191565382E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>274</v>
       </c>
@@ -4195,11 +4152,11 @@
       <c r="C198" t="s">
         <v>46</v>
       </c>
-      <c r="D198" t="n">
-        <v>0.007166797841744343</v>
-      </c>
-    </row>
-    <row r="199">
+      <c r="D198">
+        <v>7.1667978417443434E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>274</v>
       </c>
@@ -4209,11 +4166,11 @@
       <c r="C199" t="s">
         <v>46</v>
       </c>
-      <c r="D199" t="n">
-        <v>0.007030399403412102</v>
-      </c>
-    </row>
-    <row r="200">
+      <c r="D199">
+        <v>7.030399403412102E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>274</v>
       </c>
@@ -4223,11 +4180,11 @@
       <c r="C200" t="s">
         <v>46</v>
       </c>
-      <c r="D200" t="n">
-        <v>0.006892520532386037</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="D200">
+        <v>6.8925205323860372E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>278</v>
       </c>
@@ -4237,11 +4194,11 @@
       <c r="C201" t="s">
         <v>6</v>
       </c>
-      <c r="D201" t="n">
-        <v>0.00675335165628449</v>
-      </c>
-    </row>
-    <row r="202">
+      <c r="D201">
+        <v>6.7533516562844897E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>278</v>
       </c>
@@ -4251,11 +4208,11 @@
       <c r="C202" t="s">
         <v>6</v>
       </c>
-      <c r="D202" t="n">
-        <v>0.006613081677967758</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="D202">
+        <v>6.6130816779677581E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>278</v>
       </c>
@@ -4265,11 +4222,11 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
-      <c r="D203" t="n">
-        <v>0.006471897564288953</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="D203">
+        <v>6.4718975642889531E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>282</v>
       </c>
@@ -4279,11 +4236,11 @@
       <c r="C204" t="s">
         <v>6</v>
       </c>
-      <c r="D204" t="n">
-        <v>0.006329983948927087</v>
-      </c>
-    </row>
-    <row r="205">
+      <c r="D204">
+        <v>6.329983948927087E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>282</v>
       </c>
@@ -4293,11 +4250,11 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
-      <c r="D205" t="n">
-        <v>0.006187522750403351</v>
-      </c>
-    </row>
-    <row r="206">
+      <c r="D205">
+        <v>6.1875227504033514E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>282</v>
       </c>
@@ -4307,11 +4264,11 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
-      <c r="D206" t="n">
-        <v>0.0060446928062955485</v>
-      </c>
-    </row>
-    <row r="207">
+      <c r="D206">
+        <v>6.0446928062955485E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>286</v>
       </c>
@@ -4321,11 +4278,11 @@
       <c r="C207" t="s">
         <v>15</v>
       </c>
-      <c r="D207" t="n">
-        <v>0.005901669524578712</v>
-      </c>
-    </row>
-    <row r="208">
+      <c r="D207">
+        <v>5.9016695245787121E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>286</v>
       </c>
@@ -4335,11 +4292,11 @@
       <c r="C208" t="s">
         <v>15</v>
       </c>
-      <c r="D208" t="n">
-        <v>0.0057586245529274716</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="D208">
+        <v>5.7586245529274716E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>286</v>
       </c>
@@ -4349,11 +4306,11 @@
       <c r="C209" t="s">
         <v>15</v>
       </c>
-      <c r="D209" t="n">
-        <v>0.0056157254667308365</v>
-      </c>
-    </row>
-    <row r="210">
+      <c r="D209">
+        <v>5.6157254667308365E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>290</v>
       </c>
@@ -4363,11 +4320,11 @@
       <c r="C210" t="s">
         <v>6</v>
       </c>
-      <c r="D210" t="n">
-        <v>0.005473135476456392</v>
-      </c>
-    </row>
-    <row r="211">
+      <c r="D210">
+        <v>5.4731354764563922E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>290</v>
       </c>
@@ -4377,11 +4334,11 @@
       <c r="C211" t="s">
         <v>6</v>
       </c>
-      <c r="D211" t="n">
-        <v>0.0053310131549336726</v>
-      </c>
-    </row>
-    <row r="212">
+      <c r="D211">
+        <v>5.3310131549336726E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>290</v>
       </c>
@@ -4391,11 +4348,11 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-      <c r="D212" t="n">
-        <v>0.005189512185011125</v>
-      </c>
-    </row>
-    <row r="213">
+      <c r="D212">
+        <v>5.1895121850111248E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -4405,11 +4362,11 @@
       <c r="C213" t="s">
         <v>6</v>
       </c>
-      <c r="D213" t="n">
-        <v>0.005048781127951263</v>
-      </c>
-    </row>
-    <row r="214">
+      <c r="D213">
+        <v>5.0487811279512629E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>294</v>
       </c>
@@ -4419,11 +4376,11 @@
       <c r="C214" t="s">
         <v>6</v>
       </c>
-      <c r="D214" t="n">
-        <v>0.004908963212839568</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="D214">
+        <v>4.9089632128395677E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>294</v>
       </c>
@@ -4433,11 +4390,11 @@
       <c r="C215" t="s">
         <v>6</v>
       </c>
-      <c r="D215" t="n">
-        <v>0.004770196147183159</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="D215">
+        <v>4.7701961471831589E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>298</v>
       </c>
@@ -4447,11 +4404,11 @@
       <c r="C216" t="s">
         <v>6</v>
       </c>
-      <c r="D216" t="n">
-        <v>0.004632611948790999</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="D216">
+        <v>4.6326119487909989E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>298</v>
       </c>
@@ -4461,11 +4418,11 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
-      <c r="D217" t="n">
-        <v>0.004496336798928413</v>
-      </c>
-    </row>
-    <row r="218">
+      <c r="D217">
+        <v>4.4963367989284131E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>298</v>
       </c>
@@ -4475,11 +4432,11 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
-      <c r="D218" t="n">
-        <v>0.0043614909166656</v>
-      </c>
-    </row>
-    <row r="219">
+      <c r="D218">
+        <v>4.3614909166656002E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>302</v>
       </c>
@@ -4489,11 +4446,11 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219" t="n">
-        <v>0.004228188454237891</v>
-      </c>
-    </row>
-    <row r="220">
+      <c r="D219">
+        <v>4.2281884542378911E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>302</v>
       </c>
@@ -4503,11 +4460,11 @@
       <c r="C220" t="s">
         <v>6</v>
       </c>
-      <c r="D220" t="n">
-        <v>0.004096537413176893</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="D220">
+        <v>4.0965374131768928E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>305</v>
       </c>
@@ -4517,11 +4474,11 @@
       <c r="C221" t="s">
         <v>15</v>
       </c>
-      <c r="D221" t="n">
-        <v>0.003966639580872566</v>
-      </c>
-    </row>
-    <row r="222">
+      <c r="D221">
+        <v>3.9666395808725663E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>305</v>
       </c>
@@ -4531,11 +4488,11 @@
       <c r="C222" t="s">
         <v>15</v>
       </c>
-      <c r="D222" t="n">
-        <v>0.00383859048717089</v>
-      </c>
-    </row>
-    <row r="223">
+      <c r="D222">
+        <v>3.8385904871708898E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>305</v>
       </c>
@@ -4545,11 +4502,11 @@
       <c r="C223" t="s">
         <v>15</v>
       </c>
-      <c r="D223" t="n">
-        <v>0.003712479380528655</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="D223">
+        <v>3.7124793805286549E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>309</v>
       </c>
@@ -4559,11 +4516,11 @@
       <c r="C224" t="s">
         <v>6</v>
       </c>
-      <c r="D224" t="n">
-        <v>0.0035883892231942105</v>
-      </c>
-    </row>
-    <row r="225">
+      <c r="D224">
+        <v>3.5883892231942105E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>309</v>
       </c>
@@ -4573,11 +4530,11 @@
       <c r="C225" t="s">
         <v>6</v>
       </c>
-      <c r="D225" t="n">
-        <v>0.0034663967048134126</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="D225">
+        <v>3.4663967048134126E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>312</v>
       </c>
@@ -4587,11 +4544,11 @@
       <c r="C226" t="s">
         <v>6</v>
       </c>
-      <c r="D226" t="n">
-        <v>0.0033465722738086345</v>
-      </c>
-    </row>
-    <row r="227">
+      <c r="D226">
+        <v>3.3465722738086345E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>312</v>
       </c>
@@ -4601,11 +4558,11 @@
       <c r="C227" t="s">
         <v>6</v>
       </c>
-      <c r="D227" t="n">
-        <v>0.0032289801858294</v>
-      </c>
-    </row>
-    <row r="228">
+      <c r="D227">
+        <v>3.2289801858293998E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>312</v>
       </c>
@@ -4615,11 +4572,11 @@
       <c r="C228" t="s">
         <v>6</v>
       </c>
-      <c r="D228" t="n">
-        <v>0.003113678568522127</v>
-      </c>
-    </row>
-    <row r="229">
+      <c r="D228">
+        <v>3.1136785685221269E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>316</v>
       </c>
@@ -4629,11 +4586,11 @@
       <c r="C229" t="s">
         <v>6</v>
       </c>
-      <c r="D229" t="n">
-        <v>0.003000719501836502</v>
-      </c>
-    </row>
-    <row r="230">
+      <c r="D229">
+        <v>3.0007195018365018E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>316</v>
       </c>
@@ -4643,11 +4600,11 @@
       <c r="C230" t="s">
         <v>6</v>
       </c>
-      <c r="D230" t="n">
-        <v>0.002890149113031537</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="D230">
+        <v>2.8901491130315371E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>316</v>
       </c>
@@ -4657,11 +4614,11 @@
       <c r="C231" t="s">
         <v>6</v>
       </c>
-      <c r="D231" t="n">
-        <v>0.0027820076855368803</v>
-      </c>
-    </row>
-    <row r="232">
+      <c r="D231">
+        <v>2.7820076855368803E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>320</v>
       </c>
@@ -4671,11 +4628,11 @@
       <c r="C232" t="s">
         <v>15</v>
       </c>
-      <c r="D232" t="n">
-        <v>0.0026763297807813613</v>
-      </c>
-    </row>
-    <row r="233">
+      <c r="D232">
+        <v>2.6763297807813613E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -4685,11 +4642,11 @@
       <c r="C233" t="s">
         <v>15</v>
       </c>
-      <c r="D233" t="n">
-        <v>0.0025731443720931058</v>
-      </c>
-    </row>
-    <row r="234">
+      <c r="D233">
+        <v>2.5731443720931058E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>320</v>
       </c>
@@ -4699,11 +4656,11 @@
       <c r="C234" t="s">
         <v>15</v>
       </c>
-      <c r="D234" t="n">
-        <v>0.0024724749897451215</v>
-      </c>
-    </row>
-    <row r="235">
+      <c r="D234">
+        <v>2.4724749897451215E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>324</v>
       </c>
@@ -4713,11 +4670,11 @@
       <c r="C235" t="s">
         <v>46</v>
       </c>
-      <c r="D235" t="n">
-        <v>0.002374339876224818</v>
-      </c>
-    </row>
-    <row r="236">
+      <c r="D235">
+        <v>2.374339876224818E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>324</v>
       </c>
@@ -4727,11 +4684,11 @@
       <c r="C236" t="s">
         <v>46</v>
       </c>
-      <c r="D236" t="n">
-        <v>0.002278752150796981</v>
-      </c>
-    </row>
-    <row r="237">
+      <c r="D236">
+        <v>2.278752150796981E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>324</v>
       </c>
@@ -4741,11 +4698,11 @@
       <c r="C237" t="s">
         <v>46</v>
       </c>
-      <c r="D237" t="n">
-        <v>0.0021857199824145204</v>
-      </c>
-    </row>
-    <row r="238">
+      <c r="D237">
+        <v>2.1857199824145204E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>328</v>
       </c>
@@ -4755,11 +4712,11 @@
       <c r="C238" t="s">
         <v>6</v>
       </c>
-      <c r="D238" t="n">
-        <v>0.0020952467700545985</v>
-      </c>
-    </row>
-    <row r="239">
+      <c r="D238">
+        <v>2.0952467700545985E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>330</v>
       </c>
@@ -4769,11 +4726,11 @@
       <c r="C239" t="s">
         <v>15</v>
       </c>
-      <c r="D239" t="n">
-        <v>0.0020073313295491807</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="D239">
+        <v>2.0073313295491807E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>330</v>
       </c>
@@ -4783,11 +4740,11 @@
       <c r="C240" t="s">
         <v>15</v>
       </c>
-      <c r="D240" t="n">
-        <v>0.0019219680859993774</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="D240">
+        <v>1.9219680859993774E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>333</v>
       </c>
@@ -4797,1257 +4754,11 @@
       <c r="C241" t="s">
         <v>15</v>
       </c>
-      <c r="D241" t="n">
-        <v>0.0018391472708731843</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>333</v>
-      </c>
-      <c r="B242" t="s">
-        <v>335</v>
-      </c>
-      <c r="C242" t="s">
-        <v>15</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0.0017588551229047594</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>333</v>
-      </c>
-      <c r="B243" t="s">
-        <v>336</v>
-      </c>
-      <c r="C243" t="s">
-        <v>15</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0.001681074091941407</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>337</v>
-      </c>
-      <c r="B244" t="s">
-        <v>338</v>
-      </c>
-      <c r="C244" t="s">
-        <v>46</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0.0016057830448973388</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>337</v>
-      </c>
-      <c r="B245" t="s">
-        <v>339</v>
-      </c>
-      <c r="C245" t="s">
-        <v>46</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0.0015329574730159681</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>337</v>
-      </c>
-      <c r="B246" t="s">
-        <v>340</v>
-      </c>
-      <c r="C246" t="s">
-        <v>46</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.0014625696996564373</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>341</v>
-      </c>
-      <c r="B247" t="s">
-        <v>342</v>
-      </c>
-      <c r="C247" t="s">
-        <v>46</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.0013945890878679958</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>341</v>
-      </c>
-      <c r="B248" t="s">
-        <v>343</v>
-      </c>
-      <c r="C248" t="s">
-        <v>46</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.00132898224703858</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>341</v>
-      </c>
-      <c r="B249" t="s">
-        <v>344</v>
-      </c>
-      <c r="C249" t="s">
-        <v>46</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.001265713237944218</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>345</v>
-      </c>
-      <c r="B250" t="s">
-        <v>346</v>
-      </c>
-      <c r="C250" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.0012047437755681317</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>345</v>
-      </c>
-      <c r="B251" t="s">
-        <v>347</v>
-      </c>
-      <c r="C251" t="s">
-        <v>6</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.0011460334290857126</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>345</v>
-      </c>
-      <c r="B252" t="s">
-        <v>348</v>
-      </c>
-      <c r="C252" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.0010895398184637799</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>349</v>
-      </c>
-      <c r="B253" t="s">
-        <v>350</v>
-      </c>
-      <c r="C253" t="s">
-        <v>46</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.001035218807155569</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>349</v>
-      </c>
-      <c r="B254" t="s">
-        <v>351</v>
-      </c>
-      <c r="C254" t="s">
-        <v>46</v>
-      </c>
-      <c r="D254" t="n">
-        <v>9.830246904131631E-4</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>349</v>
-      </c>
-      <c r="B255" t="s">
-        <v>352</v>
-      </c>
-      <c r="C255" t="s">
-        <v>46</v>
-      </c>
-      <c r="D255" t="n">
-        <v>9.329103787854912E-4</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>353</v>
-      </c>
-      <c r="B256" t="s">
-        <v>354</v>
-      </c>
-      <c r="C256" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" t="n">
-        <v>8.848275764055408E-4</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>353</v>
-      </c>
-      <c r="B257" t="s">
-        <v>355</v>
-      </c>
-      <c r="C257" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" t="n">
-        <v>8.387269537145012E-4</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>356</v>
-      </c>
-      <c r="B258" t="s">
-        <v>357</v>
-      </c>
-      <c r="C258" t="s">
-        <v>15</v>
-      </c>
-      <c r="D258" t="n">
-        <v>7.945583143089806E-4</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>356</v>
-      </c>
-      <c r="B259" t="s">
-        <v>358</v>
-      </c>
-      <c r="C259" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" t="n">
-        <v>7.522707556384955E-4</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>356</v>
-      </c>
-      <c r="B260" t="s">
-        <v>359</v>
-      </c>
-      <c r="C260" t="s">
-        <v>15</v>
-      </c>
-      <c r="D260" t="n">
-        <v>7.118128233190284E-4</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>360</v>
-      </c>
-      <c r="B261" t="s">
-        <v>361</v>
-      </c>
-      <c r="C261" t="s">
-        <v>15</v>
-      </c>
-      <c r="D261" t="n">
-        <v>6.731326588654031E-4</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>360</v>
-      </c>
-      <c r="B262" t="s">
-        <v>362</v>
-      </c>
-      <c r="C262" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" t="n">
-        <v>6.361781406834886E-4</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>360</v>
-      </c>
-      <c r="B263" t="s">
-        <v>363</v>
-      </c>
-      <c r="C263" t="s">
-        <v>15</v>
-      </c>
-      <c r="D263" t="n">
-        <v>6.008970181986852E-4</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>364</v>
-      </c>
-      <c r="B264" t="s">
-        <v>365</v>
-      </c>
-      <c r="C264" t="s">
-        <v>46</v>
-      </c>
-      <c r="D264" t="n">
-        <v>5.67237039030187E-4</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>364</v>
-      </c>
-      <c r="B265" t="s">
-        <v>366</v>
-      </c>
-      <c r="C265" t="s">
-        <v>46</v>
-      </c>
-      <c r="D265" t="n">
-        <v>5.351460691548036E-4</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>364</v>
-      </c>
-      <c r="B266" t="s">
-        <v>367</v>
-      </c>
-      <c r="C266" t="s">
-        <v>46</v>
-      </c>
-      <c r="D266" t="n">
-        <v>5.045722060355645E-4</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>368</v>
-      </c>
-      <c r="B267" t="s">
-        <v>369</v>
-      </c>
-      <c r="C267" t="s">
-        <v>46</v>
-      </c>
-      <c r="D267" t="n">
-        <v>4.754638847179202E-4</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>368</v>
-      </c>
-      <c r="B268" t="s">
-        <v>370</v>
-      </c>
-      <c r="C268" t="s">
-        <v>46</v>
-      </c>
-      <c r="D268" t="n">
-        <v>4.477699769271145E-4</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>368</v>
-      </c>
-      <c r="B269" t="s">
-        <v>371</v>
-      </c>
-      <c r="C269" t="s">
-        <v>46</v>
-      </c>
-      <c r="D269" t="n">
-        <v>4.2143988322485004E-4</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>372</v>
-      </c>
-      <c r="B270" t="s">
-        <v>373</v>
-      </c>
-      <c r="C270" t="s">
-        <v>15</v>
-      </c>
-      <c r="D270" t="n">
-        <v>3.9642361830829077E-4</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>372</v>
-      </c>
-      <c r="B271" t="s">
-        <v>374</v>
-      </c>
-      <c r="C271" t="s">
-        <v>15</v>
-      </c>
-      <c r="D271" t="n">
-        <v>3.726718895572124E-4</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>372</v>
-      </c>
-      <c r="B272" t="s">
-        <v>375</v>
-      </c>
-      <c r="C272" t="s">
-        <v>15</v>
-      </c>
-      <c r="D272" t="n">
-        <v>3.501361689561156E-4</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>376</v>
-      </c>
-      <c r="B273" t="s">
-        <v>377</v>
-      </c>
-      <c r="C273" t="s">
-        <v>15</v>
-      </c>
-      <c r="D273" t="n">
-        <v>3.287687585370354E-4</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>376</v>
-      </c>
-      <c r="B274" t="s">
-        <v>378</v>
-      </c>
-      <c r="C274" t="s">
-        <v>15</v>
-      </c>
-      <c r="D274" t="n">
-        <v>3.085228495062946E-4</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>376</v>
-      </c>
-      <c r="B275" t="s">
-        <v>379</v>
-      </c>
-      <c r="C275" t="s">
-        <v>15</v>
-      </c>
-      <c r="D275" t="n">
-        <v>2.893525752334877E-4</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>380</v>
-      </c>
-      <c r="B276" t="s">
-        <v>381</v>
-      </c>
-      <c r="C276" t="s">
-        <v>15</v>
-      </c>
-      <c r="D276" t="n">
-        <v>2.7121305829550576E-4</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>380</v>
-      </c>
-      <c r="B277" t="s">
-        <v>382</v>
-      </c>
-      <c r="C277" t="s">
-        <v>15</v>
-      </c>
-      <c r="D277" t="n">
-        <v>2.5406045177967223E-4</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>380</v>
-      </c>
-      <c r="B278" t="s">
-        <v>383</v>
-      </c>
-      <c r="C278" t="s">
-        <v>15</v>
-      </c>
-      <c r="D278" t="n">
-        <v>2.3785197506096542E-4</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>384</v>
-      </c>
-      <c r="B279" t="s">
-        <v>385</v>
-      </c>
-      <c r="C279" t="s">
-        <v>46</v>
-      </c>
-      <c r="D279" t="n">
-        <v>2.2254594427666358E-4</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>384</v>
-      </c>
-      <c r="B280" t="s">
-        <v>386</v>
-      </c>
-      <c r="C280" t="s">
-        <v>46</v>
-      </c>
-      <c r="D280" t="n">
-        <v>2.0810179772930322E-4</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>387</v>
-      </c>
-      <c r="B281" t="s">
-        <v>388</v>
-      </c>
-      <c r="C281" t="s">
-        <v>46</v>
-      </c>
-      <c r="D281" t="n">
-        <v>1.944801164540477E-4</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>387</v>
-      </c>
-      <c r="B282" t="s">
-        <v>389</v>
-      </c>
-      <c r="C282" t="s">
-        <v>46</v>
-      </c>
-      <c r="D282" t="n">
-        <v>1.8164264019115018E-4</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>387</v>
-      </c>
-      <c r="B283" t="s">
-        <v>390</v>
-      </c>
-      <c r="C283" t="s">
-        <v>46</v>
-      </c>
-      <c r="D283" t="n">
-        <v>1.6955227900679933E-4</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>391</v>
-      </c>
-      <c r="B284" t="s">
-        <v>392</v>
-      </c>
-      <c r="C284" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" t="n">
-        <v>1.5817312080736992E-4</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>391</v>
-      </c>
-      <c r="B285" t="s">
-        <v>393</v>
-      </c>
-      <c r="C285" t="s">
-        <v>15</v>
-      </c>
-      <c r="D285" t="n">
-        <v>1.474704349922111E-4</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>391</v>
-      </c>
-      <c r="B286" t="s">
-        <v>394</v>
-      </c>
-      <c r="C286" t="s">
-        <v>15</v>
-      </c>
-      <c r="D286" t="n">
-        <v>1.3741067248951864E-4</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>395</v>
-      </c>
-      <c r="B287" t="s">
-        <v>396</v>
-      </c>
-      <c r="C287" t="s">
-        <v>46</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1.2796146241772412E-4</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>395</v>
-      </c>
-      <c r="B288" t="s">
-        <v>397</v>
-      </c>
-      <c r="C288" t="s">
-        <v>46</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1.190916056122576E-4</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>395</v>
-      </c>
-      <c r="B289" t="s">
-        <v>398</v>
-      </c>
-      <c r="C289" t="s">
-        <v>46</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1.1077106525337189E-4</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>399</v>
-      </c>
-      <c r="B290" t="s">
-        <v>400</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1.0297095482671875E-4</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>399</v>
-      </c>
-      <c r="B291" t="s">
-        <v>401</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="n">
-        <v>9.566352364232477E-5</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>399</v>
-      </c>
-      <c r="B292" t="s">
-        <v>402</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>8.882214013237631E-5</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>403</v>
-      </c>
-      <c r="B293" t="s">
-        <v>404</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="n">
-        <v>8.242127314096097E-5</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>403</v>
-      </c>
-      <c r="B294" t="s">
-        <v>405</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>7.643647141250076E-5</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>403</v>
-      </c>
-      <c r="B295" t="s">
-        <v>406</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>7.084434147742926E-5</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>407</v>
-      </c>
-      <c r="B296" t="s">
-        <v>408</v>
-      </c>
-      <c r="C296" t="s">
-        <v>46</v>
-      </c>
-      <c r="D296" t="n">
-        <v>6.562252412637348E-5</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>409</v>
-      </c>
-      <c r="B297" t="s">
-        <v>410</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" t="n">
-        <v>6.0749669655494926E-5</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>409</v>
-      </c>
-      <c r="B298" t="s">
-        <v>411</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="n">
-        <v>5.6205412057428795E-5</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>409</v>
-      </c>
-      <c r="B299" t="s">
-        <v>412</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="n">
-        <v>5.197034232361827E-5</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>413</v>
-      </c>
-      <c r="B300" t="s">
-        <v>414</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" t="n">
-        <v>4.802598101502848E-5</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>413</v>
-      </c>
-      <c r="B301" t="s">
-        <v>415</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>4.435475024960412E-5</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>413</v>
-      </c>
-      <c r="B302" t="s">
-        <v>416</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>4.0939945245868376E-5</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>417</v>
-      </c>
-      <c r="B303" t="s">
-        <v>418</v>
-      </c>
-      <c r="C303" t="s">
-        <v>46</v>
-      </c>
-      <c r="D303" t="n">
-        <v>3.776570555334279E-5</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>417</v>
-      </c>
-      <c r="B304" t="s">
-        <v>419</v>
-      </c>
-      <c r="C304" t="s">
-        <v>46</v>
-      </c>
-      <c r="D304" t="n">
-        <v>3.481698609181065E-5</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>417</v>
-      </c>
-      <c r="B305" t="s">
-        <v>420</v>
-      </c>
-      <c r="C305" t="s">
-        <v>46</v>
-      </c>
-      <c r="D305" t="n">
-        <v>3.207952811274165E-5</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>421</v>
-      </c>
-      <c r="B306" t="s">
-        <v>422</v>
-      </c>
-      <c r="C306" t="s">
-        <v>46</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2.9539830187902557E-5</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>421</v>
-      </c>
-      <c r="B307" t="s">
-        <v>423</v>
-      </c>
-      <c r="C307" t="s">
-        <v>46</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2.7185119321706207E-5</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>421</v>
-      </c>
-      <c r="B308" t="s">
-        <v>424</v>
-      </c>
-      <c r="C308" t="s">
-        <v>46</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2.5003322276000216E-5</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>425</v>
-      </c>
-      <c r="B309" t="s">
-        <v>426</v>
-      </c>
-      <c r="C309" t="s">
-        <v>15</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2.298303718800091E-5</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>425</v>
-      </c>
-      <c r="B310" t="s">
-        <v>427</v>
-      </c>
-      <c r="C310" t="s">
-        <v>15</v>
-      </c>
-      <c r="D310" t="n">
-        <v>2.1113505554607413E-5</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>425</v>
-      </c>
-      <c r="B311" t="s">
-        <v>428</v>
-      </c>
-      <c r="C311" t="s">
-        <v>15</v>
-      </c>
-      <c r="D311" t="n">
-        <v>1.9384584648952734E-5</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>429</v>
-      </c>
-      <c r="B312" t="s">
-        <v>430</v>
-      </c>
-      <c r="C312" t="s">
-        <v>15</v>
-      </c>
-      <c r="D312" t="n">
-        <v>1.7786720428066157E-5</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>429</v>
-      </c>
-      <c r="B313" t="s">
-        <v>431</v>
-      </c>
-      <c r="C313" t="s">
-        <v>15</v>
-      </c>
-      <c r="D313" t="n">
-        <v>1.6310920983808E-5</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>429</v>
-      </c>
-      <c r="B314" t="s">
-        <v>432</v>
-      </c>
-      <c r="C314" t="s">
-        <v>15</v>
-      </c>
-      <c r="D314" t="n">
-        <v>1.4948730582813329E-5</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>433</v>
-      </c>
-      <c r="B315" t="s">
-        <v>434</v>
-      </c>
-      <c r="C315" t="s">
-        <v>46</v>
-      </c>
-      <c r="D315" t="n">
-        <v>1.3692204335076681E-5</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>433</v>
-      </c>
-      <c r="B316" t="s">
-        <v>435</v>
-      </c>
-      <c r="C316" t="s">
-        <v>46</v>
-      </c>
-      <c r="D316" t="n">
-        <v>1.2533883525079985E-5</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>433</v>
-      </c>
-      <c r="B317" t="s">
-        <v>436</v>
-      </c>
-      <c r="C317" t="s">
-        <v>46</v>
-      </c>
-      <c r="D317" t="n">
-        <v>1.1466771633889667E-5</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>437</v>
-      </c>
-      <c r="B318" t="s">
-        <v>438</v>
-      </c>
-      <c r="C318" t="s">
-        <v>15</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1.0484311075549925E-5</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>437</v>
-      </c>
-      <c r="B319" t="s">
-        <v>439</v>
-      </c>
-      <c r="C319" t="s">
-        <v>15</v>
-      </c>
-      <c r="D319" t="n">
-        <v>9.580360666279299E-6</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>440</v>
-      </c>
-      <c r="B320" t="s">
-        <v>441</v>
-      </c>
-      <c r="C320" t="s">
-        <v>6</v>
-      </c>
-      <c r="D320" t="n">
-        <v>8.749173840547176E-6</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>440</v>
-      </c>
-      <c r="B321" t="s">
-        <v>442</v>
-      </c>
-      <c r="C321" t="s">
-        <v>6</v>
-      </c>
-      <c r="D321" t="n">
-        <v>7.985377623912255E-6</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>443</v>
-      </c>
-      <c r="B322" t="s">
-        <v>444</v>
-      </c>
-      <c r="C322" t="s">
-        <v>46</v>
-      </c>
-      <c r="D322" t="n">
-        <v>7.283952368686224E-6</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>443</v>
-      </c>
-      <c r="B323" t="s">
-        <v>445</v>
-      </c>
-      <c r="C323" t="s">
-        <v>46</v>
-      </c>
-      <c r="D323" t="n">
-        <v>6.640212254932615E-6</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>443</v>
-      </c>
-      <c r="B324" t="s">
-        <v>446</v>
-      </c>
-      <c r="C324" t="s">
-        <v>46</v>
-      </c>
-      <c r="D324" t="n">
-        <v>6.0497865560733006E-6</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>447</v>
-      </c>
-      <c r="B325" t="s">
-        <v>448</v>
-      </c>
-      <c r="C325" t="s">
-        <v>46</v>
-      </c>
-      <c r="D325" t="n">
-        <v>5.508601665419061E-6</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>447</v>
-      </c>
-      <c r="B326" t="s">
-        <v>449</v>
-      </c>
-      <c r="C326" t="s">
-        <v>46</v>
-      </c>
-      <c r="D326" t="n">
-        <v>5.012863877248767E-6</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>447</v>
-      </c>
-      <c r="B327" t="s">
-        <v>450</v>
-      </c>
-      <c r="C327" t="s">
-        <v>46</v>
-      </c>
-      <c r="D327" t="n">
-        <v>4.559042913660914E-6</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>451</v>
-      </c>
-      <c r="B328" t="s">
-        <v>452</v>
-      </c>
-      <c r="C328" t="s">
-        <v>6</v>
-      </c>
-      <c r="D328" t="n">
-        <v>4.143856186244248E-6</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>451</v>
-      </c>
-      <c r="B329" t="s">
-        <v>453</v>
-      </c>
-      <c r="C329" t="s">
-        <v>6</v>
-      </c>
-      <c r="D329" t="n">
-        <v>3.7642537797085785E-6</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>451</v>
-      </c>
-      <c r="B330" t="s">
-        <v>454</v>
-      </c>
-      <c r="C330" t="s">
-        <v>6</v>
-      </c>
-      <c r="D330" t="n">
-        <v>3.4174041429202044E-6</v>
+      <c r="D241">
+        <v>1.8391472708731843E-3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>